--- a/create cards for OZON WB XLS/Data_to_create.xlsx
+++ b/create cards for OZON WB XLS/Data_to_create.xlsx
@@ -568,7 +568,7 @@
     <t xml:space="preserve">OZN129588TEST</t>
   </si>
   <si>
-    <t xml:space="preserve">girl_hair_cloud</t>
+    <t xml:space="preserve">1_girl_with_cloud_hair</t>
   </si>
   <si>
     <t xml:space="preserve">https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/</t>
@@ -908,8 +908,8 @@
   </sheetPr>
   <dimension ref="A1:AP130"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AG1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AO2" activeCellId="0" sqref="AO2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AD1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AJ6" activeCellId="0" sqref="AJ6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -949,9 +949,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="27.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="21.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="20.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="36" style="0" width="12.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="0" width="25.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="37" style="0" width="12.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="0" width="25.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="0" width="22.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="0" width="22.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="43" style="0" width="12.63"/>
   </cols>
   <sheetData>
@@ -1098,8 +1099,8 @@
         <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\Термонаклейка Девушка волосы облако Тест.pdf</v>
       </c>
       <c r="E2" s="0" t="str">
-        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\dtf_a5\",A2,"_img.tif")</f>
-        <v>C:\work\baby prints\MainTop\tif\dtf_a5\Термонаклейка Девушка волосы облако Тест_img.tif</v>
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A2,"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Девушка волосы облако Тест_img.tif</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>1</v>
@@ -1154,7 +1155,7 @@
       </c>
       <c r="Y2" s="7" t="str">
         <f aca="false">CONCATENATE(CONCATENATE(H2,C2,"_1.jpg;"),CONCATENATE(H2,C2,"_2.jpg;"),CONCATENATE(H2,C2,"_3.jpg;"),CONCATENATE(H2,C2,"_4.jpg;"),CONCATENATE(H2,C2,"_5.jpg;"),CONCATENATE(H2,C2,"_6.jpg;"),CONCATENATE(H2,C2,"_7.jpg;"),CONCATENATE(H2,C2,"_8.jpg;"),CONCATENATE(H2,C2,"_9.jpg;"),CONCATENATE(H2,C2,"_10.jpg;"))</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/girl_hair_cloud_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/girl_hair_cloud_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/girl_hair_cloud_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/girl_hair_cloud_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/girl_hair_cloud_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/girl_hair_cloud_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/girl_hair_cloud_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/girl_hair_cloud_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/girl_hair_cloud_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/girl_hair_cloud_10.jpg;</v>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_10.jpg;</v>
       </c>
       <c r="AA2" s="8" t="s">
         <v>51</v>
@@ -1164,11 +1165,11 @@
       </c>
       <c r="AC2" s="0" t="str">
         <f aca="false">CONCATENATE(H2,C2,"_1.jpg;")</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/girl_hair_cloud_1.jpg;</v>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_1.jpg;</v>
       </c>
       <c r="AD2" s="0" t="str">
         <f aca="false">CONCATENATE(CONCATENATE(H2,C2,"_2.jpg;"),CONCATENATE(H2,C2,"_3.jpg;"),CONCATENATE(H2,C2,"_4.jpg;"),CONCATENATE(H2,C2,"_5.jpg;"),CONCATENATE(H2,C2,"_6.jpg;"),CONCATENATE(H2,C2,"_7.jpg;"),CONCATENATE(H2,C2,"_8.jpg;"),CONCATENATE(H2,C2,"_9.jpg;"),CONCATENATE(H2,C2,"_10.jpg;"))</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/girl_hair_cloud_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/girl_hair_cloud_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/girl_hair_cloud_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/girl_hair_cloud_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/girl_hair_cloud_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/girl_hair_cloud_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/girl_hair_cloud_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/girl_hair_cloud_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/girl_hair_cloud_10.jpg;</v>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_10.jpg;</v>
       </c>
       <c r="AE2" s="0" t="s">
         <v>53</v>
@@ -1182,6 +1183,10 @@
       </c>
       <c r="AI2" s="0" t="s">
         <v>55</v>
+      </c>
+      <c r="AJ2" s="7" t="str">
+        <f aca="false">CONCATENATE(H2,C2,"_color.jpg;")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_color.jpg;</v>
       </c>
       <c r="AL2" s="0" t="n">
         <v>2</v>

--- a/create cards for OZON WB XLS/Data_to_create.xlsx
+++ b/create cards for OZON WB XLS/Data_to_create.xlsx
@@ -9,6 +9,7 @@
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -25,11 +26,114 @@
     <author> </author>
   </authors>
   <commentList>
+    <comment ref="Z1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OZON:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Цена, которую покупатель увидит на сайте Ozon.
+Если на товар есть скидка, укажите цену после ее применения. </t>
+        </r>
+      </text>
+    </comment>
     <comment ref="AA1" authorId="0">
       <text>
         <r>
           <rPr>
-            <sz val="11"/>
+            <b val="true"/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OZON:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Ознакомьтесь с Требованиями к названию, чтобы указать правильное название товара и пройти модерацию. Вы можете не заполнять это поле — тогда название составится автоматически из обязательных характеристик: тип + бренд + модель + важные характеристики для категории. https://seller-edu.ozon.ru/docs/nazvanie.html</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AB1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OZON:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Цена, которую покупатель увидит на сайте Ozon.
+Если на товар есть скидка, укажите цену после ее применения. </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AC1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OZON:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Цена, от которой рассчитывается процент скидки. Отображается зачёркнутой рядом с актуальной ценой и помогает создать ощущение выгодной покупки. </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AD1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
@@ -49,7 +153,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB1" authorId="0">
+    <comment ref="AE1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -74,7 +178,166 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC1" authorId="0">
+    <comment ref="AF1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OZON:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Заполните поле, если такой товар уже продается на Ozon. Тогда блоки справа можно не заполнять </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AG1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OZON:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Введите штрихкод товара от производителя. В случае если у товара несколько штрихкодов укажите их через точку с запятой. Например: H123456;CH789012;1234567AB. https://docs.ozon.ru/partners/zagruzka-tovarov/rabota-so-shtrihkodami</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AH1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OZON:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Укажите вес единицы товара вместе с упаковкой в граммах. Введите только число. </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AI1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OZON:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Измерьте в миллиметрах любую сторону товара в заводской упаковке. Если упаковки нет, то сам товар.
+Изделие неправильной формы измерьте от одного края до другого.
+Комплект из нескольких позиций сложите вместе стопкой.
+Одежду, текстиль, наборы для вышивания сложите пополам в упаковке. https://seller-edu.ozon.ru/docs/work-with-goods/trebovaniya-k-kartochkam-tovarov/ovh.html#как-правильно-измерить-длину-ширину-и-высоту</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AJ1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OZON:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Измерьте в миллиметрах любую сторону товара в заводской упаковке. Если упаковки нет, то сам товар.
+Изделие неправильной формы измерьте от одного края до другого.
+Комплект из нескольких позиций сложите вместе стопкой.
+Одежду, текстиль, наборы для вышивания сложите пополам в упаковке. https://seller-edu.ozon.ru/docs/work-with-goods/trebovaniya-k-kartochkam-tovarov/ovh.html#как-правильно-измерить-длину-ширину-и-высоту</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AK1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OZON:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Измерьте в миллиметрах любую сторону товара в заводской упаковке. Если упаковки нет, то сам товар.
+Изделие неправильной формы измерьте от одного края до другого.
+Комплект из нескольких позиций сложите вместе стопкой.
+Одежду, текстиль, наборы для вышивания сложите пополам в упаковке. https://seller-edu.ozon.ru/docs/work-with-goods/trebovaniya-k-kartochkam-tovarov/ovh.html#как-правильно-измерить-длину-ширину-и-высоту</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AL1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -122,7 +385,997 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD1" authorId="0">
+    <comment ref="AM1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OZON:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Вы можете загрузить товары в xls-шаблоне и API без фото, а потом загрузить фото через карточку товара или раздел «Обновить изображения»
+Требования к изображениям
+- формат: jpeg, jpg, png;
+- разрешение: от 200px на 200px до 4320px на 7680px;
+- размер: не превышает 10МБ;
+- фон: белый или светлый. Для белых или прозрачных товаров допустим черный фон. Для категории товаров Одежда, обувь и аксессуары фон серый (#f2f3f5).
+- название: не может содержать символ «/».Нельзя использовать
+- изображения алкоголя;
+- эскизы товара (например, 3D-модели);
+- любые надписи (цены, логотипы, водяные знаки, контакты и пр);
+- чёрно-белые фото, фото с рамками и полосками;
+- размытые, нерезкие, некачественные фото;
+- фотографии сделанные в «домашних условиях»: на фоне ковра, мебели с тенями от других предметов.
+Требования к фото 18+
+На изображениях должны быть размыты или скрыты другим образом интимные части тела.
+Краткое требование к ссылкам
+Прямая ссылка на изображение
+Если загружаете дополнительные фотографии по отдельности, поочерёдно прикрепите ссылки для каждого изображения. Ограничение по количеству – 14 штук. По ссылкам должны открываться и скачиваться только сами изображения. Обычно такие ссылки заканчиваются символами: *.jpeg, *.jpg, *.png, но есть исключение – ссылки на Яндекс.Диск. Они доступны в формате https://yadi.sk/i/qUXcCwzmryWINw или https://disk.yandex.ru/i/qUXcCwzmryWINw. Разделите ссылки пробелом или знаком переноса строки.
+Правильная ссылка:
+- не содержит дополнительных портов;
+- не ведет на HTML-страницу с изображением. Например, нельзя указывать ссылку на обзор товара, в котором есть фотографии;
+- не требует авторизации для доступа к изображению.
+Ссылка на папку с изображениями
+Можно использовать ссылку на папку с изображениями на Я.Диске. Например, https://yadi.sk/d/qUXcCwzmryWINw или https://disk.yandex.ru/d/qUXcCwzmryWINw
+В качестве дополнительных фото будут использованы 14 изображений из папки.  Если вы хотите, чтобы картинки загрузились в нужном порядке, пронумеруйте их названия. Например, «1», «2», «3» или «фото1», «фото2», «фото3».
+Подробнее о требованиях можно узнать в https://seller-edu.ozon.ru/work-with-goods/trebovaniya-k-kartochkam-tovarov/media/foto-i-video-tovara</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AN1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OZON:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Требования к изображениям
+- формат: jpeg, jpg, png;
+- разрешение: от 200px на 200px до 4320px на 7680px;
+- размер: не привышает 10МБ;
+- фон: белый или светлый. Для белых или прозрачных товаров допустим черный фон. Для категории товаров Одежда, обувь и аксессуары фон серый (#f2f3f5).
+- название: не может содержать символ «/».
+Подробнее о требованиях можно узнать в инструкции https://seller-edu.ozon.ru/docs/work-with-goods/trebovania/trebovania-k-izobrazheniyam.html
+Нельзя использовать
+- изображения алкоголя;
+- эскизы товара (например, 3D-модели);
+- любые надписи (цены, логотипы, водяные знаки, контакты и пр);
+- чёрно-белые фото, фото с рамками и полосками;
+- размытые, нерезкие, некачественные фото;
+- фотографии сделанные в «домашних условиях»: на фоне ковра, мебели с тенями от других предметов.
+Требования к фото 18+
+На изображениях должны быть размыты или скрыты другим образом интимные части тела.
+Краткое требование к ссылкам
+Ссылка на папку с изображениями (рекомендуем использовать)
+Можно использовать ссылку на папку с изображениями на Я.Диске. Например, https://yadi.sk/d/qUXcCwzmryWINw или https://disk.yandex.ru/d/qUXcCwzmryWINw.
+Убедитесь, что в вашей папке имеется от 15 до 70 изображений. Если вы хотите, чтобы картинки загрузились в правильном порядке, пронумеруйте их названия. Например, «1», «2», «3» или «фото1», «фото2», «фото3».
+Ссылка на одно изображение
+Если загружаете фотографии по отдельности, поочерёдно прикрепите ссылки для каждого изображения. Ограничение по количеству – от 15 до 70 штук, но мы рекомендуем добавлять от 36 до 70. По ссылкам должны открываться и скачиваться только сами изображения. Обычно такие ссылки заканчиваются символами: *.jpeg, *.jpg, *.png, но есть исключение – ссылки на Яндекс.Диск. Они доступны в формате https://yadi.sk/i/qUXcCwzmryWINw или https://disk.yandex.ru/i/qUXcCwzmryWINw. Разделите ссылки пробелом или знаком переноса строки.
+Правильная ссылка:
+- не содержит дополнительных портов;
+- не ведет на HTML-страницу с изображением. Например, нельзя указывать ссылку на обзор товара, в котором есть фотографии;
+- не требует авторизации для доступа к изображению. </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AO1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OZON:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Название файла с изображением товара.
+ Запрещенные символы: "/" и "_". </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AP1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OZON:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Укажите наименование бренда, под которым произведен товар. Если товар не имеет бренда, используйте значение "Нет бренда". </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AQ1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OZON:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Укажите название модели товара. Не указывайте в этом поле тип и бренд. </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AR1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OZON:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Сколько единиц товара будет продано клиенту за указанную цену. Например, 6 бутылок воды в одной упаковке или 12 паучей корма в одной упаковке. Если продаете товар поштучно, укажите в этом поле 1.  </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AS1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OZON:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Укажите базовый или доминирующий цвет вашего товара, выбрав значение из списка. Если точного соответствия вы не находите, используйте ближайшие похожие цвета. 
+Сложные цвета нужно описывать перечислением простых цветов. Например, если вы описываете шмеля, и у него, очевидно, преобладают чёрный, жёлтый и белый цвета, то укажите их все простым перечислением. 
+Помните, что атрибут Цвет товара - это базовый цвет, все любые другие цвета вы можете прописать в атрибуте Название цвета.
+ </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AT1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OZON:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Укажите словесное описание цвета вашего товара. Если товар имеет красивое название цвета от поставщика, не ограничивайте себя, укажите его. Для косметики смело пишите номера тонов и оттенков, и даже "Нежная голубая лазурь" будет уместна. </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AU1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OZON:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Выберите наиболее подходящий тип товара. По типам товары распределяются по категориям на сайте Ozon. Если тип указан неправильно, товар попадет в неверную категорию. Чтобы правильно указать тип, найдите на сайте Ozon товары, похожие на ваш, и посмотрите, какой тип у них указан. </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AV1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OZON:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Описание товара, маркетинговый текст. Необходимо заполнять на русском языке. </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AW1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OZON:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Укажите гарантийный срок. Гарантийный срок – это период, в течение которого изготовитель гарантирует качество товара и обязуется принять данный товар у потребителя для проведения проверки качества (экспертизы) и выполнения предусмотренных законом требований. </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AX1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OZON:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Выберите одно или несколько значений из списка. В xls-файле варианты заполняются через точку с запятой (;) без пробелов. </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AY1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OZON:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Необходимо указать значение без единицы измерения. </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AZ1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OZON:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Необходимо указать значение без единицы измерения. </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BA1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OZON:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Выберите одно или несколько значений из списка. В xls-файле варианты заполняются через точку с запятой (;) без пробелов. </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BB1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OZON:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Необходимо указать значение без единицы измерения. </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BC1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OZON:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">ВАЖНО!!! Признак для товаров, которые содержат эротику, сцены секса, изображения с нецензурными выражениями, даже если они написаны частично или со спец. символами, а также для товаров категории 18+ (только для взрослых). </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BD1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OZON:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Выберите одно или несколько значений из списка. В xls-файле варианты заполняются через точку с запятой (;) без пробелов. </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BE1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OZON:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Если цвет вашего товара настолько привлекателен, что заслуживает показа на сайте в виде маленькой миниатюры - загружайте сюда его образец. Это может быть крупный фрагмент товара, мазок краски или помады. Главное помните, что это всего лишь миниатюра, не заливайте изображения, содержащие текст или какие-либо пояснительные рисунки, наш сайт сделает его очень маленьким. Проще говоря, если вместо стандартных кружочков простых цветов выбора варианта товара вы желаете показать клиенту реальный цвет, смело заливайте сюда изображение </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BF1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OZON:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Выберите одно или несколько значений из списка, но не больше 3. В xls-файле варианты заполняются через точку с запятой (;) без пробелов. </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BG1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OZON:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Добавьте расширенное описание товара с фото и видео по шаблону в формате JSON. Подробнее: https://seller-edu.ozon.ru/docs/work-with-goods/dobavlenie-rich-kontenta-json.html </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BH1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OZON:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Сколько заводских упаковок вы собрали вместе и теперь продаете, как одно SKU.
+Если ваш товар - это 24 банки детского пюре, запаянных в 1 упаковку на заводе, и в таком же виде этот товар может продаваться в других магазинах - значение атрибута будет 1.
+Если ваш товар - это 3 лампочки, запаянные или связанные в одну упаковку вами, и вы решили их объединить самостоятельно (а завод выпускает лампочки в упаковках, например, 1 шт. и 10 шт.) - значение атрибута будет 3. </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BI1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OZON:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Укажите минимальный рекомендованный возраст ребенка. Обратите внимание: в списке идут сначала месяцы, а затем годы  </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BJ1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OZON:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Укажите максимальный рекомендованный возраст ребенка. Если такового нет - выберите значение \До 18 лет\. Обратите внимание: в списке идут сначала месяцы, а затем годы  </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BK1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OZON:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Укажите пол ребенка, для которого рекомендован товар. Если нет явной гендерной принадлежности - выберите значение "Унисекс" </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BL1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OZON:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Выберите одно значение из списка или оставьте пустым, если ваш товар не требует маркировки </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BM1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OZON:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Через точку с запятой укажите ключевые слова и словосочетания, которые описывают ваш товар. Используйте только соответствующие фактическому товару значения. </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BN1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OZON:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Введите одинаковое значение в этом атрибуте для объединения товаров в серию. Обратите внимание, что товары в серии собираются внутри одного бренда, если у товаров будет указана одна серия и разные бренды - вы получите две разные серии. Подробнее об объединении в серии можно прочитать тут https://seller-edu.ozon.ru/work-with-goods/zagruzka-tovarov/created-goods/obedinenie-tovarov-v-seriu </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BO1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OZON:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Данное поле предназначено для заполнения только продавцам из Турции.
+Перейдите на сайт https://uygulama.gtb.gov.tr/Tara/, укажите ваш товар - в ответе будет указан код, который нужно вставить в данное поле. Код состоит из набора цифр длиной от 6 до 12 знаков.
+Подробнее про HS-коды и для чего они нужны можно узнать здесь https://docs.ozon.ru/global/fulfillment/rfbs/logistic-settings/selling-from-turkey/?country=TR </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BP1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OZON:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Критичная ошибка в характеристиках товара. Товар с ошибками не будет продаваться. </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BQ1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OZON:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Устаревшее или незаполненное значение в характеристиках товара. Возникает при изменениях в атрибутной модели и не влияет на продажу товара. </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BR1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OZON:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Укажите название для видео </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BS1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OZON:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Загрузите файл в формате MP4, WebM, MOV, QT, FLV, AVI. Размер файла не должен превышать 5ГБ </t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <authors>
+    <author> </author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OZON:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Укажите ставку НДС. Если товар не облагается НДС или вы не платите НДС, укажите Не облагается. </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OZON:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Выберите «Да», чтобы покупатели видели ваш товар чаще. </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OZON:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Вы можете загрузить товары в xls-шаблоне и API без фото, а потом загрузить фото через карточку товара или раздел «Обновить изображения»
+Требования к изображениям
+- формат: jpeg, jpg, png;
+- разрешение: от 200px на 200px до 4320px на 7680px;
+- размер: не привышает 10МБ;
+- фон: белый или светлый. Для белых или прозрачных товаров допустим черный фон. Для категории товаров Одежда, обувь и аксессуары фон серый (#f2f3f5);
+название: не может содержать символы «/» и «_».Нельзя использовать
+- изображения алкоголя;
+- эскизы товара (например, 3D-модели);
+- любые надписи (цены, логотипы, водяные знаки, контакты и пр);
+- чёрно-белые фото, фото с рамками и полосками;
+- размытые, нерезкие, некачественные фото;
+- фотографии сделанные в «домашних условиях»: на фоне ковра, мебели с тенями от других предметов.
+Требования к фото 18+
+На изображениях должны быть размыты или скрыты другим образом интимные части тела.
+Краткое требование к ссылкам
+Для загрузки главного фото можно добавить только одну ссылку, лишние ссылки не будут использованы.
+Прямая ссылка на изображение
+По ссылкам должны открываться и скачиваться только сами изображения. Обычно такие ссылки заканчиваются символами: *.jpeg, *.jpg, *.png, но есть исключение – ссылки на Яндекс.Диск. Они доступны в формате https://yadi.sk/i/qUXcCwzmryWINw или https://disk.yandex.ru/i/qUXcCwzmryWINw
+Правильная ссылка:
+- не содержит дополнительных портов;
+- не ведет на HTML-страницу с изображением. Например, нельзя указывать ссылку на обзор товара, в котором есть фотографии;
+- не требует авторизации для доступа к изображению.
+Подробнее о требованиях можно узнать в https://seller-edu.ozon.ru/work-with-goods/trebovaniya-k-kartochkam-tovarov/media/foto-i-video-tovara</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -161,7 +1414,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE1" authorId="0">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -175,7 +1428,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF1" authorId="0">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -203,7 +1456,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AG1" authorId="0">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -228,7 +1481,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AH1" authorId="0">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -253,7 +1506,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AI1" authorId="0">
+    <comment ref="J1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -278,7 +1531,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AJ1" authorId="0">
+    <comment ref="K1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -303,7 +1556,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AK1" authorId="0">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -328,7 +1581,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AL1" authorId="0">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -345,7 +1598,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AM1" authorId="0">
+    <comment ref="N1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -362,7 +1615,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AN1" authorId="0">
+    <comment ref="O1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -379,7 +1632,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AO1" authorId="0">
+    <comment ref="P1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -404,7 +1657,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AP1" authorId="0">
+    <comment ref="Q1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -434,7 +1687,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="88">
   <si>
     <t xml:space="preserve">Артикул</t>
   </si>
@@ -514,21 +1767,60 @@
     <t xml:space="preserve">OZON</t>
   </si>
   <si>
+    <t xml:space="preserve">Название товара</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Цена, руб.*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Цена до скидки, руб.</t>
+  </si>
+  <si>
     <t xml:space="preserve">НДС, %*</t>
   </si>
   <si>
     <t xml:space="preserve">Включить продвижение</t>
   </si>
   <si>
+    <t xml:space="preserve">Ozon ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Штрихкод (Серийный номер / EAN)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вес в упаковке, г*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ширина упаковки, мм*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Высота упаковки, мм*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Длина упаковки, мм*</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ссылка на главное фото*</t>
   </si>
   <si>
     <t xml:space="preserve">Ссылки на дополнительные фото</t>
   </si>
   <si>
+    <t xml:space="preserve">Ссылки на фото 360</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Артикул фото</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Бренд*</t>
+  </si>
+  <si>
     <t xml:space="preserve">Название модели (для объединения в одну карточку)*</t>
   </si>
   <si>
+    <t xml:space="preserve">Единиц в одном товаре</t>
+  </si>
+  <si>
     <t xml:space="preserve">Цвет товара</t>
   </si>
   <si>
@@ -541,19 +1833,67 @@
     <t xml:space="preserve">Аннотация</t>
   </si>
   <si>
+    <t xml:space="preserve">Гарантийный срок</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Страна-изготовитель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Длина, см</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Длина, м</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Материал</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Количество в упаковке, шт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Признак 18+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Целевая аудитория</t>
+  </si>
+  <si>
     <t xml:space="preserve">Образец цвета</t>
   </si>
   <si>
+    <t xml:space="preserve">Вид принта</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rich-контент JSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Количество заводских упаковок</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Минимальный возраст ребенка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Максимальный возраст ребенка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пол ребенка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТН ВЭД коды ЕАЭС</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ключевые слова</t>
   </si>
   <si>
-    <t xml:space="preserve">Ширина упаковки, мм*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Высота упаковки, мм*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Длина упаковки, мм*</t>
+    <t xml:space="preserve">Название серии</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HS-код</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ошибка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Предупреждение</t>
   </si>
   <si>
     <t xml:space="preserve">Озон.Видео: название</t>
@@ -562,10 +1902,7 @@
     <t xml:space="preserve">Озон.Видео: ссылка</t>
   </si>
   <si>
-    <t xml:space="preserve">Термонаклейка Девушка волосы облако Тест</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OZN129588TEST</t>
+    <t xml:space="preserve">Термонаклейка Девушка волосы облако Тест10</t>
   </si>
   <si>
     <t xml:space="preserve">1_girl_with_cloud_hair</t>
@@ -583,32 +1920,37 @@
     <t xml:space="preserve">Полимерный материал</t>
   </si>
   <si>
-    <t xml:space="preserve">Термонаклейка на одежду. Приклеивается на любую ткань. Выдерживают многократную стирку. Бережная стирка при 30º градусах. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.
-Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. Так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термостикеры идеально подходит для детской и взрослой одежды. Все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. Аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись или номера. Термозаплатки или переводка может использоваться для ремонта одежды для дырок. Термотрансфер служит для термозаплаток. Самоклейки это как переводки или термо наклейки. Термоклеевая наклейка устойчива к стирке. Термонаклейка - это прекрасный способ добавить индивидуальность и стиль вашей одежде. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Россия</t>
   </si>
   <si>
     <t xml:space="preserve">Не облагается</t>
   </si>
   <si>
+    <t xml:space="preserve">Нет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DTF A4 set1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">черный матовый</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Детская</t>
+  </si>
+  <si>
+    <t xml:space="preserve">инструкция_dtf.mp4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Video_DTF.mp4</t>
+  </si>
+  <si>
     <t xml:space="preserve">нет</t>
   </si>
   <si>
-    <t xml:space="preserve">DTF A5 set1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Наши детские термонаклейки для одежды помогут сделать любую вещь уникальной и неповторимой! Вам понадобится только горячий утюг, декор для одежды, инструкция и пара минут. Принт яркий, сочный и стойкий к износу и стирке. Термотрансферы хорошо тянутся, не трескаются и не отклеиваются при стирке. Термоаппликация - это оригинальный способ украсить или пометить новую одежду, спрятать пятна, мелкие дефекты и повреждения. Легко клеится обычным утюгом и подходит для большинства типов тканей. Наши аппликации можно наносить как на натуральный, синтетический, так и смесовый текстиль, хлопок, джинсу, кожу, экокожу. Отлично подойдут для украшения кукольной одежды. Все наклейки для одежды изготовлены из современного качественного материала. Мы гарантируем отличное приклеивание принта на однотонные или цветные ткани.Наклейки очень просты в применении: нужно просто вырезать наклейку (если используете только часть рисунка), приложить к ткани и пройти утюгом.Главное сделать все по инструкции, которая вместе с тестером прилагается в каждом наборе, ничего сложного в переносе нет, 10 секунд Вашего времени и красотища!Размер наклейки 12см*12см.По всем вопросам пишите нам в карточку, с радостью Вам поможем! Приятного творчества!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">инструкция_dtf.mp4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Video_DTF.mp4</t>
+    <t xml:space="preserve">белый</t>
   </si>
 </sst>
 </file>
@@ -619,7 +1961,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -646,26 +1988,18 @@
       <charset val="204"/>
     </font>
     <font>
+      <b val="true"/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
+      <b val="true"/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -683,13 +2017,22 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <charset val="204"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -704,19 +2047,31 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBF819E"/>
+        <bgColor rgb="FF808080"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -776,28 +2131,28 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -805,27 +2160,55 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -841,7 +2224,7 @@
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFDFDFD"/>
+      <rgbColor rgb="FFFFFFFF"/>
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
@@ -858,7 +2241,7 @@
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFFDFDFD"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
@@ -887,7 +2270,7 @@
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FFBF819E"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
@@ -906,10 +2289,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AP130"/>
+  <dimension ref="A1:BS130"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AD1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AJ6" activeCellId="0" sqref="AJ6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -917,22 +2300,22 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="43.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="90.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="50.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="104.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="76.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="20.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="49.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="66.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="19.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="25.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="25.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="23.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="44.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="16.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="50.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="55.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="18.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="22.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="12.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="30.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="37.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="22.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="18.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="20.56"/>
@@ -943,111 +2326,115 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="17.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="18.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="16.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="12.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="17.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="12.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="27.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="30" style="0" width="17.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="22.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="34.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="21.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="20.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="33.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="0" width="25.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="37" style="0" width="12.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="0" width="45.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="0" width="14.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="0" width="87.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="0" width="12.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="0" width="25.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="0" width="22.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="43" style="0" width="12.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="56" min="43" style="0" width="12.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="57" min="57" style="0" width="19.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="58" style="0" width="12.63"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="0" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="0" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="0" t="s">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="0" t="s">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="0" t="s">
+      <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="0" t="s">
+      <c r="X1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="0" t="s">
+      <c r="Y1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="Z1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AA1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AB1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AC1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AD1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AE1" s="5" t="s">
         <v>30</v>
       </c>
       <c r="AF1" s="5" t="s">
@@ -1059,48 +2446,132 @@
       <c r="AH1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="5" t="s">
+      <c r="AI1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="5" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="5" t="s">
+      <c r="AK1" s="4" t="s">
         <v>36</v>
       </c>
       <c r="AL1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="4" t="s">
+      <c r="AM1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="4" t="s">
+      <c r="AN1" s="5" t="s">
         <v>39</v>
       </c>
       <c r="AO1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="5" t="s">
+      <c r="AP1" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="AQ1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="124.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="D2" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\", A2, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\Термонаклейка Девушка волосы облако Тест.pdf</v>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\Термонаклейка Девушка волосы облако Тест10.pdf</v>
       </c>
       <c r="E2" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A2,"_img.tif")</f>
-        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Девушка волосы облако Тест_img.tif</v>
+        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Девушка волосы облако Тест10_img.tif</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>1</v>
@@ -1109,34 +2580,35 @@
         <v>1</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="M2" s="0" t="str">
         <f aca="false">A2</f>
-        <v>Термонаклейка Девушка волосы облако Тест</v>
+        <v>Термонаклейка Девушка волосы облако Тест10</v>
       </c>
       <c r="O2" s="0" t="str">
         <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(A2, "Термонаклейка", "")</f>
-        <v>Термонаклейка для одежды: Девушка волосы облако Тест</v>
-      </c>
-      <c r="P2" s="0" t="str">
+        <v>Термонаклейка для одежды: Девушка волосы облако Тест10</v>
+      </c>
+      <c r="P2" s="0" t="n">
         <f aca="false">B2</f>
-        <v>OZN129588TEST</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="0" t="n">
         <v>285</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>49</v>
+        <v>76</v>
+      </c>
+      <c r="S2" s="6" t="str">
+        <f aca="false">CONCATENATE(A2,". Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись ")</f>
+        <v>Термонаклейка Девушка волосы облако Тест10. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись </v>
       </c>
       <c r="T2" s="0" t="n">
         <v>1</v>
@@ -1151,475 +2623,516 @@
         <v>12</v>
       </c>
       <c r="X2" s="0" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="Y2" s="7" t="str">
         <f aca="false">CONCATENATE(CONCATENATE(H2,C2,"_1.jpg;"),CONCATENATE(H2,C2,"_2.jpg;"),CONCATENATE(H2,C2,"_3.jpg;"),CONCATENATE(H2,C2,"_4.jpg;"),CONCATENATE(H2,C2,"_5.jpg;"),CONCATENATE(H2,C2,"_6.jpg;"),CONCATENATE(H2,C2,"_7.jpg;"),CONCATENATE(H2,C2,"_8.jpg;"),CONCATENATE(H2,C2,"_9.jpg;"),CONCATENATE(H2,C2,"_10.jpg;"))</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_10.jpg;</v>
       </c>
-      <c r="AA2" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB2" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC2" s="0" t="str">
-        <f aca="false">CONCATENATE(H2,C2,"_1.jpg;")</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_1.jpg;</v>
-      </c>
-      <c r="AD2" s="0" t="str">
-        <f aca="false">CONCATENATE(CONCATENATE(H2,C2,"_2.jpg;"),CONCATENATE(H2,C2,"_3.jpg;"),CONCATENATE(H2,C2,"_4.jpg;"),CONCATENATE(H2,C2,"_5.jpg;"),CONCATENATE(H2,C2,"_6.jpg;"),CONCATENATE(H2,C2,"_7.jpg;"),CONCATENATE(H2,C2,"_8.jpg;"),CONCATENATE(H2,C2,"_9.jpg;"),CONCATENATE(H2,C2,"_10.jpg;"))</f>
+      <c r="AA2" s="0" t="str">
+        <f aca="false">A2</f>
+        <v>Термонаклейка Девушка волосы облако Тест10</v>
+      </c>
+      <c r="AB2" s="0" t="n">
+        <f aca="false">Q2</f>
+        <v>285</v>
+      </c>
+      <c r="AC2" s="0" t="n">
+        <f aca="false">ROUND(AB2*1.5,0)</f>
+        <v>428</v>
+      </c>
+      <c r="AD2" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE2" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG2" s="10"/>
+      <c r="AH2" s="0" t="n">
+        <f aca="false">W2</f>
+        <v>12</v>
+      </c>
+      <c r="AI2" s="11" t="n">
+        <v>180</v>
+      </c>
+      <c r="AJ2" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK2" s="11" t="n">
+        <v>210</v>
+      </c>
+      <c r="AL2" s="11" t="str">
+        <f aca="false">CONCATENATE(H2,C2,"_1.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_1.jpg</v>
+      </c>
+      <c r="AM2" s="12" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(H2, C2, "_2.jpg;"),CONCATENATE(H2, C2, "_3.jpg;"),CONCATENATE(H2, C2, "_4.jpg;"),CONCATENATE(H2, C2, "_5.jpg;"),CONCATENATE(H2, C2, "_6.jpg;"),CONCATENATE(H2, C2, "_7.jpg;"),CONCATENATE(H2, C2, "_8.jpg;"),CONCATENATE(H2, C2, "_9.jpg;"),CONCATENATE(H2, C2, "_10.jpg;") )</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_10.jpg;</v>
       </c>
-      <c r="AE2" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="AG2" s="0" t="str">
+      <c r="AP2" s="11" t="str">
+        <f aca="false">J2</f>
+        <v>Punky Monkey</v>
+      </c>
+      <c r="AQ2" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS2" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="AT2" s="0" t="str">
         <f aca="false">SUBSTITUTE(A2,"Термонаклейка ","")</f>
-        <v>Девушка волосы облако Тест</v>
-      </c>
-      <c r="AH2" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="AI2" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="AJ2" s="7" t="str">
-        <f aca="false">CONCATENATE(H2,C2,"_color.jpg;")</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_color.jpg;</v>
-      </c>
-      <c r="AL2" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="AM2" s="0" t="n">
-        <v>180</v>
-      </c>
-      <c r="AN2" s="0" t="n">
-        <v>210</v>
-      </c>
-      <c r="AO2" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="AP2" s="10" t="s">
-        <v>57</v>
+        <v>Девушка волосы облако Тест10</v>
+      </c>
+      <c r="AU2" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AV2" s="0" t="str">
+        <f aca="false">S2</f>
+        <v>Термонаклейка Девушка волосы облако Тест10. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись </v>
+      </c>
+      <c r="AX2" s="0" t="str">
+        <f aca="false">X2</f>
+        <v>Россия</v>
+      </c>
+      <c r="BA2" s="0" t="str">
+        <f aca="false">R2</f>
+        <v>Полимерный материал</v>
+      </c>
+      <c r="BC2" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="BD2" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="BE2" s="12" t="str">
+        <f aca="false">CONCATENATE(H2,C2,"_color.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_color.jpg</v>
+      </c>
+      <c r="BM2" s="0" t="str">
+        <f aca="false">CONCATENATE("термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля,",SUBSTITUTE(A2,"Термонаклейка",""))</f>
+        <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Девушка волосы облако Тест10</v>
+      </c>
+      <c r="BR2" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS2" s="15" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11"/>
-      <c r="C3" s="1"/>
-      <c r="X3" s="12"/>
-      <c r="AA3" s="8"/>
-      <c r="AP3" s="10"/>
+      <c r="A3" s="8"/>
+      <c r="C3" s="16"/>
+      <c r="X3" s="14"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11"/>
-      <c r="C4" s="1"/>
-      <c r="AA4" s="8"/>
+      <c r="A4" s="8"/>
+      <c r="C4" s="16"/>
+      <c r="AA4" s="17"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11"/>
-      <c r="AA5" s="8"/>
+      <c r="A5" s="8"/>
+      <c r="AA5" s="17"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11"/>
-      <c r="AA6" s="8"/>
+      <c r="A6" s="8"/>
+      <c r="AA6" s="17"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11"/>
-      <c r="AA7" s="8"/>
+      <c r="A7" s="8"/>
+      <c r="AA7" s="17"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11"/>
-      <c r="AA8" s="8"/>
+      <c r="A8" s="8"/>
+      <c r="AA8" s="17"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11"/>
-      <c r="AA9" s="8"/>
+      <c r="A9" s="8"/>
+      <c r="AA9" s="17"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="11"/>
-      <c r="AA10" s="8"/>
+      <c r="A10" s="8"/>
+      <c r="AA10" s="17"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="11"/>
-      <c r="AA11" s="8"/>
+      <c r="A11" s="8"/>
+      <c r="AA11" s="17"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="11"/>
-      <c r="AA12" s="8"/>
+      <c r="A12" s="8"/>
+      <c r="AA12" s="17"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11"/>
-      <c r="AA13" s="8"/>
+      <c r="A13" s="8"/>
+      <c r="AA13" s="17"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="11"/>
-      <c r="AA14" s="8"/>
+      <c r="A14" s="8"/>
+      <c r="AA14" s="17"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="11"/>
-      <c r="AA15" s="8"/>
+      <c r="A15" s="8"/>
+      <c r="AA15" s="17"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="11"/>
-      <c r="AA16" s="8"/>
+      <c r="A16" s="8"/>
+      <c r="AA16" s="17"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="11"/>
-      <c r="AA17" s="8"/>
+      <c r="A17" s="8"/>
+      <c r="AA17" s="17"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="11"/>
-      <c r="AA18" s="8"/>
+      <c r="A18" s="8"/>
+      <c r="AA18" s="17"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="11"/>
-      <c r="AA19" s="8"/>
+      <c r="A19" s="8"/>
+      <c r="AA19" s="17"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="11"/>
-      <c r="AA20" s="8"/>
+      <c r="A20" s="8"/>
+      <c r="AA20" s="17"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="11"/>
-      <c r="AA21" s="8"/>
+      <c r="A21" s="8"/>
+      <c r="AA21" s="17"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="11"/>
-      <c r="AA22" s="8"/>
+      <c r="A22" s="8"/>
+      <c r="AA22" s="17"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="11"/>
-      <c r="AA23" s="8"/>
+      <c r="A23" s="8"/>
+      <c r="AA23" s="17"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="11"/>
-      <c r="AA24" s="8"/>
+      <c r="A24" s="8"/>
+      <c r="AA24" s="17"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="11"/>
-      <c r="AA25" s="8"/>
+      <c r="A25" s="8"/>
+      <c r="AA25" s="17"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="11"/>
-      <c r="AA26" s="8"/>
+      <c r="A26" s="8"/>
+      <c r="AA26" s="17"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="11"/>
-      <c r="AA27" s="8"/>
+      <c r="A27" s="8"/>
+      <c r="AA27" s="17"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="11"/>
-      <c r="AA28" s="8"/>
+      <c r="A28" s="8"/>
+      <c r="AA28" s="17"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="11"/>
-      <c r="AA29" s="8"/>
+      <c r="A29" s="8"/>
+      <c r="AA29" s="17"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="11"/>
-      <c r="AA30" s="8"/>
+      <c r="A30" s="8"/>
+      <c r="AA30" s="17"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="11"/>
-      <c r="AA31" s="8"/>
+      <c r="A31" s="8"/>
+      <c r="AA31" s="17"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="11"/>
-      <c r="AA32" s="8"/>
+      <c r="A32" s="8"/>
+      <c r="AA32" s="17"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="11"/>
-      <c r="AA33" s="8"/>
+      <c r="A33" s="8"/>
+      <c r="AA33" s="17"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="11"/>
-      <c r="AA34" s="8"/>
+      <c r="A34" s="8"/>
+      <c r="AA34" s="17"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="11"/>
-      <c r="AA35" s="8"/>
+      <c r="A35" s="8"/>
+      <c r="AA35" s="17"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="11"/>
-      <c r="AA36" s="8"/>
+      <c r="A36" s="8"/>
+      <c r="AA36" s="17"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="11"/>
-      <c r="AA37" s="8"/>
+      <c r="A37" s="8"/>
+      <c r="AA37" s="17"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="11"/>
-      <c r="AA38" s="8"/>
+      <c r="A38" s="8"/>
+      <c r="AA38" s="17"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="11"/>
-      <c r="AA39" s="8"/>
+      <c r="A39" s="8"/>
+      <c r="AA39" s="17"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="11"/>
-      <c r="AA40" s="8"/>
+      <c r="A40" s="8"/>
+      <c r="AA40" s="17"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="11"/>
-      <c r="AA41" s="8"/>
+      <c r="A41" s="8"/>
+      <c r="AA41" s="17"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="11"/>
-      <c r="AA42" s="8"/>
+      <c r="A42" s="8"/>
+      <c r="AA42" s="17"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="11"/>
-      <c r="AA43" s="8"/>
+      <c r="A43" s="8"/>
+      <c r="AA43" s="17"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="11"/>
-      <c r="AA44" s="8"/>
+      <c r="A44" s="8"/>
+      <c r="AA44" s="17"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="11"/>
-      <c r="AA45" s="8"/>
+      <c r="A45" s="8"/>
+      <c r="AA45" s="17"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="11"/>
-      <c r="AA46" s="8"/>
+      <c r="A46" s="8"/>
+      <c r="AA46" s="17"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="11"/>
+      <c r="A47" s="8"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="11"/>
+      <c r="A48" s="8"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="11"/>
+      <c r="A49" s="8"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="11"/>
+      <c r="A50" s="8"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="11"/>
+      <c r="A51" s="8"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="11"/>
+      <c r="A52" s="8"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="11"/>
+      <c r="A53" s="8"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="11"/>
+      <c r="A54" s="8"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="11"/>
+      <c r="A55" s="8"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="11"/>
+      <c r="A56" s="8"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="11"/>
+      <c r="A57" s="8"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="11"/>
+      <c r="A58" s="8"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="11"/>
+      <c r="A59" s="8"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="11"/>
+      <c r="A60" s="8"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="11"/>
+      <c r="A61" s="8"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="11"/>
+      <c r="A62" s="8"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="11"/>
+      <c r="A63" s="8"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="11"/>
+      <c r="A64" s="8"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="11"/>
+      <c r="A65" s="8"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="11"/>
+      <c r="A66" s="8"/>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="11"/>
+      <c r="A67" s="8"/>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="11"/>
+      <c r="A68" s="8"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="11"/>
+      <c r="A69" s="8"/>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="11"/>
+      <c r="A70" s="8"/>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="11"/>
+      <c r="A71" s="8"/>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="11"/>
+      <c r="A72" s="8"/>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="11"/>
+      <c r="A73" s="8"/>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="11"/>
+      <c r="A74" s="8"/>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="11"/>
+      <c r="A75" s="8"/>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="11"/>
+      <c r="A76" s="8"/>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="11"/>
+      <c r="A77" s="8"/>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="11"/>
+      <c r="A78" s="8"/>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="11"/>
+      <c r="A79" s="8"/>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="11"/>
+      <c r="A80" s="8"/>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="11"/>
+      <c r="A81" s="8"/>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="11"/>
+      <c r="A82" s="8"/>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="11"/>
+      <c r="A83" s="8"/>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="11"/>
+      <c r="A84" s="8"/>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="11"/>
+      <c r="A85" s="8"/>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="11"/>
+      <c r="A86" s="8"/>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="11"/>
+      <c r="A87" s="8"/>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="11"/>
+      <c r="A88" s="8"/>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="11"/>
+      <c r="A89" s="8"/>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="11"/>
+      <c r="A90" s="8"/>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="11"/>
+      <c r="A91" s="8"/>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="11"/>
+      <c r="A92" s="8"/>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="11"/>
+      <c r="A93" s="8"/>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="11"/>
+      <c r="A94" s="8"/>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="11"/>
+      <c r="A95" s="8"/>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="11"/>
+      <c r="A96" s="8"/>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="11"/>
+      <c r="A97" s="8"/>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="11"/>
+      <c r="A98" s="8"/>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="11"/>
+      <c r="A99" s="8"/>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="11"/>
+      <c r="A100" s="8"/>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="11"/>
+      <c r="A101" s="8"/>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="11"/>
+      <c r="A102" s="8"/>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="11"/>
+      <c r="A103" s="8"/>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="11"/>
+      <c r="A104" s="8"/>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="11"/>
+      <c r="A105" s="8"/>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="11"/>
+      <c r="A106" s="8"/>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="11"/>
+      <c r="A107" s="8"/>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="11"/>
+      <c r="A108" s="8"/>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="11"/>
+      <c r="A109" s="8"/>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="11"/>
+      <c r="A110" s="8"/>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="11"/>
+      <c r="A111" s="8"/>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="11"/>
+      <c r="A112" s="8"/>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="11"/>
+      <c r="A113" s="8"/>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="11"/>
+      <c r="A114" s="8"/>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="11"/>
+      <c r="A115" s="8"/>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="11"/>
+      <c r="A116" s="8"/>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="11"/>
+      <c r="A117" s="8"/>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="11"/>
+      <c r="A118" s="8"/>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="11"/>
+      <c r="A119" s="8"/>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="11"/>
+      <c r="A120" s="8"/>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="11"/>
+      <c r="A121" s="8"/>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="11"/>
+      <c r="A122" s="8"/>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="11"/>
+      <c r="A123" s="8"/>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="11"/>
+      <c r="A124" s="8"/>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="11"/>
+      <c r="A125" s="8"/>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1627,18 +3140,78 @@
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation allowBlank="false" error="Выберите значение из списка" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AA2:AA46" type="list">
+  <dataValidations count="17">
+    <dataValidation allowBlank="false" error="Выберите значение из списка" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AA4:AA46" type="list">
       <formula1>#name?</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" error="Выберите значение из списка" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AH2" type="list">
-      <formula1>#name?</formula1>
+    <dataValidation allowBlank="false" error="Неверный формат данных" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AY2:AZ2" type="decimal">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" error="Выберите значение из списка" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AD2" type="list">
+      <formula1>#NAME?</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="false" error="Выберите значение из списка" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AE2" type="list">
+      <formula1>#NAME?</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="false" error="Неверный формат данных" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AR2 BB2 BH2 BO2" type="whole">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" error="Неверный формат данных" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AI2:AK2" type="whole">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="false" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="AS2" type="list">
+      <formula1>#NAME?</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" error="Выберите значение из списка" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AU2" type="list">
+      <formula1>#NAME?</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="false" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="AX2" type="list">
+      <formula1>#NAME?</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="false" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="BA2" type="list">
+      <formula1>#NAME?</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="false" error="Неверное значение" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="BC2" type="list">
+      <formula1>"Да,Нет"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="false" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="BD2" type="list">
+      <formula1>#NAME?</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="false" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="BF2" type="list">
+      <formula1>#NAME?</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="false" error="Выберите значение из списка" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="BI2" type="list">
+      <formula1>#NAME?</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="false" error="Выберите значение из списка" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="BJ2" type="list">
+      <formula1>#NAME?</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="false" error="Выберите значение из списка" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="BK2" type="list">
+      <formula1>#NAME?</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="false" error="Выберите значение из списка" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="BL2" type="list">
+      <formula1>#NAME?</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="AP2" r:id="rId2" display="https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Video_DTF.mp4"/>
+    <hyperlink ref="BS2" r:id="rId2" display="https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Video_DTF.mp4"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1649,4 +3222,154 @@
   </headerFooter>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:Q2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q2" activeCellId="0" sqref="Q2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="0" t="str">
+        <f aca="false">CONCATENATE(Лист1!H2,Лист1!C2,"_1.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_1.jpg</v>
+      </c>
+      <c r="E2" s="0" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(Лист1!H2,Лист1!C2,"_2.jpg;"),CONCATENATE(Лист1!H2,Лист1!C2,"_3.jpg;"),CONCATENATE(Лист1!H2,Лист1!C2,"_4.jpg;"),CONCATENATE(Лист1!H2,Лист1!C2,"_5.jpg;"),CONCATENATE(Лист1!H2,Лист1!C2,"_6.jpg;"),CONCATENATE(Лист1!H2,Лист1!C2,"_7.jpg;"),CONCATENATE(Лист1!H2,Лист1!C2,"_8.jpg;"),CONCATENATE(Лист1!H2,Лист1!C2,"_9.jpg;"),CONCATENATE(Лист1!H2,Лист1!C2,"_10.jpg;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_10.jpg;</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="H2" s="0" t="str">
+        <f aca="false">SUBSTITUTE(Лист1!A2,"Термонаклейка ","")</f>
+        <v>Девушка волосы облако Тест10</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="J2" s="0" t="str">
+        <f aca="false">CONCATENATE(Лист1!A2,". Наши термонаклейки для одежды помогут сделать любую вещь уникальной и неповторимой! Вам понадобится только горячий утюг, декор для одежды, инструкция и пара минут. Принт яркий, сочный и стойкий к износу и стирке. Термотрансферы хорошо тянутся, не трескаются и не отклеиваются при стирке. Термоаппликация - это оригинальный способ украсить или пометить новую одежду, спрятать пятна, мелкие дефекты и повреждения. Легко клеится обычным утюгом и подходит для большинства типов тканей. Наши аппликации можно наносить как на натуральный, синтетический, так и смесовый текстиль, хлопок, джинсу, кожу, экокожу. Все наклейки для одежды изготовлены из современного качественного материала. Мы гарантируем отличное приклеивание принта на однотонные или цветные ткани.Наклейки очень просты в применении: нужно просто вырезать наклейку (если используете только часть рисунка), приложить к ткани и пройти утюгом.Главное сделать все по инструкции, которая прилагается в каждом наборе, ничего сложного в переносе нет, красотища! По все")</f>
+        <v>Термонаклейка Девушка волосы облако Тест10. Наши термонаклейки для одежды помогут сделать любую вещь уникальной и неповторимой! Вам понадобится только горячий утюг, декор для одежды, инструкция и пара минут. Принт яркий, сочный и стойкий к износу и стирке. Термотрансферы хорошо тянутся, не трескаются и не отклеиваются при стирке. Термоаппликация - это оригинальный способ украсить или пометить новую одежду, спрятать пятна, мелкие дефекты и повреждения. Легко клеится обычным утюгом и подходит для большинства типов тканей. Наши аппликации можно наносить как на натуральный, синтетический, так и смесовый текстиль, хлопок, джинсу, кожу, экокожу. Все наклейки для одежды изготовлены из современного качественного материала. Мы гарантируем отличное приклеивание принта на однотонные или цветные ткани.Наклейки очень просты в применении: нужно просто вырезать наклейку (если используете только часть рисунка), приложить к ткани и пройти утюгом.Главное сделать все по инструкции, которая прилагается в каждом наборе, ничего сложного в переносе нет, красотища! По все</v>
+      </c>
+      <c r="K2" s="7" t="str">
+        <f aca="false">CONCATENATE(Лист1!H2,Лист1!C2,"_color.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_color.jpg</v>
+      </c>
+      <c r="L2" s="12" t="str">
+        <f aca="false">CONCATENATE("термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля,",SUBSTITUTE(Лист1!A2,"Термонаклейка",""))</f>
+        <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Девушка волосы облако Тест10</v>
+      </c>
+      <c r="M2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" s="0" t="n">
+        <v>180</v>
+      </c>
+      <c r="O2" s="0" t="n">
+        <v>210</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q2" s="15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation allowBlank="false" error="Выберите значение из списка" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B2" type="list">
+      <formula1>#name?</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" error="Выберите значение из списка" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I2" type="list">
+      <formula1>#name?</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="Q2" r:id="rId2" display="https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Video_DTF.mp4"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
 </file>
--- a/create cards for OZON WB XLS/Data_to_create.xlsx
+++ b/create cards for OZON WB XLS/Data_to_create.xlsx
@@ -1687,7 +1687,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="88">
   <si>
     <t xml:space="preserve">Артикул</t>
   </si>
@@ -1902,7 +1902,7 @@
     <t xml:space="preserve">Озон.Видео: ссылка</t>
   </si>
   <si>
-    <t xml:space="preserve">Термонаклейка Девушка волосы облако Тест10</t>
+    <t xml:space="preserve">Термонаклейка Девушка волосы облако Тест11</t>
   </si>
   <si>
     <t xml:space="preserve">1_girl_with_cloud_hair</t>
@@ -1944,13 +1944,13 @@
     <t xml:space="preserve">инструкция_dtf.mp4</t>
   </si>
   <si>
+    <t xml:space="preserve">нет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">белый</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Video_DTF.mp4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">нет</t>
-  </si>
-  <si>
-    <t xml:space="preserve">белый</t>
   </si>
 </sst>
 </file>
@@ -2131,7 +2131,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2156,11 +2156,11 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2172,11 +2172,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2185,6 +2185,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2292,7 +2296,7 @@
   <dimension ref="A1:BS130"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2321,7 +2325,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="20.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="25.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="20.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="19.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="49.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="12.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="17.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="18.34"/>
@@ -2333,11 +2337,11 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="33.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="0" width="25.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="0" width="45.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="0" width="14.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="0" width="14.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="0" width="87.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="0" width="12.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="0" width="25.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="0" width="22.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="0" width="22.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="56" min="43" style="0" width="12.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="57" min="57" style="0" width="19.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="58" style="0" width="12.63"/>
@@ -2558,7 +2562,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="124.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="74.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>71</v>
       </c>
@@ -2567,11 +2571,11 @@
       </c>
       <c r="D2" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\", A2, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\Термонаклейка Девушка волосы облако Тест10.pdf</v>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\Термонаклейка Девушка волосы облако Тест11.pdf</v>
       </c>
       <c r="E2" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A2,"_img.tif")</f>
-        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Девушка волосы облако Тест10_img.tif</v>
+        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Девушка волосы облако Тест11_img.tif</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>1</v>
@@ -2590,11 +2594,11 @@
       </c>
       <c r="M2" s="0" t="str">
         <f aca="false">A2</f>
-        <v>Термонаклейка Девушка волосы облако Тест10</v>
+        <v>Термонаклейка Девушка волосы облако Тест11</v>
       </c>
       <c r="O2" s="0" t="str">
         <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(A2, "Термонаклейка", "")</f>
-        <v>Термонаклейка для одежды: Девушка волосы облако Тест10</v>
+        <v>Термонаклейка для одежды: Девушка волосы облако Тест11</v>
       </c>
       <c r="P2" s="0" t="n">
         <f aca="false">B2</f>
@@ -2608,7 +2612,7 @@
       </c>
       <c r="S2" s="6" t="str">
         <f aca="false">CONCATENATE(A2,". Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись ")</f>
-        <v>Термонаклейка Девушка волосы облако Тест10. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись </v>
+        <v>Термонаклейка Девушка волосы облако Тест11. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись </v>
       </c>
       <c r="T2" s="0" t="n">
         <v>1</v>
@@ -2626,12 +2630,12 @@
         <v>77</v>
       </c>
       <c r="Y2" s="7" t="str">
-        <f aca="false">CONCATENATE(CONCATENATE(H2,C2,"_1.jpg;"),CONCATENATE(H2,C2,"_2.jpg;"),CONCATENATE(H2,C2,"_3.jpg;"),CONCATENATE(H2,C2,"_4.jpg;"),CONCATENATE(H2,C2,"_5.jpg;"),CONCATENATE(H2,C2,"_6.jpg;"),CONCATENATE(H2,C2,"_7.jpg;"),CONCATENATE(H2,C2,"_8.jpg;"),CONCATENATE(H2,C2,"_9.jpg;"),CONCATENATE(H2,C2,"_10.jpg;"))</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_10.jpg;</v>
+        <f aca="false">CONCATENATE(CONCATENATE(H2,C2,"_1.jpg;"),CONCATENATE(H2,C2,"_2.jpg;"),CONCATENATE(H2,C2,"_3.jpg;"),CONCATENATE(H2,C2,"_4.jpg;"),CONCATENATE(H2,C2,"_5.jpg;"),CONCATENATE(H2,C2,"_6.jpg;"),CONCATENATE(H2,C2,"_7.jpg;"),CONCATENATE(H2,C2,"_8.jpg;"),CONCATENATE(H2,C2,"_9.jpg;"),CONCATENATE(H2,C2,"_10.jpg;"),CONCATENATE(H2,"instruction_A4.jpg;"),CONCATENATE(H2,"Video_DTF.mp4;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
       </c>
       <c r="AA2" s="0" t="str">
         <f aca="false">A2</f>
-        <v>Термонаклейка Девушка волосы облако Тест10</v>
+        <v>Термонаклейка Девушка волосы облако Тест11</v>
       </c>
       <c r="AB2" s="0" t="n">
         <f aca="false">Q2</f>
@@ -2647,18 +2651,17 @@
       <c r="AE2" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="AG2" s="10"/>
       <c r="AH2" s="0" t="n">
         <f aca="false">W2</f>
         <v>12</v>
       </c>
-      <c r="AI2" s="11" t="n">
+      <c r="AI2" s="10" t="n">
         <v>180</v>
       </c>
-      <c r="AJ2" s="11" t="n">
+      <c r="AJ2" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="AK2" s="11" t="n">
+      <c r="AK2" s="10" t="n">
         <v>210</v>
       </c>
       <c r="AL2" s="11" t="str">
@@ -2666,8 +2669,8 @@
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_1.jpg</v>
       </c>
       <c r="AM2" s="12" t="str">
-        <f aca="false">CONCATENATE(CONCATENATE(H2, C2, "_2.jpg;"),CONCATENATE(H2, C2, "_3.jpg;"),CONCATENATE(H2, C2, "_4.jpg;"),CONCATENATE(H2, C2, "_5.jpg;"),CONCATENATE(H2, C2, "_6.jpg;"),CONCATENATE(H2, C2, "_7.jpg;"),CONCATENATE(H2, C2, "_8.jpg;"),CONCATENATE(H2, C2, "_9.jpg;"),CONCATENATE(H2, C2, "_10.jpg;") )</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_10.jpg;</v>
+        <f aca="false">CONCATENATE(CONCATENATE(H2, C2, "_2.jpg;"),CONCATENATE(H2, C2, "_3.jpg;"),CONCATENATE(H2, C2, "_4.jpg;"),CONCATENATE(H2, C2, "_5.jpg;"),CONCATENATE(H2, C2, "_6.jpg;"),CONCATENATE(H2, C2, "_7.jpg;"),CONCATENATE(H2, C2, "_8.jpg;"),CONCATENATE(H2, C2, "_9.jpg;"),CONCATENATE(H2, C2, "_10.jpg;"),CONCATENATE(H2, "instruction_A4.jpg;") )</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;</v>
       </c>
       <c r="AP2" s="11" t="str">
         <f aca="false">J2</f>
@@ -2681,20 +2684,20 @@
       </c>
       <c r="AT2" s="0" t="str">
         <f aca="false">SUBSTITUTE(A2,"Термонаклейка ","")</f>
-        <v>Девушка волосы облако Тест10</v>
+        <v>Девушка волосы облако Тест11</v>
       </c>
       <c r="AU2" s="8" t="s">
         <v>82</v>
       </c>
       <c r="AV2" s="0" t="str">
         <f aca="false">S2</f>
-        <v>Термонаклейка Девушка волосы облако Тест10. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись </v>
-      </c>
-      <c r="AX2" s="0" t="str">
+        <v>Термонаклейка Девушка волосы облако Тест11. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись </v>
+      </c>
+      <c r="AX2" s="14" t="str">
         <f aca="false">X2</f>
         <v>Россия</v>
       </c>
-      <c r="BA2" s="0" t="str">
+      <c r="BA2" s="14" t="str">
         <f aca="false">R2</f>
         <v>Полимерный материал</v>
       </c>
@@ -2710,192 +2713,193 @@
       </c>
       <c r="BM2" s="0" t="str">
         <f aca="false">CONCATENATE("термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля,",SUBSTITUTE(A2,"Термонаклейка",""))</f>
-        <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Девушка волосы облако Тест10</v>
-      </c>
-      <c r="BR2" s="14" t="s">
+        <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Девушка волосы облако Тест11</v>
+      </c>
+      <c r="BR2" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="BS2" s="15" t="s">
-        <v>85</v>
+      <c r="BS2" s="16" t="str">
+        <f aca="false">CONCATENATE(H2,"Video_DTF.mp4;")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8"/>
-      <c r="C3" s="16"/>
-      <c r="X3" s="14"/>
+      <c r="C3" s="17"/>
+      <c r="X3" s="15"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8"/>
-      <c r="C4" s="16"/>
-      <c r="AA4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="AA4" s="18"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8"/>
-      <c r="AA5" s="17"/>
+      <c r="AA5" s="18"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8"/>
-      <c r="AA6" s="17"/>
+      <c r="AA6" s="18"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8"/>
-      <c r="AA7" s="17"/>
+      <c r="AA7" s="18"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8"/>
-      <c r="AA8" s="17"/>
+      <c r="AA8" s="18"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8"/>
-      <c r="AA9" s="17"/>
+      <c r="AA9" s="18"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="8"/>
-      <c r="AA10" s="17"/>
+      <c r="AA10" s="18"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="8"/>
-      <c r="AA11" s="17"/>
+      <c r="AA11" s="18"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="8"/>
-      <c r="AA12" s="17"/>
+      <c r="AA12" s="18"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="8"/>
-      <c r="AA13" s="17"/>
+      <c r="AA13" s="18"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="8"/>
-      <c r="AA14" s="17"/>
+      <c r="AA14" s="18"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="8"/>
-      <c r="AA15" s="17"/>
+      <c r="AA15" s="18"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="8"/>
-      <c r="AA16" s="17"/>
+      <c r="AA16" s="18"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="8"/>
-      <c r="AA17" s="17"/>
+      <c r="AA17" s="18"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="8"/>
-      <c r="AA18" s="17"/>
+      <c r="AA18" s="18"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="8"/>
-      <c r="AA19" s="17"/>
+      <c r="AA19" s="18"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="8"/>
-      <c r="AA20" s="17"/>
+      <c r="AA20" s="18"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="8"/>
-      <c r="AA21" s="17"/>
+      <c r="AA21" s="18"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="8"/>
-      <c r="AA22" s="17"/>
+      <c r="AA22" s="18"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="8"/>
-      <c r="AA23" s="17"/>
+      <c r="AA23" s="18"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="8"/>
-      <c r="AA24" s="17"/>
+      <c r="AA24" s="18"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="8"/>
-      <c r="AA25" s="17"/>
+      <c r="AA25" s="18"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="8"/>
-      <c r="AA26" s="17"/>
+      <c r="AA26" s="18"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="8"/>
-      <c r="AA27" s="17"/>
+      <c r="AA27" s="18"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="8"/>
-      <c r="AA28" s="17"/>
+      <c r="AA28" s="18"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="8"/>
-      <c r="AA29" s="17"/>
+      <c r="AA29" s="18"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="8"/>
-      <c r="AA30" s="17"/>
+      <c r="AA30" s="18"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="8"/>
-      <c r="AA31" s="17"/>
+      <c r="AA31" s="18"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="8"/>
-      <c r="AA32" s="17"/>
+      <c r="AA32" s="18"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="8"/>
-      <c r="AA33" s="17"/>
+      <c r="AA33" s="18"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="8"/>
-      <c r="AA34" s="17"/>
+      <c r="AA34" s="18"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="8"/>
-      <c r="AA35" s="17"/>
+      <c r="AA35" s="18"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="8"/>
-      <c r="AA36" s="17"/>
+      <c r="AA36" s="18"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="8"/>
-      <c r="AA37" s="17"/>
+      <c r="AA37" s="18"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="8"/>
-      <c r="AA38" s="17"/>
+      <c r="AA38" s="18"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="8"/>
-      <c r="AA39" s="17"/>
+      <c r="AA39" s="18"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="8"/>
-      <c r="AA40" s="17"/>
+      <c r="AA40" s="18"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="8"/>
-      <c r="AA41" s="17"/>
+      <c r="AA41" s="18"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="8"/>
-      <c r="AA42" s="17"/>
+      <c r="AA42" s="18"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="8"/>
-      <c r="AA43" s="17"/>
+      <c r="AA43" s="18"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="8"/>
-      <c r="AA44" s="17"/>
+      <c r="AA44" s="18"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="8"/>
-      <c r="AA45" s="17"/>
+      <c r="AA45" s="18"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="8"/>
-      <c r="AA46" s="17"/>
+      <c r="AA46" s="18"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="8"/>
@@ -3150,11 +3154,11 @@
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" error="Выберите значение из списка" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AD2" type="list">
-      <formula1>#NAME?</formula1>
+      <formula1>#name?</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="false" error="Выберите значение из списка" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AE2" type="list">
-      <formula1>#NAME?</formula1>
+      <formula1>#name?</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="false" error="Неверный формат данных" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AR2 BB2 BH2 BO2" type="whole">
@@ -3166,19 +3170,19 @@
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="false" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="AS2" type="list">
-      <formula1>#NAME?</formula1>
+      <formula1>#name?</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" error="Выберите значение из списка" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AU2" type="list">
-      <formula1>#NAME?</formula1>
+      <formula1>#name?</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="false" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="AX2" type="list">
-      <formula1>#NAME?</formula1>
+      <formula1>#name?</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="false" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="BA2" type="list">
-      <formula1>#NAME?</formula1>
+      <formula1>#name?</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="false" error="Неверное значение" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="BC2" type="list">
@@ -3186,33 +3190,30 @@
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="false" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="BD2" type="list">
-      <formula1>#NAME?</formula1>
+      <formula1>#name?</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="false" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="BF2" type="list">
-      <formula1>#NAME?</formula1>
+      <formula1>#name?</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="false" error="Выберите значение из списка" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="BI2" type="list">
-      <formula1>#NAME?</formula1>
+      <formula1>#name?</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="false" error="Выберите значение из списка" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="BJ2" type="list">
-      <formula1>#NAME?</formula1>
+      <formula1>#name?</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="false" error="Выберите значение из списка" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="BK2" type="list">
-      <formula1>#NAME?</formula1>
+      <formula1>#name?</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="false" error="Выберите значение из списка" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="BL2" type="list">
-      <formula1>#NAME?</formula1>
+      <formula1>#name?</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="BS2" r:id="rId2" display="https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Video_DTF.mp4"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -3220,7 +3221,7 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3241,7 +3242,7 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>25</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -3294,11 +3295,11 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="18" t="s">
         <v>78</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D2" s="0" t="str">
         <f aca="false">CONCATENATE(Лист1!H2,Лист1!C2,"_1.jpg")</f>
@@ -3312,18 +3313,18 @@
         <v>80</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H2" s="0" t="str">
         <f aca="false">SUBSTITUTE(Лист1!A2,"Термонаклейка ","")</f>
-        <v>Девушка волосы облако Тест10</v>
-      </c>
-      <c r="I2" s="19" t="s">
+        <v>Девушка волосы облако Тест11</v>
+      </c>
+      <c r="I2" s="20" t="s">
         <v>82</v>
       </c>
       <c r="J2" s="0" t="str">
         <f aca="false">CONCATENATE(Лист1!A2,". Наши термонаклейки для одежды помогут сделать любую вещь уникальной и неповторимой! Вам понадобится только горячий утюг, декор для одежды, инструкция и пара минут. Принт яркий, сочный и стойкий к износу и стирке. Термотрансферы хорошо тянутся, не трескаются и не отклеиваются при стирке. Термоаппликация - это оригинальный способ украсить или пометить новую одежду, спрятать пятна, мелкие дефекты и повреждения. Легко клеится обычным утюгом и подходит для большинства типов тканей. Наши аппликации можно наносить как на натуральный, синтетический, так и смесовый текстиль, хлопок, джинсу, кожу, экокожу. Все наклейки для одежды изготовлены из современного качественного материала. Мы гарантируем отличное приклеивание принта на однотонные или цветные ткани.Наклейки очень просты в применении: нужно просто вырезать наклейку (если используете только часть рисунка), приложить к ткани и пройти утюгом.Главное сделать все по инструкции, которая прилагается в каждом наборе, ничего сложного в переносе нет, красотища! По все")</f>
-        <v>Термонаклейка Девушка волосы облако Тест10. Наши термонаклейки для одежды помогут сделать любую вещь уникальной и неповторимой! Вам понадобится только горячий утюг, декор для одежды, инструкция и пара минут. Принт яркий, сочный и стойкий к износу и стирке. Термотрансферы хорошо тянутся, не трескаются и не отклеиваются при стирке. Термоаппликация - это оригинальный способ украсить или пометить новую одежду, спрятать пятна, мелкие дефекты и повреждения. Легко клеится обычным утюгом и подходит для большинства типов тканей. Наши аппликации можно наносить как на натуральный, синтетический, так и смесовый текстиль, хлопок, джинсу, кожу, экокожу. Все наклейки для одежды изготовлены из современного качественного материала. Мы гарантируем отличное приклеивание принта на однотонные или цветные ткани.Наклейки очень просты в применении: нужно просто вырезать наклейку (если используете только часть рисунка), приложить к ткани и пройти утюгом.Главное сделать все по инструкции, которая прилагается в каждом наборе, ничего сложного в переносе нет, красотища! По все</v>
+        <v>Термонаклейка Девушка волосы облако Тест11. Наши термонаклейки для одежды помогут сделать любую вещь уникальной и неповторимой! Вам понадобится только горячий утюг, декор для одежды, инструкция и пара минут. Принт яркий, сочный и стойкий к износу и стирке. Термотрансферы хорошо тянутся, не трескаются и не отклеиваются при стирке. Термоаппликация - это оригинальный способ украсить или пометить новую одежду, спрятать пятна, мелкие дефекты и повреждения. Легко клеится обычным утюгом и подходит для большинства типов тканей. Наши аппликации можно наносить как на натуральный, синтетический, так и смесовый текстиль, хлопок, джинсу, кожу, экокожу. Все наклейки для одежды изготовлены из современного качественного материала. Мы гарантируем отличное приклеивание принта на однотонные или цветные ткани.Наклейки очень просты в применении: нужно просто вырезать наклейку (если используете только часть рисунка), приложить к ткани и пройти утюгом.Главное сделать все по инструкции, которая прилагается в каждом наборе, ничего сложного в переносе нет, красотища! По все</v>
       </c>
       <c r="K2" s="7" t="str">
         <f aca="false">CONCATENATE(Лист1!H2,Лист1!C2,"_color.jpg")</f>
@@ -3331,7 +3332,7 @@
       </c>
       <c r="L2" s="12" t="str">
         <f aca="false">CONCATENATE("термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля,",SUBSTITUTE(Лист1!A2,"Термонаклейка",""))</f>
-        <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Девушка волосы облако Тест10</v>
+        <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Девушка волосы облако Тест11</v>
       </c>
       <c r="M2" s="0" t="n">
         <v>2</v>
@@ -3345,8 +3346,8 @@
       <c r="P2" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="Q2" s="15" t="s">
-        <v>85</v>
+      <c r="Q2" s="16" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/create cards for OZON WB XLS/Data_to_create.xlsx
+++ b/create cards for OZON WB XLS/Data_to_create.xlsx
@@ -1902,7 +1902,7 @@
     <t xml:space="preserve">Озон.Видео: ссылка</t>
   </si>
   <si>
-    <t xml:space="preserve">Термонаклейка Девушка волосы облако Тест11</t>
+    <t xml:space="preserve">Термонаклейка Девушка волосы облако</t>
   </si>
   <si>
     <t xml:space="preserve">1_girl_with_cloud_hair</t>
@@ -2010,18 +2010,18 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
       <charset val="204"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2156,11 +2156,15 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2184,15 +2188,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2225,6 +2225,29 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="false" diagonalDown="false">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <diagonal/>
+      </border>
+    </dxf>
+  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -2295,8 +2318,8 @@
   </sheetPr>
   <dimension ref="A1:BS130"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="BK1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="BS4" activeCellId="0" sqref="BS4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2563,7 +2586,7 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="74.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="6" t="s">
         <v>71</v>
       </c>
       <c r="C2" s="0" t="s">
@@ -2571,11 +2594,11 @@
       </c>
       <c r="D2" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\", A2, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\Термонаклейка Девушка волосы облако Тест11.pdf</v>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\Термонаклейка Девушка волосы облако.pdf</v>
       </c>
       <c r="E2" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A2,"_img.tif")</f>
-        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Девушка волосы облако Тест11_img.tif</v>
+        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Девушка волосы облако_img.tif</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>1</v>
@@ -2594,11 +2617,11 @@
       </c>
       <c r="M2" s="0" t="str">
         <f aca="false">A2</f>
-        <v>Термонаклейка Девушка волосы облако Тест11</v>
+        <v>Термонаклейка Девушка волосы облако</v>
       </c>
       <c r="O2" s="0" t="str">
         <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(A2, "Термонаклейка", "")</f>
-        <v>Термонаклейка для одежды: Девушка волосы облако Тест11</v>
+        <v>Термонаклейка для одежды: Девушка волосы облако</v>
       </c>
       <c r="P2" s="0" t="n">
         <f aca="false">B2</f>
@@ -2610,18 +2633,18 @@
       <c r="R2" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="S2" s="6" t="str">
+      <c r="S2" s="7" t="str">
         <f aca="false">CONCATENATE(A2,". Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись ")</f>
-        <v>Термонаклейка Девушка волосы облако Тест11. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись </v>
+        <v>Термонаклейка Девушка волосы облако. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись </v>
       </c>
       <c r="T2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="U2" s="0" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="V2" s="0" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="W2" s="0" t="n">
         <v>12</v>
@@ -2629,13 +2652,13 @@
       <c r="X2" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="Y2" s="7" t="str">
+      <c r="Y2" s="8" t="str">
         <f aca="false">CONCATENATE(CONCATENATE(H2,C2,"_1.jpg;"),CONCATENATE(H2,C2,"_2.jpg;"),CONCATENATE(H2,C2,"_3.jpg;"),CONCATENATE(H2,C2,"_4.jpg;"),CONCATENATE(H2,C2,"_5.jpg;"),CONCATENATE(H2,C2,"_6.jpg;"),CONCATENATE(H2,C2,"_7.jpg;"),CONCATENATE(H2,C2,"_8.jpg;"),CONCATENATE(H2,C2,"_9.jpg;"),CONCATENATE(H2,C2,"_10.jpg;"),CONCATENATE(H2,"instruction_A4.jpg;"),CONCATENATE(H2,"Video_DTF.mp4;"))</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
       </c>
       <c r="AA2" s="0" t="str">
         <f aca="false">A2</f>
-        <v>Термонаклейка Девушка волосы облако Тест11</v>
+        <v>Термонаклейка Девушка волосы облако</v>
       </c>
       <c r="AB2" s="0" t="n">
         <f aca="false">Q2</f>
@@ -2645,498 +2668,500 @@
         <f aca="false">ROUND(AB2*1.5,0)</f>
         <v>428</v>
       </c>
-      <c r="AD2" s="8" t="s">
+      <c r="AD2" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="AE2" s="9" t="s">
+      <c r="AE2" s="10" t="s">
         <v>79</v>
       </c>
       <c r="AH2" s="0" t="n">
         <f aca="false">W2</f>
         <v>12</v>
       </c>
-      <c r="AI2" s="10" t="n">
-        <v>180</v>
-      </c>
-      <c r="AJ2" s="10" t="n">
+      <c r="AI2" s="0" t="n">
+        <f aca="false">V2*10</f>
+        <v>250</v>
+      </c>
+      <c r="AJ2" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="AK2" s="10" t="n">
-        <v>210</v>
-      </c>
-      <c r="AL2" s="11" t="str">
+      <c r="AK2" s="0" t="n">
+        <f aca="false">U2*10</f>
+        <v>300</v>
+      </c>
+      <c r="AL2" s="12" t="str">
         <f aca="false">CONCATENATE(H2,C2,"_1.jpg")</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_1.jpg</v>
       </c>
-      <c r="AM2" s="12" t="str">
+      <c r="AM2" s="13" t="str">
         <f aca="false">CONCATENATE(CONCATENATE(H2, C2, "_2.jpg;"),CONCATENATE(H2, C2, "_3.jpg;"),CONCATENATE(H2, C2, "_4.jpg;"),CONCATENATE(H2, C2, "_5.jpg;"),CONCATENATE(H2, C2, "_6.jpg;"),CONCATENATE(H2, C2, "_7.jpg;"),CONCATENATE(H2, C2, "_8.jpg;"),CONCATENATE(H2, C2, "_9.jpg;"),CONCATENATE(H2, C2, "_10.jpg;"),CONCATENATE(H2, "instruction_A4.jpg;") )</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;</v>
       </c>
-      <c r="AP2" s="11" t="str">
+      <c r="AP2" s="12" t="str">
         <f aca="false">J2</f>
         <v>Punky Monkey</v>
       </c>
-      <c r="AQ2" s="13" t="s">
+      <c r="AQ2" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="AS2" s="9" t="s">
+      <c r="AS2" s="10" t="s">
         <v>81</v>
       </c>
       <c r="AT2" s="0" t="str">
         <f aca="false">SUBSTITUTE(A2,"Термонаклейка ","")</f>
-        <v>Девушка волосы облако Тест11</v>
-      </c>
-      <c r="AU2" s="8" t="s">
+        <v>Девушка волосы облако</v>
+      </c>
+      <c r="AU2" s="9" t="s">
         <v>82</v>
       </c>
       <c r="AV2" s="0" t="str">
         <f aca="false">S2</f>
-        <v>Термонаклейка Девушка волосы облако Тест11. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись </v>
-      </c>
-      <c r="AX2" s="14" t="str">
+        <v>Термонаклейка Девушка волосы облако. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись </v>
+      </c>
+      <c r="AX2" s="15" t="str">
         <f aca="false">X2</f>
         <v>Россия</v>
       </c>
-      <c r="BA2" s="14" t="str">
+      <c r="BA2" s="15" t="str">
         <f aca="false">R2</f>
         <v>Полимерный материал</v>
       </c>
-      <c r="BC2" s="9" t="s">
+      <c r="BC2" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="BD2" s="9" t="s">
+      <c r="BD2" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="BE2" s="12" t="str">
+      <c r="BE2" s="13" t="str">
         <f aca="false">CONCATENATE(H2,C2,"_color.jpg")</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_color.jpg</v>
       </c>
       <c r="BM2" s="0" t="str">
         <f aca="false">CONCATENATE("термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля,",SUBSTITUTE(A2,"Термонаклейка",""))</f>
-        <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Девушка волосы облако Тест11</v>
-      </c>
-      <c r="BR2" s="15" t="s">
+        <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Девушка волосы облако</v>
+      </c>
+      <c r="BR2" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="BS2" s="16" t="str">
-        <f aca="false">CONCATENATE(H2,"Video_DTF.mp4;")</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
+      <c r="BS2" s="6" t="str">
+        <f aca="false">CONCATENATE(H2,"Video_DTF.mp4")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8"/>
+      <c r="A3" s="9"/>
       <c r="C3" s="17"/>
-      <c r="X3" s="15"/>
+      <c r="X3" s="16"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8"/>
+      <c r="A4" s="9"/>
       <c r="C4" s="17"/>
       <c r="AA4" s="18"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8"/>
+      <c r="A5" s="9"/>
       <c r="AA5" s="18"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8"/>
+      <c r="A6" s="9"/>
       <c r="AA6" s="18"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8"/>
+      <c r="A7" s="9"/>
       <c r="AA7" s="18"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8"/>
+      <c r="A8" s="9"/>
       <c r="AA8" s="18"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8"/>
+      <c r="A9" s="9"/>
       <c r="AA9" s="18"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8"/>
+      <c r="A10" s="9"/>
       <c r="AA10" s="18"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8"/>
+      <c r="A11" s="9"/>
       <c r="AA11" s="18"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8"/>
+      <c r="A12" s="9"/>
       <c r="AA12" s="18"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="8"/>
+      <c r="A13" s="9"/>
       <c r="AA13" s="18"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="8"/>
+      <c r="A14" s="9"/>
       <c r="AA14" s="18"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="8"/>
+      <c r="A15" s="9"/>
       <c r="AA15" s="18"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="8"/>
+      <c r="A16" s="9"/>
       <c r="AA16" s="18"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="8"/>
+      <c r="A17" s="9"/>
       <c r="AA17" s="18"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="8"/>
+      <c r="A18" s="9"/>
       <c r="AA18" s="18"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="8"/>
+      <c r="A19" s="9"/>
       <c r="AA19" s="18"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="8"/>
+      <c r="A20" s="9"/>
       <c r="AA20" s="18"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="8"/>
+      <c r="A21" s="9"/>
       <c r="AA21" s="18"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="8"/>
+      <c r="A22" s="9"/>
       <c r="AA22" s="18"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="8"/>
+      <c r="A23" s="9"/>
       <c r="AA23" s="18"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="8"/>
+      <c r="A24" s="9"/>
       <c r="AA24" s="18"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="8"/>
+      <c r="A25" s="9"/>
       <c r="AA25" s="18"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="8"/>
+      <c r="A26" s="9"/>
       <c r="AA26" s="18"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="8"/>
+      <c r="A27" s="9"/>
       <c r="AA27" s="18"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="8"/>
+      <c r="A28" s="9"/>
       <c r="AA28" s="18"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="8"/>
+      <c r="A29" s="9"/>
       <c r="AA29" s="18"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="8"/>
+      <c r="A30" s="9"/>
       <c r="AA30" s="18"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="8"/>
+      <c r="A31" s="9"/>
       <c r="AA31" s="18"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="8"/>
+      <c r="A32" s="9"/>
       <c r="AA32" s="18"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="8"/>
+      <c r="A33" s="9"/>
       <c r="AA33" s="18"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="8"/>
+      <c r="A34" s="9"/>
       <c r="AA34" s="18"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="8"/>
+      <c r="A35" s="9"/>
       <c r="AA35" s="18"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="8"/>
+      <c r="A36" s="9"/>
       <c r="AA36" s="18"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="8"/>
+      <c r="A37" s="9"/>
       <c r="AA37" s="18"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="8"/>
+      <c r="A38" s="9"/>
       <c r="AA38" s="18"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="8"/>
+      <c r="A39" s="9"/>
       <c r="AA39" s="18"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="8"/>
+      <c r="A40" s="9"/>
       <c r="AA40" s="18"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="8"/>
+      <c r="A41" s="9"/>
       <c r="AA41" s="18"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="8"/>
+      <c r="A42" s="9"/>
       <c r="AA42" s="18"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="8"/>
+      <c r="A43" s="9"/>
       <c r="AA43" s="18"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="8"/>
+      <c r="A44" s="9"/>
       <c r="AA44" s="18"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="8"/>
+      <c r="A45" s="9"/>
       <c r="AA45" s="18"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="8"/>
+      <c r="A46" s="9"/>
       <c r="AA46" s="18"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="8"/>
+      <c r="A47" s="9"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="8"/>
+      <c r="A48" s="9"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="8"/>
+      <c r="A49" s="9"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="8"/>
+      <c r="A50" s="9"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="8"/>
+      <c r="A51" s="9"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="8"/>
+      <c r="A52" s="9"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="8"/>
+      <c r="A53" s="9"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="8"/>
+      <c r="A54" s="9"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="8"/>
+      <c r="A55" s="9"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="8"/>
+      <c r="A56" s="9"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="8"/>
+      <c r="A57" s="9"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="8"/>
+      <c r="A58" s="9"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="8"/>
+      <c r="A59" s="9"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="8"/>
+      <c r="A60" s="9"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="8"/>
+      <c r="A61" s="9"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="8"/>
+      <c r="A62" s="9"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="8"/>
+      <c r="A63" s="9"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="8"/>
+      <c r="A64" s="9"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="8"/>
+      <c r="A65" s="9"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="8"/>
+      <c r="A66" s="9"/>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="8"/>
+      <c r="A67" s="9"/>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="8"/>
+      <c r="A68" s="9"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="8"/>
+      <c r="A69" s="9"/>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="8"/>
+      <c r="A70" s="9"/>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="8"/>
+      <c r="A71" s="9"/>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="8"/>
+      <c r="A72" s="9"/>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="8"/>
+      <c r="A73" s="9"/>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="8"/>
+      <c r="A74" s="9"/>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="8"/>
+      <c r="A75" s="9"/>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="8"/>
+      <c r="A76" s="9"/>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="8"/>
+      <c r="A77" s="9"/>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="8"/>
+      <c r="A78" s="9"/>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="8"/>
+      <c r="A79" s="9"/>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="8"/>
+      <c r="A80" s="9"/>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="8"/>
+      <c r="A81" s="9"/>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="8"/>
+      <c r="A82" s="9"/>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="8"/>
+      <c r="A83" s="9"/>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="8"/>
+      <c r="A84" s="9"/>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="8"/>
+      <c r="A85" s="9"/>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="8"/>
+      <c r="A86" s="9"/>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="8"/>
+      <c r="A87" s="9"/>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="8"/>
+      <c r="A88" s="9"/>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="8"/>
+      <c r="A89" s="9"/>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="8"/>
+      <c r="A90" s="9"/>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="8"/>
+      <c r="A91" s="9"/>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="8"/>
+      <c r="A92" s="9"/>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="8"/>
+      <c r="A93" s="9"/>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="8"/>
+      <c r="A94" s="9"/>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="8"/>
+      <c r="A95" s="9"/>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="8"/>
+      <c r="A96" s="9"/>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="8"/>
+      <c r="A97" s="9"/>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="8"/>
+      <c r="A98" s="9"/>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="8"/>
+      <c r="A99" s="9"/>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="8"/>
+      <c r="A100" s="9"/>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="8"/>
+      <c r="A101" s="9"/>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="8"/>
+      <c r="A102" s="9"/>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="8"/>
+      <c r="A103" s="9"/>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="8"/>
+      <c r="A104" s="9"/>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="8"/>
+      <c r="A105" s="9"/>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="8"/>
+      <c r="A106" s="9"/>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="8"/>
+      <c r="A107" s="9"/>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="8"/>
+      <c r="A108" s="9"/>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="8"/>
+      <c r="A109" s="9"/>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="8"/>
+      <c r="A110" s="9"/>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="8"/>
+      <c r="A111" s="9"/>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="8"/>
+      <c r="A112" s="9"/>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="8"/>
+      <c r="A113" s="9"/>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="8"/>
+      <c r="A114" s="9"/>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="8"/>
+      <c r="A115" s="9"/>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="8"/>
+      <c r="A116" s="9"/>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="8"/>
+      <c r="A117" s="9"/>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="8"/>
+      <c r="A118" s="9"/>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="8"/>
+      <c r="A119" s="9"/>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="8"/>
+      <c r="A120" s="9"/>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="8"/>
+      <c r="A121" s="9"/>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="8"/>
+      <c r="A122" s="9"/>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="8"/>
+      <c r="A123" s="9"/>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="8"/>
+      <c r="A124" s="9"/>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="8"/>
+      <c r="A125" s="9"/>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -3144,6 +3169,11 @@
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
+  <conditionalFormatting sqref="A2">
+    <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>LEN(#REF!!$B$4) &gt;50</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="17">
     <dataValidation allowBlank="false" error="Выберите значение из списка" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AA4:AA46" type="list">
       <formula1>#name?</formula1>
@@ -3165,7 +3195,7 @@
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" error="Неверный формат данных" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AI2:AK2" type="whole">
+    <dataValidation allowBlank="true" error="Неверный формат данных" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AJ2" type="whole">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -3317,22 +3347,22 @@
       </c>
       <c r="H2" s="0" t="str">
         <f aca="false">SUBSTITUTE(Лист1!A2,"Термонаклейка ","")</f>
-        <v>Девушка волосы облако Тест11</v>
+        <v>Девушка волосы облако</v>
       </c>
       <c r="I2" s="20" t="s">
         <v>82</v>
       </c>
       <c r="J2" s="0" t="str">
         <f aca="false">CONCATENATE(Лист1!A2,". Наши термонаклейки для одежды помогут сделать любую вещь уникальной и неповторимой! Вам понадобится только горячий утюг, декор для одежды, инструкция и пара минут. Принт яркий, сочный и стойкий к износу и стирке. Термотрансферы хорошо тянутся, не трескаются и не отклеиваются при стирке. Термоаппликация - это оригинальный способ украсить или пометить новую одежду, спрятать пятна, мелкие дефекты и повреждения. Легко клеится обычным утюгом и подходит для большинства типов тканей. Наши аппликации можно наносить как на натуральный, синтетический, так и смесовый текстиль, хлопок, джинсу, кожу, экокожу. Все наклейки для одежды изготовлены из современного качественного материала. Мы гарантируем отличное приклеивание принта на однотонные или цветные ткани.Наклейки очень просты в применении: нужно просто вырезать наклейку (если используете только часть рисунка), приложить к ткани и пройти утюгом.Главное сделать все по инструкции, которая прилагается в каждом наборе, ничего сложного в переносе нет, красотища! По все")</f>
-        <v>Термонаклейка Девушка волосы облако Тест11. Наши термонаклейки для одежды помогут сделать любую вещь уникальной и неповторимой! Вам понадобится только горячий утюг, декор для одежды, инструкция и пара минут. Принт яркий, сочный и стойкий к износу и стирке. Термотрансферы хорошо тянутся, не трескаются и не отклеиваются при стирке. Термоаппликация - это оригинальный способ украсить или пометить новую одежду, спрятать пятна, мелкие дефекты и повреждения. Легко клеится обычным утюгом и подходит для большинства типов тканей. Наши аппликации можно наносить как на натуральный, синтетический, так и смесовый текстиль, хлопок, джинсу, кожу, экокожу. Все наклейки для одежды изготовлены из современного качественного материала. Мы гарантируем отличное приклеивание принта на однотонные или цветные ткани.Наклейки очень просты в применении: нужно просто вырезать наклейку (если используете только часть рисунка), приложить к ткани и пройти утюгом.Главное сделать все по инструкции, которая прилагается в каждом наборе, ничего сложного в переносе нет, красотища! По все</v>
-      </c>
-      <c r="K2" s="7" t="str">
+        <v>Термонаклейка Девушка волосы облако. Наши термонаклейки для одежды помогут сделать любую вещь уникальной и неповторимой! Вам понадобится только горячий утюг, декор для одежды, инструкция и пара минут. Принт яркий, сочный и стойкий к износу и стирке. Термотрансферы хорошо тянутся, не трескаются и не отклеиваются при стирке. Термоаппликация - это оригинальный способ украсить или пометить новую одежду, спрятать пятна, мелкие дефекты и повреждения. Легко клеится обычным утюгом и подходит для большинства типов тканей. Наши аппликации можно наносить как на натуральный, синтетический, так и смесовый текстиль, хлопок, джинсу, кожу, экокожу. Все наклейки для одежды изготовлены из современного качественного материала. Мы гарантируем отличное приклеивание принта на однотонные или цветные ткани.Наклейки очень просты в применении: нужно просто вырезать наклейку (если используете только часть рисунка), приложить к ткани и пройти утюгом.Главное сделать все по инструкции, которая прилагается в каждом наборе, ничего сложного в переносе нет, красотища! По все</v>
+      </c>
+      <c r="K2" s="8" t="str">
         <f aca="false">CONCATENATE(Лист1!H2,Лист1!C2,"_color.jpg")</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_color.jpg</v>
       </c>
-      <c r="L2" s="12" t="str">
+      <c r="L2" s="13" t="str">
         <f aca="false">CONCATENATE("термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля,",SUBSTITUTE(Лист1!A2,"Термонаклейка",""))</f>
-        <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Девушка волосы облако Тест11</v>
+        <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Девушка волосы облако</v>
       </c>
       <c r="M2" s="0" t="n">
         <v>2</v>
@@ -3346,7 +3376,7 @@
       <c r="P2" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="Q2" s="16" t="s">
+      <c r="Q2" s="6" t="s">
         <v>87</v>
       </c>
     </row>

--- a/create cards for OZON WB XLS/Data_to_create.xlsx
+++ b/create cards for OZON WB XLS/Data_to_create.xlsx
@@ -1687,7 +1687,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="182">
   <si>
     <t xml:space="preserve">Артикул</t>
   </si>
@@ -1932,16 +1932,471 @@
     <t xml:space="preserve">DTF A4 set1</t>
   </si>
   <si>
-    <t xml:space="preserve">черный матовый</t>
-  </si>
-  <si>
     <t xml:space="preserve">Термонаклейка</t>
   </si>
   <si>
-    <t xml:space="preserve">Детская</t>
-  </si>
-  <si>
     <t xml:space="preserve">инструкция_dtf.mp4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Девушка очки с краской розовой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2_girl_pink_glasses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Мэрилин Монро поп арт вырезки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3_merlin_monroe_popart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Африканская Девушка черный силуэт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4_blackgirl1_250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Кот Шанель Chanel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5_cat_channel_250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Кот выглядывает радуга</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6_cat_face_250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Кот картина Ван Гог</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7_cat250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка мультяшный Кот картина Ван Гог</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8_cat250_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Женщина кошка ест вишинку</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9_cherry_250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Красные перцы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10_chillis</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Термонаклейка </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Dior Диор </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Девушка курит облако</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">11_dior2_260</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Dior Диор Цветы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12_dior250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Vogue Вог Эйфелева башня</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13_efel250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Бюст статуи Feelings скрыты глаза</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14_feelings_250</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Термонаклейка Р</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">ыба паттерн </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">яркая красивая</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">15_fish250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Розовый Фламинго цветок</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16_flamingo250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Дали Ван Гог Фрида Кало в машине</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17_freands1_250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Женщина кошка пьет молоко из стакана</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18_girl_drink_250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Африка Девушка разнацветные воосы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19_girl_hair_250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Леопардовая блондинка девушка mood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20_girl1_260</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Цветы Черный Силуэт Девушки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21_head250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Леопардовое сердце поцелуй губ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22_heart2_20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Девушка с чупа чупсом I dont care</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24_idontcare_250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Аниме девочка с мечом розовые волосы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25_japan1_250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Аниме девочка в куртке со стикерами</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26_japan2_250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Сейлор Мун в куртке Аниме Sailor Moon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27_japan3_250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Аниме Девочка с чупа чупсом</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28_japan4_250</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Термонаклейка Аниме Девочка с </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">черным </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">капюшоном</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">29_japan5_250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Аниме Девочка в розовый капюшоном</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30_japan6_250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Девушка Блондинка с котом на голове</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31_japan7_250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Поцелуй берега и реки картина маслом</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32_kiss_art2_250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка картина Поцелуй Густава Климта</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33_kiss_art3_250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Поцелуй в космосе картина маслом</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34_kiss250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Губы с чупа чупсом</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35_leaps1_250</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Термонаклейка D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">olce Gabbana Дольче Габбана лимоны</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">36_lemons250</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Термонаклейка надпись love любовь </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">3 раза</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">37_love2_250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка надпись love любовь</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38_love220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Мэрилин Монро Supreme Суприм глаза</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39_MERLIN2_250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Микки Маус надписи на фоне</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40_mickey1_20</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Термонаклейка картина Д</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">евушка с сережкой Билли</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">41_perl_girl_250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Play Boy губы обложка губы марка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42_playboy250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Змеи Змея на розовом фоне паттерн</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43_snake250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Солнце Цветок большое в ретро стиле хиппи</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44_sun1_250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Тигр розовый крупный план</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45_tiger_face_260</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Леопард розовый крупный план</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46_tiger_pink250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Кит в море картина маслом</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47_whale_226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Бокал красного вина сердце</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48_wine250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Джокер поп арт Joker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49_ZEE_Why_So_Serious_250</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Термонаклейка </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Одри Хепбёрн </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">поп арт</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">50_Audrey Hepburn</t>
   </si>
   <si>
     <t xml:space="preserve">нет</t>
@@ -1961,7 +2416,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2029,6 +2484,13 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b val="true"/>
@@ -2131,7 +2593,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2160,7 +2622,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2204,15 +2666,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2318,15 +2788,15 @@
   </sheetPr>
   <dimension ref="A1:BS130"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="BK1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BS4" activeCellId="0" sqref="BS4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A42" activeCellId="0" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="43.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="35.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="104.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="76.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.63"/>
@@ -2585,7 +3055,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="74.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
         <v>71</v>
       </c>
@@ -2634,8 +3104,8 @@
         <v>76</v>
       </c>
       <c r="S2" s="7" t="str">
-        <f aca="false">CONCATENATE(A2,". Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись ")</f>
-        <v>Термонаклейка Девушка волосы облако. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись </v>
+        <f aca="false">CONCATENATE(A2,". Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.")</f>
+        <v>Термонаклейка Девушка волосы облако. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
       </c>
       <c r="T2" s="0" t="n">
         <v>1</v>
@@ -2704,19 +3174,17 @@
       <c r="AQ2" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="AS2" s="10" t="s">
-        <v>81</v>
-      </c>
+      <c r="AS2" s="10"/>
       <c r="AT2" s="0" t="str">
         <f aca="false">SUBSTITUTE(A2,"Термонаклейка ","")</f>
         <v>Девушка волосы облако</v>
       </c>
       <c r="AU2" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AV2" s="0" t="str">
         <f aca="false">S2</f>
-        <v>Термонаклейка Девушка волосы облако. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись </v>
+        <v>Термонаклейка Девушка волосы облако. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
       </c>
       <c r="AX2" s="15" t="str">
         <f aca="false">X2</f>
@@ -2729,9 +3197,7 @@
       <c r="BC2" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="BD2" s="10" t="s">
-        <v>83</v>
-      </c>
+      <c r="BD2" s="10"/>
       <c r="BE2" s="13" t="str">
         <f aca="false">CONCATENATE(H2,C2,"_color.jpg")</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_color.jpg</v>
@@ -2741,427 +3207,7867 @@
         <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Девушка волосы облако</v>
       </c>
       <c r="BR2" s="16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="BS2" s="6" t="str">
         <f aca="false">CONCATENATE(H2,"Video_DTF.mp4")</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9"/>
-      <c r="C3" s="17"/>
-      <c r="X3" s="16"/>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9"/>
-      <c r="C4" s="17"/>
-      <c r="AA4" s="18"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9"/>
-      <c r="AA5" s="18"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9"/>
-      <c r="AA6" s="18"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9"/>
-      <c r="AA7" s="18"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9"/>
-      <c r="AA8" s="18"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="9"/>
-      <c r="AA9" s="18"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9"/>
-      <c r="AA10" s="18"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="9"/>
-      <c r="AA11" s="18"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="9"/>
-      <c r="AA12" s="18"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="9"/>
-      <c r="AA13" s="18"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="9"/>
-      <c r="AA14" s="18"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="9"/>
-      <c r="AA15" s="18"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="9"/>
-      <c r="AA16" s="18"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="9"/>
-      <c r="AA17" s="18"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="9"/>
-      <c r="AA18" s="18"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="9"/>
-      <c r="AA19" s="18"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="9"/>
-      <c r="AA20" s="18"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="9"/>
-      <c r="AA21" s="18"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="9"/>
-      <c r="AA22" s="18"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="9"/>
-      <c r="AA23" s="18"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="9"/>
-      <c r="AA24" s="18"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="9"/>
-      <c r="AA25" s="18"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="9"/>
-      <c r="AA26" s="18"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="9"/>
-      <c r="AA27" s="18"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="9"/>
-      <c r="AA28" s="18"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="9"/>
-      <c r="AA29" s="18"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="9"/>
-      <c r="AA30" s="18"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="9"/>
-      <c r="AA31" s="18"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="9"/>
-      <c r="AA32" s="18"/>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="9"/>
-      <c r="AA33" s="18"/>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="9"/>
-      <c r="AA34" s="18"/>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="9"/>
-      <c r="AA35" s="18"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="9"/>
-      <c r="AA36" s="18"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="9"/>
-      <c r="AA37" s="18"/>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="9"/>
-      <c r="AA38" s="18"/>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="9"/>
-      <c r="AA39" s="18"/>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="9"/>
-      <c r="AA40" s="18"/>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="9"/>
-      <c r="AA41" s="18"/>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="9"/>
-      <c r="AA42" s="18"/>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="9"/>
-      <c r="AA43" s="18"/>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="9"/>
-      <c r="AA44" s="18"/>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="9"/>
-      <c r="AA45" s="18"/>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="9"/>
-      <c r="AA46" s="18"/>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="9"/>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="9"/>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="9"/>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="9"/>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="9"/>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="9"/>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="9"/>
-    </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="9"/>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="9"/>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="9"/>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="9"/>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="9"/>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="9"/>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="9"/>
-    </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="9"/>
-    </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="9"/>
-    </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="9"/>
-    </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="9"/>
+    <row r="3" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\", A3, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\Термонаклейка Девушка очки с краской розовой.pdf</v>
+      </c>
+      <c r="E3" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A3,"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Девушка очки с краской розовой_img.tif</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="M3" s="0" t="str">
+        <f aca="false">A3</f>
+        <v>Термонаклейка Девушка очки с краской розовой</v>
+      </c>
+      <c r="O3" s="0" t="str">
+        <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(A3, "Термонаклейка", "")</f>
+        <v>Термонаклейка для одежды: Девушка очки с краской розовой</v>
+      </c>
+      <c r="P3" s="0" t="n">
+        <f aca="false">B3</f>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="0" t="n">
+        <v>285</v>
+      </c>
+      <c r="R3" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="S3" s="7" t="str">
+        <f aca="false">CONCATENATE(A3,". Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.")</f>
+        <v>Термонаклейка Девушка очки с краской розовой. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+      </c>
+      <c r="T3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U3" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="V3" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="W3" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="X3" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y3" s="8" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(H3,C3,"_1.jpg;"),CONCATENATE(H3,C3,"_2.jpg;"),CONCATENATE(H3,C3,"_3.jpg;"),CONCATENATE(H3,C3,"_4.jpg;"),CONCATENATE(H3,C3,"_5.jpg;"),CONCATENATE(H3,C3,"_6.jpg;"),CONCATENATE(H3,C3,"_7.jpg;"),CONCATENATE(H3,C3,"_8.jpg;"),CONCATENATE(H3,C3,"_9.jpg;"),CONCATENATE(H3,C3,"_10.jpg;"),CONCATENATE(H3,"instruction_A4.jpg;"),CONCATENATE(H3,"Video_DTF.mp4;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/2_girl_pink_glasses_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/2_girl_pink_glasses_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/2_girl_pink_glasses_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/2_girl_pink_glasses_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/2_girl_pink_glasses_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/2_girl_pink_glasses_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/2_girl_pink_glasses_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/2_girl_pink_glasses_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/2_girl_pink_glasses_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/2_girl_pink_glasses_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
+      </c>
+      <c r="AA3" s="0" t="str">
+        <f aca="false">A3</f>
+        <v>Термонаклейка Девушка очки с краской розовой</v>
+      </c>
+      <c r="AB3" s="0" t="n">
+        <f aca="false">Q3</f>
+        <v>285</v>
+      </c>
+      <c r="AC3" s="0" t="n">
+        <f aca="false">ROUND(AB3*1.5,0)</f>
+        <v>428</v>
+      </c>
+      <c r="AD3" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE3" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH3" s="0" t="n">
+        <f aca="false">W3</f>
+        <v>12</v>
+      </c>
+      <c r="AI3" s="15" t="n">
+        <f aca="false">V3*10</f>
+        <v>250</v>
+      </c>
+      <c r="AJ3" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK3" s="15" t="n">
+        <f aca="false">U3*10</f>
+        <v>300</v>
+      </c>
+      <c r="AL3" s="12" t="str">
+        <f aca="false">CONCATENATE(H3,C3,"_1.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/2_girl_pink_glasses_1.jpg</v>
+      </c>
+      <c r="AM3" s="13" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(H3, C3, "_2.jpg;"),CONCATENATE(H3, C3, "_3.jpg;"),CONCATENATE(H3, C3, "_4.jpg;"),CONCATENATE(H3, C3, "_5.jpg;"),CONCATENATE(H3, C3, "_6.jpg;"),CONCATENATE(H3, C3, "_7.jpg;"),CONCATENATE(H3, C3, "_8.jpg;"),CONCATENATE(H3, C3, "_9.jpg;"),CONCATENATE(H3, C3, "_10.jpg;"),CONCATENATE(H3, "instruction_A4.jpg;") )</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/2_girl_pink_glasses_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/2_girl_pink_glasses_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/2_girl_pink_glasses_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/2_girl_pink_glasses_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/2_girl_pink_glasses_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/2_girl_pink_glasses_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/2_girl_pink_glasses_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/2_girl_pink_glasses_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/2_girl_pink_glasses_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;</v>
+      </c>
+      <c r="AP3" s="12" t="str">
+        <f aca="false">J3</f>
+        <v>Punky Monkey</v>
+      </c>
+      <c r="AQ3" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS3" s="10"/>
+      <c r="AT3" s="0" t="str">
+        <f aca="false">SUBSTITUTE(A3,"Термонаклейка ","")</f>
+        <v>Девушка очки с краской розовой</v>
+      </c>
+      <c r="AU3" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="AV3" s="0" t="str">
+        <f aca="false">S3</f>
+        <v>Термонаклейка Девушка очки с краской розовой. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+      </c>
+      <c r="AX3" s="15" t="str">
+        <f aca="false">X3</f>
+        <v>Россия</v>
+      </c>
+      <c r="BA3" s="15" t="str">
+        <f aca="false">R3</f>
+        <v>Полимерный материал</v>
+      </c>
+      <c r="BC3" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="BD3" s="10"/>
+      <c r="BE3" s="13" t="str">
+        <f aca="false">CONCATENATE(H3,C3,"_color.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/2_girl_pink_glasses_color.jpg</v>
+      </c>
+      <c r="BM3" s="0" t="str">
+        <f aca="false">CONCATENATE("термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля,",SUBSTITUTE(A3,"Термонаклейка",""))</f>
+        <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Девушка очки с краской розовой</v>
+      </c>
+      <c r="BR3" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="BS3" s="6" t="str">
+        <f aca="false">CONCATENATE(H3,"Video_DTF.mp4")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\", A4, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\Термонаклейка Мэрилин Монро поп арт вырезки.pdf</v>
+      </c>
+      <c r="E4" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A4,"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Мэрилин Монро поп арт вырезки_img.tif</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="M4" s="0" t="str">
+        <f aca="false">A4</f>
+        <v>Термонаклейка Мэрилин Монро поп арт вырезки</v>
+      </c>
+      <c r="O4" s="0" t="str">
+        <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(A4, "Термонаклейка", "")</f>
+        <v>Термонаклейка для одежды: Мэрилин Монро поп арт вырезки</v>
+      </c>
+      <c r="P4" s="0" t="n">
+        <f aca="false">B4</f>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="0" t="n">
+        <v>285</v>
+      </c>
+      <c r="R4" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="S4" s="7" t="str">
+        <f aca="false">CONCATENATE(A4,". Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.")</f>
+        <v>Термонаклейка Мэрилин Монро поп арт вырезки. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+      </c>
+      <c r="T4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U4" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="V4" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="W4" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="X4" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y4" s="8" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(H4,C4,"_1.jpg;"),CONCATENATE(H4,C4,"_2.jpg;"),CONCATENATE(H4,C4,"_3.jpg;"),CONCATENATE(H4,C4,"_4.jpg;"),CONCATENATE(H4,C4,"_5.jpg;"),CONCATENATE(H4,C4,"_6.jpg;"),CONCATENATE(H4,C4,"_7.jpg;"),CONCATENATE(H4,C4,"_8.jpg;"),CONCATENATE(H4,C4,"_9.jpg;"),CONCATENATE(H4,C4,"_10.jpg;"),CONCATENATE(H4,"instruction_A4.jpg;"),CONCATENATE(H4,"Video_DTF.mp4;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/3_merlin_monroe_popart_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/3_merlin_monroe_popart_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/3_merlin_monroe_popart_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/3_merlin_monroe_popart_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/3_merlin_monroe_popart_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/3_merlin_monroe_popart_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/3_merlin_monroe_popart_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/3_merlin_monroe_popart_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/3_merlin_monroe_popart_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/3_merlin_monroe_popart_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
+      </c>
+      <c r="AA4" s="0" t="str">
+        <f aca="false">A4</f>
+        <v>Термонаклейка Мэрилин Монро поп арт вырезки</v>
+      </c>
+      <c r="AB4" s="0" t="n">
+        <f aca="false">Q4</f>
+        <v>285</v>
+      </c>
+      <c r="AC4" s="0" t="n">
+        <f aca="false">ROUND(AB4*1.5,0)</f>
+        <v>428</v>
+      </c>
+      <c r="AD4" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE4" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH4" s="0" t="n">
+        <f aca="false">W4</f>
+        <v>12</v>
+      </c>
+      <c r="AI4" s="15" t="n">
+        <f aca="false">V4*10</f>
+        <v>250</v>
+      </c>
+      <c r="AJ4" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK4" s="15" t="n">
+        <f aca="false">U4*10</f>
+        <v>300</v>
+      </c>
+      <c r="AL4" s="12" t="str">
+        <f aca="false">CONCATENATE(H4,C4,"_1.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/3_merlin_monroe_popart_1.jpg</v>
+      </c>
+      <c r="AM4" s="13" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(H4, C4, "_2.jpg;"),CONCATENATE(H4, C4, "_3.jpg;"),CONCATENATE(H4, C4, "_4.jpg;"),CONCATENATE(H4, C4, "_5.jpg;"),CONCATENATE(H4, C4, "_6.jpg;"),CONCATENATE(H4, C4, "_7.jpg;"),CONCATENATE(H4, C4, "_8.jpg;"),CONCATENATE(H4, C4, "_9.jpg;"),CONCATENATE(H4, C4, "_10.jpg;"),CONCATENATE(H4, "instruction_A4.jpg;") )</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/3_merlin_monroe_popart_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/3_merlin_monroe_popart_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/3_merlin_monroe_popart_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/3_merlin_monroe_popart_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/3_merlin_monroe_popart_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/3_merlin_monroe_popart_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/3_merlin_monroe_popart_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/3_merlin_monroe_popart_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/3_merlin_monroe_popart_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;</v>
+      </c>
+      <c r="AP4" s="12" t="str">
+        <f aca="false">J4</f>
+        <v>Punky Monkey</v>
+      </c>
+      <c r="AQ4" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS4" s="10"/>
+      <c r="AT4" s="0" t="str">
+        <f aca="false">SUBSTITUTE(A4,"Термонаклейка ","")</f>
+        <v>Мэрилин Монро поп арт вырезки</v>
+      </c>
+      <c r="AU4" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="AV4" s="0" t="str">
+        <f aca="false">S4</f>
+        <v>Термонаклейка Мэрилин Монро поп арт вырезки. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+      </c>
+      <c r="AX4" s="15" t="str">
+        <f aca="false">X4</f>
+        <v>Россия</v>
+      </c>
+      <c r="BA4" s="15" t="str">
+        <f aca="false">R4</f>
+        <v>Полимерный материал</v>
+      </c>
+      <c r="BC4" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="BD4" s="10"/>
+      <c r="BE4" s="13" t="str">
+        <f aca="false">CONCATENATE(H4,C4,"_color.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/3_merlin_monroe_popart_color.jpg</v>
+      </c>
+      <c r="BM4" s="0" t="str">
+        <f aca="false">CONCATENATE("термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля,",SUBSTITUTE(A4,"Термонаклейка",""))</f>
+        <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Мэрилин Монро поп арт вырезки</v>
+      </c>
+      <c r="BR4" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="BS4" s="6" t="str">
+        <f aca="false">CONCATENATE(H4,"Video_DTF.mp4")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\", A5, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\Термонаклейка Африканская Девушка черный силуэт.pdf</v>
+      </c>
+      <c r="E5" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A5,"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Африканская Девушка черный силуэт_img.tif</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="M5" s="0" t="str">
+        <f aca="false">A5</f>
+        <v>Термонаклейка Африканская Девушка черный силуэт</v>
+      </c>
+      <c r="O5" s="0" t="str">
+        <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(A5, "Термонаклейка", "")</f>
+        <v>Термонаклейка для одежды: Африканская Девушка черный силуэт</v>
+      </c>
+      <c r="P5" s="0" t="n">
+        <f aca="false">B5</f>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="0" t="n">
+        <v>285</v>
+      </c>
+      <c r="R5" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="S5" s="7" t="str">
+        <f aca="false">CONCATENATE(A5,". Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.")</f>
+        <v>Термонаклейка Африканская Девушка черный силуэт. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+      </c>
+      <c r="T5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U5" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="V5" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="W5" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="X5" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y5" s="8" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(H5,C5,"_1.jpg;"),CONCATENATE(H5,C5,"_2.jpg;"),CONCATENATE(H5,C5,"_3.jpg;"),CONCATENATE(H5,C5,"_4.jpg;"),CONCATENATE(H5,C5,"_5.jpg;"),CONCATENATE(H5,C5,"_6.jpg;"),CONCATENATE(H5,C5,"_7.jpg;"),CONCATENATE(H5,C5,"_8.jpg;"),CONCATENATE(H5,C5,"_9.jpg;"),CONCATENATE(H5,C5,"_10.jpg;"),CONCATENATE(H5,"instruction_A4.jpg;"),CONCATENATE(H5,"Video_DTF.mp4;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/4_blackgirl1_250_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/4_blackgirl1_250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/4_blackgirl1_250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/4_blackgirl1_250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/4_blackgirl1_250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/4_blackgirl1_250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/4_blackgirl1_250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/4_blackgirl1_250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/4_blackgirl1_250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/4_blackgirl1_250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
+      </c>
+      <c r="AA5" s="0" t="str">
+        <f aca="false">A5</f>
+        <v>Термонаклейка Африканская Девушка черный силуэт</v>
+      </c>
+      <c r="AB5" s="0" t="n">
+        <f aca="false">Q5</f>
+        <v>285</v>
+      </c>
+      <c r="AC5" s="0" t="n">
+        <f aca="false">ROUND(AB5*1.5,0)</f>
+        <v>428</v>
+      </c>
+      <c r="AD5" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE5" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH5" s="0" t="n">
+        <f aca="false">W5</f>
+        <v>12</v>
+      </c>
+      <c r="AI5" s="15" t="n">
+        <f aca="false">V5*10</f>
+        <v>250</v>
+      </c>
+      <c r="AJ5" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK5" s="15" t="n">
+        <f aca="false">U5*10</f>
+        <v>300</v>
+      </c>
+      <c r="AL5" s="12" t="str">
+        <f aca="false">CONCATENATE(H5,C5,"_1.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/4_blackgirl1_250_1.jpg</v>
+      </c>
+      <c r="AM5" s="13" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(H5, C5, "_2.jpg;"),CONCATENATE(H5, C5, "_3.jpg;"),CONCATENATE(H5, C5, "_4.jpg;"),CONCATENATE(H5, C5, "_5.jpg;"),CONCATENATE(H5, C5, "_6.jpg;"),CONCATENATE(H5, C5, "_7.jpg;"),CONCATENATE(H5, C5, "_8.jpg;"),CONCATENATE(H5, C5, "_9.jpg;"),CONCATENATE(H5, C5, "_10.jpg;"),CONCATENATE(H5, "instruction_A4.jpg;") )</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/4_blackgirl1_250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/4_blackgirl1_250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/4_blackgirl1_250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/4_blackgirl1_250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/4_blackgirl1_250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/4_blackgirl1_250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/4_blackgirl1_250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/4_blackgirl1_250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/4_blackgirl1_250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;</v>
+      </c>
+      <c r="AP5" s="12" t="str">
+        <f aca="false">J5</f>
+        <v>Punky Monkey</v>
+      </c>
+      <c r="AQ5" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS5" s="10"/>
+      <c r="AT5" s="0" t="str">
+        <f aca="false">SUBSTITUTE(A5,"Термонаклейка ","")</f>
+        <v>Африканская Девушка черный силуэт</v>
+      </c>
+      <c r="AU5" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="AV5" s="0" t="str">
+        <f aca="false">S5</f>
+        <v>Термонаклейка Африканская Девушка черный силуэт. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+      </c>
+      <c r="AX5" s="15" t="str">
+        <f aca="false">X5</f>
+        <v>Россия</v>
+      </c>
+      <c r="BA5" s="15" t="str">
+        <f aca="false">R5</f>
+        <v>Полимерный материал</v>
+      </c>
+      <c r="BC5" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="BD5" s="10"/>
+      <c r="BE5" s="13" t="str">
+        <f aca="false">CONCATENATE(H5,C5,"_color.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/4_blackgirl1_250_color.jpg</v>
+      </c>
+      <c r="BM5" s="0" t="str">
+        <f aca="false">CONCATENATE("термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля,",SUBSTITUTE(A5,"Термонаклейка",""))</f>
+        <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Африканская Девушка черный силуэт</v>
+      </c>
+      <c r="BR5" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="BS5" s="6" t="str">
+        <f aca="false">CONCATENATE(H5,"Video_DTF.mp4")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\", A6, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\Термонаклейка Кот Шанель Chanel.pdf</v>
+      </c>
+      <c r="E6" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A6,"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Кот Шанель Chanel_img.tif</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="M6" s="0" t="str">
+        <f aca="false">A6</f>
+        <v>Термонаклейка Кот Шанель Chanel</v>
+      </c>
+      <c r="O6" s="0" t="str">
+        <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(A6, "Термонаклейка", "")</f>
+        <v>Термонаклейка для одежды: Кот Шанель Chanel</v>
+      </c>
+      <c r="P6" s="0" t="n">
+        <f aca="false">B6</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="0" t="n">
+        <v>285</v>
+      </c>
+      <c r="R6" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="S6" s="7" t="str">
+        <f aca="false">CONCATENATE(A6,". Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.")</f>
+        <v>Термонаклейка Кот Шанель Chanel. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+      </c>
+      <c r="T6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U6" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="V6" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="W6" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="X6" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y6" s="8" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(H6,C6,"_1.jpg;"),CONCATENATE(H6,C6,"_2.jpg;"),CONCATENATE(H6,C6,"_3.jpg;"),CONCATENATE(H6,C6,"_4.jpg;"),CONCATENATE(H6,C6,"_5.jpg;"),CONCATENATE(H6,C6,"_6.jpg;"),CONCATENATE(H6,C6,"_7.jpg;"),CONCATENATE(H6,C6,"_8.jpg;"),CONCATENATE(H6,C6,"_9.jpg;"),CONCATENATE(H6,C6,"_10.jpg;"),CONCATENATE(H6,"instruction_A4.jpg;"),CONCATENATE(H6,"Video_DTF.mp4;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/5_cat_channel_250_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/5_cat_channel_250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/5_cat_channel_250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/5_cat_channel_250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/5_cat_channel_250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/5_cat_channel_250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/5_cat_channel_250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/5_cat_channel_250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/5_cat_channel_250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/5_cat_channel_250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
+      </c>
+      <c r="AA6" s="0" t="str">
+        <f aca="false">A6</f>
+        <v>Термонаклейка Кот Шанель Chanel</v>
+      </c>
+      <c r="AB6" s="0" t="n">
+        <f aca="false">Q6</f>
+        <v>285</v>
+      </c>
+      <c r="AC6" s="0" t="n">
+        <f aca="false">ROUND(AB6*1.5,0)</f>
+        <v>428</v>
+      </c>
+      <c r="AD6" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE6" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH6" s="0" t="n">
+        <f aca="false">W6</f>
+        <v>12</v>
+      </c>
+      <c r="AI6" s="15" t="n">
+        <f aca="false">V6*10</f>
+        <v>250</v>
+      </c>
+      <c r="AJ6" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK6" s="15" t="n">
+        <f aca="false">U6*10</f>
+        <v>300</v>
+      </c>
+      <c r="AL6" s="12" t="str">
+        <f aca="false">CONCATENATE(H6,C6,"_1.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/5_cat_channel_250_1.jpg</v>
+      </c>
+      <c r="AM6" s="13" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(H6, C6, "_2.jpg;"),CONCATENATE(H6, C6, "_3.jpg;"),CONCATENATE(H6, C6, "_4.jpg;"),CONCATENATE(H6, C6, "_5.jpg;"),CONCATENATE(H6, C6, "_6.jpg;"),CONCATENATE(H6, C6, "_7.jpg;"),CONCATENATE(H6, C6, "_8.jpg;"),CONCATENATE(H6, C6, "_9.jpg;"),CONCATENATE(H6, C6, "_10.jpg;"),CONCATENATE(H6, "instruction_A4.jpg;") )</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/5_cat_channel_250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/5_cat_channel_250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/5_cat_channel_250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/5_cat_channel_250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/5_cat_channel_250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/5_cat_channel_250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/5_cat_channel_250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/5_cat_channel_250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/5_cat_channel_250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;</v>
+      </c>
+      <c r="AP6" s="12" t="str">
+        <f aca="false">J6</f>
+        <v>Punky Monkey</v>
+      </c>
+      <c r="AQ6" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS6" s="10"/>
+      <c r="AT6" s="0" t="str">
+        <f aca="false">SUBSTITUTE(A6,"Термонаклейка ","")</f>
+        <v>Кот Шанель Chanel</v>
+      </c>
+      <c r="AU6" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="AV6" s="0" t="str">
+        <f aca="false">S6</f>
+        <v>Термонаклейка Кот Шанель Chanel. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+      </c>
+      <c r="AX6" s="15" t="str">
+        <f aca="false">X6</f>
+        <v>Россия</v>
+      </c>
+      <c r="BA6" s="15" t="str">
+        <f aca="false">R6</f>
+        <v>Полимерный материал</v>
+      </c>
+      <c r="BC6" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="BD6" s="10"/>
+      <c r="BE6" s="13" t="str">
+        <f aca="false">CONCATENATE(H6,C6,"_color.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/5_cat_channel_250_color.jpg</v>
+      </c>
+      <c r="BM6" s="0" t="str">
+        <f aca="false">CONCATENATE("термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля,",SUBSTITUTE(A6,"Термонаклейка",""))</f>
+        <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Кот Шанель Chanel</v>
+      </c>
+      <c r="BR6" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="BS6" s="6" t="str">
+        <f aca="false">CONCATENATE(H6,"Video_DTF.mp4")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\", A7, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\Термонаклейка Кот выглядывает радуга.pdf</v>
+      </c>
+      <c r="E7" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A7,"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Кот выглядывает радуга_img.tif</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="M7" s="0" t="str">
+        <f aca="false">A7</f>
+        <v>Термонаклейка Кот выглядывает радуга</v>
+      </c>
+      <c r="O7" s="0" t="str">
+        <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(A7, "Термонаклейка", "")</f>
+        <v>Термонаклейка для одежды: Кот выглядывает радуга</v>
+      </c>
+      <c r="P7" s="0" t="n">
+        <f aca="false">B7</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="0" t="n">
+        <v>285</v>
+      </c>
+      <c r="R7" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="S7" s="7" t="str">
+        <f aca="false">CONCATENATE(A7,". Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.")</f>
+        <v>Термонаклейка Кот выглядывает радуга. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+      </c>
+      <c r="T7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U7" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="V7" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="W7" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="X7" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y7" s="8" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(H7,C7,"_1.jpg;"),CONCATENATE(H7,C7,"_2.jpg;"),CONCATENATE(H7,C7,"_3.jpg;"),CONCATENATE(H7,C7,"_4.jpg;"),CONCATENATE(H7,C7,"_5.jpg;"),CONCATENATE(H7,C7,"_6.jpg;"),CONCATENATE(H7,C7,"_7.jpg;"),CONCATENATE(H7,C7,"_8.jpg;"),CONCATENATE(H7,C7,"_9.jpg;"),CONCATENATE(H7,C7,"_10.jpg;"),CONCATENATE(H7,"instruction_A4.jpg;"),CONCATENATE(H7,"Video_DTF.mp4;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/6_cat_face_250_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/6_cat_face_250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/6_cat_face_250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/6_cat_face_250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/6_cat_face_250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/6_cat_face_250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/6_cat_face_250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/6_cat_face_250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/6_cat_face_250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/6_cat_face_250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
+      </c>
+      <c r="AA7" s="0" t="str">
+        <f aca="false">A7</f>
+        <v>Термонаклейка Кот выглядывает радуга</v>
+      </c>
+      <c r="AB7" s="0" t="n">
+        <f aca="false">Q7</f>
+        <v>285</v>
+      </c>
+      <c r="AC7" s="0" t="n">
+        <f aca="false">ROUND(AB7*1.5,0)</f>
+        <v>428</v>
+      </c>
+      <c r="AD7" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE7" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH7" s="0" t="n">
+        <f aca="false">W7</f>
+        <v>12</v>
+      </c>
+      <c r="AI7" s="15" t="n">
+        <f aca="false">V7*10</f>
+        <v>250</v>
+      </c>
+      <c r="AJ7" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK7" s="15" t="n">
+        <f aca="false">U7*10</f>
+        <v>300</v>
+      </c>
+      <c r="AL7" s="12" t="str">
+        <f aca="false">CONCATENATE(H7,C7,"_1.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/6_cat_face_250_1.jpg</v>
+      </c>
+      <c r="AM7" s="13" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(H7, C7, "_2.jpg;"),CONCATENATE(H7, C7, "_3.jpg;"),CONCATENATE(H7, C7, "_4.jpg;"),CONCATENATE(H7, C7, "_5.jpg;"),CONCATENATE(H7, C7, "_6.jpg;"),CONCATENATE(H7, C7, "_7.jpg;"),CONCATENATE(H7, C7, "_8.jpg;"),CONCATENATE(H7, C7, "_9.jpg;"),CONCATENATE(H7, C7, "_10.jpg;"),CONCATENATE(H7, "instruction_A4.jpg;") )</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/6_cat_face_250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/6_cat_face_250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/6_cat_face_250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/6_cat_face_250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/6_cat_face_250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/6_cat_face_250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/6_cat_face_250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/6_cat_face_250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/6_cat_face_250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;</v>
+      </c>
+      <c r="AP7" s="12" t="str">
+        <f aca="false">J7</f>
+        <v>Punky Monkey</v>
+      </c>
+      <c r="AQ7" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS7" s="10"/>
+      <c r="AT7" s="0" t="str">
+        <f aca="false">SUBSTITUTE(A7,"Термонаклейка ","")</f>
+        <v>Кот выглядывает радуга</v>
+      </c>
+      <c r="AU7" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="AV7" s="0" t="str">
+        <f aca="false">S7</f>
+        <v>Термонаклейка Кот выглядывает радуга. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+      </c>
+      <c r="AX7" s="15" t="str">
+        <f aca="false">X7</f>
+        <v>Россия</v>
+      </c>
+      <c r="BA7" s="15" t="str">
+        <f aca="false">R7</f>
+        <v>Полимерный материал</v>
+      </c>
+      <c r="BC7" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="BD7" s="10"/>
+      <c r="BE7" s="13" t="str">
+        <f aca="false">CONCATENATE(H7,C7,"_color.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/6_cat_face_250_color.jpg</v>
+      </c>
+      <c r="BM7" s="0" t="str">
+        <f aca="false">CONCATENATE("термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля,",SUBSTITUTE(A7,"Термонаклейка",""))</f>
+        <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Кот выглядывает радуга</v>
+      </c>
+      <c r="BR7" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="BS7" s="6" t="str">
+        <f aca="false">CONCATENATE(H7,"Video_DTF.mp4")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\", A8, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\Термонаклейка Кот картина Ван Гог.pdf</v>
+      </c>
+      <c r="E8" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A8,"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Кот картина Ван Гог_img.tif</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="M8" s="0" t="str">
+        <f aca="false">A8</f>
+        <v>Термонаклейка Кот картина Ван Гог</v>
+      </c>
+      <c r="O8" s="0" t="str">
+        <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(A8, "Термонаклейка", "")</f>
+        <v>Термонаклейка для одежды: Кот картина Ван Гог</v>
+      </c>
+      <c r="P8" s="0" t="n">
+        <f aca="false">B8</f>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="0" t="n">
+        <v>285</v>
+      </c>
+      <c r="R8" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="S8" s="7" t="str">
+        <f aca="false">CONCATENATE(A8,". Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.")</f>
+        <v>Термонаклейка Кот картина Ван Гог. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+      </c>
+      <c r="T8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U8" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="V8" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="W8" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="X8" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y8" s="8" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(H8,C8,"_1.jpg;"),CONCATENATE(H8,C8,"_2.jpg;"),CONCATENATE(H8,C8,"_3.jpg;"),CONCATENATE(H8,C8,"_4.jpg;"),CONCATENATE(H8,C8,"_5.jpg;"),CONCATENATE(H8,C8,"_6.jpg;"),CONCATENATE(H8,C8,"_7.jpg;"),CONCATENATE(H8,C8,"_8.jpg;"),CONCATENATE(H8,C8,"_9.jpg;"),CONCATENATE(H8,C8,"_10.jpg;"),CONCATENATE(H8,"instruction_A4.jpg;"),CONCATENATE(H8,"Video_DTF.mp4;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/7_cat250_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/7_cat250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/7_cat250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/7_cat250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/7_cat250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/7_cat250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/7_cat250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/7_cat250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/7_cat250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/7_cat250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
+      </c>
+      <c r="AA8" s="0" t="str">
+        <f aca="false">A8</f>
+        <v>Термонаклейка Кот картина Ван Гог</v>
+      </c>
+      <c r="AB8" s="0" t="n">
+        <f aca="false">Q8</f>
+        <v>285</v>
+      </c>
+      <c r="AC8" s="0" t="n">
+        <f aca="false">ROUND(AB8*1.5,0)</f>
+        <v>428</v>
+      </c>
+      <c r="AD8" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE8" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH8" s="0" t="n">
+        <f aca="false">W8</f>
+        <v>12</v>
+      </c>
+      <c r="AI8" s="15" t="n">
+        <f aca="false">V8*10</f>
+        <v>250</v>
+      </c>
+      <c r="AJ8" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK8" s="15" t="n">
+        <f aca="false">U8*10</f>
+        <v>300</v>
+      </c>
+      <c r="AL8" s="12" t="str">
+        <f aca="false">CONCATENATE(H8,C8,"_1.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/7_cat250_1.jpg</v>
+      </c>
+      <c r="AM8" s="13" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(H8, C8, "_2.jpg;"),CONCATENATE(H8, C8, "_3.jpg;"),CONCATENATE(H8, C8, "_4.jpg;"),CONCATENATE(H8, C8, "_5.jpg;"),CONCATENATE(H8, C8, "_6.jpg;"),CONCATENATE(H8, C8, "_7.jpg;"),CONCATENATE(H8, C8, "_8.jpg;"),CONCATENATE(H8, C8, "_9.jpg;"),CONCATENATE(H8, C8, "_10.jpg;"),CONCATENATE(H8, "instruction_A4.jpg;") )</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/7_cat250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/7_cat250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/7_cat250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/7_cat250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/7_cat250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/7_cat250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/7_cat250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/7_cat250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/7_cat250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;</v>
+      </c>
+      <c r="AP8" s="12" t="str">
+        <f aca="false">J8</f>
+        <v>Punky Monkey</v>
+      </c>
+      <c r="AQ8" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS8" s="10"/>
+      <c r="AT8" s="0" t="str">
+        <f aca="false">SUBSTITUTE(A8,"Термонаклейка ","")</f>
+        <v>Кот картина Ван Гог</v>
+      </c>
+      <c r="AU8" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="AV8" s="0" t="str">
+        <f aca="false">S8</f>
+        <v>Термонаклейка Кот картина Ван Гог. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+      </c>
+      <c r="AX8" s="15" t="str">
+        <f aca="false">X8</f>
+        <v>Россия</v>
+      </c>
+      <c r="BA8" s="15" t="str">
+        <f aca="false">R8</f>
+        <v>Полимерный материал</v>
+      </c>
+      <c r="BC8" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="BD8" s="10"/>
+      <c r="BE8" s="13" t="str">
+        <f aca="false">CONCATENATE(H8,C8,"_color.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/7_cat250_color.jpg</v>
+      </c>
+      <c r="BM8" s="0" t="str">
+        <f aca="false">CONCATENATE("термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля,",SUBSTITUTE(A8,"Термонаклейка",""))</f>
+        <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Кот картина Ван Гог</v>
+      </c>
+      <c r="BR8" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="BS8" s="6" t="str">
+        <f aca="false">CONCATENATE(H8,"Video_DTF.mp4")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\", A9, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\Термонаклейка мультяшный Кот картина Ван Гог.pdf</v>
+      </c>
+      <c r="E9" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A9,"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка мультяшный Кот картина Ван Гог_img.tif</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="M9" s="0" t="str">
+        <f aca="false">A9</f>
+        <v>Термонаклейка мультяшный Кот картина Ван Гог</v>
+      </c>
+      <c r="O9" s="0" t="str">
+        <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(A9, "Термонаклейка", "")</f>
+        <v>Термонаклейка для одежды: мультяшный Кот картина Ван Гог</v>
+      </c>
+      <c r="P9" s="0" t="n">
+        <f aca="false">B9</f>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="0" t="n">
+        <v>285</v>
+      </c>
+      <c r="R9" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="S9" s="7" t="str">
+        <f aca="false">CONCATENATE(A9,". Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.")</f>
+        <v>Термонаклейка мультяшный Кот картина Ван Гог. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+      </c>
+      <c r="T9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U9" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="V9" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="W9" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="X9" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y9" s="8" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(H9,C9,"_1.jpg;"),CONCATENATE(H9,C9,"_2.jpg;"),CONCATENATE(H9,C9,"_3.jpg;"),CONCATENATE(H9,C9,"_4.jpg;"),CONCATENATE(H9,C9,"_5.jpg;"),CONCATENATE(H9,C9,"_6.jpg;"),CONCATENATE(H9,C9,"_7.jpg;"),CONCATENATE(H9,C9,"_8.jpg;"),CONCATENATE(H9,C9,"_9.jpg;"),CONCATENATE(H9,C9,"_10.jpg;"),CONCATENATE(H9,"instruction_A4.jpg;"),CONCATENATE(H9,"Video_DTF.mp4;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/8_cat250_1_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/8_cat250_1_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/8_cat250_1_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/8_cat250_1_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/8_cat250_1_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/8_cat250_1_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/8_cat250_1_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/8_cat250_1_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/8_cat250_1_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/8_cat250_1_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
+      </c>
+      <c r="AA9" s="0" t="str">
+        <f aca="false">A9</f>
+        <v>Термонаклейка мультяшный Кот картина Ван Гог</v>
+      </c>
+      <c r="AB9" s="0" t="n">
+        <f aca="false">Q9</f>
+        <v>285</v>
+      </c>
+      <c r="AC9" s="0" t="n">
+        <f aca="false">ROUND(AB9*1.5,0)</f>
+        <v>428</v>
+      </c>
+      <c r="AD9" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE9" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH9" s="0" t="n">
+        <f aca="false">W9</f>
+        <v>12</v>
+      </c>
+      <c r="AI9" s="15" t="n">
+        <f aca="false">V9*10</f>
+        <v>250</v>
+      </c>
+      <c r="AJ9" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK9" s="15" t="n">
+        <f aca="false">U9*10</f>
+        <v>300</v>
+      </c>
+      <c r="AL9" s="12" t="str">
+        <f aca="false">CONCATENATE(H9,C9,"_1.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/8_cat250_1_1.jpg</v>
+      </c>
+      <c r="AM9" s="13" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(H9, C9, "_2.jpg;"),CONCATENATE(H9, C9, "_3.jpg;"),CONCATENATE(H9, C9, "_4.jpg;"),CONCATENATE(H9, C9, "_5.jpg;"),CONCATENATE(H9, C9, "_6.jpg;"),CONCATENATE(H9, C9, "_7.jpg;"),CONCATENATE(H9, C9, "_8.jpg;"),CONCATENATE(H9, C9, "_9.jpg;"),CONCATENATE(H9, C9, "_10.jpg;"),CONCATENATE(H9, "instruction_A4.jpg;") )</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/8_cat250_1_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/8_cat250_1_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/8_cat250_1_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/8_cat250_1_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/8_cat250_1_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/8_cat250_1_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/8_cat250_1_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/8_cat250_1_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/8_cat250_1_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;</v>
+      </c>
+      <c r="AP9" s="12" t="str">
+        <f aca="false">J9</f>
+        <v>Punky Monkey</v>
+      </c>
+      <c r="AQ9" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS9" s="10"/>
+      <c r="AT9" s="0" t="str">
+        <f aca="false">SUBSTITUTE(A9,"Термонаклейка ","")</f>
+        <v>мультяшный Кот картина Ван Гог</v>
+      </c>
+      <c r="AU9" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="AV9" s="0" t="str">
+        <f aca="false">S9</f>
+        <v>Термонаклейка мультяшный Кот картина Ван Гог. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+      </c>
+      <c r="AX9" s="15" t="str">
+        <f aca="false">X9</f>
+        <v>Россия</v>
+      </c>
+      <c r="BA9" s="15" t="str">
+        <f aca="false">R9</f>
+        <v>Полимерный материал</v>
+      </c>
+      <c r="BC9" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="BD9" s="10"/>
+      <c r="BE9" s="13" t="str">
+        <f aca="false">CONCATENATE(H9,C9,"_color.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/8_cat250_1_color.jpg</v>
+      </c>
+      <c r="BM9" s="0" t="str">
+        <f aca="false">CONCATENATE("термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля,",SUBSTITUTE(A9,"Термонаклейка",""))</f>
+        <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, мультяшный Кот картина Ван Гог</v>
+      </c>
+      <c r="BR9" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="BS9" s="6" t="str">
+        <f aca="false">CONCATENATE(H9,"Video_DTF.mp4")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\", A10, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\Термонаклейка Женщина кошка ест вишинку.pdf</v>
+      </c>
+      <c r="E10" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A10,"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Женщина кошка ест вишинку_img.tif</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="M10" s="0" t="str">
+        <f aca="false">A10</f>
+        <v>Термонаклейка Женщина кошка ест вишинку</v>
+      </c>
+      <c r="O10" s="0" t="str">
+        <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(A10, "Термонаклейка", "")</f>
+        <v>Термонаклейка для одежды: Женщина кошка ест вишинку</v>
+      </c>
+      <c r="P10" s="0" t="n">
+        <f aca="false">B10</f>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="0" t="n">
+        <v>285</v>
+      </c>
+      <c r="R10" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="S10" s="7" t="str">
+        <f aca="false">CONCATENATE(A10,". Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.")</f>
+        <v>Термонаклейка Женщина кошка ест вишинку. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+      </c>
+      <c r="T10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U10" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="V10" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="W10" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="X10" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y10" s="8" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(H10,C10,"_1.jpg;"),CONCATENATE(H10,C10,"_2.jpg;"),CONCATENATE(H10,C10,"_3.jpg;"),CONCATENATE(H10,C10,"_4.jpg;"),CONCATENATE(H10,C10,"_5.jpg;"),CONCATENATE(H10,C10,"_6.jpg;"),CONCATENATE(H10,C10,"_7.jpg;"),CONCATENATE(H10,C10,"_8.jpg;"),CONCATENATE(H10,C10,"_9.jpg;"),CONCATENATE(H10,C10,"_10.jpg;"),CONCATENATE(H10,"instruction_A4.jpg;"),CONCATENATE(H10,"Video_DTF.mp4;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/9_cherry_250_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/9_cherry_250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/9_cherry_250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/9_cherry_250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/9_cherry_250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/9_cherry_250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/9_cherry_250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/9_cherry_250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/9_cherry_250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/9_cherry_250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
+      </c>
+      <c r="AA10" s="0" t="str">
+        <f aca="false">A10</f>
+        <v>Термонаклейка Женщина кошка ест вишинку</v>
+      </c>
+      <c r="AB10" s="0" t="n">
+        <f aca="false">Q10</f>
+        <v>285</v>
+      </c>
+      <c r="AC10" s="0" t="n">
+        <f aca="false">ROUND(AB10*1.5,0)</f>
+        <v>428</v>
+      </c>
+      <c r="AD10" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE10" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH10" s="0" t="n">
+        <f aca="false">W10</f>
+        <v>12</v>
+      </c>
+      <c r="AI10" s="15" t="n">
+        <f aca="false">V10*10</f>
+        <v>250</v>
+      </c>
+      <c r="AJ10" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK10" s="15" t="n">
+        <f aca="false">U10*10</f>
+        <v>300</v>
+      </c>
+      <c r="AL10" s="12" t="str">
+        <f aca="false">CONCATENATE(H10,C10,"_1.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/9_cherry_250_1.jpg</v>
+      </c>
+      <c r="AM10" s="13" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(H10, C10, "_2.jpg;"),CONCATENATE(H10, C10, "_3.jpg;"),CONCATENATE(H10, C10, "_4.jpg;"),CONCATENATE(H10, C10, "_5.jpg;"),CONCATENATE(H10, C10, "_6.jpg;"),CONCATENATE(H10, C10, "_7.jpg;"),CONCATENATE(H10, C10, "_8.jpg;"),CONCATENATE(H10, C10, "_9.jpg;"),CONCATENATE(H10, C10, "_10.jpg;"),CONCATENATE(H10, "instruction_A4.jpg;") )</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/9_cherry_250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/9_cherry_250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/9_cherry_250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/9_cherry_250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/9_cherry_250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/9_cherry_250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/9_cherry_250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/9_cherry_250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/9_cherry_250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;</v>
+      </c>
+      <c r="AP10" s="12" t="str">
+        <f aca="false">J10</f>
+        <v>Punky Monkey</v>
+      </c>
+      <c r="AQ10" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS10" s="10"/>
+      <c r="AT10" s="0" t="str">
+        <f aca="false">SUBSTITUTE(A10,"Термонаклейка ","")</f>
+        <v>Женщина кошка ест вишинку</v>
+      </c>
+      <c r="AU10" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="AV10" s="0" t="str">
+        <f aca="false">S10</f>
+        <v>Термонаклейка Женщина кошка ест вишинку. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+      </c>
+      <c r="AX10" s="15" t="str">
+        <f aca="false">X10</f>
+        <v>Россия</v>
+      </c>
+      <c r="BA10" s="15" t="str">
+        <f aca="false">R10</f>
+        <v>Полимерный материал</v>
+      </c>
+      <c r="BC10" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="BD10" s="10"/>
+      <c r="BE10" s="13" t="str">
+        <f aca="false">CONCATENATE(H10,C10,"_color.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/9_cherry_250_color.jpg</v>
+      </c>
+      <c r="BM10" s="0" t="str">
+        <f aca="false">CONCATENATE("термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля,",SUBSTITUTE(A10,"Термонаклейка",""))</f>
+        <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Женщина кошка ест вишинку</v>
+      </c>
+      <c r="BR10" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="BS10" s="6" t="str">
+        <f aca="false">CONCATENATE(H10,"Video_DTF.mp4")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="D11" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\", A11, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\Термонаклейка Красные перцы.pdf</v>
+      </c>
+      <c r="E11" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A11,"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Красные перцы_img.tif</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="M11" s="0" t="str">
+        <f aca="false">A11</f>
+        <v>Термонаклейка Красные перцы</v>
+      </c>
+      <c r="O11" s="0" t="str">
+        <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(A11, "Термонаклейка", "")</f>
+        <v>Термонаклейка для одежды: Красные перцы</v>
+      </c>
+      <c r="P11" s="0" t="n">
+        <f aca="false">B11</f>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="0" t="n">
+        <v>285</v>
+      </c>
+      <c r="R11" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="S11" s="7" t="str">
+        <f aca="false">CONCATENATE(A11,". Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.")</f>
+        <v>Термонаклейка Красные перцы. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+      </c>
+      <c r="T11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U11" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="V11" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="W11" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="X11" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y11" s="8" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(H11,C11,"_1.jpg;"),CONCATENATE(H11,C11,"_2.jpg;"),CONCATENATE(H11,C11,"_3.jpg;"),CONCATENATE(H11,C11,"_4.jpg;"),CONCATENATE(H11,C11,"_5.jpg;"),CONCATENATE(H11,C11,"_6.jpg;"),CONCATENATE(H11,C11,"_7.jpg;"),CONCATENATE(H11,C11,"_8.jpg;"),CONCATENATE(H11,C11,"_9.jpg;"),CONCATENATE(H11,C11,"_10.jpg;"),CONCATENATE(H11,"instruction_A4.jpg;"),CONCATENATE(H11,"Video_DTF.mp4;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/10_chillis_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/10_chillis_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/10_chillis_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/10_chillis_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/10_chillis_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/10_chillis_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/10_chillis_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/10_chillis_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/10_chillis_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/10_chillis_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
+      </c>
+      <c r="AA11" s="0" t="str">
+        <f aca="false">A11</f>
+        <v>Термонаклейка Красные перцы</v>
+      </c>
+      <c r="AB11" s="0" t="n">
+        <f aca="false">Q11</f>
+        <v>285</v>
+      </c>
+      <c r="AC11" s="0" t="n">
+        <f aca="false">ROUND(AB11*1.5,0)</f>
+        <v>428</v>
+      </c>
+      <c r="AD11" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE11" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH11" s="0" t="n">
+        <f aca="false">W11</f>
+        <v>12</v>
+      </c>
+      <c r="AI11" s="15" t="n">
+        <f aca="false">V11*10</f>
+        <v>250</v>
+      </c>
+      <c r="AJ11" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK11" s="15" t="n">
+        <f aca="false">U11*10</f>
+        <v>300</v>
+      </c>
+      <c r="AL11" s="12" t="str">
+        <f aca="false">CONCATENATE(H11,C11,"_1.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/10_chillis_1.jpg</v>
+      </c>
+      <c r="AM11" s="13" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(H11, C11, "_2.jpg;"),CONCATENATE(H11, C11, "_3.jpg;"),CONCATENATE(H11, C11, "_4.jpg;"),CONCATENATE(H11, C11, "_5.jpg;"),CONCATENATE(H11, C11, "_6.jpg;"),CONCATENATE(H11, C11, "_7.jpg;"),CONCATENATE(H11, C11, "_8.jpg;"),CONCATENATE(H11, C11, "_9.jpg;"),CONCATENATE(H11, C11, "_10.jpg;"),CONCATENATE(H11, "instruction_A4.jpg;") )</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/10_chillis_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/10_chillis_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/10_chillis_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/10_chillis_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/10_chillis_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/10_chillis_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/10_chillis_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/10_chillis_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/10_chillis_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;</v>
+      </c>
+      <c r="AP11" s="12" t="str">
+        <f aca="false">J11</f>
+        <v>Punky Monkey</v>
+      </c>
+      <c r="AQ11" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS11" s="10"/>
+      <c r="AT11" s="0" t="str">
+        <f aca="false">SUBSTITUTE(A11,"Термонаклейка ","")</f>
+        <v>Красные перцы</v>
+      </c>
+      <c r="AU11" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="AV11" s="0" t="str">
+        <f aca="false">S11</f>
+        <v>Термонаклейка Красные перцы. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+      </c>
+      <c r="AX11" s="15" t="str">
+        <f aca="false">X11</f>
+        <v>Россия</v>
+      </c>
+      <c r="BA11" s="15" t="str">
+        <f aca="false">R11</f>
+        <v>Полимерный материал</v>
+      </c>
+      <c r="BC11" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="BD11" s="10"/>
+      <c r="BE11" s="13" t="str">
+        <f aca="false">CONCATENATE(H11,C11,"_color.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/10_chillis_color.jpg</v>
+      </c>
+      <c r="BM11" s="0" t="str">
+        <f aca="false">CONCATENATE("термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля,",SUBSTITUTE(A11,"Термонаклейка",""))</f>
+        <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Красные перцы</v>
+      </c>
+      <c r="BR11" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="BS11" s="6" t="str">
+        <f aca="false">CONCATENATE(H11,"Video_DTF.mp4")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\", A12, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\Термонаклейка Dior Диор Девушка курит облако.pdf</v>
+      </c>
+      <c r="E12" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A12,"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Dior Диор Девушка курит облако_img.tif</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="M12" s="0" t="str">
+        <f aca="false">A12</f>
+        <v>Термонаклейка Dior Диор Девушка курит облако</v>
+      </c>
+      <c r="O12" s="0" t="str">
+        <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(A12, "Термонаклейка", "")</f>
+        <v>Термонаклейка для одежды: Dior Диор Девушка курит облако</v>
+      </c>
+      <c r="P12" s="0" t="n">
+        <f aca="false">B12</f>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="0" t="n">
+        <v>285</v>
+      </c>
+      <c r="R12" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="S12" s="7" t="str">
+        <f aca="false">CONCATENATE(A12,". Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.")</f>
+        <v>Термонаклейка Dior Диор Девушка курит облако. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+      </c>
+      <c r="T12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U12" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="V12" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="W12" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="X12" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y12" s="8" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(H12,C12,"_1.jpg;"),CONCATENATE(H12,C12,"_2.jpg;"),CONCATENATE(H12,C12,"_3.jpg;"),CONCATENATE(H12,C12,"_4.jpg;"),CONCATENATE(H12,C12,"_5.jpg;"),CONCATENATE(H12,C12,"_6.jpg;"),CONCATENATE(H12,C12,"_7.jpg;"),CONCATENATE(H12,C12,"_8.jpg;"),CONCATENATE(H12,C12,"_9.jpg;"),CONCATENATE(H12,C12,"_10.jpg;"),CONCATENATE(H12,"instruction_A4.jpg;"),CONCATENATE(H12,"Video_DTF.mp4;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/11_dior2_260_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/11_dior2_260_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/11_dior2_260_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/11_dior2_260_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/11_dior2_260_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/11_dior2_260_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/11_dior2_260_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/11_dior2_260_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/11_dior2_260_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/11_dior2_260_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
+      </c>
+      <c r="AA12" s="0" t="str">
+        <f aca="false">A12</f>
+        <v>Термонаклейка Dior Диор Девушка курит облако</v>
+      </c>
+      <c r="AB12" s="0" t="n">
+        <f aca="false">Q12</f>
+        <v>285</v>
+      </c>
+      <c r="AC12" s="0" t="n">
+        <f aca="false">ROUND(AB12*1.5,0)</f>
+        <v>428</v>
+      </c>
+      <c r="AD12" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE12" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH12" s="0" t="n">
+        <f aca="false">W12</f>
+        <v>12</v>
+      </c>
+      <c r="AI12" s="15" t="n">
+        <f aca="false">V12*10</f>
+        <v>250</v>
+      </c>
+      <c r="AJ12" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK12" s="15" t="n">
+        <f aca="false">U12*10</f>
+        <v>300</v>
+      </c>
+      <c r="AL12" s="12" t="str">
+        <f aca="false">CONCATENATE(H12,C12,"_1.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/11_dior2_260_1.jpg</v>
+      </c>
+      <c r="AM12" s="13" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(H12, C12, "_2.jpg;"),CONCATENATE(H12, C12, "_3.jpg;"),CONCATENATE(H12, C12, "_4.jpg;"),CONCATENATE(H12, C12, "_5.jpg;"),CONCATENATE(H12, C12, "_6.jpg;"),CONCATENATE(H12, C12, "_7.jpg;"),CONCATENATE(H12, C12, "_8.jpg;"),CONCATENATE(H12, C12, "_9.jpg;"),CONCATENATE(H12, C12, "_10.jpg;"),CONCATENATE(H12, "instruction_A4.jpg;") )</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/11_dior2_260_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/11_dior2_260_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/11_dior2_260_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/11_dior2_260_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/11_dior2_260_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/11_dior2_260_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/11_dior2_260_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/11_dior2_260_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/11_dior2_260_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;</v>
+      </c>
+      <c r="AP12" s="12" t="str">
+        <f aca="false">J12</f>
+        <v>Punky Monkey</v>
+      </c>
+      <c r="AQ12" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS12" s="10"/>
+      <c r="AT12" s="0" t="str">
+        <f aca="false">SUBSTITUTE(A12,"Термонаклейка ","")</f>
+        <v>Dior Диор Девушка курит облако</v>
+      </c>
+      <c r="AU12" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="AV12" s="0" t="str">
+        <f aca="false">S12</f>
+        <v>Термонаклейка Dior Диор Девушка курит облако. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+      </c>
+      <c r="AX12" s="15" t="str">
+        <f aca="false">X12</f>
+        <v>Россия</v>
+      </c>
+      <c r="BA12" s="15" t="str">
+        <f aca="false">R12</f>
+        <v>Полимерный материал</v>
+      </c>
+      <c r="BC12" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="BD12" s="10"/>
+      <c r="BE12" s="13" t="str">
+        <f aca="false">CONCATENATE(H12,C12,"_color.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/11_dior2_260_color.jpg</v>
+      </c>
+      <c r="BM12" s="0" t="str">
+        <f aca="false">CONCATENATE("термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля,",SUBSTITUTE(A12,"Термонаклейка",""))</f>
+        <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Dior Диор Девушка курит облако</v>
+      </c>
+      <c r="BR12" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="BS12" s="6" t="str">
+        <f aca="false">CONCATENATE(H12,"Video_DTF.mp4")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="D13" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\", A13, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\Термонаклейка Dior Диор Цветы.pdf</v>
+      </c>
+      <c r="E13" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A13,"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Dior Диор Цветы_img.tif</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="M13" s="0" t="str">
+        <f aca="false">A13</f>
+        <v>Термонаклейка Dior Диор Цветы</v>
+      </c>
+      <c r="O13" s="0" t="str">
+        <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(A13, "Термонаклейка", "")</f>
+        <v>Термонаклейка для одежды: Dior Диор Цветы</v>
+      </c>
+      <c r="P13" s="0" t="n">
+        <f aca="false">B13</f>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="0" t="n">
+        <v>285</v>
+      </c>
+      <c r="R13" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="S13" s="7" t="str">
+        <f aca="false">CONCATENATE(A13,". Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.")</f>
+        <v>Термонаклейка Dior Диор Цветы. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+      </c>
+      <c r="T13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U13" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="V13" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="W13" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="X13" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y13" s="8" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(H13,C13,"_1.jpg;"),CONCATENATE(H13,C13,"_2.jpg;"),CONCATENATE(H13,C13,"_3.jpg;"),CONCATENATE(H13,C13,"_4.jpg;"),CONCATENATE(H13,C13,"_5.jpg;"),CONCATENATE(H13,C13,"_6.jpg;"),CONCATENATE(H13,C13,"_7.jpg;"),CONCATENATE(H13,C13,"_8.jpg;"),CONCATENATE(H13,C13,"_9.jpg;"),CONCATENATE(H13,C13,"_10.jpg;"),CONCATENATE(H13,"instruction_A4.jpg;"),CONCATENATE(H13,"Video_DTF.mp4;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/12_dior250_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/12_dior250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/12_dior250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/12_dior250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/12_dior250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/12_dior250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/12_dior250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/12_dior250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/12_dior250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/12_dior250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
+      </c>
+      <c r="AA13" s="0" t="str">
+        <f aca="false">A13</f>
+        <v>Термонаклейка Dior Диор Цветы</v>
+      </c>
+      <c r="AB13" s="0" t="n">
+        <f aca="false">Q13</f>
+        <v>285</v>
+      </c>
+      <c r="AC13" s="0" t="n">
+        <f aca="false">ROUND(AB13*1.5,0)</f>
+        <v>428</v>
+      </c>
+      <c r="AD13" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE13" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH13" s="0" t="n">
+        <f aca="false">W13</f>
+        <v>12</v>
+      </c>
+      <c r="AI13" s="15" t="n">
+        <f aca="false">V13*10</f>
+        <v>250</v>
+      </c>
+      <c r="AJ13" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK13" s="15" t="n">
+        <f aca="false">U13*10</f>
+        <v>300</v>
+      </c>
+      <c r="AL13" s="12" t="str">
+        <f aca="false">CONCATENATE(H13,C13,"_1.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/12_dior250_1.jpg</v>
+      </c>
+      <c r="AM13" s="13" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(H13, C13, "_2.jpg;"),CONCATENATE(H13, C13, "_3.jpg;"),CONCATENATE(H13, C13, "_4.jpg;"),CONCATENATE(H13, C13, "_5.jpg;"),CONCATENATE(H13, C13, "_6.jpg;"),CONCATENATE(H13, C13, "_7.jpg;"),CONCATENATE(H13, C13, "_8.jpg;"),CONCATENATE(H13, C13, "_9.jpg;"),CONCATENATE(H13, C13, "_10.jpg;"),CONCATENATE(H13, "instruction_A4.jpg;") )</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/12_dior250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/12_dior250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/12_dior250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/12_dior250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/12_dior250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/12_dior250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/12_dior250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/12_dior250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/12_dior250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;</v>
+      </c>
+      <c r="AP13" s="12" t="str">
+        <f aca="false">J13</f>
+        <v>Punky Monkey</v>
+      </c>
+      <c r="AQ13" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS13" s="10"/>
+      <c r="AT13" s="0" t="str">
+        <f aca="false">SUBSTITUTE(A13,"Термонаклейка ","")</f>
+        <v>Dior Диор Цветы</v>
+      </c>
+      <c r="AU13" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="AV13" s="0" t="str">
+        <f aca="false">S13</f>
+        <v>Термонаклейка Dior Диор Цветы. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+      </c>
+      <c r="AX13" s="15" t="str">
+        <f aca="false">X13</f>
+        <v>Россия</v>
+      </c>
+      <c r="BA13" s="15" t="str">
+        <f aca="false">R13</f>
+        <v>Полимерный материал</v>
+      </c>
+      <c r="BC13" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="BD13" s="10"/>
+      <c r="BE13" s="13" t="str">
+        <f aca="false">CONCATENATE(H13,C13,"_color.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/12_dior250_color.jpg</v>
+      </c>
+      <c r="BM13" s="0" t="str">
+        <f aca="false">CONCATENATE("термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля,",SUBSTITUTE(A13,"Термонаклейка",""))</f>
+        <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Dior Диор Цветы</v>
+      </c>
+      <c r="BR13" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="BS13" s="6" t="str">
+        <f aca="false">CONCATENATE(H13,"Video_DTF.mp4")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="D14" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\", A14, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\Термонаклейка Vogue Вог Эйфелева башня.pdf</v>
+      </c>
+      <c r="E14" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A14,"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Vogue Вог Эйфелева башня_img.tif</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="M14" s="0" t="str">
+        <f aca="false">A14</f>
+        <v>Термонаклейка Vogue Вог Эйфелева башня</v>
+      </c>
+      <c r="O14" s="0" t="str">
+        <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(A14, "Термонаклейка", "")</f>
+        <v>Термонаклейка для одежды: Vogue Вог Эйфелева башня</v>
+      </c>
+      <c r="P14" s="0" t="n">
+        <f aca="false">B14</f>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="0" t="n">
+        <v>285</v>
+      </c>
+      <c r="R14" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="S14" s="7" t="str">
+        <f aca="false">CONCATENATE(A14,". Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.")</f>
+        <v>Термонаклейка Vogue Вог Эйфелева башня. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+      </c>
+      <c r="T14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U14" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="V14" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="W14" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="X14" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y14" s="8" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(H14,C14,"_1.jpg;"),CONCATENATE(H14,C14,"_2.jpg;"),CONCATENATE(H14,C14,"_3.jpg;"),CONCATENATE(H14,C14,"_4.jpg;"),CONCATENATE(H14,C14,"_5.jpg;"),CONCATENATE(H14,C14,"_6.jpg;"),CONCATENATE(H14,C14,"_7.jpg;"),CONCATENATE(H14,C14,"_8.jpg;"),CONCATENATE(H14,C14,"_9.jpg;"),CONCATENATE(H14,C14,"_10.jpg;"),CONCATENATE(H14,"instruction_A4.jpg;"),CONCATENATE(H14,"Video_DTF.mp4;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/13_efel250_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/13_efel250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/13_efel250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/13_efel250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/13_efel250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/13_efel250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/13_efel250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/13_efel250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/13_efel250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/13_efel250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
+      </c>
+      <c r="AA14" s="0" t="str">
+        <f aca="false">A14</f>
+        <v>Термонаклейка Vogue Вог Эйфелева башня</v>
+      </c>
+      <c r="AB14" s="0" t="n">
+        <f aca="false">Q14</f>
+        <v>285</v>
+      </c>
+      <c r="AC14" s="0" t="n">
+        <f aca="false">ROUND(AB14*1.5,0)</f>
+        <v>428</v>
+      </c>
+      <c r="AD14" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE14" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH14" s="0" t="n">
+        <f aca="false">W14</f>
+        <v>12</v>
+      </c>
+      <c r="AI14" s="15" t="n">
+        <f aca="false">V14*10</f>
+        <v>250</v>
+      </c>
+      <c r="AJ14" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK14" s="15" t="n">
+        <f aca="false">U14*10</f>
+        <v>300</v>
+      </c>
+      <c r="AL14" s="12" t="str">
+        <f aca="false">CONCATENATE(H14,C14,"_1.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/13_efel250_1.jpg</v>
+      </c>
+      <c r="AM14" s="13" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(H14, C14, "_2.jpg;"),CONCATENATE(H14, C14, "_3.jpg;"),CONCATENATE(H14, C14, "_4.jpg;"),CONCATENATE(H14, C14, "_5.jpg;"),CONCATENATE(H14, C14, "_6.jpg;"),CONCATENATE(H14, C14, "_7.jpg;"),CONCATENATE(H14, C14, "_8.jpg;"),CONCATENATE(H14, C14, "_9.jpg;"),CONCATENATE(H14, C14, "_10.jpg;"),CONCATENATE(H14, "instruction_A4.jpg;") )</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/13_efel250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/13_efel250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/13_efel250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/13_efel250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/13_efel250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/13_efel250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/13_efel250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/13_efel250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/13_efel250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;</v>
+      </c>
+      <c r="AP14" s="12" t="str">
+        <f aca="false">J14</f>
+        <v>Punky Monkey</v>
+      </c>
+      <c r="AQ14" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS14" s="10"/>
+      <c r="AT14" s="0" t="str">
+        <f aca="false">SUBSTITUTE(A14,"Термонаклейка ","")</f>
+        <v>Vogue Вог Эйфелева башня</v>
+      </c>
+      <c r="AU14" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="AV14" s="0" t="str">
+        <f aca="false">S14</f>
+        <v>Термонаклейка Vogue Вог Эйфелева башня. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+      </c>
+      <c r="AX14" s="15" t="str">
+        <f aca="false">X14</f>
+        <v>Россия</v>
+      </c>
+      <c r="BA14" s="15" t="str">
+        <f aca="false">R14</f>
+        <v>Полимерный материал</v>
+      </c>
+      <c r="BC14" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="BD14" s="10"/>
+      <c r="BE14" s="13" t="str">
+        <f aca="false">CONCATENATE(H14,C14,"_color.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/13_efel250_color.jpg</v>
+      </c>
+      <c r="BM14" s="0" t="str">
+        <f aca="false">CONCATENATE("термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля,",SUBSTITUTE(A14,"Термонаклейка",""))</f>
+        <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Vogue Вог Эйфелева башня</v>
+      </c>
+      <c r="BR14" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="BS14" s="6" t="str">
+        <f aca="false">CONCATENATE(H14,"Video_DTF.mp4")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="D15" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\", A15, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\Термонаклейка Бюст статуи Feelings скрыты глаза.pdf</v>
+      </c>
+      <c r="E15" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A15,"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Бюст статуи Feelings скрыты глаза_img.tif</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="M15" s="0" t="str">
+        <f aca="false">A15</f>
+        <v>Термонаклейка Бюст статуи Feelings скрыты глаза</v>
+      </c>
+      <c r="O15" s="0" t="str">
+        <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(A15, "Термонаклейка", "")</f>
+        <v>Термонаклейка для одежды: Бюст статуи Feelings скрыты глаза</v>
+      </c>
+      <c r="P15" s="0" t="n">
+        <f aca="false">B15</f>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="0" t="n">
+        <v>285</v>
+      </c>
+      <c r="R15" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="S15" s="7" t="str">
+        <f aca="false">CONCATENATE(A15,". Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.")</f>
+        <v>Термонаклейка Бюст статуи Feelings скрыты глаза. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+      </c>
+      <c r="T15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U15" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="V15" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="W15" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="X15" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y15" s="8" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(H15,C15,"_1.jpg;"),CONCATENATE(H15,C15,"_2.jpg;"),CONCATENATE(H15,C15,"_3.jpg;"),CONCATENATE(H15,C15,"_4.jpg;"),CONCATENATE(H15,C15,"_5.jpg;"),CONCATENATE(H15,C15,"_6.jpg;"),CONCATENATE(H15,C15,"_7.jpg;"),CONCATENATE(H15,C15,"_8.jpg;"),CONCATENATE(H15,C15,"_9.jpg;"),CONCATENATE(H15,C15,"_10.jpg;"),CONCATENATE(H15,"instruction_A4.jpg;"),CONCATENATE(H15,"Video_DTF.mp4;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/14_feelings_250_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/14_feelings_250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/14_feelings_250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/14_feelings_250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/14_feelings_250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/14_feelings_250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/14_feelings_250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/14_feelings_250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/14_feelings_250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/14_feelings_250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
+      </c>
+      <c r="AA15" s="0" t="str">
+        <f aca="false">A15</f>
+        <v>Термонаклейка Бюст статуи Feelings скрыты глаза</v>
+      </c>
+      <c r="AB15" s="0" t="n">
+        <f aca="false">Q15</f>
+        <v>285</v>
+      </c>
+      <c r="AC15" s="0" t="n">
+        <f aca="false">ROUND(AB15*1.5,0)</f>
+        <v>428</v>
+      </c>
+      <c r="AD15" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE15" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH15" s="0" t="n">
+        <f aca="false">W15</f>
+        <v>12</v>
+      </c>
+      <c r="AI15" s="15" t="n">
+        <f aca="false">V15*10</f>
+        <v>250</v>
+      </c>
+      <c r="AJ15" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK15" s="15" t="n">
+        <f aca="false">U15*10</f>
+        <v>300</v>
+      </c>
+      <c r="AL15" s="12" t="str">
+        <f aca="false">CONCATENATE(H15,C15,"_1.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/14_feelings_250_1.jpg</v>
+      </c>
+      <c r="AM15" s="13" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(H15, C15, "_2.jpg;"),CONCATENATE(H15, C15, "_3.jpg;"),CONCATENATE(H15, C15, "_4.jpg;"),CONCATENATE(H15, C15, "_5.jpg;"),CONCATENATE(H15, C15, "_6.jpg;"),CONCATENATE(H15, C15, "_7.jpg;"),CONCATENATE(H15, C15, "_8.jpg;"),CONCATENATE(H15, C15, "_9.jpg;"),CONCATENATE(H15, C15, "_10.jpg;"),CONCATENATE(H15, "instruction_A4.jpg;") )</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/14_feelings_250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/14_feelings_250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/14_feelings_250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/14_feelings_250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/14_feelings_250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/14_feelings_250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/14_feelings_250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/14_feelings_250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/14_feelings_250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;</v>
+      </c>
+      <c r="AP15" s="12" t="str">
+        <f aca="false">J15</f>
+        <v>Punky Monkey</v>
+      </c>
+      <c r="AQ15" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS15" s="10"/>
+      <c r="AT15" s="0" t="str">
+        <f aca="false">SUBSTITUTE(A15,"Термонаклейка ","")</f>
+        <v>Бюст статуи Feelings скрыты глаза</v>
+      </c>
+      <c r="AU15" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="AV15" s="0" t="str">
+        <f aca="false">S15</f>
+        <v>Термонаклейка Бюст статуи Feelings скрыты глаза. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+      </c>
+      <c r="AX15" s="15" t="str">
+        <f aca="false">X15</f>
+        <v>Россия</v>
+      </c>
+      <c r="BA15" s="15" t="str">
+        <f aca="false">R15</f>
+        <v>Полимерный материал</v>
+      </c>
+      <c r="BC15" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="BD15" s="10"/>
+      <c r="BE15" s="13" t="str">
+        <f aca="false">CONCATENATE(H15,C15,"_color.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/14_feelings_250_color.jpg</v>
+      </c>
+      <c r="BM15" s="0" t="str">
+        <f aca="false">CONCATENATE("термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля,",SUBSTITUTE(A15,"Термонаклейка",""))</f>
+        <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Бюст статуи Feelings скрыты глаза</v>
+      </c>
+      <c r="BR15" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="BS15" s="6" t="str">
+        <f aca="false">CONCATENATE(H15,"Video_DTF.mp4")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="D16" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\", A16, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\Термонаклейка Рыба паттерн яркая красивая.pdf</v>
+      </c>
+      <c r="E16" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A16,"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Рыба паттерн яркая красивая_img.tif</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="M16" s="0" t="str">
+        <f aca="false">A16</f>
+        <v>Термонаклейка Рыба паттерн яркая красивая</v>
+      </c>
+      <c r="O16" s="0" t="str">
+        <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(A16, "Термонаклейка", "")</f>
+        <v>Термонаклейка для одежды: Рыба паттерн яркая красивая</v>
+      </c>
+      <c r="P16" s="0" t="n">
+        <f aca="false">B16</f>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="0" t="n">
+        <v>285</v>
+      </c>
+      <c r="R16" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="S16" s="7" t="str">
+        <f aca="false">CONCATENATE(A16,". Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.")</f>
+        <v>Термонаклейка Рыба паттерн яркая красивая. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+      </c>
+      <c r="T16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U16" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="V16" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="W16" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="X16" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y16" s="8" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(H16,C16,"_1.jpg;"),CONCATENATE(H16,C16,"_2.jpg;"),CONCATENATE(H16,C16,"_3.jpg;"),CONCATENATE(H16,C16,"_4.jpg;"),CONCATENATE(H16,C16,"_5.jpg;"),CONCATENATE(H16,C16,"_6.jpg;"),CONCATENATE(H16,C16,"_7.jpg;"),CONCATENATE(H16,C16,"_8.jpg;"),CONCATENATE(H16,C16,"_9.jpg;"),CONCATENATE(H16,C16,"_10.jpg;"),CONCATENATE(H16,"instruction_A4.jpg;"),CONCATENATE(H16,"Video_DTF.mp4;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/15_fish250_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/15_fish250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/15_fish250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/15_fish250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/15_fish250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/15_fish250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/15_fish250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/15_fish250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/15_fish250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/15_fish250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
+      </c>
+      <c r="AA16" s="0" t="str">
+        <f aca="false">A16</f>
+        <v>Термонаклейка Рыба паттерн яркая красивая</v>
+      </c>
+      <c r="AB16" s="0" t="n">
+        <f aca="false">Q16</f>
+        <v>285</v>
+      </c>
+      <c r="AC16" s="0" t="n">
+        <f aca="false">ROUND(AB16*1.5,0)</f>
+        <v>428</v>
+      </c>
+      <c r="AD16" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE16" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH16" s="0" t="n">
+        <f aca="false">W16</f>
+        <v>12</v>
+      </c>
+      <c r="AI16" s="15" t="n">
+        <f aca="false">V16*10</f>
+        <v>250</v>
+      </c>
+      <c r="AJ16" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK16" s="15" t="n">
+        <f aca="false">U16*10</f>
+        <v>300</v>
+      </c>
+      <c r="AL16" s="12" t="str">
+        <f aca="false">CONCATENATE(H16,C16,"_1.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/15_fish250_1.jpg</v>
+      </c>
+      <c r="AM16" s="13" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(H16, C16, "_2.jpg;"),CONCATENATE(H16, C16, "_3.jpg;"),CONCATENATE(H16, C16, "_4.jpg;"),CONCATENATE(H16, C16, "_5.jpg;"),CONCATENATE(H16, C16, "_6.jpg;"),CONCATENATE(H16, C16, "_7.jpg;"),CONCATENATE(H16, C16, "_8.jpg;"),CONCATENATE(H16, C16, "_9.jpg;"),CONCATENATE(H16, C16, "_10.jpg;"),CONCATENATE(H16, "instruction_A4.jpg;") )</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/15_fish250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/15_fish250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/15_fish250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/15_fish250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/15_fish250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/15_fish250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/15_fish250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/15_fish250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/15_fish250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;</v>
+      </c>
+      <c r="AP16" s="12" t="str">
+        <f aca="false">J16</f>
+        <v>Punky Monkey</v>
+      </c>
+      <c r="AQ16" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS16" s="10"/>
+      <c r="AT16" s="0" t="str">
+        <f aca="false">SUBSTITUTE(A16,"Термонаклейка ","")</f>
+        <v>Рыба паттерн яркая красивая</v>
+      </c>
+      <c r="AU16" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="AV16" s="0" t="str">
+        <f aca="false">S16</f>
+        <v>Термонаклейка Рыба паттерн яркая красивая. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+      </c>
+      <c r="AX16" s="15" t="str">
+        <f aca="false">X16</f>
+        <v>Россия</v>
+      </c>
+      <c r="BA16" s="15" t="str">
+        <f aca="false">R16</f>
+        <v>Полимерный материал</v>
+      </c>
+      <c r="BC16" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="BD16" s="10"/>
+      <c r="BE16" s="13" t="str">
+        <f aca="false">CONCATENATE(H16,C16,"_color.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/15_fish250_color.jpg</v>
+      </c>
+      <c r="BM16" s="0" t="str">
+        <f aca="false">CONCATENATE("термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля,",SUBSTITUTE(A16,"Термонаклейка",""))</f>
+        <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Рыба паттерн яркая красивая</v>
+      </c>
+      <c r="BR16" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="BS16" s="6" t="str">
+        <f aca="false">CONCATENATE(H16,"Video_DTF.mp4")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="D17" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\", A17, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\Термонаклейка Розовый Фламинго цветок.pdf</v>
+      </c>
+      <c r="E17" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A17,"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Розовый Фламинго цветок_img.tif</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="M17" s="0" t="str">
+        <f aca="false">A17</f>
+        <v>Термонаклейка Розовый Фламинго цветок</v>
+      </c>
+      <c r="O17" s="0" t="str">
+        <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(A17, "Термонаклейка", "")</f>
+        <v>Термонаклейка для одежды: Розовый Фламинго цветок</v>
+      </c>
+      <c r="P17" s="0" t="n">
+        <f aca="false">B17</f>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="0" t="n">
+        <v>285</v>
+      </c>
+      <c r="R17" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="S17" s="7" t="str">
+        <f aca="false">CONCATENATE(A17,". Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.")</f>
+        <v>Термонаклейка Розовый Фламинго цветок. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+      </c>
+      <c r="T17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U17" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="V17" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="W17" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="X17" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y17" s="8" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(H17,C17,"_1.jpg;"),CONCATENATE(H17,C17,"_2.jpg;"),CONCATENATE(H17,C17,"_3.jpg;"),CONCATENATE(H17,C17,"_4.jpg;"),CONCATENATE(H17,C17,"_5.jpg;"),CONCATENATE(H17,C17,"_6.jpg;"),CONCATENATE(H17,C17,"_7.jpg;"),CONCATENATE(H17,C17,"_8.jpg;"),CONCATENATE(H17,C17,"_9.jpg;"),CONCATENATE(H17,C17,"_10.jpg;"),CONCATENATE(H17,"instruction_A4.jpg;"),CONCATENATE(H17,"Video_DTF.mp4;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/16_flamingo250_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/16_flamingo250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/16_flamingo250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/16_flamingo250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/16_flamingo250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/16_flamingo250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/16_flamingo250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/16_flamingo250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/16_flamingo250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/16_flamingo250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
+      </c>
+      <c r="AA17" s="0" t="str">
+        <f aca="false">A17</f>
+        <v>Термонаклейка Розовый Фламинго цветок</v>
+      </c>
+      <c r="AB17" s="0" t="n">
+        <f aca="false">Q17</f>
+        <v>285</v>
+      </c>
+      <c r="AC17" s="0" t="n">
+        <f aca="false">ROUND(AB17*1.5,0)</f>
+        <v>428</v>
+      </c>
+      <c r="AD17" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE17" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH17" s="0" t="n">
+        <f aca="false">W17</f>
+        <v>12</v>
+      </c>
+      <c r="AI17" s="15" t="n">
+        <f aca="false">V17*10</f>
+        <v>250</v>
+      </c>
+      <c r="AJ17" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK17" s="15" t="n">
+        <f aca="false">U17*10</f>
+        <v>300</v>
+      </c>
+      <c r="AL17" s="12" t="str">
+        <f aca="false">CONCATENATE(H17,C17,"_1.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/16_flamingo250_1.jpg</v>
+      </c>
+      <c r="AM17" s="13" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(H17, C17, "_2.jpg;"),CONCATENATE(H17, C17, "_3.jpg;"),CONCATENATE(H17, C17, "_4.jpg;"),CONCATENATE(H17, C17, "_5.jpg;"),CONCATENATE(H17, C17, "_6.jpg;"),CONCATENATE(H17, C17, "_7.jpg;"),CONCATENATE(H17, C17, "_8.jpg;"),CONCATENATE(H17, C17, "_9.jpg;"),CONCATENATE(H17, C17, "_10.jpg;"),CONCATENATE(H17, "instruction_A4.jpg;") )</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/16_flamingo250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/16_flamingo250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/16_flamingo250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/16_flamingo250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/16_flamingo250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/16_flamingo250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/16_flamingo250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/16_flamingo250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/16_flamingo250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;</v>
+      </c>
+      <c r="AP17" s="12" t="str">
+        <f aca="false">J17</f>
+        <v>Punky Monkey</v>
+      </c>
+      <c r="AQ17" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS17" s="10"/>
+      <c r="AT17" s="0" t="str">
+        <f aca="false">SUBSTITUTE(A17,"Термонаклейка ","")</f>
+        <v>Розовый Фламинго цветок</v>
+      </c>
+      <c r="AU17" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="AV17" s="0" t="str">
+        <f aca="false">S17</f>
+        <v>Термонаклейка Розовый Фламинго цветок. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+      </c>
+      <c r="AX17" s="15" t="str">
+        <f aca="false">X17</f>
+        <v>Россия</v>
+      </c>
+      <c r="BA17" s="15" t="str">
+        <f aca="false">R17</f>
+        <v>Полимерный материал</v>
+      </c>
+      <c r="BC17" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="BD17" s="10"/>
+      <c r="BE17" s="13" t="str">
+        <f aca="false">CONCATENATE(H17,C17,"_color.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/16_flamingo250_color.jpg</v>
+      </c>
+      <c r="BM17" s="0" t="str">
+        <f aca="false">CONCATENATE("термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля,",SUBSTITUTE(A17,"Термонаклейка",""))</f>
+        <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Розовый Фламинго цветок</v>
+      </c>
+      <c r="BR17" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="BS17" s="6" t="str">
+        <f aca="false">CONCATENATE(H17,"Video_DTF.mp4")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="D18" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\", A18, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\Термонаклейка Дали Ван Гог Фрида Кало в машине.pdf</v>
+      </c>
+      <c r="E18" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A18,"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Дали Ван Гог Фрида Кало в машине_img.tif</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="I18" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="M18" s="0" t="str">
+        <f aca="false">A18</f>
+        <v>Термонаклейка Дали Ван Гог Фрида Кало в машине</v>
+      </c>
+      <c r="O18" s="0" t="str">
+        <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(A18, "Термонаклейка", "")</f>
+        <v>Термонаклейка для одежды: Дали Ван Гог Фрида Кало в машине</v>
+      </c>
+      <c r="P18" s="0" t="n">
+        <f aca="false">B18</f>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="0" t="n">
+        <v>285</v>
+      </c>
+      <c r="R18" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="S18" s="7" t="str">
+        <f aca="false">CONCATENATE(A18,". Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.")</f>
+        <v>Термонаклейка Дали Ван Гог Фрида Кало в машине. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+      </c>
+      <c r="T18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U18" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="V18" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="W18" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="X18" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y18" s="8" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(H18,C18,"_1.jpg;"),CONCATENATE(H18,C18,"_2.jpg;"),CONCATENATE(H18,C18,"_3.jpg;"),CONCATENATE(H18,C18,"_4.jpg;"),CONCATENATE(H18,C18,"_5.jpg;"),CONCATENATE(H18,C18,"_6.jpg;"),CONCATENATE(H18,C18,"_7.jpg;"),CONCATENATE(H18,C18,"_8.jpg;"),CONCATENATE(H18,C18,"_9.jpg;"),CONCATENATE(H18,C18,"_10.jpg;"),CONCATENATE(H18,"instruction_A4.jpg;"),CONCATENATE(H18,"Video_DTF.mp4;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/17_freands1_250_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/17_freands1_250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/17_freands1_250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/17_freands1_250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/17_freands1_250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/17_freands1_250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/17_freands1_250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/17_freands1_250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/17_freands1_250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/17_freands1_250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
+      </c>
+      <c r="AA18" s="0" t="str">
+        <f aca="false">A18</f>
+        <v>Термонаклейка Дали Ван Гог Фрида Кало в машине</v>
+      </c>
+      <c r="AB18" s="0" t="n">
+        <f aca="false">Q18</f>
+        <v>285</v>
+      </c>
+      <c r="AC18" s="0" t="n">
+        <f aca="false">ROUND(AB18*1.5,0)</f>
+        <v>428</v>
+      </c>
+      <c r="AD18" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE18" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH18" s="0" t="n">
+        <f aca="false">W18</f>
+        <v>12</v>
+      </c>
+      <c r="AI18" s="15" t="n">
+        <f aca="false">V18*10</f>
+        <v>250</v>
+      </c>
+      <c r="AJ18" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK18" s="15" t="n">
+        <f aca="false">U18*10</f>
+        <v>300</v>
+      </c>
+      <c r="AL18" s="12" t="str">
+        <f aca="false">CONCATENATE(H18,C18,"_1.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/17_freands1_250_1.jpg</v>
+      </c>
+      <c r="AM18" s="13" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(H18, C18, "_2.jpg;"),CONCATENATE(H18, C18, "_3.jpg;"),CONCATENATE(H18, C18, "_4.jpg;"),CONCATENATE(H18, C18, "_5.jpg;"),CONCATENATE(H18, C18, "_6.jpg;"),CONCATENATE(H18, C18, "_7.jpg;"),CONCATENATE(H18, C18, "_8.jpg;"),CONCATENATE(H18, C18, "_9.jpg;"),CONCATENATE(H18, C18, "_10.jpg;"),CONCATENATE(H18, "instruction_A4.jpg;") )</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/17_freands1_250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/17_freands1_250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/17_freands1_250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/17_freands1_250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/17_freands1_250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/17_freands1_250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/17_freands1_250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/17_freands1_250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/17_freands1_250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;</v>
+      </c>
+      <c r="AP18" s="12" t="str">
+        <f aca="false">J18</f>
+        <v>Punky Monkey</v>
+      </c>
+      <c r="AQ18" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS18" s="10"/>
+      <c r="AT18" s="0" t="str">
+        <f aca="false">SUBSTITUTE(A18,"Термонаклейка ","")</f>
+        <v>Дали Ван Гог Фрида Кало в машине</v>
+      </c>
+      <c r="AU18" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="AV18" s="0" t="str">
+        <f aca="false">S18</f>
+        <v>Термонаклейка Дали Ван Гог Фрида Кало в машине. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+      </c>
+      <c r="AX18" s="15" t="str">
+        <f aca="false">X18</f>
+        <v>Россия</v>
+      </c>
+      <c r="BA18" s="15" t="str">
+        <f aca="false">R18</f>
+        <v>Полимерный материал</v>
+      </c>
+      <c r="BC18" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="BD18" s="10"/>
+      <c r="BE18" s="13" t="str">
+        <f aca="false">CONCATENATE(H18,C18,"_color.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/17_freands1_250_color.jpg</v>
+      </c>
+      <c r="BM18" s="0" t="str">
+        <f aca="false">CONCATENATE("термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля,",SUBSTITUTE(A18,"Термонаклейка",""))</f>
+        <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Дали Ван Гог Фрида Кало в машине</v>
+      </c>
+      <c r="BR18" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="BS18" s="6" t="str">
+        <f aca="false">CONCATENATE(H18,"Video_DTF.mp4")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="D19" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\", A19, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\Термонаклейка Женщина кошка пьет молоко из стакана.pdf</v>
+      </c>
+      <c r="E19" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A19,"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Женщина кошка пьет молоко из стакана_img.tif</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="I19" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="J19" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="M19" s="0" t="str">
+        <f aca="false">A19</f>
+        <v>Термонаклейка Женщина кошка пьет молоко из стакана</v>
+      </c>
+      <c r="O19" s="0" t="str">
+        <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(A19, "Термонаклейка", "")</f>
+        <v>Термонаклейка для одежды: Женщина кошка пьет молоко из стакана</v>
+      </c>
+      <c r="P19" s="0" t="n">
+        <f aca="false">B19</f>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="0" t="n">
+        <v>285</v>
+      </c>
+      <c r="R19" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="S19" s="7" t="str">
+        <f aca="false">CONCATENATE(A19,". Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.")</f>
+        <v>Термонаклейка Женщина кошка пьет молоко из стакана. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+      </c>
+      <c r="T19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U19" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="V19" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="W19" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="X19" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y19" s="8" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(H19,C19,"_1.jpg;"),CONCATENATE(H19,C19,"_2.jpg;"),CONCATENATE(H19,C19,"_3.jpg;"),CONCATENATE(H19,C19,"_4.jpg;"),CONCATENATE(H19,C19,"_5.jpg;"),CONCATENATE(H19,C19,"_6.jpg;"),CONCATENATE(H19,C19,"_7.jpg;"),CONCATENATE(H19,C19,"_8.jpg;"),CONCATENATE(H19,C19,"_9.jpg;"),CONCATENATE(H19,C19,"_10.jpg;"),CONCATENATE(H19,"instruction_A4.jpg;"),CONCATENATE(H19,"Video_DTF.mp4;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/18_girl_drink_250_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/18_girl_drink_250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/18_girl_drink_250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/18_girl_drink_250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/18_girl_drink_250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/18_girl_drink_250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/18_girl_drink_250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/18_girl_drink_250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/18_girl_drink_250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/18_girl_drink_250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
+      </c>
+      <c r="AA19" s="0" t="str">
+        <f aca="false">A19</f>
+        <v>Термонаклейка Женщина кошка пьет молоко из стакана</v>
+      </c>
+      <c r="AB19" s="0" t="n">
+        <f aca="false">Q19</f>
+        <v>285</v>
+      </c>
+      <c r="AC19" s="0" t="n">
+        <f aca="false">ROUND(AB19*1.5,0)</f>
+        <v>428</v>
+      </c>
+      <c r="AD19" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE19" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH19" s="0" t="n">
+        <f aca="false">W19</f>
+        <v>12</v>
+      </c>
+      <c r="AI19" s="15" t="n">
+        <f aca="false">V19*10</f>
+        <v>250</v>
+      </c>
+      <c r="AJ19" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK19" s="15" t="n">
+        <f aca="false">U19*10</f>
+        <v>300</v>
+      </c>
+      <c r="AL19" s="12" t="str">
+        <f aca="false">CONCATENATE(H19,C19,"_1.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/18_girl_drink_250_1.jpg</v>
+      </c>
+      <c r="AM19" s="13" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(H19, C19, "_2.jpg;"),CONCATENATE(H19, C19, "_3.jpg;"),CONCATENATE(H19, C19, "_4.jpg;"),CONCATENATE(H19, C19, "_5.jpg;"),CONCATENATE(H19, C19, "_6.jpg;"),CONCATENATE(H19, C19, "_7.jpg;"),CONCATENATE(H19, C19, "_8.jpg;"),CONCATENATE(H19, C19, "_9.jpg;"),CONCATENATE(H19, C19, "_10.jpg;"),CONCATENATE(H19, "instruction_A4.jpg;") )</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/18_girl_drink_250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/18_girl_drink_250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/18_girl_drink_250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/18_girl_drink_250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/18_girl_drink_250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/18_girl_drink_250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/18_girl_drink_250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/18_girl_drink_250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/18_girl_drink_250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;</v>
+      </c>
+      <c r="AP19" s="12" t="str">
+        <f aca="false">J19</f>
+        <v>Punky Monkey</v>
+      </c>
+      <c r="AQ19" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS19" s="10"/>
+      <c r="AT19" s="0" t="str">
+        <f aca="false">SUBSTITUTE(A19,"Термонаклейка ","")</f>
+        <v>Женщина кошка пьет молоко из стакана</v>
+      </c>
+      <c r="AU19" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="AV19" s="0" t="str">
+        <f aca="false">S19</f>
+        <v>Термонаклейка Женщина кошка пьет молоко из стакана. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+      </c>
+      <c r="AX19" s="15" t="str">
+        <f aca="false">X19</f>
+        <v>Россия</v>
+      </c>
+      <c r="BA19" s="15" t="str">
+        <f aca="false">R19</f>
+        <v>Полимерный материал</v>
+      </c>
+      <c r="BC19" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="BD19" s="10"/>
+      <c r="BE19" s="13" t="str">
+        <f aca="false">CONCATENATE(H19,C19,"_color.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/18_girl_drink_250_color.jpg</v>
+      </c>
+      <c r="BM19" s="0" t="str">
+        <f aca="false">CONCATENATE("термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля,",SUBSTITUTE(A19,"Термонаклейка",""))</f>
+        <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Женщина кошка пьет молоко из стакана</v>
+      </c>
+      <c r="BR19" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="BS19" s="6" t="str">
+        <f aca="false">CONCATENATE(H19,"Video_DTF.mp4")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="D20" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\", A20, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\Термонаклейка Африка Девушка разнацветные воосы.pdf</v>
+      </c>
+      <c r="E20" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A20,"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Африка Девушка разнацветные воосы_img.tif</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="I20" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="J20" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="M20" s="0" t="str">
+        <f aca="false">A20</f>
+        <v>Термонаклейка Африка Девушка разнацветные воосы</v>
+      </c>
+      <c r="O20" s="0" t="str">
+        <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(A20, "Термонаклейка", "")</f>
+        <v>Термонаклейка для одежды: Африка Девушка разнацветные воосы</v>
+      </c>
+      <c r="P20" s="0" t="n">
+        <f aca="false">B20</f>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="0" t="n">
+        <v>285</v>
+      </c>
+      <c r="R20" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="S20" s="7" t="str">
+        <f aca="false">CONCATENATE(A20,". Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.")</f>
+        <v>Термонаклейка Африка Девушка разнацветные воосы. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+      </c>
+      <c r="T20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U20" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="V20" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="W20" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="X20" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y20" s="8" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(H20,C20,"_1.jpg;"),CONCATENATE(H20,C20,"_2.jpg;"),CONCATENATE(H20,C20,"_3.jpg;"),CONCATENATE(H20,C20,"_4.jpg;"),CONCATENATE(H20,C20,"_5.jpg;"),CONCATENATE(H20,C20,"_6.jpg;"),CONCATENATE(H20,C20,"_7.jpg;"),CONCATENATE(H20,C20,"_8.jpg;"),CONCATENATE(H20,C20,"_9.jpg;"),CONCATENATE(H20,C20,"_10.jpg;"),CONCATENATE(H20,"instruction_A4.jpg;"),CONCATENATE(H20,"Video_DTF.mp4;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/19_girl_hair_250_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/19_girl_hair_250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/19_girl_hair_250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/19_girl_hair_250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/19_girl_hair_250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/19_girl_hair_250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/19_girl_hair_250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/19_girl_hair_250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/19_girl_hair_250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/19_girl_hair_250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
+      </c>
+      <c r="AA20" s="0" t="str">
+        <f aca="false">A20</f>
+        <v>Термонаклейка Африка Девушка разнацветные воосы</v>
+      </c>
+      <c r="AB20" s="0" t="n">
+        <f aca="false">Q20</f>
+        <v>285</v>
+      </c>
+      <c r="AC20" s="0" t="n">
+        <f aca="false">ROUND(AB20*1.5,0)</f>
+        <v>428</v>
+      </c>
+      <c r="AD20" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE20" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH20" s="0" t="n">
+        <f aca="false">W20</f>
+        <v>12</v>
+      </c>
+      <c r="AI20" s="15" t="n">
+        <f aca="false">V20*10</f>
+        <v>250</v>
+      </c>
+      <c r="AJ20" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK20" s="15" t="n">
+        <f aca="false">U20*10</f>
+        <v>300</v>
+      </c>
+      <c r="AL20" s="12" t="str">
+        <f aca="false">CONCATENATE(H20,C20,"_1.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/19_girl_hair_250_1.jpg</v>
+      </c>
+      <c r="AM20" s="13" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(H20, C20, "_2.jpg;"),CONCATENATE(H20, C20, "_3.jpg;"),CONCATENATE(H20, C20, "_4.jpg;"),CONCATENATE(H20, C20, "_5.jpg;"),CONCATENATE(H20, C20, "_6.jpg;"),CONCATENATE(H20, C20, "_7.jpg;"),CONCATENATE(H20, C20, "_8.jpg;"),CONCATENATE(H20, C20, "_9.jpg;"),CONCATENATE(H20, C20, "_10.jpg;"),CONCATENATE(H20, "instruction_A4.jpg;") )</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/19_girl_hair_250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/19_girl_hair_250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/19_girl_hair_250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/19_girl_hair_250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/19_girl_hair_250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/19_girl_hair_250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/19_girl_hair_250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/19_girl_hair_250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/19_girl_hair_250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;</v>
+      </c>
+      <c r="AP20" s="12" t="str">
+        <f aca="false">J20</f>
+        <v>Punky Monkey</v>
+      </c>
+      <c r="AQ20" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS20" s="10"/>
+      <c r="AT20" s="0" t="str">
+        <f aca="false">SUBSTITUTE(A20,"Термонаклейка ","")</f>
+        <v>Африка Девушка разнацветные воосы</v>
+      </c>
+      <c r="AU20" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="AV20" s="0" t="str">
+        <f aca="false">S20</f>
+        <v>Термонаклейка Африка Девушка разнацветные воосы. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+      </c>
+      <c r="AX20" s="15" t="str">
+        <f aca="false">X20</f>
+        <v>Россия</v>
+      </c>
+      <c r="BA20" s="15" t="str">
+        <f aca="false">R20</f>
+        <v>Полимерный материал</v>
+      </c>
+      <c r="BC20" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="BD20" s="10"/>
+      <c r="BE20" s="13" t="str">
+        <f aca="false">CONCATENATE(H20,C20,"_color.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/19_girl_hair_250_color.jpg</v>
+      </c>
+      <c r="BM20" s="0" t="str">
+        <f aca="false">CONCATENATE("термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля,",SUBSTITUTE(A20,"Термонаклейка",""))</f>
+        <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Африка Девушка разнацветные воосы</v>
+      </c>
+      <c r="BR20" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="BS20" s="6" t="str">
+        <f aca="false">CONCATENATE(H20,"Video_DTF.mp4")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="D21" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\", A21, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\Термонаклейка Леопардовая блондинка девушка mood.pdf</v>
+      </c>
+      <c r="E21" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A21,"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Леопардовая блондинка девушка mood_img.tif</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="I21" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="J21" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="M21" s="0" t="str">
+        <f aca="false">A21</f>
+        <v>Термонаклейка Леопардовая блондинка девушка mood</v>
+      </c>
+      <c r="O21" s="0" t="str">
+        <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(A21, "Термонаклейка", "")</f>
+        <v>Термонаклейка для одежды: Леопардовая блондинка девушка mood</v>
+      </c>
+      <c r="P21" s="0" t="n">
+        <f aca="false">B21</f>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="0" t="n">
+        <v>285</v>
+      </c>
+      <c r="R21" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="S21" s="7" t="str">
+        <f aca="false">CONCATENATE(A21,". Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.")</f>
+        <v>Термонаклейка Леопардовая блондинка девушка mood. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+      </c>
+      <c r="T21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U21" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="V21" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="W21" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="X21" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y21" s="8" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(H21,C21,"_1.jpg;"),CONCATENATE(H21,C21,"_2.jpg;"),CONCATENATE(H21,C21,"_3.jpg;"),CONCATENATE(H21,C21,"_4.jpg;"),CONCATENATE(H21,C21,"_5.jpg;"),CONCATENATE(H21,C21,"_6.jpg;"),CONCATENATE(H21,C21,"_7.jpg;"),CONCATENATE(H21,C21,"_8.jpg;"),CONCATENATE(H21,C21,"_9.jpg;"),CONCATENATE(H21,C21,"_10.jpg;"),CONCATENATE(H21,"instruction_A4.jpg;"),CONCATENATE(H21,"Video_DTF.mp4;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/20_girl1_260_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/20_girl1_260_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/20_girl1_260_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/20_girl1_260_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/20_girl1_260_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/20_girl1_260_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/20_girl1_260_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/20_girl1_260_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/20_girl1_260_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/20_girl1_260_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
+      </c>
+      <c r="AA21" s="0" t="str">
+        <f aca="false">A21</f>
+        <v>Термонаклейка Леопардовая блондинка девушка mood</v>
+      </c>
+      <c r="AB21" s="0" t="n">
+        <f aca="false">Q21</f>
+        <v>285</v>
+      </c>
+      <c r="AC21" s="0" t="n">
+        <f aca="false">ROUND(AB21*1.5,0)</f>
+        <v>428</v>
+      </c>
+      <c r="AD21" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE21" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH21" s="0" t="n">
+        <f aca="false">W21</f>
+        <v>12</v>
+      </c>
+      <c r="AI21" s="15" t="n">
+        <f aca="false">V21*10</f>
+        <v>250</v>
+      </c>
+      <c r="AJ21" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK21" s="15" t="n">
+        <f aca="false">U21*10</f>
+        <v>300</v>
+      </c>
+      <c r="AL21" s="12" t="str">
+        <f aca="false">CONCATENATE(H21,C21,"_1.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/20_girl1_260_1.jpg</v>
+      </c>
+      <c r="AM21" s="13" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(H21, C21, "_2.jpg;"),CONCATENATE(H21, C21, "_3.jpg;"),CONCATENATE(H21, C21, "_4.jpg;"),CONCATENATE(H21, C21, "_5.jpg;"),CONCATENATE(H21, C21, "_6.jpg;"),CONCATENATE(H21, C21, "_7.jpg;"),CONCATENATE(H21, C21, "_8.jpg;"),CONCATENATE(H21, C21, "_9.jpg;"),CONCATENATE(H21, C21, "_10.jpg;"),CONCATENATE(H21, "instruction_A4.jpg;") )</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/20_girl1_260_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/20_girl1_260_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/20_girl1_260_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/20_girl1_260_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/20_girl1_260_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/20_girl1_260_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/20_girl1_260_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/20_girl1_260_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/20_girl1_260_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;</v>
+      </c>
+      <c r="AP21" s="12" t="str">
+        <f aca="false">J21</f>
+        <v>Punky Monkey</v>
+      </c>
+      <c r="AQ21" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS21" s="10"/>
+      <c r="AT21" s="0" t="str">
+        <f aca="false">SUBSTITUTE(A21,"Термонаклейка ","")</f>
+        <v>Леопардовая блондинка девушка mood</v>
+      </c>
+      <c r="AU21" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="AV21" s="0" t="str">
+        <f aca="false">S21</f>
+        <v>Термонаклейка Леопардовая блондинка девушка mood. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+      </c>
+      <c r="AX21" s="15" t="str">
+        <f aca="false">X21</f>
+        <v>Россия</v>
+      </c>
+      <c r="BA21" s="15" t="str">
+        <f aca="false">R21</f>
+        <v>Полимерный материал</v>
+      </c>
+      <c r="BC21" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="BD21" s="10"/>
+      <c r="BE21" s="13" t="str">
+        <f aca="false">CONCATENATE(H21,C21,"_color.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/20_girl1_260_color.jpg</v>
+      </c>
+      <c r="BM21" s="0" t="str">
+        <f aca="false">CONCATENATE("термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля,",SUBSTITUTE(A21,"Термонаклейка",""))</f>
+        <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Леопардовая блондинка девушка mood</v>
+      </c>
+      <c r="BR21" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="BS21" s="6" t="str">
+        <f aca="false">CONCATENATE(H21,"Video_DTF.mp4")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="D22" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\", A22, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\Термонаклейка Цветы Черный Силуэт Девушки.pdf</v>
+      </c>
+      <c r="E22" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A22,"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Цветы Черный Силуэт Девушки_img.tif</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="I22" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="J22" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="M22" s="0" t="str">
+        <f aca="false">A22</f>
+        <v>Термонаклейка Цветы Черный Силуэт Девушки</v>
+      </c>
+      <c r="O22" s="0" t="str">
+        <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(A22, "Термонаклейка", "")</f>
+        <v>Термонаклейка для одежды: Цветы Черный Силуэт Девушки</v>
+      </c>
+      <c r="P22" s="0" t="n">
+        <f aca="false">B22</f>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="0" t="n">
+        <v>285</v>
+      </c>
+      <c r="R22" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="S22" s="7" t="str">
+        <f aca="false">CONCATENATE(A22,". Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.")</f>
+        <v>Термонаклейка Цветы Черный Силуэт Девушки. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+      </c>
+      <c r="T22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U22" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="V22" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="W22" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="X22" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y22" s="8" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(H22,C22,"_1.jpg;"),CONCATENATE(H22,C22,"_2.jpg;"),CONCATENATE(H22,C22,"_3.jpg;"),CONCATENATE(H22,C22,"_4.jpg;"),CONCATENATE(H22,C22,"_5.jpg;"),CONCATENATE(H22,C22,"_6.jpg;"),CONCATENATE(H22,C22,"_7.jpg;"),CONCATENATE(H22,C22,"_8.jpg;"),CONCATENATE(H22,C22,"_9.jpg;"),CONCATENATE(H22,C22,"_10.jpg;"),CONCATENATE(H22,"instruction_A4.jpg;"),CONCATENATE(H22,"Video_DTF.mp4;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/21_head250_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/21_head250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/21_head250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/21_head250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/21_head250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/21_head250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/21_head250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/21_head250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/21_head250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/21_head250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
+      </c>
+      <c r="AA22" s="0" t="str">
+        <f aca="false">A22</f>
+        <v>Термонаклейка Цветы Черный Силуэт Девушки</v>
+      </c>
+      <c r="AB22" s="0" t="n">
+        <f aca="false">Q22</f>
+        <v>285</v>
+      </c>
+      <c r="AC22" s="0" t="n">
+        <f aca="false">ROUND(AB22*1.5,0)</f>
+        <v>428</v>
+      </c>
+      <c r="AD22" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE22" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH22" s="0" t="n">
+        <f aca="false">W22</f>
+        <v>12</v>
+      </c>
+      <c r="AI22" s="15" t="n">
+        <f aca="false">V22*10</f>
+        <v>250</v>
+      </c>
+      <c r="AJ22" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK22" s="15" t="n">
+        <f aca="false">U22*10</f>
+        <v>300</v>
+      </c>
+      <c r="AL22" s="12" t="str">
+        <f aca="false">CONCATENATE(H22,C22,"_1.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/21_head250_1.jpg</v>
+      </c>
+      <c r="AM22" s="13" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(H22, C22, "_2.jpg;"),CONCATENATE(H22, C22, "_3.jpg;"),CONCATENATE(H22, C22, "_4.jpg;"),CONCATENATE(H22, C22, "_5.jpg;"),CONCATENATE(H22, C22, "_6.jpg;"),CONCATENATE(H22, C22, "_7.jpg;"),CONCATENATE(H22, C22, "_8.jpg;"),CONCATENATE(H22, C22, "_9.jpg;"),CONCATENATE(H22, C22, "_10.jpg;"),CONCATENATE(H22, "instruction_A4.jpg;") )</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/21_head250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/21_head250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/21_head250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/21_head250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/21_head250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/21_head250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/21_head250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/21_head250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/21_head250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;</v>
+      </c>
+      <c r="AP22" s="12" t="str">
+        <f aca="false">J22</f>
+        <v>Punky Monkey</v>
+      </c>
+      <c r="AQ22" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS22" s="10"/>
+      <c r="AT22" s="0" t="str">
+        <f aca="false">SUBSTITUTE(A22,"Термонаклейка ","")</f>
+        <v>Цветы Черный Силуэт Девушки</v>
+      </c>
+      <c r="AU22" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="AV22" s="0" t="str">
+        <f aca="false">S22</f>
+        <v>Термонаклейка Цветы Черный Силуэт Девушки. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+      </c>
+      <c r="AX22" s="15" t="str">
+        <f aca="false">X22</f>
+        <v>Россия</v>
+      </c>
+      <c r="BA22" s="15" t="str">
+        <f aca="false">R22</f>
+        <v>Полимерный материал</v>
+      </c>
+      <c r="BC22" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="BD22" s="10"/>
+      <c r="BE22" s="13" t="str">
+        <f aca="false">CONCATENATE(H22,C22,"_color.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/21_head250_color.jpg</v>
+      </c>
+      <c r="BM22" s="0" t="str">
+        <f aca="false">CONCATENATE("термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля,",SUBSTITUTE(A22,"Термонаклейка",""))</f>
+        <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Цветы Черный Силуэт Девушки</v>
+      </c>
+      <c r="BR22" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="BS22" s="6" t="str">
+        <f aca="false">CONCATENATE(H22,"Video_DTF.mp4")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="D23" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\", A23, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\Термонаклейка Леопардовое сердце поцелуй губ.pdf</v>
+      </c>
+      <c r="E23" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A23,"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Леопардовое сердце поцелуй губ_img.tif</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="I23" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="J23" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="M23" s="0" t="str">
+        <f aca="false">A23</f>
+        <v>Термонаклейка Леопардовое сердце поцелуй губ</v>
+      </c>
+      <c r="O23" s="0" t="str">
+        <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(A23, "Термонаклейка", "")</f>
+        <v>Термонаклейка для одежды: Леопардовое сердце поцелуй губ</v>
+      </c>
+      <c r="P23" s="0" t="n">
+        <f aca="false">B23</f>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="0" t="n">
+        <v>285</v>
+      </c>
+      <c r="R23" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="S23" s="7" t="str">
+        <f aca="false">CONCATENATE(A23,". Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.")</f>
+        <v>Термонаклейка Леопардовое сердце поцелуй губ. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+      </c>
+      <c r="T23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U23" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="V23" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="W23" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="X23" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y23" s="8" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(H23,C23,"_1.jpg;"),CONCATENATE(H23,C23,"_2.jpg;"),CONCATENATE(H23,C23,"_3.jpg;"),CONCATENATE(H23,C23,"_4.jpg;"),CONCATENATE(H23,C23,"_5.jpg;"),CONCATENATE(H23,C23,"_6.jpg;"),CONCATENATE(H23,C23,"_7.jpg;"),CONCATENATE(H23,C23,"_8.jpg;"),CONCATENATE(H23,C23,"_9.jpg;"),CONCATENATE(H23,C23,"_10.jpg;"),CONCATENATE(H23,"instruction_A4.jpg;"),CONCATENATE(H23,"Video_DTF.mp4;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/22_heart2_20_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/22_heart2_20_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/22_heart2_20_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/22_heart2_20_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/22_heart2_20_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/22_heart2_20_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/22_heart2_20_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/22_heart2_20_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/22_heart2_20_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/22_heart2_20_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
+      </c>
+      <c r="AA23" s="0" t="str">
+        <f aca="false">A23</f>
+        <v>Термонаклейка Леопардовое сердце поцелуй губ</v>
+      </c>
+      <c r="AB23" s="0" t="n">
+        <f aca="false">Q23</f>
+        <v>285</v>
+      </c>
+      <c r="AC23" s="0" t="n">
+        <f aca="false">ROUND(AB23*1.5,0)</f>
+        <v>428</v>
+      </c>
+      <c r="AD23" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE23" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH23" s="0" t="n">
+        <f aca="false">W23</f>
+        <v>12</v>
+      </c>
+      <c r="AI23" s="15" t="n">
+        <f aca="false">V23*10</f>
+        <v>250</v>
+      </c>
+      <c r="AJ23" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK23" s="15" t="n">
+        <f aca="false">U23*10</f>
+        <v>300</v>
+      </c>
+      <c r="AL23" s="12" t="str">
+        <f aca="false">CONCATENATE(H23,C23,"_1.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/22_heart2_20_1.jpg</v>
+      </c>
+      <c r="AM23" s="13" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(H23, C23, "_2.jpg;"),CONCATENATE(H23, C23, "_3.jpg;"),CONCATENATE(H23, C23, "_4.jpg;"),CONCATENATE(H23, C23, "_5.jpg;"),CONCATENATE(H23, C23, "_6.jpg;"),CONCATENATE(H23, C23, "_7.jpg;"),CONCATENATE(H23, C23, "_8.jpg;"),CONCATENATE(H23, C23, "_9.jpg;"),CONCATENATE(H23, C23, "_10.jpg;"),CONCATENATE(H23, "instruction_A4.jpg;") )</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/22_heart2_20_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/22_heart2_20_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/22_heart2_20_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/22_heart2_20_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/22_heart2_20_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/22_heart2_20_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/22_heart2_20_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/22_heart2_20_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/22_heart2_20_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;</v>
+      </c>
+      <c r="AP23" s="12" t="str">
+        <f aca="false">J23</f>
+        <v>Punky Monkey</v>
+      </c>
+      <c r="AQ23" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS23" s="10"/>
+      <c r="AT23" s="0" t="str">
+        <f aca="false">SUBSTITUTE(A23,"Термонаклейка ","")</f>
+        <v>Леопардовое сердце поцелуй губ</v>
+      </c>
+      <c r="AU23" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="AV23" s="0" t="str">
+        <f aca="false">S23</f>
+        <v>Термонаклейка Леопардовое сердце поцелуй губ. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+      </c>
+      <c r="AX23" s="15" t="str">
+        <f aca="false">X23</f>
+        <v>Россия</v>
+      </c>
+      <c r="BA23" s="15" t="str">
+        <f aca="false">R23</f>
+        <v>Полимерный материал</v>
+      </c>
+      <c r="BC23" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="BD23" s="10"/>
+      <c r="BE23" s="13" t="str">
+        <f aca="false">CONCATENATE(H23,C23,"_color.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/22_heart2_20_color.jpg</v>
+      </c>
+      <c r="BM23" s="0" t="str">
+        <f aca="false">CONCATENATE("термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля,",SUBSTITUTE(A23,"Термонаклейка",""))</f>
+        <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Леопардовое сердце поцелуй губ</v>
+      </c>
+      <c r="BR23" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="BS23" s="6" t="str">
+        <f aca="false">CONCATENATE(H23,"Video_DTF.mp4")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="D24" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\", A24, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\Термонаклейка Девушка с чупа чупсом I dont care.pdf</v>
+      </c>
+      <c r="E24" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A24,"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Девушка с чупа чупсом I dont care_img.tif</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="I24" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="J24" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="M24" s="0" t="str">
+        <f aca="false">A24</f>
+        <v>Термонаклейка Девушка с чупа чупсом I dont care</v>
+      </c>
+      <c r="O24" s="0" t="str">
+        <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(A24, "Термонаклейка", "")</f>
+        <v>Термонаклейка для одежды: Девушка с чупа чупсом I dont care</v>
+      </c>
+      <c r="P24" s="0" t="n">
+        <f aca="false">B24</f>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="0" t="n">
+        <v>285</v>
+      </c>
+      <c r="R24" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="S24" s="7" t="str">
+        <f aca="false">CONCATENATE(A24,". Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.")</f>
+        <v>Термонаклейка Девушка с чупа чупсом I dont care. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+      </c>
+      <c r="T24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U24" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="V24" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="W24" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="X24" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y24" s="8" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(H24,C24,"_1.jpg;"),CONCATENATE(H24,C24,"_2.jpg;"),CONCATENATE(H24,C24,"_3.jpg;"),CONCATENATE(H24,C24,"_4.jpg;"),CONCATENATE(H24,C24,"_5.jpg;"),CONCATENATE(H24,C24,"_6.jpg;"),CONCATENATE(H24,C24,"_7.jpg;"),CONCATENATE(H24,C24,"_8.jpg;"),CONCATENATE(H24,C24,"_9.jpg;"),CONCATENATE(H24,C24,"_10.jpg;"),CONCATENATE(H24,"instruction_A4.jpg;"),CONCATENATE(H24,"Video_DTF.mp4;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/24_idontcare_250_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/24_idontcare_250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/24_idontcare_250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/24_idontcare_250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/24_idontcare_250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/24_idontcare_250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/24_idontcare_250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/24_idontcare_250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/24_idontcare_250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/24_idontcare_250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
+      </c>
+      <c r="AA24" s="0" t="str">
+        <f aca="false">A24</f>
+        <v>Термонаклейка Девушка с чупа чупсом I dont care</v>
+      </c>
+      <c r="AB24" s="0" t="n">
+        <f aca="false">Q24</f>
+        <v>285</v>
+      </c>
+      <c r="AC24" s="0" t="n">
+        <f aca="false">ROUND(AB24*1.5,0)</f>
+        <v>428</v>
+      </c>
+      <c r="AD24" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE24" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH24" s="0" t="n">
+        <f aca="false">W24</f>
+        <v>12</v>
+      </c>
+      <c r="AI24" s="15" t="n">
+        <f aca="false">V24*10</f>
+        <v>250</v>
+      </c>
+      <c r="AJ24" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK24" s="15" t="n">
+        <f aca="false">U24*10</f>
+        <v>300</v>
+      </c>
+      <c r="AL24" s="12" t="str">
+        <f aca="false">CONCATENATE(H24,C24,"_1.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/24_idontcare_250_1.jpg</v>
+      </c>
+      <c r="AM24" s="13" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(H24, C24, "_2.jpg;"),CONCATENATE(H24, C24, "_3.jpg;"),CONCATENATE(H24, C24, "_4.jpg;"),CONCATENATE(H24, C24, "_5.jpg;"),CONCATENATE(H24, C24, "_6.jpg;"),CONCATENATE(H24, C24, "_7.jpg;"),CONCATENATE(H24, C24, "_8.jpg;"),CONCATENATE(H24, C24, "_9.jpg;"),CONCATENATE(H24, C24, "_10.jpg;"),CONCATENATE(H24, "instruction_A4.jpg;") )</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/24_idontcare_250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/24_idontcare_250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/24_idontcare_250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/24_idontcare_250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/24_idontcare_250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/24_idontcare_250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/24_idontcare_250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/24_idontcare_250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/24_idontcare_250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;</v>
+      </c>
+      <c r="AP24" s="12" t="str">
+        <f aca="false">J24</f>
+        <v>Punky Monkey</v>
+      </c>
+      <c r="AQ24" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS24" s="10"/>
+      <c r="AT24" s="0" t="str">
+        <f aca="false">SUBSTITUTE(A24,"Термонаклейка ","")</f>
+        <v>Девушка с чупа чупсом I dont care</v>
+      </c>
+      <c r="AU24" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="AV24" s="0" t="str">
+        <f aca="false">S24</f>
+        <v>Термонаклейка Девушка с чупа чупсом I dont care. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+      </c>
+      <c r="AX24" s="15" t="str">
+        <f aca="false">X24</f>
+        <v>Россия</v>
+      </c>
+      <c r="BA24" s="15" t="str">
+        <f aca="false">R24</f>
+        <v>Полимерный материал</v>
+      </c>
+      <c r="BC24" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="BD24" s="10"/>
+      <c r="BE24" s="13" t="str">
+        <f aca="false">CONCATENATE(H24,C24,"_color.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/24_idontcare_250_color.jpg</v>
+      </c>
+      <c r="BM24" s="0" t="str">
+        <f aca="false">CONCATENATE("термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля,",SUBSTITUTE(A24,"Термонаклейка",""))</f>
+        <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Девушка с чупа чупсом I dont care</v>
+      </c>
+      <c r="BR24" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="BS24" s="6" t="str">
+        <f aca="false">CONCATENATE(H24,"Video_DTF.mp4")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="D25" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\", A25, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\Термонаклейка Аниме девочка с мечом розовые волосы.pdf</v>
+      </c>
+      <c r="E25" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A25,"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Аниме девочка с мечом розовые волосы_img.tif</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="I25" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="J25" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="M25" s="0" t="str">
+        <f aca="false">A25</f>
+        <v>Термонаклейка Аниме девочка с мечом розовые волосы</v>
+      </c>
+      <c r="O25" s="0" t="str">
+        <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(A25, "Термонаклейка", "")</f>
+        <v>Термонаклейка для одежды: Аниме девочка с мечом розовые волосы</v>
+      </c>
+      <c r="P25" s="0" t="n">
+        <f aca="false">B25</f>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="0" t="n">
+        <v>285</v>
+      </c>
+      <c r="R25" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="S25" s="7" t="str">
+        <f aca="false">CONCATENATE(A25,". Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.")</f>
+        <v>Термонаклейка Аниме девочка с мечом розовые волосы. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+      </c>
+      <c r="T25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U25" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="V25" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="W25" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="X25" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y25" s="8" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(H25,C25,"_1.jpg;"),CONCATENATE(H25,C25,"_2.jpg;"),CONCATENATE(H25,C25,"_3.jpg;"),CONCATENATE(H25,C25,"_4.jpg;"),CONCATENATE(H25,C25,"_5.jpg;"),CONCATENATE(H25,C25,"_6.jpg;"),CONCATENATE(H25,C25,"_7.jpg;"),CONCATENATE(H25,C25,"_8.jpg;"),CONCATENATE(H25,C25,"_9.jpg;"),CONCATENATE(H25,C25,"_10.jpg;"),CONCATENATE(H25,"instruction_A4.jpg;"),CONCATENATE(H25,"Video_DTF.mp4;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/25_japan1_250_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/25_japan1_250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/25_japan1_250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/25_japan1_250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/25_japan1_250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/25_japan1_250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/25_japan1_250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/25_japan1_250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/25_japan1_250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/25_japan1_250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
+      </c>
+      <c r="AA25" s="0" t="str">
+        <f aca="false">A25</f>
+        <v>Термонаклейка Аниме девочка с мечом розовые волосы</v>
+      </c>
+      <c r="AB25" s="0" t="n">
+        <f aca="false">Q25</f>
+        <v>285</v>
+      </c>
+      <c r="AC25" s="0" t="n">
+        <f aca="false">ROUND(AB25*1.5,0)</f>
+        <v>428</v>
+      </c>
+      <c r="AD25" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE25" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH25" s="0" t="n">
+        <f aca="false">W25</f>
+        <v>12</v>
+      </c>
+      <c r="AI25" s="15" t="n">
+        <f aca="false">V25*10</f>
+        <v>250</v>
+      </c>
+      <c r="AJ25" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK25" s="15" t="n">
+        <f aca="false">U25*10</f>
+        <v>300</v>
+      </c>
+      <c r="AL25" s="12" t="str">
+        <f aca="false">CONCATENATE(H25,C25,"_1.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/25_japan1_250_1.jpg</v>
+      </c>
+      <c r="AM25" s="13" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(H25, C25, "_2.jpg;"),CONCATENATE(H25, C25, "_3.jpg;"),CONCATENATE(H25, C25, "_4.jpg;"),CONCATENATE(H25, C25, "_5.jpg;"),CONCATENATE(H25, C25, "_6.jpg;"),CONCATENATE(H25, C25, "_7.jpg;"),CONCATENATE(H25, C25, "_8.jpg;"),CONCATENATE(H25, C25, "_9.jpg;"),CONCATENATE(H25, C25, "_10.jpg;"),CONCATENATE(H25, "instruction_A4.jpg;") )</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/25_japan1_250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/25_japan1_250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/25_japan1_250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/25_japan1_250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/25_japan1_250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/25_japan1_250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/25_japan1_250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/25_japan1_250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/25_japan1_250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;</v>
+      </c>
+      <c r="AP25" s="12" t="str">
+        <f aca="false">J25</f>
+        <v>Punky Monkey</v>
+      </c>
+      <c r="AQ25" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS25" s="10"/>
+      <c r="AT25" s="0" t="str">
+        <f aca="false">SUBSTITUTE(A25,"Термонаклейка ","")</f>
+        <v>Аниме девочка с мечом розовые волосы</v>
+      </c>
+      <c r="AU25" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="AV25" s="0" t="str">
+        <f aca="false">S25</f>
+        <v>Термонаклейка Аниме девочка с мечом розовые волосы. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+      </c>
+      <c r="AX25" s="15" t="str">
+        <f aca="false">X25</f>
+        <v>Россия</v>
+      </c>
+      <c r="BA25" s="15" t="str">
+        <f aca="false">R25</f>
+        <v>Полимерный материал</v>
+      </c>
+      <c r="BC25" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="BD25" s="10"/>
+      <c r="BE25" s="13" t="str">
+        <f aca="false">CONCATENATE(H25,C25,"_color.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/25_japan1_250_color.jpg</v>
+      </c>
+      <c r="BM25" s="0" t="str">
+        <f aca="false">CONCATENATE("термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля,",SUBSTITUTE(A25,"Термонаклейка",""))</f>
+        <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Аниме девочка с мечом розовые волосы</v>
+      </c>
+      <c r="BR25" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="BS25" s="6" t="str">
+        <f aca="false">CONCATENATE(H25,"Video_DTF.mp4")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="D26" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\", A26, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\Термонаклейка Аниме девочка в куртке со стикерами.pdf</v>
+      </c>
+      <c r="E26" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A26,"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Аниме девочка в куртке со стикерами_img.tif</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="I26" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="J26" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="M26" s="0" t="str">
+        <f aca="false">A26</f>
+        <v>Термонаклейка Аниме девочка в куртке со стикерами</v>
+      </c>
+      <c r="O26" s="0" t="str">
+        <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(A26, "Термонаклейка", "")</f>
+        <v>Термонаклейка для одежды: Аниме девочка в куртке со стикерами</v>
+      </c>
+      <c r="P26" s="0" t="n">
+        <f aca="false">B26</f>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="0" t="n">
+        <v>285</v>
+      </c>
+      <c r="R26" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="S26" s="7" t="str">
+        <f aca="false">CONCATENATE(A26,". Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.")</f>
+        <v>Термонаклейка Аниме девочка в куртке со стикерами. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+      </c>
+      <c r="T26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U26" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="V26" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="W26" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="X26" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y26" s="8" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(H26,C26,"_1.jpg;"),CONCATENATE(H26,C26,"_2.jpg;"),CONCATENATE(H26,C26,"_3.jpg;"),CONCATENATE(H26,C26,"_4.jpg;"),CONCATENATE(H26,C26,"_5.jpg;"),CONCATENATE(H26,C26,"_6.jpg;"),CONCATENATE(H26,C26,"_7.jpg;"),CONCATENATE(H26,C26,"_8.jpg;"),CONCATENATE(H26,C26,"_9.jpg;"),CONCATENATE(H26,C26,"_10.jpg;"),CONCATENATE(H26,"instruction_A4.jpg;"),CONCATENATE(H26,"Video_DTF.mp4;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/26_japan2_250_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/26_japan2_250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/26_japan2_250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/26_japan2_250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/26_japan2_250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/26_japan2_250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/26_japan2_250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/26_japan2_250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/26_japan2_250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/26_japan2_250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
+      </c>
+      <c r="AA26" s="0" t="str">
+        <f aca="false">A26</f>
+        <v>Термонаклейка Аниме девочка в куртке со стикерами</v>
+      </c>
+      <c r="AB26" s="0" t="n">
+        <f aca="false">Q26</f>
+        <v>285</v>
+      </c>
+      <c r="AC26" s="0" t="n">
+        <f aca="false">ROUND(AB26*1.5,0)</f>
+        <v>428</v>
+      </c>
+      <c r="AD26" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE26" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH26" s="0" t="n">
+        <f aca="false">W26</f>
+        <v>12</v>
+      </c>
+      <c r="AI26" s="15" t="n">
+        <f aca="false">V26*10</f>
+        <v>250</v>
+      </c>
+      <c r="AJ26" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK26" s="15" t="n">
+        <f aca="false">U26*10</f>
+        <v>300</v>
+      </c>
+      <c r="AL26" s="12" t="str">
+        <f aca="false">CONCATENATE(H26,C26,"_1.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/26_japan2_250_1.jpg</v>
+      </c>
+      <c r="AM26" s="13" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(H26, C26, "_2.jpg;"),CONCATENATE(H26, C26, "_3.jpg;"),CONCATENATE(H26, C26, "_4.jpg;"),CONCATENATE(H26, C26, "_5.jpg;"),CONCATENATE(H26, C26, "_6.jpg;"),CONCATENATE(H26, C26, "_7.jpg;"),CONCATENATE(H26, C26, "_8.jpg;"),CONCATENATE(H26, C26, "_9.jpg;"),CONCATENATE(H26, C26, "_10.jpg;"),CONCATENATE(H26, "instruction_A4.jpg;") )</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/26_japan2_250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/26_japan2_250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/26_japan2_250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/26_japan2_250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/26_japan2_250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/26_japan2_250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/26_japan2_250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/26_japan2_250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/26_japan2_250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;</v>
+      </c>
+      <c r="AP26" s="12" t="str">
+        <f aca="false">J26</f>
+        <v>Punky Monkey</v>
+      </c>
+      <c r="AQ26" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS26" s="10"/>
+      <c r="AT26" s="0" t="str">
+        <f aca="false">SUBSTITUTE(A26,"Термонаклейка ","")</f>
+        <v>Аниме девочка в куртке со стикерами</v>
+      </c>
+      <c r="AU26" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="AV26" s="0" t="str">
+        <f aca="false">S26</f>
+        <v>Термонаклейка Аниме девочка в куртке со стикерами. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+      </c>
+      <c r="AX26" s="15" t="str">
+        <f aca="false">X26</f>
+        <v>Россия</v>
+      </c>
+      <c r="BA26" s="15" t="str">
+        <f aca="false">R26</f>
+        <v>Полимерный материал</v>
+      </c>
+      <c r="BC26" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="BD26" s="10"/>
+      <c r="BE26" s="13" t="str">
+        <f aca="false">CONCATENATE(H26,C26,"_color.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/26_japan2_250_color.jpg</v>
+      </c>
+      <c r="BM26" s="0" t="str">
+        <f aca="false">CONCATENATE("термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля,",SUBSTITUTE(A26,"Термонаклейка",""))</f>
+        <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Аниме девочка в куртке со стикерами</v>
+      </c>
+      <c r="BR26" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="BS26" s="6" t="str">
+        <f aca="false">CONCATENATE(H26,"Video_DTF.mp4")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="D27" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\", A27, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\Термонаклейка Сейлор Мун в куртке Аниме Sailor Moon.pdf</v>
+      </c>
+      <c r="E27" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A27,"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Сейлор Мун в куртке Аниме Sailor Moon_img.tif</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="I27" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="J27" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="M27" s="0" t="str">
+        <f aca="false">A27</f>
+        <v>Термонаклейка Сейлор Мун в куртке Аниме Sailor Moon</v>
+      </c>
+      <c r="O27" s="0" t="str">
+        <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(A27, "Термонаклейка", "")</f>
+        <v>Термонаклейка для одежды: Сейлор Мун в куртке Аниме Sailor Moon</v>
+      </c>
+      <c r="P27" s="0" t="n">
+        <f aca="false">B27</f>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="0" t="n">
+        <v>285</v>
+      </c>
+      <c r="R27" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="S27" s="7" t="str">
+        <f aca="false">CONCATENATE(A27,". Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.")</f>
+        <v>Термонаклейка Сейлор Мун в куртке Аниме Sailor Moon. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+      </c>
+      <c r="T27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U27" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="V27" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="W27" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="X27" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y27" s="8" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(H27,C27,"_1.jpg;"),CONCATENATE(H27,C27,"_2.jpg;"),CONCATENATE(H27,C27,"_3.jpg;"),CONCATENATE(H27,C27,"_4.jpg;"),CONCATENATE(H27,C27,"_5.jpg;"),CONCATENATE(H27,C27,"_6.jpg;"),CONCATENATE(H27,C27,"_7.jpg;"),CONCATENATE(H27,C27,"_8.jpg;"),CONCATENATE(H27,C27,"_9.jpg;"),CONCATENATE(H27,C27,"_10.jpg;"),CONCATENATE(H27,"instruction_A4.jpg;"),CONCATENATE(H27,"Video_DTF.mp4;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/27_japan3_250_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/27_japan3_250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/27_japan3_250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/27_japan3_250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/27_japan3_250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/27_japan3_250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/27_japan3_250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/27_japan3_250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/27_japan3_250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/27_japan3_250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
+      </c>
+      <c r="AA27" s="0" t="str">
+        <f aca="false">A27</f>
+        <v>Термонаклейка Сейлор Мун в куртке Аниме Sailor Moon</v>
+      </c>
+      <c r="AB27" s="0" t="n">
+        <f aca="false">Q27</f>
+        <v>285</v>
+      </c>
+      <c r="AC27" s="0" t="n">
+        <f aca="false">ROUND(AB27*1.5,0)</f>
+        <v>428</v>
+      </c>
+      <c r="AD27" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE27" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH27" s="0" t="n">
+        <f aca="false">W27</f>
+        <v>12</v>
+      </c>
+      <c r="AI27" s="15" t="n">
+        <f aca="false">V27*10</f>
+        <v>250</v>
+      </c>
+      <c r="AJ27" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK27" s="15" t="n">
+        <f aca="false">U27*10</f>
+        <v>300</v>
+      </c>
+      <c r="AL27" s="12" t="str">
+        <f aca="false">CONCATENATE(H27,C27,"_1.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/27_japan3_250_1.jpg</v>
+      </c>
+      <c r="AM27" s="13" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(H27, C27, "_2.jpg;"),CONCATENATE(H27, C27, "_3.jpg;"),CONCATENATE(H27, C27, "_4.jpg;"),CONCATENATE(H27, C27, "_5.jpg;"),CONCATENATE(H27, C27, "_6.jpg;"),CONCATENATE(H27, C27, "_7.jpg;"),CONCATENATE(H27, C27, "_8.jpg;"),CONCATENATE(H27, C27, "_9.jpg;"),CONCATENATE(H27, C27, "_10.jpg;"),CONCATENATE(H27, "instruction_A4.jpg;") )</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/27_japan3_250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/27_japan3_250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/27_japan3_250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/27_japan3_250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/27_japan3_250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/27_japan3_250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/27_japan3_250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/27_japan3_250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/27_japan3_250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;</v>
+      </c>
+      <c r="AP27" s="12" t="str">
+        <f aca="false">J27</f>
+        <v>Punky Monkey</v>
+      </c>
+      <c r="AQ27" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS27" s="10"/>
+      <c r="AT27" s="0" t="str">
+        <f aca="false">SUBSTITUTE(A27,"Термонаклейка ","")</f>
+        <v>Сейлор Мун в куртке Аниме Sailor Moon</v>
+      </c>
+      <c r="AU27" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="AV27" s="0" t="str">
+        <f aca="false">S27</f>
+        <v>Термонаклейка Сейлор Мун в куртке Аниме Sailor Moon. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+      </c>
+      <c r="AX27" s="15" t="str">
+        <f aca="false">X27</f>
+        <v>Россия</v>
+      </c>
+      <c r="BA27" s="15" t="str">
+        <f aca="false">R27</f>
+        <v>Полимерный материал</v>
+      </c>
+      <c r="BC27" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="BD27" s="10"/>
+      <c r="BE27" s="13" t="str">
+        <f aca="false">CONCATENATE(H27,C27,"_color.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/27_japan3_250_color.jpg</v>
+      </c>
+      <c r="BM27" s="0" t="str">
+        <f aca="false">CONCATENATE("термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля,",SUBSTITUTE(A27,"Термонаклейка",""))</f>
+        <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Сейлор Мун в куртке Аниме Sailor Moon</v>
+      </c>
+      <c r="BR27" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="BS27" s="6" t="str">
+        <f aca="false">CONCATENATE(H27,"Video_DTF.mp4")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="D28" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\", A28, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\Термонаклейка Аниме Девочка с чупа чупсом.pdf</v>
+      </c>
+      <c r="E28" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A28,"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Аниме Девочка с чупа чупсом_img.tif</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="I28" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="J28" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="M28" s="0" t="str">
+        <f aca="false">A28</f>
+        <v>Термонаклейка Аниме Девочка с чупа чупсом</v>
+      </c>
+      <c r="O28" s="0" t="str">
+        <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(A28, "Термонаклейка", "")</f>
+        <v>Термонаклейка для одежды: Аниме Девочка с чупа чупсом</v>
+      </c>
+      <c r="P28" s="0" t="n">
+        <f aca="false">B28</f>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="0" t="n">
+        <v>285</v>
+      </c>
+      <c r="R28" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="S28" s="7" t="str">
+        <f aca="false">CONCATENATE(A28,". Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.")</f>
+        <v>Термонаклейка Аниме Девочка с чупа чупсом. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+      </c>
+      <c r="T28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U28" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="V28" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="W28" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="X28" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y28" s="8" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(H28,C28,"_1.jpg;"),CONCATENATE(H28,C28,"_2.jpg;"),CONCATENATE(H28,C28,"_3.jpg;"),CONCATENATE(H28,C28,"_4.jpg;"),CONCATENATE(H28,C28,"_5.jpg;"),CONCATENATE(H28,C28,"_6.jpg;"),CONCATENATE(H28,C28,"_7.jpg;"),CONCATENATE(H28,C28,"_8.jpg;"),CONCATENATE(H28,C28,"_9.jpg;"),CONCATENATE(H28,C28,"_10.jpg;"),CONCATENATE(H28,"instruction_A4.jpg;"),CONCATENATE(H28,"Video_DTF.mp4;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/28_japan4_250_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/28_japan4_250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/28_japan4_250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/28_japan4_250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/28_japan4_250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/28_japan4_250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/28_japan4_250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/28_japan4_250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/28_japan4_250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/28_japan4_250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
+      </c>
+      <c r="AA28" s="0" t="str">
+        <f aca="false">A28</f>
+        <v>Термонаклейка Аниме Девочка с чупа чупсом</v>
+      </c>
+      <c r="AB28" s="0" t="n">
+        <f aca="false">Q28</f>
+        <v>285</v>
+      </c>
+      <c r="AC28" s="0" t="n">
+        <f aca="false">ROUND(AB28*1.5,0)</f>
+        <v>428</v>
+      </c>
+      <c r="AD28" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE28" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH28" s="0" t="n">
+        <f aca="false">W28</f>
+        <v>12</v>
+      </c>
+      <c r="AI28" s="15" t="n">
+        <f aca="false">V28*10</f>
+        <v>250</v>
+      </c>
+      <c r="AJ28" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK28" s="15" t="n">
+        <f aca="false">U28*10</f>
+        <v>300</v>
+      </c>
+      <c r="AL28" s="12" t="str">
+        <f aca="false">CONCATENATE(H28,C28,"_1.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/28_japan4_250_1.jpg</v>
+      </c>
+      <c r="AM28" s="13" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(H28, C28, "_2.jpg;"),CONCATENATE(H28, C28, "_3.jpg;"),CONCATENATE(H28, C28, "_4.jpg;"),CONCATENATE(H28, C28, "_5.jpg;"),CONCATENATE(H28, C28, "_6.jpg;"),CONCATENATE(H28, C28, "_7.jpg;"),CONCATENATE(H28, C28, "_8.jpg;"),CONCATENATE(H28, C28, "_9.jpg;"),CONCATENATE(H28, C28, "_10.jpg;"),CONCATENATE(H28, "instruction_A4.jpg;") )</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/28_japan4_250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/28_japan4_250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/28_japan4_250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/28_japan4_250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/28_japan4_250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/28_japan4_250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/28_japan4_250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/28_japan4_250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/28_japan4_250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;</v>
+      </c>
+      <c r="AP28" s="12" t="str">
+        <f aca="false">J28</f>
+        <v>Punky Monkey</v>
+      </c>
+      <c r="AQ28" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS28" s="10"/>
+      <c r="AT28" s="0" t="str">
+        <f aca="false">SUBSTITUTE(A28,"Термонаклейка ","")</f>
+        <v>Аниме Девочка с чупа чупсом</v>
+      </c>
+      <c r="AU28" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="AV28" s="0" t="str">
+        <f aca="false">S28</f>
+        <v>Термонаклейка Аниме Девочка с чупа чупсом. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+      </c>
+      <c r="AX28" s="15" t="str">
+        <f aca="false">X28</f>
+        <v>Россия</v>
+      </c>
+      <c r="BA28" s="15" t="str">
+        <f aca="false">R28</f>
+        <v>Полимерный материал</v>
+      </c>
+      <c r="BC28" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="BD28" s="10"/>
+      <c r="BE28" s="13" t="str">
+        <f aca="false">CONCATENATE(H28,C28,"_color.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/28_japan4_250_color.jpg</v>
+      </c>
+      <c r="BM28" s="0" t="str">
+        <f aca="false">CONCATENATE("термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля,",SUBSTITUTE(A28,"Термонаклейка",""))</f>
+        <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Аниме Девочка с чупа чупсом</v>
+      </c>
+      <c r="BR28" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="BS28" s="6" t="str">
+        <f aca="false">CONCATENATE(H28,"Video_DTF.mp4")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="D29" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\", A29, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\Термонаклейка Аниме Девочка с черным капюшоном.pdf</v>
+      </c>
+      <c r="E29" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A29,"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Аниме Девочка с черным капюшоном_img.tif</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H29" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="I29" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="J29" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="M29" s="0" t="str">
+        <f aca="false">A29</f>
+        <v>Термонаклейка Аниме Девочка с черным капюшоном</v>
+      </c>
+      <c r="O29" s="0" t="str">
+        <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(A29, "Термонаклейка", "")</f>
+        <v>Термонаклейка для одежды: Аниме Девочка с черным капюшоном</v>
+      </c>
+      <c r="P29" s="0" t="n">
+        <f aca="false">B29</f>
+        <v>0</v>
+      </c>
+      <c r="Q29" s="0" t="n">
+        <v>285</v>
+      </c>
+      <c r="R29" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="S29" s="7" t="str">
+        <f aca="false">CONCATENATE(A29,". Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.")</f>
+        <v>Термонаклейка Аниме Девочка с черным капюшоном. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+      </c>
+      <c r="T29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U29" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="V29" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="W29" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="X29" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y29" s="8" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(H29,C29,"_1.jpg;"),CONCATENATE(H29,C29,"_2.jpg;"),CONCATENATE(H29,C29,"_3.jpg;"),CONCATENATE(H29,C29,"_4.jpg;"),CONCATENATE(H29,C29,"_5.jpg;"),CONCATENATE(H29,C29,"_6.jpg;"),CONCATENATE(H29,C29,"_7.jpg;"),CONCATENATE(H29,C29,"_8.jpg;"),CONCATENATE(H29,C29,"_9.jpg;"),CONCATENATE(H29,C29,"_10.jpg;"),CONCATENATE(H29,"instruction_A4.jpg;"),CONCATENATE(H29,"Video_DTF.mp4;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/29_japan5_250_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/29_japan5_250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/29_japan5_250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/29_japan5_250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/29_japan5_250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/29_japan5_250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/29_japan5_250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/29_japan5_250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/29_japan5_250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/29_japan5_250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
+      </c>
+      <c r="AA29" s="0" t="str">
+        <f aca="false">A29</f>
+        <v>Термонаклейка Аниме Девочка с черным капюшоном</v>
+      </c>
+      <c r="AB29" s="0" t="n">
+        <f aca="false">Q29</f>
+        <v>285</v>
+      </c>
+      <c r="AC29" s="0" t="n">
+        <f aca="false">ROUND(AB29*1.5,0)</f>
+        <v>428</v>
+      </c>
+      <c r="AD29" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE29" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH29" s="0" t="n">
+        <f aca="false">W29</f>
+        <v>12</v>
+      </c>
+      <c r="AI29" s="15" t="n">
+        <f aca="false">V29*10</f>
+        <v>250</v>
+      </c>
+      <c r="AJ29" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK29" s="15" t="n">
+        <f aca="false">U29*10</f>
+        <v>300</v>
+      </c>
+      <c r="AL29" s="12" t="str">
+        <f aca="false">CONCATENATE(H29,C29,"_1.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/29_japan5_250_1.jpg</v>
+      </c>
+      <c r="AM29" s="13" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(H29, C29, "_2.jpg;"),CONCATENATE(H29, C29, "_3.jpg;"),CONCATENATE(H29, C29, "_4.jpg;"),CONCATENATE(H29, C29, "_5.jpg;"),CONCATENATE(H29, C29, "_6.jpg;"),CONCATENATE(H29, C29, "_7.jpg;"),CONCATENATE(H29, C29, "_8.jpg;"),CONCATENATE(H29, C29, "_9.jpg;"),CONCATENATE(H29, C29, "_10.jpg;"),CONCATENATE(H29, "instruction_A4.jpg;") )</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/29_japan5_250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/29_japan5_250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/29_japan5_250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/29_japan5_250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/29_japan5_250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/29_japan5_250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/29_japan5_250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/29_japan5_250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/29_japan5_250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;</v>
+      </c>
+      <c r="AP29" s="12" t="str">
+        <f aca="false">J29</f>
+        <v>Punky Monkey</v>
+      </c>
+      <c r="AQ29" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS29" s="10"/>
+      <c r="AT29" s="0" t="str">
+        <f aca="false">SUBSTITUTE(A29,"Термонаклейка ","")</f>
+        <v>Аниме Девочка с черным капюшоном</v>
+      </c>
+      <c r="AU29" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="AV29" s="0" t="str">
+        <f aca="false">S29</f>
+        <v>Термонаклейка Аниме Девочка с черным капюшоном. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+      </c>
+      <c r="AX29" s="15" t="str">
+        <f aca="false">X29</f>
+        <v>Россия</v>
+      </c>
+      <c r="BA29" s="15" t="str">
+        <f aca="false">R29</f>
+        <v>Полимерный материал</v>
+      </c>
+      <c r="BC29" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="BD29" s="10"/>
+      <c r="BE29" s="13" t="str">
+        <f aca="false">CONCATENATE(H29,C29,"_color.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/29_japan5_250_color.jpg</v>
+      </c>
+      <c r="BM29" s="0" t="str">
+        <f aca="false">CONCATENATE("термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля,",SUBSTITUTE(A29,"Термонаклейка",""))</f>
+        <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Аниме Девочка с черным капюшоном</v>
+      </c>
+      <c r="BR29" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="BS29" s="6" t="str">
+        <f aca="false">CONCATENATE(H29,"Video_DTF.mp4")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="D30" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\", A30, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\Термонаклейка Аниме Девочка в розовый капюшоном.pdf</v>
+      </c>
+      <c r="E30" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A30,"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Аниме Девочка в розовый капюшоном_img.tif</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H30" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="I30" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="J30" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="M30" s="0" t="str">
+        <f aca="false">A30</f>
+        <v>Термонаклейка Аниме Девочка в розовый капюшоном</v>
+      </c>
+      <c r="O30" s="0" t="str">
+        <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(A30, "Термонаклейка", "")</f>
+        <v>Термонаклейка для одежды: Аниме Девочка в розовый капюшоном</v>
+      </c>
+      <c r="P30" s="0" t="n">
+        <f aca="false">B30</f>
+        <v>0</v>
+      </c>
+      <c r="Q30" s="0" t="n">
+        <v>285</v>
+      </c>
+      <c r="R30" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="S30" s="7" t="str">
+        <f aca="false">CONCATENATE(A30,". Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.")</f>
+        <v>Термонаклейка Аниме Девочка в розовый капюшоном. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+      </c>
+      <c r="T30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U30" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="V30" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="W30" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="X30" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y30" s="8" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(H30,C30,"_1.jpg;"),CONCATENATE(H30,C30,"_2.jpg;"),CONCATENATE(H30,C30,"_3.jpg;"),CONCATENATE(H30,C30,"_4.jpg;"),CONCATENATE(H30,C30,"_5.jpg;"),CONCATENATE(H30,C30,"_6.jpg;"),CONCATENATE(H30,C30,"_7.jpg;"),CONCATENATE(H30,C30,"_8.jpg;"),CONCATENATE(H30,C30,"_9.jpg;"),CONCATENATE(H30,C30,"_10.jpg;"),CONCATENATE(H30,"instruction_A4.jpg;"),CONCATENATE(H30,"Video_DTF.mp4;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/30_japan6_250_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/30_japan6_250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/30_japan6_250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/30_japan6_250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/30_japan6_250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/30_japan6_250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/30_japan6_250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/30_japan6_250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/30_japan6_250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/30_japan6_250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
+      </c>
+      <c r="AA30" s="0" t="str">
+        <f aca="false">A30</f>
+        <v>Термонаклейка Аниме Девочка в розовый капюшоном</v>
+      </c>
+      <c r="AB30" s="0" t="n">
+        <f aca="false">Q30</f>
+        <v>285</v>
+      </c>
+      <c r="AC30" s="0" t="n">
+        <f aca="false">ROUND(AB30*1.5,0)</f>
+        <v>428</v>
+      </c>
+      <c r="AD30" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE30" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH30" s="0" t="n">
+        <f aca="false">W30</f>
+        <v>12</v>
+      </c>
+      <c r="AI30" s="15" t="n">
+        <f aca="false">V30*10</f>
+        <v>250</v>
+      </c>
+      <c r="AJ30" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK30" s="15" t="n">
+        <f aca="false">U30*10</f>
+        <v>300</v>
+      </c>
+      <c r="AL30" s="12" t="str">
+        <f aca="false">CONCATENATE(H30,C30,"_1.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/30_japan6_250_1.jpg</v>
+      </c>
+      <c r="AM30" s="13" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(H30, C30, "_2.jpg;"),CONCATENATE(H30, C30, "_3.jpg;"),CONCATENATE(H30, C30, "_4.jpg;"),CONCATENATE(H30, C30, "_5.jpg;"),CONCATENATE(H30, C30, "_6.jpg;"),CONCATENATE(H30, C30, "_7.jpg;"),CONCATENATE(H30, C30, "_8.jpg;"),CONCATENATE(H30, C30, "_9.jpg;"),CONCATENATE(H30, C30, "_10.jpg;"),CONCATENATE(H30, "instruction_A4.jpg;") )</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/30_japan6_250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/30_japan6_250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/30_japan6_250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/30_japan6_250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/30_japan6_250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/30_japan6_250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/30_japan6_250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/30_japan6_250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/30_japan6_250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;</v>
+      </c>
+      <c r="AP30" s="12" t="str">
+        <f aca="false">J30</f>
+        <v>Punky Monkey</v>
+      </c>
+      <c r="AQ30" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS30" s="10"/>
+      <c r="AT30" s="0" t="str">
+        <f aca="false">SUBSTITUTE(A30,"Термонаклейка ","")</f>
+        <v>Аниме Девочка в розовый капюшоном</v>
+      </c>
+      <c r="AU30" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="AV30" s="0" t="str">
+        <f aca="false">S30</f>
+        <v>Термонаклейка Аниме Девочка в розовый капюшоном. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+      </c>
+      <c r="AX30" s="15" t="str">
+        <f aca="false">X30</f>
+        <v>Россия</v>
+      </c>
+      <c r="BA30" s="15" t="str">
+        <f aca="false">R30</f>
+        <v>Полимерный материал</v>
+      </c>
+      <c r="BC30" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="BD30" s="10"/>
+      <c r="BE30" s="13" t="str">
+        <f aca="false">CONCATENATE(H30,C30,"_color.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/30_japan6_250_color.jpg</v>
+      </c>
+      <c r="BM30" s="0" t="str">
+        <f aca="false">CONCATENATE("термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля,",SUBSTITUTE(A30,"Термонаклейка",""))</f>
+        <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Аниме Девочка в розовый капюшоном</v>
+      </c>
+      <c r="BR30" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="BS30" s="6" t="str">
+        <f aca="false">CONCATENATE(H30,"Video_DTF.mp4")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="D31" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\", A31, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\Термонаклейка Девушка Блондинка с котом на голове.pdf</v>
+      </c>
+      <c r="E31" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A31,"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Девушка Блондинка с котом на голове_img.tif</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H31" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="I31" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="J31" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="M31" s="0" t="str">
+        <f aca="false">A31</f>
+        <v>Термонаклейка Девушка Блондинка с котом на голове</v>
+      </c>
+      <c r="O31" s="0" t="str">
+        <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(A31, "Термонаклейка", "")</f>
+        <v>Термонаклейка для одежды: Девушка Блондинка с котом на голове</v>
+      </c>
+      <c r="P31" s="0" t="n">
+        <f aca="false">B31</f>
+        <v>0</v>
+      </c>
+      <c r="Q31" s="0" t="n">
+        <v>285</v>
+      </c>
+      <c r="R31" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="S31" s="7" t="str">
+        <f aca="false">CONCATENATE(A31,". Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.")</f>
+        <v>Термонаклейка Девушка Блондинка с котом на голове. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+      </c>
+      <c r="T31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U31" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="V31" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="W31" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="X31" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y31" s="8" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(H31,C31,"_1.jpg;"),CONCATENATE(H31,C31,"_2.jpg;"),CONCATENATE(H31,C31,"_3.jpg;"),CONCATENATE(H31,C31,"_4.jpg;"),CONCATENATE(H31,C31,"_5.jpg;"),CONCATENATE(H31,C31,"_6.jpg;"),CONCATENATE(H31,C31,"_7.jpg;"),CONCATENATE(H31,C31,"_8.jpg;"),CONCATENATE(H31,C31,"_9.jpg;"),CONCATENATE(H31,C31,"_10.jpg;"),CONCATENATE(H31,"instruction_A4.jpg;"),CONCATENATE(H31,"Video_DTF.mp4;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/31_japan7_250_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/31_japan7_250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/31_japan7_250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/31_japan7_250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/31_japan7_250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/31_japan7_250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/31_japan7_250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/31_japan7_250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/31_japan7_250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/31_japan7_250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
+      </c>
+      <c r="AA31" s="0" t="str">
+        <f aca="false">A31</f>
+        <v>Термонаклейка Девушка Блондинка с котом на голове</v>
+      </c>
+      <c r="AB31" s="0" t="n">
+        <f aca="false">Q31</f>
+        <v>285</v>
+      </c>
+      <c r="AC31" s="0" t="n">
+        <f aca="false">ROUND(AB31*1.5,0)</f>
+        <v>428</v>
+      </c>
+      <c r="AD31" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE31" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH31" s="0" t="n">
+        <f aca="false">W31</f>
+        <v>12</v>
+      </c>
+      <c r="AI31" s="15" t="n">
+        <f aca="false">V31*10</f>
+        <v>250</v>
+      </c>
+      <c r="AJ31" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK31" s="15" t="n">
+        <f aca="false">U31*10</f>
+        <v>300</v>
+      </c>
+      <c r="AL31" s="12" t="str">
+        <f aca="false">CONCATENATE(H31,C31,"_1.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/31_japan7_250_1.jpg</v>
+      </c>
+      <c r="AM31" s="13" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(H31, C31, "_2.jpg;"),CONCATENATE(H31, C31, "_3.jpg;"),CONCATENATE(H31, C31, "_4.jpg;"),CONCATENATE(H31, C31, "_5.jpg;"),CONCATENATE(H31, C31, "_6.jpg;"),CONCATENATE(H31, C31, "_7.jpg;"),CONCATENATE(H31, C31, "_8.jpg;"),CONCATENATE(H31, C31, "_9.jpg;"),CONCATENATE(H31, C31, "_10.jpg;"),CONCATENATE(H31, "instruction_A4.jpg;") )</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/31_japan7_250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/31_japan7_250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/31_japan7_250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/31_japan7_250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/31_japan7_250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/31_japan7_250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/31_japan7_250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/31_japan7_250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/31_japan7_250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;</v>
+      </c>
+      <c r="AP31" s="12" t="str">
+        <f aca="false">J31</f>
+        <v>Punky Monkey</v>
+      </c>
+      <c r="AQ31" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS31" s="10"/>
+      <c r="AT31" s="0" t="str">
+        <f aca="false">SUBSTITUTE(A31,"Термонаклейка ","")</f>
+        <v>Девушка Блондинка с котом на голове</v>
+      </c>
+      <c r="AU31" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="AV31" s="0" t="str">
+        <f aca="false">S31</f>
+        <v>Термонаклейка Девушка Блондинка с котом на голове. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+      </c>
+      <c r="AX31" s="15" t="str">
+        <f aca="false">X31</f>
+        <v>Россия</v>
+      </c>
+      <c r="BA31" s="15" t="str">
+        <f aca="false">R31</f>
+        <v>Полимерный материал</v>
+      </c>
+      <c r="BC31" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="BD31" s="10"/>
+      <c r="BE31" s="13" t="str">
+        <f aca="false">CONCATENATE(H31,C31,"_color.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/31_japan7_250_color.jpg</v>
+      </c>
+      <c r="BM31" s="0" t="str">
+        <f aca="false">CONCATENATE("термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля,",SUBSTITUTE(A31,"Термонаклейка",""))</f>
+        <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Девушка Блондинка с котом на голове</v>
+      </c>
+      <c r="BR31" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="BS31" s="6" t="str">
+        <f aca="false">CONCATENATE(H31,"Video_DTF.mp4")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="D32" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\", A32, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\Термонаклейка Поцелуй берега и реки картина маслом.pdf</v>
+      </c>
+      <c r="E32" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A32,"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Поцелуй берега и реки картина маслом_img.tif</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H32" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="I32" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="J32" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="M32" s="0" t="str">
+        <f aca="false">A32</f>
+        <v>Термонаклейка Поцелуй берега и реки картина маслом</v>
+      </c>
+      <c r="O32" s="0" t="str">
+        <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(A32, "Термонаклейка", "")</f>
+        <v>Термонаклейка для одежды: Поцелуй берега и реки картина маслом</v>
+      </c>
+      <c r="P32" s="0" t="n">
+        <f aca="false">B32</f>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="0" t="n">
+        <v>285</v>
+      </c>
+      <c r="R32" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="S32" s="7" t="str">
+        <f aca="false">CONCATENATE(A32,". Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.")</f>
+        <v>Термонаклейка Поцелуй берега и реки картина маслом. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+      </c>
+      <c r="T32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U32" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="V32" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="W32" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="X32" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y32" s="8" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(H32,C32,"_1.jpg;"),CONCATENATE(H32,C32,"_2.jpg;"),CONCATENATE(H32,C32,"_3.jpg;"),CONCATENATE(H32,C32,"_4.jpg;"),CONCATENATE(H32,C32,"_5.jpg;"),CONCATENATE(H32,C32,"_6.jpg;"),CONCATENATE(H32,C32,"_7.jpg;"),CONCATENATE(H32,C32,"_8.jpg;"),CONCATENATE(H32,C32,"_9.jpg;"),CONCATENATE(H32,C32,"_10.jpg;"),CONCATENATE(H32,"instruction_A4.jpg;"),CONCATENATE(H32,"Video_DTF.mp4;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/32_kiss_art2_250_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/32_kiss_art2_250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/32_kiss_art2_250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/32_kiss_art2_250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/32_kiss_art2_250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/32_kiss_art2_250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/32_kiss_art2_250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/32_kiss_art2_250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/32_kiss_art2_250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/32_kiss_art2_250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
+      </c>
+      <c r="AA32" s="0" t="str">
+        <f aca="false">A32</f>
+        <v>Термонаклейка Поцелуй берега и реки картина маслом</v>
+      </c>
+      <c r="AB32" s="0" t="n">
+        <f aca="false">Q32</f>
+        <v>285</v>
+      </c>
+      <c r="AC32" s="0" t="n">
+        <f aca="false">ROUND(AB32*1.5,0)</f>
+        <v>428</v>
+      </c>
+      <c r="AD32" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE32" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH32" s="0" t="n">
+        <f aca="false">W32</f>
+        <v>12</v>
+      </c>
+      <c r="AI32" s="15" t="n">
+        <f aca="false">V32*10</f>
+        <v>250</v>
+      </c>
+      <c r="AJ32" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK32" s="15" t="n">
+        <f aca="false">U32*10</f>
+        <v>300</v>
+      </c>
+      <c r="AL32" s="12" t="str">
+        <f aca="false">CONCATENATE(H32,C32,"_1.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/32_kiss_art2_250_1.jpg</v>
+      </c>
+      <c r="AM32" s="13" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(H32, C32, "_2.jpg;"),CONCATENATE(H32, C32, "_3.jpg;"),CONCATENATE(H32, C32, "_4.jpg;"),CONCATENATE(H32, C32, "_5.jpg;"),CONCATENATE(H32, C32, "_6.jpg;"),CONCATENATE(H32, C32, "_7.jpg;"),CONCATENATE(H32, C32, "_8.jpg;"),CONCATENATE(H32, C32, "_9.jpg;"),CONCATENATE(H32, C32, "_10.jpg;"),CONCATENATE(H32, "instruction_A4.jpg;") )</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/32_kiss_art2_250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/32_kiss_art2_250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/32_kiss_art2_250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/32_kiss_art2_250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/32_kiss_art2_250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/32_kiss_art2_250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/32_kiss_art2_250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/32_kiss_art2_250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/32_kiss_art2_250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;</v>
+      </c>
+      <c r="AP32" s="12" t="str">
+        <f aca="false">J32</f>
+        <v>Punky Monkey</v>
+      </c>
+      <c r="AQ32" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS32" s="10"/>
+      <c r="AT32" s="0" t="str">
+        <f aca="false">SUBSTITUTE(A32,"Термонаклейка ","")</f>
+        <v>Поцелуй берега и реки картина маслом</v>
+      </c>
+      <c r="AU32" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="AV32" s="0" t="str">
+        <f aca="false">S32</f>
+        <v>Термонаклейка Поцелуй берега и реки картина маслом. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+      </c>
+      <c r="AX32" s="15" t="str">
+        <f aca="false">X32</f>
+        <v>Россия</v>
+      </c>
+      <c r="BA32" s="15" t="str">
+        <f aca="false">R32</f>
+        <v>Полимерный материал</v>
+      </c>
+      <c r="BC32" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="BD32" s="10"/>
+      <c r="BE32" s="13" t="str">
+        <f aca="false">CONCATENATE(H32,C32,"_color.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/32_kiss_art2_250_color.jpg</v>
+      </c>
+      <c r="BM32" s="0" t="str">
+        <f aca="false">CONCATENATE("термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля,",SUBSTITUTE(A32,"Термонаклейка",""))</f>
+        <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Поцелуй берега и реки картина маслом</v>
+      </c>
+      <c r="BR32" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="BS32" s="6" t="str">
+        <f aca="false">CONCATENATE(H32,"Video_DTF.mp4")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="D33" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\", A33, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\Термонаклейка картина Поцелуй Густава Климта.pdf</v>
+      </c>
+      <c r="E33" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A33,"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка картина Поцелуй Густава Климта_img.tif</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H33" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="I33" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="J33" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="M33" s="0" t="str">
+        <f aca="false">A33</f>
+        <v>Термонаклейка картина Поцелуй Густава Климта</v>
+      </c>
+      <c r="O33" s="0" t="str">
+        <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(A33, "Термонаклейка", "")</f>
+        <v>Термонаклейка для одежды: картина Поцелуй Густава Климта</v>
+      </c>
+      <c r="P33" s="0" t="n">
+        <f aca="false">B33</f>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="0" t="n">
+        <v>285</v>
+      </c>
+      <c r="R33" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="S33" s="7" t="str">
+        <f aca="false">CONCATENATE(A33,". Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.")</f>
+        <v>Термонаклейка картина Поцелуй Густава Климта. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+      </c>
+      <c r="T33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U33" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="V33" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="W33" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="X33" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y33" s="8" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(H33,C33,"_1.jpg;"),CONCATENATE(H33,C33,"_2.jpg;"),CONCATENATE(H33,C33,"_3.jpg;"),CONCATENATE(H33,C33,"_4.jpg;"),CONCATENATE(H33,C33,"_5.jpg;"),CONCATENATE(H33,C33,"_6.jpg;"),CONCATENATE(H33,C33,"_7.jpg;"),CONCATENATE(H33,C33,"_8.jpg;"),CONCATENATE(H33,C33,"_9.jpg;"),CONCATENATE(H33,C33,"_10.jpg;"),CONCATENATE(H33,"instruction_A4.jpg;"),CONCATENATE(H33,"Video_DTF.mp4;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/33_kiss_art3_250_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/33_kiss_art3_250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/33_kiss_art3_250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/33_kiss_art3_250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/33_kiss_art3_250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/33_kiss_art3_250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/33_kiss_art3_250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/33_kiss_art3_250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/33_kiss_art3_250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/33_kiss_art3_250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
+      </c>
+      <c r="AA33" s="0" t="str">
+        <f aca="false">A33</f>
+        <v>Термонаклейка картина Поцелуй Густава Климта</v>
+      </c>
+      <c r="AB33" s="0" t="n">
+        <f aca="false">Q33</f>
+        <v>285</v>
+      </c>
+      <c r="AC33" s="0" t="n">
+        <f aca="false">ROUND(AB33*1.5,0)</f>
+        <v>428</v>
+      </c>
+      <c r="AD33" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE33" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH33" s="0" t="n">
+        <f aca="false">W33</f>
+        <v>12</v>
+      </c>
+      <c r="AI33" s="15" t="n">
+        <f aca="false">V33*10</f>
+        <v>250</v>
+      </c>
+      <c r="AJ33" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK33" s="15" t="n">
+        <f aca="false">U33*10</f>
+        <v>300</v>
+      </c>
+      <c r="AL33" s="12" t="str">
+        <f aca="false">CONCATENATE(H33,C33,"_1.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/33_kiss_art3_250_1.jpg</v>
+      </c>
+      <c r="AM33" s="13" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(H33, C33, "_2.jpg;"),CONCATENATE(H33, C33, "_3.jpg;"),CONCATENATE(H33, C33, "_4.jpg;"),CONCATENATE(H33, C33, "_5.jpg;"),CONCATENATE(H33, C33, "_6.jpg;"),CONCATENATE(H33, C33, "_7.jpg;"),CONCATENATE(H33, C33, "_8.jpg;"),CONCATENATE(H33, C33, "_9.jpg;"),CONCATENATE(H33, C33, "_10.jpg;"),CONCATENATE(H33, "instruction_A4.jpg;") )</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/33_kiss_art3_250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/33_kiss_art3_250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/33_kiss_art3_250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/33_kiss_art3_250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/33_kiss_art3_250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/33_kiss_art3_250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/33_kiss_art3_250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/33_kiss_art3_250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/33_kiss_art3_250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;</v>
+      </c>
+      <c r="AP33" s="12" t="str">
+        <f aca="false">J33</f>
+        <v>Punky Monkey</v>
+      </c>
+      <c r="AQ33" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS33" s="10"/>
+      <c r="AT33" s="0" t="str">
+        <f aca="false">SUBSTITUTE(A33,"Термонаклейка ","")</f>
+        <v>картина Поцелуй Густава Климта</v>
+      </c>
+      <c r="AU33" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="AV33" s="0" t="str">
+        <f aca="false">S33</f>
+        <v>Термонаклейка картина Поцелуй Густава Климта. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+      </c>
+      <c r="AX33" s="15" t="str">
+        <f aca="false">X33</f>
+        <v>Россия</v>
+      </c>
+      <c r="BA33" s="15" t="str">
+        <f aca="false">R33</f>
+        <v>Полимерный материал</v>
+      </c>
+      <c r="BC33" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="BD33" s="10"/>
+      <c r="BE33" s="13" t="str">
+        <f aca="false">CONCATENATE(H33,C33,"_color.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/33_kiss_art3_250_color.jpg</v>
+      </c>
+      <c r="BM33" s="0" t="str">
+        <f aca="false">CONCATENATE("термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля,",SUBSTITUTE(A33,"Термонаклейка",""))</f>
+        <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, картина Поцелуй Густава Климта</v>
+      </c>
+      <c r="BR33" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="BS33" s="6" t="str">
+        <f aca="false">CONCATENATE(H33,"Video_DTF.mp4")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="D34" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\", A34, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\Термонаклейка Поцелуй в космосе картина маслом.pdf</v>
+      </c>
+      <c r="E34" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A34,"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Поцелуй в космосе картина маслом_img.tif</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H34" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="I34" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="J34" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="M34" s="0" t="str">
+        <f aca="false">A34</f>
+        <v>Термонаклейка Поцелуй в космосе картина маслом</v>
+      </c>
+      <c r="O34" s="0" t="str">
+        <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(A34, "Термонаклейка", "")</f>
+        <v>Термонаклейка для одежды: Поцелуй в космосе картина маслом</v>
+      </c>
+      <c r="P34" s="0" t="n">
+        <f aca="false">B34</f>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="0" t="n">
+        <v>285</v>
+      </c>
+      <c r="R34" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="S34" s="7" t="str">
+        <f aca="false">CONCATENATE(A34,". Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.")</f>
+        <v>Термонаклейка Поцелуй в космосе картина маслом. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+      </c>
+      <c r="T34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U34" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="V34" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="W34" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="X34" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y34" s="8" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(H34,C34,"_1.jpg;"),CONCATENATE(H34,C34,"_2.jpg;"),CONCATENATE(H34,C34,"_3.jpg;"),CONCATENATE(H34,C34,"_4.jpg;"),CONCATENATE(H34,C34,"_5.jpg;"),CONCATENATE(H34,C34,"_6.jpg;"),CONCATENATE(H34,C34,"_7.jpg;"),CONCATENATE(H34,C34,"_8.jpg;"),CONCATENATE(H34,C34,"_9.jpg;"),CONCATENATE(H34,C34,"_10.jpg;"),CONCATENATE(H34,"instruction_A4.jpg;"),CONCATENATE(H34,"Video_DTF.mp4;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/34_kiss250_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/34_kiss250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/34_kiss250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/34_kiss250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/34_kiss250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/34_kiss250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/34_kiss250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/34_kiss250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/34_kiss250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/34_kiss250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
+      </c>
+      <c r="AA34" s="0" t="str">
+        <f aca="false">A34</f>
+        <v>Термонаклейка Поцелуй в космосе картина маслом</v>
+      </c>
+      <c r="AB34" s="0" t="n">
+        <f aca="false">Q34</f>
+        <v>285</v>
+      </c>
+      <c r="AC34" s="0" t="n">
+        <f aca="false">ROUND(AB34*1.5,0)</f>
+        <v>428</v>
+      </c>
+      <c r="AD34" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE34" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH34" s="0" t="n">
+        <f aca="false">W34</f>
+        <v>12</v>
+      </c>
+      <c r="AI34" s="15" t="n">
+        <f aca="false">V34*10</f>
+        <v>250</v>
+      </c>
+      <c r="AJ34" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK34" s="15" t="n">
+        <f aca="false">U34*10</f>
+        <v>300</v>
+      </c>
+      <c r="AL34" s="12" t="str">
+        <f aca="false">CONCATENATE(H34,C34,"_1.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/34_kiss250_1.jpg</v>
+      </c>
+      <c r="AM34" s="13" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(H34, C34, "_2.jpg;"),CONCATENATE(H34, C34, "_3.jpg;"),CONCATENATE(H34, C34, "_4.jpg;"),CONCATENATE(H34, C34, "_5.jpg;"),CONCATENATE(H34, C34, "_6.jpg;"),CONCATENATE(H34, C34, "_7.jpg;"),CONCATENATE(H34, C34, "_8.jpg;"),CONCATENATE(H34, C34, "_9.jpg;"),CONCATENATE(H34, C34, "_10.jpg;"),CONCATENATE(H34, "instruction_A4.jpg;") )</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/34_kiss250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/34_kiss250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/34_kiss250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/34_kiss250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/34_kiss250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/34_kiss250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/34_kiss250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/34_kiss250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/34_kiss250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;</v>
+      </c>
+      <c r="AP34" s="12" t="str">
+        <f aca="false">J34</f>
+        <v>Punky Monkey</v>
+      </c>
+      <c r="AQ34" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS34" s="10"/>
+      <c r="AT34" s="0" t="str">
+        <f aca="false">SUBSTITUTE(A34,"Термонаклейка ","")</f>
+        <v>Поцелуй в космосе картина маслом</v>
+      </c>
+      <c r="AU34" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="AV34" s="0" t="str">
+        <f aca="false">S34</f>
+        <v>Термонаклейка Поцелуй в космосе картина маслом. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+      </c>
+      <c r="AX34" s="15" t="str">
+        <f aca="false">X34</f>
+        <v>Россия</v>
+      </c>
+      <c r="BA34" s="15" t="str">
+        <f aca="false">R34</f>
+        <v>Полимерный материал</v>
+      </c>
+      <c r="BC34" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="BD34" s="10"/>
+      <c r="BE34" s="13" t="str">
+        <f aca="false">CONCATENATE(H34,C34,"_color.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/34_kiss250_color.jpg</v>
+      </c>
+      <c r="BM34" s="0" t="str">
+        <f aca="false">CONCATENATE("термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля,",SUBSTITUTE(A34,"Термонаклейка",""))</f>
+        <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Поцелуй в космосе картина маслом</v>
+      </c>
+      <c r="BR34" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="BS34" s="6" t="str">
+        <f aca="false">CONCATENATE(H34,"Video_DTF.mp4")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="D35" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\", A35, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\Термонаклейка Губы с чупа чупсом.pdf</v>
+      </c>
+      <c r="E35" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A35,"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Губы с чупа чупсом_img.tif</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H35" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="I35" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="J35" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="M35" s="0" t="str">
+        <f aca="false">A35</f>
+        <v>Термонаклейка Губы с чупа чупсом</v>
+      </c>
+      <c r="O35" s="0" t="str">
+        <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(A35, "Термонаклейка", "")</f>
+        <v>Термонаклейка для одежды: Губы с чупа чупсом</v>
+      </c>
+      <c r="P35" s="0" t="n">
+        <f aca="false">B35</f>
+        <v>0</v>
+      </c>
+      <c r="Q35" s="0" t="n">
+        <v>285</v>
+      </c>
+      <c r="R35" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="S35" s="7" t="str">
+        <f aca="false">CONCATENATE(A35,". Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.")</f>
+        <v>Термонаклейка Губы с чупа чупсом. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+      </c>
+      <c r="T35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U35" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="V35" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="W35" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="X35" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y35" s="8" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(H35,C35,"_1.jpg;"),CONCATENATE(H35,C35,"_2.jpg;"),CONCATENATE(H35,C35,"_3.jpg;"),CONCATENATE(H35,C35,"_4.jpg;"),CONCATENATE(H35,C35,"_5.jpg;"),CONCATENATE(H35,C35,"_6.jpg;"),CONCATENATE(H35,C35,"_7.jpg;"),CONCATENATE(H35,C35,"_8.jpg;"),CONCATENATE(H35,C35,"_9.jpg;"),CONCATENATE(H35,C35,"_10.jpg;"),CONCATENATE(H35,"instruction_A4.jpg;"),CONCATENATE(H35,"Video_DTF.mp4;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/35_leaps1_250_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/35_leaps1_250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/35_leaps1_250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/35_leaps1_250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/35_leaps1_250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/35_leaps1_250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/35_leaps1_250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/35_leaps1_250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/35_leaps1_250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/35_leaps1_250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
+      </c>
+      <c r="AA35" s="0" t="str">
+        <f aca="false">A35</f>
+        <v>Термонаклейка Губы с чупа чупсом</v>
+      </c>
+      <c r="AB35" s="0" t="n">
+        <f aca="false">Q35</f>
+        <v>285</v>
+      </c>
+      <c r="AC35" s="0" t="n">
+        <f aca="false">ROUND(AB35*1.5,0)</f>
+        <v>428</v>
+      </c>
+      <c r="AD35" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE35" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH35" s="0" t="n">
+        <f aca="false">W35</f>
+        <v>12</v>
+      </c>
+      <c r="AI35" s="15" t="n">
+        <f aca="false">V35*10</f>
+        <v>250</v>
+      </c>
+      <c r="AJ35" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK35" s="15" t="n">
+        <f aca="false">U35*10</f>
+        <v>300</v>
+      </c>
+      <c r="AL35" s="12" t="str">
+        <f aca="false">CONCATENATE(H35,C35,"_1.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/35_leaps1_250_1.jpg</v>
+      </c>
+      <c r="AM35" s="13" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(H35, C35, "_2.jpg;"),CONCATENATE(H35, C35, "_3.jpg;"),CONCATENATE(H35, C35, "_4.jpg;"),CONCATENATE(H35, C35, "_5.jpg;"),CONCATENATE(H35, C35, "_6.jpg;"),CONCATENATE(H35, C35, "_7.jpg;"),CONCATENATE(H35, C35, "_8.jpg;"),CONCATENATE(H35, C35, "_9.jpg;"),CONCATENATE(H35, C35, "_10.jpg;"),CONCATENATE(H35, "instruction_A4.jpg;") )</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/35_leaps1_250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/35_leaps1_250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/35_leaps1_250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/35_leaps1_250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/35_leaps1_250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/35_leaps1_250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/35_leaps1_250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/35_leaps1_250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/35_leaps1_250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;</v>
+      </c>
+      <c r="AP35" s="12" t="str">
+        <f aca="false">J35</f>
+        <v>Punky Monkey</v>
+      </c>
+      <c r="AQ35" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS35" s="10"/>
+      <c r="AT35" s="0" t="str">
+        <f aca="false">SUBSTITUTE(A35,"Термонаклейка ","")</f>
+        <v>Губы с чупа чупсом</v>
+      </c>
+      <c r="AU35" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="AV35" s="0" t="str">
+        <f aca="false">S35</f>
+        <v>Термонаклейка Губы с чупа чупсом. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+      </c>
+      <c r="AX35" s="15" t="str">
+        <f aca="false">X35</f>
+        <v>Россия</v>
+      </c>
+      <c r="BA35" s="15" t="str">
+        <f aca="false">R35</f>
+        <v>Полимерный материал</v>
+      </c>
+      <c r="BC35" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="BD35" s="10"/>
+      <c r="BE35" s="13" t="str">
+        <f aca="false">CONCATENATE(H35,C35,"_color.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/35_leaps1_250_color.jpg</v>
+      </c>
+      <c r="BM35" s="0" t="str">
+        <f aca="false">CONCATENATE("термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля,",SUBSTITUTE(A35,"Термонаклейка",""))</f>
+        <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Губы с чупа чупсом</v>
+      </c>
+      <c r="BR35" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="BS35" s="6" t="str">
+        <f aca="false">CONCATENATE(H35,"Video_DTF.mp4")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="D36" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\", A36, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\Термонаклейка Dolce Gabbana Дольче Габбана лимоны.pdf</v>
+      </c>
+      <c r="E36" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A36,"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Dolce Gabbana Дольче Габбана лимоны_img.tif</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H36" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="I36" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="J36" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="M36" s="0" t="str">
+        <f aca="false">A36</f>
+        <v>Термонаклейка Dolce Gabbana Дольче Габбана лимоны</v>
+      </c>
+      <c r="O36" s="0" t="str">
+        <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(A36, "Термонаклейка", "")</f>
+        <v>Термонаклейка для одежды: Dolce Gabbana Дольче Габбана лимоны</v>
+      </c>
+      <c r="P36" s="0" t="n">
+        <f aca="false">B36</f>
+        <v>0</v>
+      </c>
+      <c r="Q36" s="0" t="n">
+        <v>285</v>
+      </c>
+      <c r="R36" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="S36" s="7" t="str">
+        <f aca="false">CONCATENATE(A36,". Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.")</f>
+        <v>Термонаклейка Dolce Gabbana Дольче Габбана лимоны. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+      </c>
+      <c r="T36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U36" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="V36" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="W36" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="X36" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y36" s="8" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(H36,C36,"_1.jpg;"),CONCATENATE(H36,C36,"_2.jpg;"),CONCATENATE(H36,C36,"_3.jpg;"),CONCATENATE(H36,C36,"_4.jpg;"),CONCATENATE(H36,C36,"_5.jpg;"),CONCATENATE(H36,C36,"_6.jpg;"),CONCATENATE(H36,C36,"_7.jpg;"),CONCATENATE(H36,C36,"_8.jpg;"),CONCATENATE(H36,C36,"_9.jpg;"),CONCATENATE(H36,C36,"_10.jpg;"),CONCATENATE(H36,"instruction_A4.jpg;"),CONCATENATE(H36,"Video_DTF.mp4;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/36_lemons250_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/36_lemons250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/36_lemons250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/36_lemons250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/36_lemons250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/36_lemons250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/36_lemons250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/36_lemons250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/36_lemons250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/36_lemons250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
+      </c>
+      <c r="AA36" s="0" t="str">
+        <f aca="false">A36</f>
+        <v>Термонаклейка Dolce Gabbana Дольче Габбана лимоны</v>
+      </c>
+      <c r="AB36" s="0" t="n">
+        <f aca="false">Q36</f>
+        <v>285</v>
+      </c>
+      <c r="AC36" s="0" t="n">
+        <f aca="false">ROUND(AB36*1.5,0)</f>
+        <v>428</v>
+      </c>
+      <c r="AD36" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE36" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH36" s="0" t="n">
+        <f aca="false">W36</f>
+        <v>12</v>
+      </c>
+      <c r="AI36" s="15" t="n">
+        <f aca="false">V36*10</f>
+        <v>250</v>
+      </c>
+      <c r="AJ36" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK36" s="15" t="n">
+        <f aca="false">U36*10</f>
+        <v>300</v>
+      </c>
+      <c r="AL36" s="12" t="str">
+        <f aca="false">CONCATENATE(H36,C36,"_1.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/36_lemons250_1.jpg</v>
+      </c>
+      <c r="AM36" s="13" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(H36, C36, "_2.jpg;"),CONCATENATE(H36, C36, "_3.jpg;"),CONCATENATE(H36, C36, "_4.jpg;"),CONCATENATE(H36, C36, "_5.jpg;"),CONCATENATE(H36, C36, "_6.jpg;"),CONCATENATE(H36, C36, "_7.jpg;"),CONCATENATE(H36, C36, "_8.jpg;"),CONCATENATE(H36, C36, "_9.jpg;"),CONCATENATE(H36, C36, "_10.jpg;"),CONCATENATE(H36, "instruction_A4.jpg;") )</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/36_lemons250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/36_lemons250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/36_lemons250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/36_lemons250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/36_lemons250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/36_lemons250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/36_lemons250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/36_lemons250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/36_lemons250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;</v>
+      </c>
+      <c r="AP36" s="12" t="str">
+        <f aca="false">J36</f>
+        <v>Punky Monkey</v>
+      </c>
+      <c r="AQ36" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS36" s="10"/>
+      <c r="AT36" s="0" t="str">
+        <f aca="false">SUBSTITUTE(A36,"Термонаклейка ","")</f>
+        <v>Dolce Gabbana Дольче Габбана лимоны</v>
+      </c>
+      <c r="AU36" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="AV36" s="0" t="str">
+        <f aca="false">S36</f>
+        <v>Термонаклейка Dolce Gabbana Дольче Габбана лимоны. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+      </c>
+      <c r="AX36" s="15" t="str">
+        <f aca="false">X36</f>
+        <v>Россия</v>
+      </c>
+      <c r="BA36" s="15" t="str">
+        <f aca="false">R36</f>
+        <v>Полимерный материал</v>
+      </c>
+      <c r="BC36" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="BD36" s="10"/>
+      <c r="BE36" s="13" t="str">
+        <f aca="false">CONCATENATE(H36,C36,"_color.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/36_lemons250_color.jpg</v>
+      </c>
+      <c r="BM36" s="0" t="str">
+        <f aca="false">CONCATENATE("термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля,",SUBSTITUTE(A36,"Термонаклейка",""))</f>
+        <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Dolce Gabbana Дольче Габбана лимоны</v>
+      </c>
+      <c r="BR36" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="BS36" s="6" t="str">
+        <f aca="false">CONCATENATE(H36,"Video_DTF.mp4")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="D37" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\", A37, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\Термонаклейка надпись love любовь 3 раза.pdf</v>
+      </c>
+      <c r="E37" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A37,"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка надпись love любовь 3 раза_img.tif</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H37" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="I37" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="J37" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="M37" s="0" t="str">
+        <f aca="false">A37</f>
+        <v>Термонаклейка надпись love любовь 3 раза</v>
+      </c>
+      <c r="O37" s="0" t="str">
+        <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(A37, "Термонаклейка", "")</f>
+        <v>Термонаклейка для одежды: надпись love любовь 3 раза</v>
+      </c>
+      <c r="P37" s="0" t="n">
+        <f aca="false">B37</f>
+        <v>0</v>
+      </c>
+      <c r="Q37" s="0" t="n">
+        <v>285</v>
+      </c>
+      <c r="R37" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="S37" s="7" t="str">
+        <f aca="false">CONCATENATE(A37,". Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.")</f>
+        <v>Термонаклейка надпись love любовь 3 раза. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+      </c>
+      <c r="T37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U37" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="V37" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="W37" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="X37" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y37" s="8" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(H37,C37,"_1.jpg;"),CONCATENATE(H37,C37,"_2.jpg;"),CONCATENATE(H37,C37,"_3.jpg;"),CONCATENATE(H37,C37,"_4.jpg;"),CONCATENATE(H37,C37,"_5.jpg;"),CONCATENATE(H37,C37,"_6.jpg;"),CONCATENATE(H37,C37,"_7.jpg;"),CONCATENATE(H37,C37,"_8.jpg;"),CONCATENATE(H37,C37,"_9.jpg;"),CONCATENATE(H37,C37,"_10.jpg;"),CONCATENATE(H37,"instruction_A4.jpg;"),CONCATENATE(H37,"Video_DTF.mp4;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/37_love2_250_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/37_love2_250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/37_love2_250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/37_love2_250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/37_love2_250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/37_love2_250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/37_love2_250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/37_love2_250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/37_love2_250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/37_love2_250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
+      </c>
+      <c r="AA37" s="0" t="str">
+        <f aca="false">A37</f>
+        <v>Термонаклейка надпись love любовь 3 раза</v>
+      </c>
+      <c r="AB37" s="0" t="n">
+        <f aca="false">Q37</f>
+        <v>285</v>
+      </c>
+      <c r="AC37" s="0" t="n">
+        <f aca="false">ROUND(AB37*1.5,0)</f>
+        <v>428</v>
+      </c>
+      <c r="AD37" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE37" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH37" s="0" t="n">
+        <f aca="false">W37</f>
+        <v>12</v>
+      </c>
+      <c r="AI37" s="15" t="n">
+        <f aca="false">V37*10</f>
+        <v>250</v>
+      </c>
+      <c r="AJ37" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK37" s="15" t="n">
+        <f aca="false">U37*10</f>
+        <v>300</v>
+      </c>
+      <c r="AL37" s="12" t="str">
+        <f aca="false">CONCATENATE(H37,C37,"_1.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/37_love2_250_1.jpg</v>
+      </c>
+      <c r="AM37" s="13" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(H37, C37, "_2.jpg;"),CONCATENATE(H37, C37, "_3.jpg;"),CONCATENATE(H37, C37, "_4.jpg;"),CONCATENATE(H37, C37, "_5.jpg;"),CONCATENATE(H37, C37, "_6.jpg;"),CONCATENATE(H37, C37, "_7.jpg;"),CONCATENATE(H37, C37, "_8.jpg;"),CONCATENATE(H37, C37, "_9.jpg;"),CONCATENATE(H37, C37, "_10.jpg;"),CONCATENATE(H37, "instruction_A4.jpg;") )</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/37_love2_250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/37_love2_250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/37_love2_250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/37_love2_250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/37_love2_250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/37_love2_250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/37_love2_250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/37_love2_250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/37_love2_250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;</v>
+      </c>
+      <c r="AP37" s="12" t="str">
+        <f aca="false">J37</f>
+        <v>Punky Monkey</v>
+      </c>
+      <c r="AQ37" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS37" s="10"/>
+      <c r="AT37" s="0" t="str">
+        <f aca="false">SUBSTITUTE(A37,"Термонаклейка ","")</f>
+        <v>надпись love любовь 3 раза</v>
+      </c>
+      <c r="AU37" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="AV37" s="0" t="str">
+        <f aca="false">S37</f>
+        <v>Термонаклейка надпись love любовь 3 раза. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+      </c>
+      <c r="AX37" s="15" t="str">
+        <f aca="false">X37</f>
+        <v>Россия</v>
+      </c>
+      <c r="BA37" s="15" t="str">
+        <f aca="false">R37</f>
+        <v>Полимерный материал</v>
+      </c>
+      <c r="BC37" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="BD37" s="10"/>
+      <c r="BE37" s="13" t="str">
+        <f aca="false">CONCATENATE(H37,C37,"_color.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/37_love2_250_color.jpg</v>
+      </c>
+      <c r="BM37" s="0" t="str">
+        <f aca="false">CONCATENATE("термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля,",SUBSTITUTE(A37,"Термонаклейка",""))</f>
+        <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, надпись love любовь 3 раза</v>
+      </c>
+      <c r="BR37" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="BS37" s="6" t="str">
+        <f aca="false">CONCATENATE(H37,"Video_DTF.mp4")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="D38" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\", A38, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\Термонаклейка надпись love любовь.pdf</v>
+      </c>
+      <c r="E38" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A38,"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка надпись love любовь_img.tif</v>
+      </c>
+      <c r="F38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H38" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="I38" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="J38" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="M38" s="0" t="str">
+        <f aca="false">A38</f>
+        <v>Термонаклейка надпись love любовь</v>
+      </c>
+      <c r="O38" s="0" t="str">
+        <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(A38, "Термонаклейка", "")</f>
+        <v>Термонаклейка для одежды: надпись love любовь</v>
+      </c>
+      <c r="P38" s="0" t="n">
+        <f aca="false">B38</f>
+        <v>0</v>
+      </c>
+      <c r="Q38" s="0" t="n">
+        <v>285</v>
+      </c>
+      <c r="R38" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="S38" s="7" t="str">
+        <f aca="false">CONCATENATE(A38,". Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.")</f>
+        <v>Термонаклейка надпись love любовь. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+      </c>
+      <c r="T38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U38" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="V38" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="W38" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="X38" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y38" s="8" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(H38,C38,"_1.jpg;"),CONCATENATE(H38,C38,"_2.jpg;"),CONCATENATE(H38,C38,"_3.jpg;"),CONCATENATE(H38,C38,"_4.jpg;"),CONCATENATE(H38,C38,"_5.jpg;"),CONCATENATE(H38,C38,"_6.jpg;"),CONCATENATE(H38,C38,"_7.jpg;"),CONCATENATE(H38,C38,"_8.jpg;"),CONCATENATE(H38,C38,"_9.jpg;"),CONCATENATE(H38,C38,"_10.jpg;"),CONCATENATE(H38,"instruction_A4.jpg;"),CONCATENATE(H38,"Video_DTF.mp4;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/38_love220_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/38_love220_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/38_love220_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/38_love220_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/38_love220_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/38_love220_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/38_love220_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/38_love220_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/38_love220_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/38_love220_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
+      </c>
+      <c r="AA38" s="0" t="str">
+        <f aca="false">A38</f>
+        <v>Термонаклейка надпись love любовь</v>
+      </c>
+      <c r="AB38" s="0" t="n">
+        <f aca="false">Q38</f>
+        <v>285</v>
+      </c>
+      <c r="AC38" s="0" t="n">
+        <f aca="false">ROUND(AB38*1.5,0)</f>
+        <v>428</v>
+      </c>
+      <c r="AD38" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE38" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH38" s="0" t="n">
+        <f aca="false">W38</f>
+        <v>12</v>
+      </c>
+      <c r="AI38" s="15" t="n">
+        <f aca="false">V38*10</f>
+        <v>250</v>
+      </c>
+      <c r="AJ38" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK38" s="15" t="n">
+        <f aca="false">U38*10</f>
+        <v>300</v>
+      </c>
+      <c r="AL38" s="12" t="str">
+        <f aca="false">CONCATENATE(H38,C38,"_1.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/38_love220_1.jpg</v>
+      </c>
+      <c r="AM38" s="13" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(H38, C38, "_2.jpg;"),CONCATENATE(H38, C38, "_3.jpg;"),CONCATENATE(H38, C38, "_4.jpg;"),CONCATENATE(H38, C38, "_5.jpg;"),CONCATENATE(H38, C38, "_6.jpg;"),CONCATENATE(H38, C38, "_7.jpg;"),CONCATENATE(H38, C38, "_8.jpg;"),CONCATENATE(H38, C38, "_9.jpg;"),CONCATENATE(H38, C38, "_10.jpg;"),CONCATENATE(H38, "instruction_A4.jpg;") )</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/38_love220_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/38_love220_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/38_love220_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/38_love220_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/38_love220_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/38_love220_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/38_love220_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/38_love220_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/38_love220_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;</v>
+      </c>
+      <c r="AP38" s="12" t="str">
+        <f aca="false">J38</f>
+        <v>Punky Monkey</v>
+      </c>
+      <c r="AQ38" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS38" s="10"/>
+      <c r="AT38" s="0" t="str">
+        <f aca="false">SUBSTITUTE(A38,"Термонаклейка ","")</f>
+        <v>надпись love любовь</v>
+      </c>
+      <c r="AU38" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="AV38" s="0" t="str">
+        <f aca="false">S38</f>
+        <v>Термонаклейка надпись love любовь. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+      </c>
+      <c r="AX38" s="15" t="str">
+        <f aca="false">X38</f>
+        <v>Россия</v>
+      </c>
+      <c r="BA38" s="15" t="str">
+        <f aca="false">R38</f>
+        <v>Полимерный материал</v>
+      </c>
+      <c r="BC38" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="BD38" s="10"/>
+      <c r="BE38" s="13" t="str">
+        <f aca="false">CONCATENATE(H38,C38,"_color.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/38_love220_color.jpg</v>
+      </c>
+      <c r="BM38" s="0" t="str">
+        <f aca="false">CONCATENATE("термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля,",SUBSTITUTE(A38,"Термонаклейка",""))</f>
+        <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, надпись love любовь</v>
+      </c>
+      <c r="BR38" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="BS38" s="6" t="str">
+        <f aca="false">CONCATENATE(H38,"Video_DTF.mp4")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="D39" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\", A39, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\Термонаклейка Мэрилин Монро Supreme Суприм глаза.pdf</v>
+      </c>
+      <c r="E39" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A39,"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Мэрилин Монро Supreme Суприм глаза_img.tif</v>
+      </c>
+      <c r="F39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H39" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="I39" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="J39" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="M39" s="0" t="str">
+        <f aca="false">A39</f>
+        <v>Термонаклейка Мэрилин Монро Supreme Суприм глаза</v>
+      </c>
+      <c r="O39" s="0" t="str">
+        <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(A39, "Термонаклейка", "")</f>
+        <v>Термонаклейка для одежды: Мэрилин Монро Supreme Суприм глаза</v>
+      </c>
+      <c r="P39" s="0" t="n">
+        <f aca="false">B39</f>
+        <v>0</v>
+      </c>
+      <c r="Q39" s="0" t="n">
+        <v>285</v>
+      </c>
+      <c r="R39" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="S39" s="7" t="str">
+        <f aca="false">CONCATENATE(A39,". Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.")</f>
+        <v>Термонаклейка Мэрилин Монро Supreme Суприм глаза. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+      </c>
+      <c r="T39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U39" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="V39" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="W39" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="X39" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y39" s="8" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(H39,C39,"_1.jpg;"),CONCATENATE(H39,C39,"_2.jpg;"),CONCATENATE(H39,C39,"_3.jpg;"),CONCATENATE(H39,C39,"_4.jpg;"),CONCATENATE(H39,C39,"_5.jpg;"),CONCATENATE(H39,C39,"_6.jpg;"),CONCATENATE(H39,C39,"_7.jpg;"),CONCATENATE(H39,C39,"_8.jpg;"),CONCATENATE(H39,C39,"_9.jpg;"),CONCATENATE(H39,C39,"_10.jpg;"),CONCATENATE(H39,"instruction_A4.jpg;"),CONCATENATE(H39,"Video_DTF.mp4;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/39_MERLIN2_250_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/39_MERLIN2_250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/39_MERLIN2_250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/39_MERLIN2_250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/39_MERLIN2_250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/39_MERLIN2_250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/39_MERLIN2_250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/39_MERLIN2_250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/39_MERLIN2_250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/39_MERLIN2_250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
+      </c>
+      <c r="AA39" s="0" t="str">
+        <f aca="false">A39</f>
+        <v>Термонаклейка Мэрилин Монро Supreme Суприм глаза</v>
+      </c>
+      <c r="AB39" s="0" t="n">
+        <f aca="false">Q39</f>
+        <v>285</v>
+      </c>
+      <c r="AC39" s="0" t="n">
+        <f aca="false">ROUND(AB39*1.5,0)</f>
+        <v>428</v>
+      </c>
+      <c r="AD39" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE39" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH39" s="0" t="n">
+        <f aca="false">W39</f>
+        <v>12</v>
+      </c>
+      <c r="AI39" s="15" t="n">
+        <f aca="false">V39*10</f>
+        <v>250</v>
+      </c>
+      <c r="AJ39" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK39" s="15" t="n">
+        <f aca="false">U39*10</f>
+        <v>300</v>
+      </c>
+      <c r="AL39" s="12" t="str">
+        <f aca="false">CONCATENATE(H39,C39,"_1.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/39_MERLIN2_250_1.jpg</v>
+      </c>
+      <c r="AM39" s="13" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(H39, C39, "_2.jpg;"),CONCATENATE(H39, C39, "_3.jpg;"),CONCATENATE(H39, C39, "_4.jpg;"),CONCATENATE(H39, C39, "_5.jpg;"),CONCATENATE(H39, C39, "_6.jpg;"),CONCATENATE(H39, C39, "_7.jpg;"),CONCATENATE(H39, C39, "_8.jpg;"),CONCATENATE(H39, C39, "_9.jpg;"),CONCATENATE(H39, C39, "_10.jpg;"),CONCATENATE(H39, "instruction_A4.jpg;") )</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/39_MERLIN2_250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/39_MERLIN2_250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/39_MERLIN2_250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/39_MERLIN2_250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/39_MERLIN2_250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/39_MERLIN2_250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/39_MERLIN2_250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/39_MERLIN2_250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/39_MERLIN2_250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;</v>
+      </c>
+      <c r="AP39" s="12" t="str">
+        <f aca="false">J39</f>
+        <v>Punky Monkey</v>
+      </c>
+      <c r="AQ39" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS39" s="10"/>
+      <c r="AT39" s="0" t="str">
+        <f aca="false">SUBSTITUTE(A39,"Термонаклейка ","")</f>
+        <v>Мэрилин Монро Supreme Суприм глаза</v>
+      </c>
+      <c r="AU39" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="AV39" s="0" t="str">
+        <f aca="false">S39</f>
+        <v>Термонаклейка Мэрилин Монро Supreme Суприм глаза. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+      </c>
+      <c r="AX39" s="15" t="str">
+        <f aca="false">X39</f>
+        <v>Россия</v>
+      </c>
+      <c r="BA39" s="15" t="str">
+        <f aca="false">R39</f>
+        <v>Полимерный материал</v>
+      </c>
+      <c r="BC39" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="BD39" s="10"/>
+      <c r="BE39" s="13" t="str">
+        <f aca="false">CONCATENATE(H39,C39,"_color.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/39_MERLIN2_250_color.jpg</v>
+      </c>
+      <c r="BM39" s="0" t="str">
+        <f aca="false">CONCATENATE("термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля,",SUBSTITUTE(A39,"Термонаклейка",""))</f>
+        <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Мэрилин Монро Supreme Суприм глаза</v>
+      </c>
+      <c r="BR39" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="BS39" s="6" t="str">
+        <f aca="false">CONCATENATE(H39,"Video_DTF.mp4")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="D40" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\", A40, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\Термонаклейка Микки Маус надписи на фоне.pdf</v>
+      </c>
+      <c r="E40" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A40,"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Микки Маус надписи на фоне_img.tif</v>
+      </c>
+      <c r="F40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H40" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="I40" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="J40" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="M40" s="0" t="str">
+        <f aca="false">A40</f>
+        <v>Термонаклейка Микки Маус надписи на фоне</v>
+      </c>
+      <c r="O40" s="0" t="str">
+        <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(A40, "Термонаклейка", "")</f>
+        <v>Термонаклейка для одежды: Микки Маус надписи на фоне</v>
+      </c>
+      <c r="P40" s="0" t="n">
+        <f aca="false">B40</f>
+        <v>0</v>
+      </c>
+      <c r="Q40" s="0" t="n">
+        <v>285</v>
+      </c>
+      <c r="R40" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="S40" s="7" t="str">
+        <f aca="false">CONCATENATE(A40,". Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.")</f>
+        <v>Термонаклейка Микки Маус надписи на фоне. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+      </c>
+      <c r="T40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U40" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="V40" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="W40" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="X40" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y40" s="8" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(H40,C40,"_1.jpg;"),CONCATENATE(H40,C40,"_2.jpg;"),CONCATENATE(H40,C40,"_3.jpg;"),CONCATENATE(H40,C40,"_4.jpg;"),CONCATENATE(H40,C40,"_5.jpg;"),CONCATENATE(H40,C40,"_6.jpg;"),CONCATENATE(H40,C40,"_7.jpg;"),CONCATENATE(H40,C40,"_8.jpg;"),CONCATENATE(H40,C40,"_9.jpg;"),CONCATENATE(H40,C40,"_10.jpg;"),CONCATENATE(H40,"instruction_A4.jpg;"),CONCATENATE(H40,"Video_DTF.mp4;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/40_mickey1_20_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/40_mickey1_20_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/40_mickey1_20_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/40_mickey1_20_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/40_mickey1_20_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/40_mickey1_20_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/40_mickey1_20_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/40_mickey1_20_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/40_mickey1_20_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/40_mickey1_20_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
+      </c>
+      <c r="AA40" s="0" t="str">
+        <f aca="false">A40</f>
+        <v>Термонаклейка Микки Маус надписи на фоне</v>
+      </c>
+      <c r="AB40" s="0" t="n">
+        <f aca="false">Q40</f>
+        <v>285</v>
+      </c>
+      <c r="AC40" s="0" t="n">
+        <f aca="false">ROUND(AB40*1.5,0)</f>
+        <v>428</v>
+      </c>
+      <c r="AD40" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE40" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH40" s="0" t="n">
+        <f aca="false">W40</f>
+        <v>12</v>
+      </c>
+      <c r="AI40" s="15" t="n">
+        <f aca="false">V40*10</f>
+        <v>250</v>
+      </c>
+      <c r="AJ40" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK40" s="15" t="n">
+        <f aca="false">U40*10</f>
+        <v>300</v>
+      </c>
+      <c r="AL40" s="12" t="str">
+        <f aca="false">CONCATENATE(H40,C40,"_1.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/40_mickey1_20_1.jpg</v>
+      </c>
+      <c r="AM40" s="13" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(H40, C40, "_2.jpg;"),CONCATENATE(H40, C40, "_3.jpg;"),CONCATENATE(H40, C40, "_4.jpg;"),CONCATENATE(H40, C40, "_5.jpg;"),CONCATENATE(H40, C40, "_6.jpg;"),CONCATENATE(H40, C40, "_7.jpg;"),CONCATENATE(H40, C40, "_8.jpg;"),CONCATENATE(H40, C40, "_9.jpg;"),CONCATENATE(H40, C40, "_10.jpg;"),CONCATENATE(H40, "instruction_A4.jpg;") )</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/40_mickey1_20_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/40_mickey1_20_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/40_mickey1_20_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/40_mickey1_20_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/40_mickey1_20_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/40_mickey1_20_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/40_mickey1_20_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/40_mickey1_20_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/40_mickey1_20_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;</v>
+      </c>
+      <c r="AP40" s="12" t="str">
+        <f aca="false">J40</f>
+        <v>Punky Monkey</v>
+      </c>
+      <c r="AQ40" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS40" s="10"/>
+      <c r="AT40" s="0" t="str">
+        <f aca="false">SUBSTITUTE(A40,"Термонаклейка ","")</f>
+        <v>Микки Маус надписи на фоне</v>
+      </c>
+      <c r="AU40" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="AV40" s="0" t="str">
+        <f aca="false">S40</f>
+        <v>Термонаклейка Микки Маус надписи на фоне. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+      </c>
+      <c r="AX40" s="15" t="str">
+        <f aca="false">X40</f>
+        <v>Россия</v>
+      </c>
+      <c r="BA40" s="15" t="str">
+        <f aca="false">R40</f>
+        <v>Полимерный материал</v>
+      </c>
+      <c r="BC40" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="BD40" s="10"/>
+      <c r="BE40" s="13" t="str">
+        <f aca="false">CONCATENATE(H40,C40,"_color.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/40_mickey1_20_color.jpg</v>
+      </c>
+      <c r="BM40" s="0" t="str">
+        <f aca="false">CONCATENATE("термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля,",SUBSTITUTE(A40,"Термонаклейка",""))</f>
+        <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Микки Маус надписи на фоне</v>
+      </c>
+      <c r="BR40" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="BS40" s="6" t="str">
+        <f aca="false">CONCATENATE(H40,"Video_DTF.mp4")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="D41" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\", A41, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\Термонаклейка картина Девушка с сережкой Билли.pdf</v>
+      </c>
+      <c r="E41" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A41,"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка картина Девушка с сережкой Билли_img.tif</v>
+      </c>
+      <c r="F41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H41" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="I41" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="J41" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="M41" s="0" t="str">
+        <f aca="false">A41</f>
+        <v>Термонаклейка картина Девушка с сережкой Билли</v>
+      </c>
+      <c r="O41" s="0" t="str">
+        <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(A41, "Термонаклейка", "")</f>
+        <v>Термонаклейка для одежды: картина Девушка с сережкой Билли</v>
+      </c>
+      <c r="P41" s="0" t="n">
+        <f aca="false">B41</f>
+        <v>0</v>
+      </c>
+      <c r="Q41" s="0" t="n">
+        <v>285</v>
+      </c>
+      <c r="R41" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="S41" s="7" t="str">
+        <f aca="false">CONCATENATE(A41,". Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.")</f>
+        <v>Термонаклейка картина Девушка с сережкой Билли. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+      </c>
+      <c r="T41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U41" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="V41" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="W41" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="X41" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y41" s="8" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(H41,C41,"_1.jpg;"),CONCATENATE(H41,C41,"_2.jpg;"),CONCATENATE(H41,C41,"_3.jpg;"),CONCATENATE(H41,C41,"_4.jpg;"),CONCATENATE(H41,C41,"_5.jpg;"),CONCATENATE(H41,C41,"_6.jpg;"),CONCATENATE(H41,C41,"_7.jpg;"),CONCATENATE(H41,C41,"_8.jpg;"),CONCATENATE(H41,C41,"_9.jpg;"),CONCATENATE(H41,C41,"_10.jpg;"),CONCATENATE(H41,"instruction_A4.jpg;"),CONCATENATE(H41,"Video_DTF.mp4;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/41_perl_girl_250_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/41_perl_girl_250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/41_perl_girl_250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/41_perl_girl_250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/41_perl_girl_250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/41_perl_girl_250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/41_perl_girl_250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/41_perl_girl_250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/41_perl_girl_250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/41_perl_girl_250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
+      </c>
+      <c r="AA41" s="0" t="str">
+        <f aca="false">A41</f>
+        <v>Термонаклейка картина Девушка с сережкой Билли</v>
+      </c>
+      <c r="AB41" s="0" t="n">
+        <f aca="false">Q41</f>
+        <v>285</v>
+      </c>
+      <c r="AC41" s="0" t="n">
+        <f aca="false">ROUND(AB41*1.5,0)</f>
+        <v>428</v>
+      </c>
+      <c r="AD41" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE41" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH41" s="0" t="n">
+        <f aca="false">W41</f>
+        <v>12</v>
+      </c>
+      <c r="AI41" s="15" t="n">
+        <f aca="false">V41*10</f>
+        <v>250</v>
+      </c>
+      <c r="AJ41" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK41" s="15" t="n">
+        <f aca="false">U41*10</f>
+        <v>300</v>
+      </c>
+      <c r="AL41" s="12" t="str">
+        <f aca="false">CONCATENATE(H41,C41,"_1.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/41_perl_girl_250_1.jpg</v>
+      </c>
+      <c r="AM41" s="13" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(H41, C41, "_2.jpg;"),CONCATENATE(H41, C41, "_3.jpg;"),CONCATENATE(H41, C41, "_4.jpg;"),CONCATENATE(H41, C41, "_5.jpg;"),CONCATENATE(H41, C41, "_6.jpg;"),CONCATENATE(H41, C41, "_7.jpg;"),CONCATENATE(H41, C41, "_8.jpg;"),CONCATENATE(H41, C41, "_9.jpg;"),CONCATENATE(H41, C41, "_10.jpg;"),CONCATENATE(H41, "instruction_A4.jpg;") )</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/41_perl_girl_250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/41_perl_girl_250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/41_perl_girl_250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/41_perl_girl_250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/41_perl_girl_250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/41_perl_girl_250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/41_perl_girl_250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/41_perl_girl_250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/41_perl_girl_250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;</v>
+      </c>
+      <c r="AP41" s="12" t="str">
+        <f aca="false">J41</f>
+        <v>Punky Monkey</v>
+      </c>
+      <c r="AQ41" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS41" s="10"/>
+      <c r="AT41" s="0" t="str">
+        <f aca="false">SUBSTITUTE(A41,"Термонаклейка ","")</f>
+        <v>картина Девушка с сережкой Билли</v>
+      </c>
+      <c r="AU41" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="AV41" s="0" t="str">
+        <f aca="false">S41</f>
+        <v>Термонаклейка картина Девушка с сережкой Билли. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+      </c>
+      <c r="AX41" s="15" t="str">
+        <f aca="false">X41</f>
+        <v>Россия</v>
+      </c>
+      <c r="BA41" s="15" t="str">
+        <f aca="false">R41</f>
+        <v>Полимерный материал</v>
+      </c>
+      <c r="BC41" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="BD41" s="10"/>
+      <c r="BE41" s="13" t="str">
+        <f aca="false">CONCATENATE(H41,C41,"_color.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/41_perl_girl_250_color.jpg</v>
+      </c>
+      <c r="BM41" s="0" t="str">
+        <f aca="false">CONCATENATE("термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля,",SUBSTITUTE(A41,"Термонаклейка",""))</f>
+        <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, картина Девушка с сережкой Билли</v>
+      </c>
+      <c r="BR41" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="BS41" s="6" t="str">
+        <f aca="false">CONCATENATE(H41,"Video_DTF.mp4")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="D42" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\", A42, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\Термонаклейка Play Boy губы обложка губы марка.pdf</v>
+      </c>
+      <c r="E42" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A42,"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Play Boy губы обложка губы марка_img.tif</v>
+      </c>
+      <c r="F42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H42" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="I42" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="J42" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="M42" s="0" t="str">
+        <f aca="false">A42</f>
+        <v>Термонаклейка Play Boy губы обложка губы марка</v>
+      </c>
+      <c r="O42" s="0" t="str">
+        <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(A42, "Термонаклейка", "")</f>
+        <v>Термонаклейка для одежды: Play Boy губы обложка губы марка</v>
+      </c>
+      <c r="P42" s="0" t="n">
+        <f aca="false">B42</f>
+        <v>0</v>
+      </c>
+      <c r="Q42" s="0" t="n">
+        <v>285</v>
+      </c>
+      <c r="R42" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="S42" s="7" t="str">
+        <f aca="false">CONCATENATE(A42,". Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.")</f>
+        <v>Термонаклейка Play Boy губы обложка губы марка. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+      </c>
+      <c r="T42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U42" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="V42" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="W42" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="X42" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y42" s="8" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(H42,C42,"_1.jpg;"),CONCATENATE(H42,C42,"_2.jpg;"),CONCATENATE(H42,C42,"_3.jpg;"),CONCATENATE(H42,C42,"_4.jpg;"),CONCATENATE(H42,C42,"_5.jpg;"),CONCATENATE(H42,C42,"_6.jpg;"),CONCATENATE(H42,C42,"_7.jpg;"),CONCATENATE(H42,C42,"_8.jpg;"),CONCATENATE(H42,C42,"_9.jpg;"),CONCATENATE(H42,C42,"_10.jpg;"),CONCATENATE(H42,"instruction_A4.jpg;"),CONCATENATE(H42,"Video_DTF.mp4;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/42_playboy250_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/42_playboy250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/42_playboy250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/42_playboy250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/42_playboy250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/42_playboy250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/42_playboy250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/42_playboy250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/42_playboy250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/42_playboy250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
+      </c>
+      <c r="AA42" s="0" t="str">
+        <f aca="false">A42</f>
+        <v>Термонаклейка Play Boy губы обложка губы марка</v>
+      </c>
+      <c r="AB42" s="0" t="n">
+        <f aca="false">Q42</f>
+        <v>285</v>
+      </c>
+      <c r="AC42" s="0" t="n">
+        <f aca="false">ROUND(AB42*1.5,0)</f>
+        <v>428</v>
+      </c>
+      <c r="AD42" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE42" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH42" s="0" t="n">
+        <f aca="false">W42</f>
+        <v>12</v>
+      </c>
+      <c r="AI42" s="15" t="n">
+        <f aca="false">V42*10</f>
+        <v>250</v>
+      </c>
+      <c r="AJ42" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK42" s="15" t="n">
+        <f aca="false">U42*10</f>
+        <v>300</v>
+      </c>
+      <c r="AL42" s="12" t="str">
+        <f aca="false">CONCATENATE(H42,C42,"_1.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/42_playboy250_1.jpg</v>
+      </c>
+      <c r="AM42" s="13" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(H42, C42, "_2.jpg;"),CONCATENATE(H42, C42, "_3.jpg;"),CONCATENATE(H42, C42, "_4.jpg;"),CONCATENATE(H42, C42, "_5.jpg;"),CONCATENATE(H42, C42, "_6.jpg;"),CONCATENATE(H42, C42, "_7.jpg;"),CONCATENATE(H42, C42, "_8.jpg;"),CONCATENATE(H42, C42, "_9.jpg;"),CONCATENATE(H42, C42, "_10.jpg;"),CONCATENATE(H42, "instruction_A4.jpg;") )</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/42_playboy250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/42_playboy250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/42_playboy250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/42_playboy250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/42_playboy250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/42_playboy250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/42_playboy250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/42_playboy250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/42_playboy250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;</v>
+      </c>
+      <c r="AP42" s="12" t="str">
+        <f aca="false">J42</f>
+        <v>Punky Monkey</v>
+      </c>
+      <c r="AQ42" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS42" s="10"/>
+      <c r="AT42" s="0" t="str">
+        <f aca="false">SUBSTITUTE(A42,"Термонаклейка ","")</f>
+        <v>Play Boy губы обложка губы марка</v>
+      </c>
+      <c r="AU42" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="AV42" s="0" t="str">
+        <f aca="false">S42</f>
+        <v>Термонаклейка Play Boy губы обложка губы марка. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+      </c>
+      <c r="AX42" s="15" t="str">
+        <f aca="false">X42</f>
+        <v>Россия</v>
+      </c>
+      <c r="BA42" s="15" t="str">
+        <f aca="false">R42</f>
+        <v>Полимерный материал</v>
+      </c>
+      <c r="BC42" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="BD42" s="10"/>
+      <c r="BE42" s="13" t="str">
+        <f aca="false">CONCATENATE(H42,C42,"_color.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/42_playboy250_color.jpg</v>
+      </c>
+      <c r="BM42" s="0" t="str">
+        <f aca="false">CONCATENATE("термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля,",SUBSTITUTE(A42,"Термонаклейка",""))</f>
+        <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Play Boy губы обложка губы марка</v>
+      </c>
+      <c r="BR42" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="BS42" s="6" t="str">
+        <f aca="false">CONCATENATE(H42,"Video_DTF.mp4")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="D43" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\", A43, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\Термонаклейка Змеи Змея на розовом фоне паттерн.pdf</v>
+      </c>
+      <c r="E43" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A43,"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Змеи Змея на розовом фоне паттерн_img.tif</v>
+      </c>
+      <c r="F43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H43" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="I43" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="J43" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="M43" s="0" t="str">
+        <f aca="false">A43</f>
+        <v>Термонаклейка Змеи Змея на розовом фоне паттерн</v>
+      </c>
+      <c r="O43" s="0" t="str">
+        <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(A43, "Термонаклейка", "")</f>
+        <v>Термонаклейка для одежды: Змеи Змея на розовом фоне паттерн</v>
+      </c>
+      <c r="P43" s="0" t="n">
+        <f aca="false">B43</f>
+        <v>0</v>
+      </c>
+      <c r="Q43" s="0" t="n">
+        <v>285</v>
+      </c>
+      <c r="R43" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="S43" s="7" t="str">
+        <f aca="false">CONCATENATE(A43,". Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.")</f>
+        <v>Термонаклейка Змеи Змея на розовом фоне паттерн. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+      </c>
+      <c r="T43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U43" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="V43" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="W43" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="X43" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y43" s="8" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(H43,C43,"_1.jpg;"),CONCATENATE(H43,C43,"_2.jpg;"),CONCATENATE(H43,C43,"_3.jpg;"),CONCATENATE(H43,C43,"_4.jpg;"),CONCATENATE(H43,C43,"_5.jpg;"),CONCATENATE(H43,C43,"_6.jpg;"),CONCATENATE(H43,C43,"_7.jpg;"),CONCATENATE(H43,C43,"_8.jpg;"),CONCATENATE(H43,C43,"_9.jpg;"),CONCATENATE(H43,C43,"_10.jpg;"),CONCATENATE(H43,"instruction_A4.jpg;"),CONCATENATE(H43,"Video_DTF.mp4;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/43_snake250_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/43_snake250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/43_snake250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/43_snake250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/43_snake250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/43_snake250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/43_snake250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/43_snake250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/43_snake250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/43_snake250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
+      </c>
+      <c r="AA43" s="0" t="str">
+        <f aca="false">A43</f>
+        <v>Термонаклейка Змеи Змея на розовом фоне паттерн</v>
+      </c>
+      <c r="AB43" s="0" t="n">
+        <f aca="false">Q43</f>
+        <v>285</v>
+      </c>
+      <c r="AC43" s="0" t="n">
+        <f aca="false">ROUND(AB43*1.5,0)</f>
+        <v>428</v>
+      </c>
+      <c r="AD43" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE43" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH43" s="0" t="n">
+        <f aca="false">W43</f>
+        <v>12</v>
+      </c>
+      <c r="AI43" s="15" t="n">
+        <f aca="false">V43*10</f>
+        <v>250</v>
+      </c>
+      <c r="AJ43" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK43" s="15" t="n">
+        <f aca="false">U43*10</f>
+        <v>300</v>
+      </c>
+      <c r="AL43" s="12" t="str">
+        <f aca="false">CONCATENATE(H43,C43,"_1.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/43_snake250_1.jpg</v>
+      </c>
+      <c r="AM43" s="13" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(H43, C43, "_2.jpg;"),CONCATENATE(H43, C43, "_3.jpg;"),CONCATENATE(H43, C43, "_4.jpg;"),CONCATENATE(H43, C43, "_5.jpg;"),CONCATENATE(H43, C43, "_6.jpg;"),CONCATENATE(H43, C43, "_7.jpg;"),CONCATENATE(H43, C43, "_8.jpg;"),CONCATENATE(H43, C43, "_9.jpg;"),CONCATENATE(H43, C43, "_10.jpg;"),CONCATENATE(H43, "instruction_A4.jpg;") )</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/43_snake250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/43_snake250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/43_snake250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/43_snake250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/43_snake250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/43_snake250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/43_snake250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/43_snake250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/43_snake250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;</v>
+      </c>
+      <c r="AP43" s="12" t="str">
+        <f aca="false">J43</f>
+        <v>Punky Monkey</v>
+      </c>
+      <c r="AQ43" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS43" s="10"/>
+      <c r="AT43" s="0" t="str">
+        <f aca="false">SUBSTITUTE(A43,"Термонаклейка ","")</f>
+        <v>Змеи Змея на розовом фоне паттерн</v>
+      </c>
+      <c r="AU43" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="AV43" s="0" t="str">
+        <f aca="false">S43</f>
+        <v>Термонаклейка Змеи Змея на розовом фоне паттерн. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+      </c>
+      <c r="AX43" s="15" t="str">
+        <f aca="false">X43</f>
+        <v>Россия</v>
+      </c>
+      <c r="BA43" s="15" t="str">
+        <f aca="false">R43</f>
+        <v>Полимерный материал</v>
+      </c>
+      <c r="BC43" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="BD43" s="10"/>
+      <c r="BE43" s="13" t="str">
+        <f aca="false">CONCATENATE(H43,C43,"_color.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/43_snake250_color.jpg</v>
+      </c>
+      <c r="BM43" s="0" t="str">
+        <f aca="false">CONCATENATE("термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля,",SUBSTITUTE(A43,"Термонаклейка",""))</f>
+        <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Змеи Змея на розовом фоне паттерн</v>
+      </c>
+      <c r="BR43" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="BS43" s="6" t="str">
+        <f aca="false">CONCATENATE(H43,"Video_DTF.mp4")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="D44" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\", A44, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\Термонаклейка Солнце Цветок большое в ретро стиле хиппи.pdf</v>
+      </c>
+      <c r="E44" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A44,"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Солнце Цветок большое в ретро стиле хиппи_img.tif</v>
+      </c>
+      <c r="F44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H44" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="I44" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="J44" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="M44" s="0" t="str">
+        <f aca="false">A44</f>
+        <v>Термонаклейка Солнце Цветок большое в ретро стиле хиппи</v>
+      </c>
+      <c r="O44" s="0" t="str">
+        <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(A44, "Термонаклейка", "")</f>
+        <v>Термонаклейка для одежды: Солнце Цветок большое в ретро стиле хиппи</v>
+      </c>
+      <c r="P44" s="0" t="n">
+        <f aca="false">B44</f>
+        <v>0</v>
+      </c>
+      <c r="Q44" s="0" t="n">
+        <v>285</v>
+      </c>
+      <c r="R44" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="S44" s="7" t="str">
+        <f aca="false">CONCATENATE(A44,". Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.")</f>
+        <v>Термонаклейка Солнце Цветок большое в ретро стиле хиппи. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+      </c>
+      <c r="T44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U44" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="V44" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="W44" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="X44" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y44" s="8" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(H44,C44,"_1.jpg;"),CONCATENATE(H44,C44,"_2.jpg;"),CONCATENATE(H44,C44,"_3.jpg;"),CONCATENATE(H44,C44,"_4.jpg;"),CONCATENATE(H44,C44,"_5.jpg;"),CONCATENATE(H44,C44,"_6.jpg;"),CONCATENATE(H44,C44,"_7.jpg;"),CONCATENATE(H44,C44,"_8.jpg;"),CONCATENATE(H44,C44,"_9.jpg;"),CONCATENATE(H44,C44,"_10.jpg;"),CONCATENATE(H44,"instruction_A4.jpg;"),CONCATENATE(H44,"Video_DTF.mp4;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/44_sun1_250_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/44_sun1_250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/44_sun1_250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/44_sun1_250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/44_sun1_250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/44_sun1_250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/44_sun1_250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/44_sun1_250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/44_sun1_250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/44_sun1_250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
+      </c>
+      <c r="AA44" s="0" t="str">
+        <f aca="false">A44</f>
+        <v>Термонаклейка Солнце Цветок большое в ретро стиле хиппи</v>
+      </c>
+      <c r="AB44" s="0" t="n">
+        <f aca="false">Q44</f>
+        <v>285</v>
+      </c>
+      <c r="AC44" s="0" t="n">
+        <f aca="false">ROUND(AB44*1.5,0)</f>
+        <v>428</v>
+      </c>
+      <c r="AD44" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE44" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH44" s="0" t="n">
+        <f aca="false">W44</f>
+        <v>12</v>
+      </c>
+      <c r="AI44" s="15" t="n">
+        <f aca="false">V44*10</f>
+        <v>250</v>
+      </c>
+      <c r="AJ44" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK44" s="15" t="n">
+        <f aca="false">U44*10</f>
+        <v>300</v>
+      </c>
+      <c r="AL44" s="12" t="str">
+        <f aca="false">CONCATENATE(H44,C44,"_1.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/44_sun1_250_1.jpg</v>
+      </c>
+      <c r="AM44" s="13" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(H44, C44, "_2.jpg;"),CONCATENATE(H44, C44, "_3.jpg;"),CONCATENATE(H44, C44, "_4.jpg;"),CONCATENATE(H44, C44, "_5.jpg;"),CONCATENATE(H44, C44, "_6.jpg;"),CONCATENATE(H44, C44, "_7.jpg;"),CONCATENATE(H44, C44, "_8.jpg;"),CONCATENATE(H44, C44, "_9.jpg;"),CONCATENATE(H44, C44, "_10.jpg;"),CONCATENATE(H44, "instruction_A4.jpg;") )</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/44_sun1_250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/44_sun1_250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/44_sun1_250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/44_sun1_250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/44_sun1_250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/44_sun1_250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/44_sun1_250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/44_sun1_250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/44_sun1_250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;</v>
+      </c>
+      <c r="AP44" s="12" t="str">
+        <f aca="false">J44</f>
+        <v>Punky Monkey</v>
+      </c>
+      <c r="AQ44" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS44" s="10"/>
+      <c r="AT44" s="0" t="str">
+        <f aca="false">SUBSTITUTE(A44,"Термонаклейка ","")</f>
+        <v>Солнце Цветок большое в ретро стиле хиппи</v>
+      </c>
+      <c r="AU44" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="AV44" s="0" t="str">
+        <f aca="false">S44</f>
+        <v>Термонаклейка Солнце Цветок большое в ретро стиле хиппи. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+      </c>
+      <c r="AX44" s="15" t="str">
+        <f aca="false">X44</f>
+        <v>Россия</v>
+      </c>
+      <c r="BA44" s="15" t="str">
+        <f aca="false">R44</f>
+        <v>Полимерный материал</v>
+      </c>
+      <c r="BC44" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="BD44" s="10"/>
+      <c r="BE44" s="13" t="str">
+        <f aca="false">CONCATENATE(H44,C44,"_color.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/44_sun1_250_color.jpg</v>
+      </c>
+      <c r="BM44" s="0" t="str">
+        <f aca="false">CONCATENATE("термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля,",SUBSTITUTE(A44,"Термонаклейка",""))</f>
+        <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Солнце Цветок большое в ретро стиле хиппи</v>
+      </c>
+      <c r="BR44" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="BS44" s="6" t="str">
+        <f aca="false">CONCATENATE(H44,"Video_DTF.mp4")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="D45" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\", A45, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\Термонаклейка Тигр розовый крупный план.pdf</v>
+      </c>
+      <c r="E45" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A45,"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Тигр розовый крупный план_img.tif</v>
+      </c>
+      <c r="F45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H45" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="I45" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="J45" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="M45" s="0" t="str">
+        <f aca="false">A45</f>
+        <v>Термонаклейка Тигр розовый крупный план</v>
+      </c>
+      <c r="O45" s="0" t="str">
+        <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(A45, "Термонаклейка", "")</f>
+        <v>Термонаклейка для одежды: Тигр розовый крупный план</v>
+      </c>
+      <c r="P45" s="0" t="n">
+        <f aca="false">B45</f>
+        <v>0</v>
+      </c>
+      <c r="Q45" s="0" t="n">
+        <v>285</v>
+      </c>
+      <c r="R45" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="S45" s="7" t="str">
+        <f aca="false">CONCATENATE(A45,". Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.")</f>
+        <v>Термонаклейка Тигр розовый крупный план. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+      </c>
+      <c r="T45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U45" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="V45" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="W45" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="X45" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y45" s="8" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(H45,C45,"_1.jpg;"),CONCATENATE(H45,C45,"_2.jpg;"),CONCATENATE(H45,C45,"_3.jpg;"),CONCATENATE(H45,C45,"_4.jpg;"),CONCATENATE(H45,C45,"_5.jpg;"),CONCATENATE(H45,C45,"_6.jpg;"),CONCATENATE(H45,C45,"_7.jpg;"),CONCATENATE(H45,C45,"_8.jpg;"),CONCATENATE(H45,C45,"_9.jpg;"),CONCATENATE(H45,C45,"_10.jpg;"),CONCATENATE(H45,"instruction_A4.jpg;"),CONCATENATE(H45,"Video_DTF.mp4;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/45_tiger_face_260_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/45_tiger_face_260_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/45_tiger_face_260_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/45_tiger_face_260_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/45_tiger_face_260_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/45_tiger_face_260_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/45_tiger_face_260_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/45_tiger_face_260_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/45_tiger_face_260_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/45_tiger_face_260_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
+      </c>
+      <c r="AA45" s="0" t="str">
+        <f aca="false">A45</f>
+        <v>Термонаклейка Тигр розовый крупный план</v>
+      </c>
+      <c r="AB45" s="0" t="n">
+        <f aca="false">Q45</f>
+        <v>285</v>
+      </c>
+      <c r="AC45" s="0" t="n">
+        <f aca="false">ROUND(AB45*1.5,0)</f>
+        <v>428</v>
+      </c>
+      <c r="AD45" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE45" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH45" s="0" t="n">
+        <f aca="false">W45</f>
+        <v>12</v>
+      </c>
+      <c r="AI45" s="15" t="n">
+        <f aca="false">V45*10</f>
+        <v>250</v>
+      </c>
+      <c r="AJ45" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK45" s="15" t="n">
+        <f aca="false">U45*10</f>
+        <v>300</v>
+      </c>
+      <c r="AL45" s="12" t="str">
+        <f aca="false">CONCATENATE(H45,C45,"_1.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/45_tiger_face_260_1.jpg</v>
+      </c>
+      <c r="AM45" s="13" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(H45, C45, "_2.jpg;"),CONCATENATE(H45, C45, "_3.jpg;"),CONCATENATE(H45, C45, "_4.jpg;"),CONCATENATE(H45, C45, "_5.jpg;"),CONCATENATE(H45, C45, "_6.jpg;"),CONCATENATE(H45, C45, "_7.jpg;"),CONCATENATE(H45, C45, "_8.jpg;"),CONCATENATE(H45, C45, "_9.jpg;"),CONCATENATE(H45, C45, "_10.jpg;"),CONCATENATE(H45, "instruction_A4.jpg;") )</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/45_tiger_face_260_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/45_tiger_face_260_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/45_tiger_face_260_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/45_tiger_face_260_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/45_tiger_face_260_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/45_tiger_face_260_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/45_tiger_face_260_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/45_tiger_face_260_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/45_tiger_face_260_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;</v>
+      </c>
+      <c r="AP45" s="12" t="str">
+        <f aca="false">J45</f>
+        <v>Punky Monkey</v>
+      </c>
+      <c r="AQ45" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS45" s="10"/>
+      <c r="AT45" s="0" t="str">
+        <f aca="false">SUBSTITUTE(A45,"Термонаклейка ","")</f>
+        <v>Тигр розовый крупный план</v>
+      </c>
+      <c r="AU45" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="AV45" s="0" t="str">
+        <f aca="false">S45</f>
+        <v>Термонаклейка Тигр розовый крупный план. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+      </c>
+      <c r="AX45" s="15" t="str">
+        <f aca="false">X45</f>
+        <v>Россия</v>
+      </c>
+      <c r="BA45" s="15" t="str">
+        <f aca="false">R45</f>
+        <v>Полимерный материал</v>
+      </c>
+      <c r="BC45" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="BD45" s="10"/>
+      <c r="BE45" s="13" t="str">
+        <f aca="false">CONCATENATE(H45,C45,"_color.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/45_tiger_face_260_color.jpg</v>
+      </c>
+      <c r="BM45" s="0" t="str">
+        <f aca="false">CONCATENATE("термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля,",SUBSTITUTE(A45,"Термонаклейка",""))</f>
+        <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Тигр розовый крупный план</v>
+      </c>
+      <c r="BR45" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="BS45" s="6" t="str">
+        <f aca="false">CONCATENATE(H45,"Video_DTF.mp4")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="D46" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\", A46, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\Термонаклейка Леопард розовый крупный план.pdf</v>
+      </c>
+      <c r="E46" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A46,"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Леопард розовый крупный план_img.tif</v>
+      </c>
+      <c r="F46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H46" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="I46" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="J46" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="M46" s="0" t="str">
+        <f aca="false">A46</f>
+        <v>Термонаклейка Леопард розовый крупный план</v>
+      </c>
+      <c r="O46" s="0" t="str">
+        <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(A46, "Термонаклейка", "")</f>
+        <v>Термонаклейка для одежды: Леопард розовый крупный план</v>
+      </c>
+      <c r="P46" s="0" t="n">
+        <f aca="false">B46</f>
+        <v>0</v>
+      </c>
+      <c r="Q46" s="0" t="n">
+        <v>285</v>
+      </c>
+      <c r="R46" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="S46" s="7" t="str">
+        <f aca="false">CONCATENATE(A46,". Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.")</f>
+        <v>Термонаклейка Леопард розовый крупный план. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+      </c>
+      <c r="T46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U46" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="V46" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="W46" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="X46" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y46" s="8" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(H46,C46,"_1.jpg;"),CONCATENATE(H46,C46,"_2.jpg;"),CONCATENATE(H46,C46,"_3.jpg;"),CONCATENATE(H46,C46,"_4.jpg;"),CONCATENATE(H46,C46,"_5.jpg;"),CONCATENATE(H46,C46,"_6.jpg;"),CONCATENATE(H46,C46,"_7.jpg;"),CONCATENATE(H46,C46,"_8.jpg;"),CONCATENATE(H46,C46,"_9.jpg;"),CONCATENATE(H46,C46,"_10.jpg;"),CONCATENATE(H46,"instruction_A4.jpg;"),CONCATENATE(H46,"Video_DTF.mp4;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/46_tiger_pink250_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/46_tiger_pink250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/46_tiger_pink250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/46_tiger_pink250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/46_tiger_pink250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/46_tiger_pink250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/46_tiger_pink250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/46_tiger_pink250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/46_tiger_pink250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/46_tiger_pink250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
+      </c>
+      <c r="AA46" s="0" t="str">
+        <f aca="false">A46</f>
+        <v>Термонаклейка Леопард розовый крупный план</v>
+      </c>
+      <c r="AB46" s="0" t="n">
+        <f aca="false">Q46</f>
+        <v>285</v>
+      </c>
+      <c r="AC46" s="0" t="n">
+        <f aca="false">ROUND(AB46*1.5,0)</f>
+        <v>428</v>
+      </c>
+      <c r="AD46" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE46" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH46" s="0" t="n">
+        <f aca="false">W46</f>
+        <v>12</v>
+      </c>
+      <c r="AI46" s="15" t="n">
+        <f aca="false">V46*10</f>
+        <v>250</v>
+      </c>
+      <c r="AJ46" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK46" s="15" t="n">
+        <f aca="false">U46*10</f>
+        <v>300</v>
+      </c>
+      <c r="AL46" s="12" t="str">
+        <f aca="false">CONCATENATE(H46,C46,"_1.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/46_tiger_pink250_1.jpg</v>
+      </c>
+      <c r="AM46" s="13" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(H46, C46, "_2.jpg;"),CONCATENATE(H46, C46, "_3.jpg;"),CONCATENATE(H46, C46, "_4.jpg;"),CONCATENATE(H46, C46, "_5.jpg;"),CONCATENATE(H46, C46, "_6.jpg;"),CONCATENATE(H46, C46, "_7.jpg;"),CONCATENATE(H46, C46, "_8.jpg;"),CONCATENATE(H46, C46, "_9.jpg;"),CONCATENATE(H46, C46, "_10.jpg;"),CONCATENATE(H46, "instruction_A4.jpg;") )</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/46_tiger_pink250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/46_tiger_pink250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/46_tiger_pink250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/46_tiger_pink250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/46_tiger_pink250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/46_tiger_pink250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/46_tiger_pink250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/46_tiger_pink250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/46_tiger_pink250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;</v>
+      </c>
+      <c r="AP46" s="12" t="str">
+        <f aca="false">J46</f>
+        <v>Punky Monkey</v>
+      </c>
+      <c r="AQ46" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS46" s="10"/>
+      <c r="AT46" s="0" t="str">
+        <f aca="false">SUBSTITUTE(A46,"Термонаклейка ","")</f>
+        <v>Леопард розовый крупный план</v>
+      </c>
+      <c r="AU46" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="AV46" s="0" t="str">
+        <f aca="false">S46</f>
+        <v>Термонаклейка Леопард розовый крупный план. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+      </c>
+      <c r="AX46" s="15" t="str">
+        <f aca="false">X46</f>
+        <v>Россия</v>
+      </c>
+      <c r="BA46" s="15" t="str">
+        <f aca="false">R46</f>
+        <v>Полимерный материал</v>
+      </c>
+      <c r="BC46" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="BD46" s="10"/>
+      <c r="BE46" s="13" t="str">
+        <f aca="false">CONCATENATE(H46,C46,"_color.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/46_tiger_pink250_color.jpg</v>
+      </c>
+      <c r="BM46" s="0" t="str">
+        <f aca="false">CONCATENATE("термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля,",SUBSTITUTE(A46,"Термонаклейка",""))</f>
+        <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Леопард розовый крупный план</v>
+      </c>
+      <c r="BR46" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="BS46" s="6" t="str">
+        <f aca="false">CONCATENATE(H46,"Video_DTF.mp4")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="D47" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\", A47, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\Термонаклейка Кит в море картина маслом.pdf</v>
+      </c>
+      <c r="E47" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A47,"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Кит в море картина маслом_img.tif</v>
+      </c>
+      <c r="F47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H47" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="I47" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="J47" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="M47" s="0" t="str">
+        <f aca="false">A47</f>
+        <v>Термонаклейка Кит в море картина маслом</v>
+      </c>
+      <c r="O47" s="0" t="str">
+        <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(A47, "Термонаклейка", "")</f>
+        <v>Термонаклейка для одежды: Кит в море картина маслом</v>
+      </c>
+      <c r="P47" s="0" t="n">
+        <f aca="false">B47</f>
+        <v>0</v>
+      </c>
+      <c r="Q47" s="0" t="n">
+        <v>285</v>
+      </c>
+      <c r="R47" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="S47" s="7" t="str">
+        <f aca="false">CONCATENATE(A47,". Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.")</f>
+        <v>Термонаклейка Кит в море картина маслом. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+      </c>
+      <c r="T47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U47" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="V47" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="W47" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="X47" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y47" s="8" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(H47,C47,"_1.jpg;"),CONCATENATE(H47,C47,"_2.jpg;"),CONCATENATE(H47,C47,"_3.jpg;"),CONCATENATE(H47,C47,"_4.jpg;"),CONCATENATE(H47,C47,"_5.jpg;"),CONCATENATE(H47,C47,"_6.jpg;"),CONCATENATE(H47,C47,"_7.jpg;"),CONCATENATE(H47,C47,"_8.jpg;"),CONCATENATE(H47,C47,"_9.jpg;"),CONCATENATE(H47,C47,"_10.jpg;"),CONCATENATE(H47,"instruction_A4.jpg;"),CONCATENATE(H47,"Video_DTF.mp4;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/47_whale_226_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/47_whale_226_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/47_whale_226_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/47_whale_226_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/47_whale_226_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/47_whale_226_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/47_whale_226_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/47_whale_226_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/47_whale_226_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/47_whale_226_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
+      </c>
+      <c r="AA47" s="0" t="str">
+        <f aca="false">A47</f>
+        <v>Термонаклейка Кит в море картина маслом</v>
+      </c>
+      <c r="AB47" s="0" t="n">
+        <f aca="false">Q47</f>
+        <v>285</v>
+      </c>
+      <c r="AC47" s="0" t="n">
+        <f aca="false">ROUND(AB47*1.5,0)</f>
+        <v>428</v>
+      </c>
+      <c r="AD47" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE47" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH47" s="0" t="n">
+        <f aca="false">W47</f>
+        <v>12</v>
+      </c>
+      <c r="AI47" s="15" t="n">
+        <f aca="false">V47*10</f>
+        <v>250</v>
+      </c>
+      <c r="AJ47" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK47" s="15" t="n">
+        <f aca="false">U47*10</f>
+        <v>300</v>
+      </c>
+      <c r="AL47" s="12" t="str">
+        <f aca="false">CONCATENATE(H47,C47,"_1.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/47_whale_226_1.jpg</v>
+      </c>
+      <c r="AM47" s="13" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(H47, C47, "_2.jpg;"),CONCATENATE(H47, C47, "_3.jpg;"),CONCATENATE(H47, C47, "_4.jpg;"),CONCATENATE(H47, C47, "_5.jpg;"),CONCATENATE(H47, C47, "_6.jpg;"),CONCATENATE(H47, C47, "_7.jpg;"),CONCATENATE(H47, C47, "_8.jpg;"),CONCATENATE(H47, C47, "_9.jpg;"),CONCATENATE(H47, C47, "_10.jpg;"),CONCATENATE(H47, "instruction_A4.jpg;") )</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/47_whale_226_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/47_whale_226_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/47_whale_226_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/47_whale_226_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/47_whale_226_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/47_whale_226_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/47_whale_226_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/47_whale_226_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/47_whale_226_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;</v>
+      </c>
+      <c r="AP47" s="12" t="str">
+        <f aca="false">J47</f>
+        <v>Punky Monkey</v>
+      </c>
+      <c r="AQ47" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS47" s="10"/>
+      <c r="AT47" s="0" t="str">
+        <f aca="false">SUBSTITUTE(A47,"Термонаклейка ","")</f>
+        <v>Кит в море картина маслом</v>
+      </c>
+      <c r="AU47" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="AV47" s="0" t="str">
+        <f aca="false">S47</f>
+        <v>Термонаклейка Кит в море картина маслом. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+      </c>
+      <c r="AX47" s="15" t="str">
+        <f aca="false">X47</f>
+        <v>Россия</v>
+      </c>
+      <c r="BA47" s="15" t="str">
+        <f aca="false">R47</f>
+        <v>Полимерный материал</v>
+      </c>
+      <c r="BC47" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="BD47" s="10"/>
+      <c r="BE47" s="13" t="str">
+        <f aca="false">CONCATENATE(H47,C47,"_color.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/47_whale_226_color.jpg</v>
+      </c>
+      <c r="BM47" s="0" t="str">
+        <f aca="false">CONCATENATE("термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля,",SUBSTITUTE(A47,"Термонаклейка",""))</f>
+        <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Кит в море картина маслом</v>
+      </c>
+      <c r="BR47" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="BS47" s="6" t="str">
+        <f aca="false">CONCATENATE(H47,"Video_DTF.mp4")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="D48" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\", A48, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\Термонаклейка Бокал красного вина сердце.pdf</v>
+      </c>
+      <c r="E48" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A48,"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Бокал красного вина сердце_img.tif</v>
+      </c>
+      <c r="F48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H48" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="I48" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="J48" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="M48" s="0" t="str">
+        <f aca="false">A48</f>
+        <v>Термонаклейка Бокал красного вина сердце</v>
+      </c>
+      <c r="O48" s="0" t="str">
+        <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(A48, "Термонаклейка", "")</f>
+        <v>Термонаклейка для одежды: Бокал красного вина сердце</v>
+      </c>
+      <c r="P48" s="0" t="n">
+        <f aca="false">B48</f>
+        <v>0</v>
+      </c>
+      <c r="Q48" s="0" t="n">
+        <v>285</v>
+      </c>
+      <c r="R48" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="S48" s="7" t="str">
+        <f aca="false">CONCATENATE(A48,". Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.")</f>
+        <v>Термонаклейка Бокал красного вина сердце. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+      </c>
+      <c r="T48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U48" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="V48" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="W48" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="X48" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y48" s="8" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(H48,C48,"_1.jpg;"),CONCATENATE(H48,C48,"_2.jpg;"),CONCATENATE(H48,C48,"_3.jpg;"),CONCATENATE(H48,C48,"_4.jpg;"),CONCATENATE(H48,C48,"_5.jpg;"),CONCATENATE(H48,C48,"_6.jpg;"),CONCATENATE(H48,C48,"_7.jpg;"),CONCATENATE(H48,C48,"_8.jpg;"),CONCATENATE(H48,C48,"_9.jpg;"),CONCATENATE(H48,C48,"_10.jpg;"),CONCATENATE(H48,"instruction_A4.jpg;"),CONCATENATE(H48,"Video_DTF.mp4;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/48_wine250_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/48_wine250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/48_wine250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/48_wine250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/48_wine250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/48_wine250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/48_wine250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/48_wine250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/48_wine250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/48_wine250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
+      </c>
+      <c r="AA48" s="0" t="str">
+        <f aca="false">A48</f>
+        <v>Термонаклейка Бокал красного вина сердце</v>
+      </c>
+      <c r="AB48" s="0" t="n">
+        <f aca="false">Q48</f>
+        <v>285</v>
+      </c>
+      <c r="AC48" s="0" t="n">
+        <f aca="false">ROUND(AB48*1.5,0)</f>
+        <v>428</v>
+      </c>
+      <c r="AD48" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE48" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH48" s="0" t="n">
+        <f aca="false">W48</f>
+        <v>12</v>
+      </c>
+      <c r="AI48" s="15" t="n">
+        <f aca="false">V48*10</f>
+        <v>250</v>
+      </c>
+      <c r="AJ48" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK48" s="15" t="n">
+        <f aca="false">U48*10</f>
+        <v>300</v>
+      </c>
+      <c r="AL48" s="12" t="str">
+        <f aca="false">CONCATENATE(H48,C48,"_1.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/48_wine250_1.jpg</v>
+      </c>
+      <c r="AM48" s="13" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(H48, C48, "_2.jpg;"),CONCATENATE(H48, C48, "_3.jpg;"),CONCATENATE(H48, C48, "_4.jpg;"),CONCATENATE(H48, C48, "_5.jpg;"),CONCATENATE(H48, C48, "_6.jpg;"),CONCATENATE(H48, C48, "_7.jpg;"),CONCATENATE(H48, C48, "_8.jpg;"),CONCATENATE(H48, C48, "_9.jpg;"),CONCATENATE(H48, C48, "_10.jpg;"),CONCATENATE(H48, "instruction_A4.jpg;") )</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/48_wine250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/48_wine250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/48_wine250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/48_wine250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/48_wine250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/48_wine250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/48_wine250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/48_wine250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/48_wine250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;</v>
+      </c>
+      <c r="AP48" s="12" t="str">
+        <f aca="false">J48</f>
+        <v>Punky Monkey</v>
+      </c>
+      <c r="AQ48" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS48" s="10"/>
+      <c r="AT48" s="0" t="str">
+        <f aca="false">SUBSTITUTE(A48,"Термонаклейка ","")</f>
+        <v>Бокал красного вина сердце</v>
+      </c>
+      <c r="AU48" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="AV48" s="0" t="str">
+        <f aca="false">S48</f>
+        <v>Термонаклейка Бокал красного вина сердце. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+      </c>
+      <c r="AX48" s="15" t="str">
+        <f aca="false">X48</f>
+        <v>Россия</v>
+      </c>
+      <c r="BA48" s="15" t="str">
+        <f aca="false">R48</f>
+        <v>Полимерный материал</v>
+      </c>
+      <c r="BC48" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="BD48" s="10"/>
+      <c r="BE48" s="13" t="str">
+        <f aca="false">CONCATENATE(H48,C48,"_color.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/48_wine250_color.jpg</v>
+      </c>
+      <c r="BM48" s="0" t="str">
+        <f aca="false">CONCATENATE("термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля,",SUBSTITUTE(A48,"Термонаклейка",""))</f>
+        <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Бокал красного вина сердце</v>
+      </c>
+      <c r="BR48" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="BS48" s="6" t="str">
+        <f aca="false">CONCATENATE(H48,"Video_DTF.mp4")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="D49" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\", A49, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\Термонаклейка Джокер поп арт Joker.pdf</v>
+      </c>
+      <c r="E49" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A49,"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Джокер поп арт Joker_img.tif</v>
+      </c>
+      <c r="F49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H49" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="I49" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="J49" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="M49" s="0" t="str">
+        <f aca="false">A49</f>
+        <v>Термонаклейка Джокер поп арт Joker</v>
+      </c>
+      <c r="O49" s="0" t="str">
+        <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(A49, "Термонаклейка", "")</f>
+        <v>Термонаклейка для одежды: Джокер поп арт Joker</v>
+      </c>
+      <c r="P49" s="0" t="n">
+        <f aca="false">B49</f>
+        <v>0</v>
+      </c>
+      <c r="Q49" s="0" t="n">
+        <v>285</v>
+      </c>
+      <c r="R49" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="S49" s="7" t="str">
+        <f aca="false">CONCATENATE(A49,". Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.")</f>
+        <v>Термонаклейка Джокер поп арт Joker. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+      </c>
+      <c r="T49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U49" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="V49" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="W49" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="X49" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y49" s="8" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(H49,C49,"_1.jpg;"),CONCATENATE(H49,C49,"_2.jpg;"),CONCATENATE(H49,C49,"_3.jpg;"),CONCATENATE(H49,C49,"_4.jpg;"),CONCATENATE(H49,C49,"_5.jpg;"),CONCATENATE(H49,C49,"_6.jpg;"),CONCATENATE(H49,C49,"_7.jpg;"),CONCATENATE(H49,C49,"_8.jpg;"),CONCATENATE(H49,C49,"_9.jpg;"),CONCATENATE(H49,C49,"_10.jpg;"),CONCATENATE(H49,"instruction_A4.jpg;"),CONCATENATE(H49,"Video_DTF.mp4;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/49_ZEE_Why_So_Serious_250_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/49_ZEE_Why_So_Serious_250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/49_ZEE_Why_So_Serious_250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/49_ZEE_Why_So_Serious_250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/49_ZEE_Why_So_Serious_250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/49_ZEE_Why_So_Serious_250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/49_ZEE_Why_So_Serious_250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/49_ZEE_Why_So_Serious_250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/49_ZEE_Why_So_Serious_250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/49_ZEE_Why_So_Serious_250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
+      </c>
+      <c r="AA49" s="0" t="str">
+        <f aca="false">A49</f>
+        <v>Термонаклейка Джокер поп арт Joker</v>
+      </c>
+      <c r="AB49" s="0" t="n">
+        <f aca="false">Q49</f>
+        <v>285</v>
+      </c>
+      <c r="AC49" s="0" t="n">
+        <f aca="false">ROUND(AB49*1.5,0)</f>
+        <v>428</v>
+      </c>
+      <c r="AD49" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE49" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH49" s="0" t="n">
+        <f aca="false">W49</f>
+        <v>12</v>
+      </c>
+      <c r="AI49" s="15" t="n">
+        <f aca="false">V49*10</f>
+        <v>250</v>
+      </c>
+      <c r="AJ49" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK49" s="15" t="n">
+        <f aca="false">U49*10</f>
+        <v>300</v>
+      </c>
+      <c r="AL49" s="12" t="str">
+        <f aca="false">CONCATENATE(H49,C49,"_1.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/49_ZEE_Why_So_Serious_250_1.jpg</v>
+      </c>
+      <c r="AM49" s="13" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(H49, C49, "_2.jpg;"),CONCATENATE(H49, C49, "_3.jpg;"),CONCATENATE(H49, C49, "_4.jpg;"),CONCATENATE(H49, C49, "_5.jpg;"),CONCATENATE(H49, C49, "_6.jpg;"),CONCATENATE(H49, C49, "_7.jpg;"),CONCATENATE(H49, C49, "_8.jpg;"),CONCATENATE(H49, C49, "_9.jpg;"),CONCATENATE(H49, C49, "_10.jpg;"),CONCATENATE(H49, "instruction_A4.jpg;") )</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/49_ZEE_Why_So_Serious_250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/49_ZEE_Why_So_Serious_250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/49_ZEE_Why_So_Serious_250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/49_ZEE_Why_So_Serious_250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/49_ZEE_Why_So_Serious_250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/49_ZEE_Why_So_Serious_250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/49_ZEE_Why_So_Serious_250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/49_ZEE_Why_So_Serious_250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/49_ZEE_Why_So_Serious_250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;</v>
+      </c>
+      <c r="AP49" s="12" t="str">
+        <f aca="false">J49</f>
+        <v>Punky Monkey</v>
+      </c>
+      <c r="AQ49" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS49" s="10"/>
+      <c r="AT49" s="0" t="str">
+        <f aca="false">SUBSTITUTE(A49,"Термонаклейка ","")</f>
+        <v>Джокер поп арт Joker</v>
+      </c>
+      <c r="AU49" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="AV49" s="0" t="str">
+        <f aca="false">S49</f>
+        <v>Термонаклейка Джокер поп арт Joker. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+      </c>
+      <c r="AX49" s="15" t="str">
+        <f aca="false">X49</f>
+        <v>Россия</v>
+      </c>
+      <c r="BA49" s="15" t="str">
+        <f aca="false">R49</f>
+        <v>Полимерный материал</v>
+      </c>
+      <c r="BC49" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="BD49" s="10"/>
+      <c r="BE49" s="13" t="str">
+        <f aca="false">CONCATENATE(H49,C49,"_color.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/49_ZEE_Why_So_Serious_250_color.jpg</v>
+      </c>
+      <c r="BM49" s="0" t="str">
+        <f aca="false">CONCATENATE("термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля,",SUBSTITUTE(A49,"Термонаклейка",""))</f>
+        <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Джокер поп арт Joker</v>
+      </c>
+      <c r="BR49" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="BS49" s="6" t="str">
+        <f aca="false">CONCATENATE(H49,"Video_DTF.mp4")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="D50" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\", A50, ".pdf")</f>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\Термонаклейка Одри Хепбёрн поп арт.pdf</v>
+      </c>
+      <c r="E50" s="0" t="str">
+        <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A50,"_img.tif")</f>
+        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Одри Хепбёрн поп арт_img.tif</v>
+      </c>
+      <c r="F50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H50" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="I50" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="J50" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="M50" s="0" t="str">
+        <f aca="false">A50</f>
+        <v>Термонаклейка Одри Хепбёрн поп арт</v>
+      </c>
+      <c r="O50" s="0" t="str">
+        <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(A50, "Термонаклейка", "")</f>
+        <v>Термонаклейка для одежды: Одри Хепбёрн поп арт</v>
+      </c>
+      <c r="P50" s="0" t="n">
+        <f aca="false">B50</f>
+        <v>0</v>
+      </c>
+      <c r="Q50" s="0" t="n">
+        <v>285</v>
+      </c>
+      <c r="R50" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="S50" s="7" t="str">
+        <f aca="false">CONCATENATE(A50,". Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.")</f>
+        <v>Термонаклейка Одри Хепбёрн поп арт. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+      </c>
+      <c r="T50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U50" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="V50" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="W50" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="X50" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y50" s="8" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(H50,C50,"_1.jpg;"),CONCATENATE(H50,C50,"_2.jpg;"),CONCATENATE(H50,C50,"_3.jpg;"),CONCATENATE(H50,C50,"_4.jpg;"),CONCATENATE(H50,C50,"_5.jpg;"),CONCATENATE(H50,C50,"_6.jpg;"),CONCATENATE(H50,C50,"_7.jpg;"),CONCATENATE(H50,C50,"_8.jpg;"),CONCATENATE(H50,C50,"_9.jpg;"),CONCATENATE(H50,C50,"_10.jpg;"),CONCATENATE(H50,"instruction_A4.jpg;"),CONCATENATE(H50,"Video_DTF.mp4;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/50_Audrey Hepburn_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/50_Audrey Hepburn_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/50_Audrey Hepburn_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/50_Audrey Hepburn_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/50_Audrey Hepburn_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/50_Audrey Hepburn_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/50_Audrey Hepburn_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/50_Audrey Hepburn_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/50_Audrey Hepburn_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/50_Audrey Hepburn_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
+      </c>
+      <c r="AA50" s="0" t="str">
+        <f aca="false">A50</f>
+        <v>Термонаклейка Одри Хепбёрн поп арт</v>
+      </c>
+      <c r="AB50" s="0" t="n">
+        <f aca="false">Q50</f>
+        <v>285</v>
+      </c>
+      <c r="AC50" s="0" t="n">
+        <f aca="false">ROUND(AB50*1.5,0)</f>
+        <v>428</v>
+      </c>
+      <c r="AD50" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE50" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH50" s="0" t="n">
+        <f aca="false">W50</f>
+        <v>12</v>
+      </c>
+      <c r="AI50" s="15" t="n">
+        <f aca="false">V50*10</f>
+        <v>250</v>
+      </c>
+      <c r="AJ50" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK50" s="15" t="n">
+        <f aca="false">U50*10</f>
+        <v>300</v>
+      </c>
+      <c r="AL50" s="12" t="str">
+        <f aca="false">CONCATENATE(H50,C50,"_1.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/50_Audrey Hepburn_1.jpg</v>
+      </c>
+      <c r="AM50" s="13" t="str">
+        <f aca="false">CONCATENATE(CONCATENATE(H50, C50, "_2.jpg;"),CONCATENATE(H50, C50, "_3.jpg;"),CONCATENATE(H50, C50, "_4.jpg;"),CONCATENATE(H50, C50, "_5.jpg;"),CONCATENATE(H50, C50, "_6.jpg;"),CONCATENATE(H50, C50, "_7.jpg;"),CONCATENATE(H50, C50, "_8.jpg;"),CONCATENATE(H50, C50, "_9.jpg;"),CONCATENATE(H50, C50, "_10.jpg;"),CONCATENATE(H50, "instruction_A4.jpg;") )</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/50_Audrey Hepburn_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/50_Audrey Hepburn_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/50_Audrey Hepburn_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/50_Audrey Hepburn_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/50_Audrey Hepburn_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/50_Audrey Hepburn_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/50_Audrey Hepburn_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/50_Audrey Hepburn_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/50_Audrey Hepburn_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;</v>
+      </c>
+      <c r="AP50" s="12" t="str">
+        <f aca="false">J50</f>
+        <v>Punky Monkey</v>
+      </c>
+      <c r="AQ50" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS50" s="10"/>
+      <c r="AT50" s="0" t="str">
+        <f aca="false">SUBSTITUTE(A50,"Термонаклейка ","")</f>
+        <v>Одри Хепбёрн поп арт</v>
+      </c>
+      <c r="AU50" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="AV50" s="0" t="str">
+        <f aca="false">S50</f>
+        <v>Термонаклейка Одри Хепбёрн поп арт. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+      </c>
+      <c r="AX50" s="15" t="str">
+        <f aca="false">X50</f>
+        <v>Россия</v>
+      </c>
+      <c r="BA50" s="15" t="str">
+        <f aca="false">R50</f>
+        <v>Полимерный материал</v>
+      </c>
+      <c r="BC50" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="BD50" s="10"/>
+      <c r="BE50" s="13" t="str">
+        <f aca="false">CONCATENATE(H50,C50,"_color.jpg")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/50_Audrey Hepburn_color.jpg</v>
+      </c>
+      <c r="BM50" s="0" t="str">
+        <f aca="false">CONCATENATE("термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля,",SUBSTITUTE(A50,"Термонаклейка",""))</f>
+        <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Одри Хепбёрн поп арт</v>
+      </c>
+      <c r="BR50" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="BS50" s="6" t="str">
+        <f aca="false">CONCATENATE(H50,"Video_DTF.mp4")</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="52" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="19"/>
+    </row>
+    <row r="53" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="19"/>
+    </row>
+    <row r="54" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="19"/>
+    </row>
+    <row r="55" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="19"/>
+    </row>
+    <row r="56" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="19"/>
+    </row>
+    <row r="57" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="19"/>
+    </row>
+    <row r="58" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="19"/>
+    </row>
+    <row r="59" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A59" s="19"/>
+    </row>
+    <row r="60" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A60" s="19"/>
+    </row>
+    <row r="61" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A61" s="19"/>
+    </row>
+    <row r="62" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A62" s="19"/>
+    </row>
+    <row r="63" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A63" s="19"/>
+    </row>
+    <row r="64" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A64" s="19"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="9"/>
+      <c r="A65" s="19"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="9"/>
+      <c r="A66" s="19"/>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="9"/>
+      <c r="A67" s="19"/>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="9"/>
+      <c r="A68" s="19"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="9"/>
+      <c r="A69" s="19"/>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="9"/>
+      <c r="A70" s="19"/>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="9"/>
+      <c r="A71" s="19"/>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="9"/>
+      <c r="A72" s="19"/>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="9"/>
+      <c r="A73" s="19"/>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="9"/>
+      <c r="A74" s="19"/>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="9"/>
+      <c r="A75" s="19"/>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="9"/>
+      <c r="A76" s="19"/>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="9"/>
+      <c r="A77" s="19"/>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="9"/>
+      <c r="A78" s="19"/>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="9"/>
+      <c r="A79" s="19"/>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="9"/>
+      <c r="A80" s="19"/>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="9"/>
+      <c r="A81" s="19"/>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="9"/>
+      <c r="A82" s="19"/>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="9"/>
+      <c r="A83" s="19"/>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="9"/>
+      <c r="A84" s="19"/>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="9"/>
+      <c r="A85" s="19"/>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="9"/>
+      <c r="A86" s="19"/>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="9"/>
+      <c r="A87" s="19"/>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="9"/>
+      <c r="A88" s="19"/>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="9"/>
+      <c r="A89" s="19"/>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="9"/>
+      <c r="A90" s="19"/>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="9"/>
+      <c r="A91" s="19"/>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="9"/>
+      <c r="A92" s="19"/>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="9"/>
+      <c r="A93" s="19"/>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="9"/>
+      <c r="A94" s="19"/>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="9"/>
+      <c r="A95" s="19"/>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="9"/>
+      <c r="A96" s="19"/>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="9"/>
+      <c r="A97" s="19"/>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="9"/>
+      <c r="A98" s="19"/>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="9"/>
+      <c r="A99" s="19"/>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="9"/>
+      <c r="A100" s="19"/>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="9"/>
+      <c r="A101" s="19"/>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="9"/>
+      <c r="A102" s="19"/>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="9"/>
+      <c r="A103" s="19"/>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="9"/>
+      <c r="A104" s="19"/>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="9"/>
+      <c r="A105" s="19"/>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="9"/>
+      <c r="A106" s="19"/>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="9"/>
+      <c r="A107" s="19"/>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="9"/>
+      <c r="A108" s="19"/>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="9"/>
+      <c r="A109" s="19"/>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="9"/>
+      <c r="A110" s="19"/>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="9"/>
+      <c r="A111" s="19"/>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="9"/>
+      <c r="A112" s="19"/>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="9"/>
+      <c r="A113" s="19"/>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="9"/>
+      <c r="A114" s="19"/>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="9"/>
+      <c r="A115" s="19"/>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="9"/>
+      <c r="A116" s="19"/>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="9"/>
+      <c r="A117" s="19"/>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="9"/>
+      <c r="A118" s="19"/>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="9"/>
+      <c r="A119" s="19"/>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="9"/>
+      <c r="A120" s="19"/>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="9"/>
+      <c r="A121" s="19"/>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="9"/>
+      <c r="A122" s="19"/>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="9"/>
+      <c r="A123" s="19"/>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="9"/>
+      <c r="A124" s="19"/>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="9"/>
+      <c r="A125" s="19"/>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -3174,72 +11080,68 @@
       <formula>LEN(#REF!!$B$4) &gt;50</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="17">
-    <dataValidation allowBlank="false" error="Выберите значение из списка" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AA4:AA46" type="list">
+  <dataValidations count="16">
+    <dataValidation allowBlank="false" error="Неверный формат данных" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AY2:AZ50" type="decimal">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" error="Выберите значение из списка" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AD2:AD50" type="list">
       <formula1>#name?</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" error="Неверный формат данных" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AY2:AZ2" type="decimal">
+    <dataValidation allowBlank="false" error="Выберите значение из списка" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AE2:AE50" type="list">
+      <formula1>#name?</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="false" error="Неверный формат данных" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AR2:AR50 BB2:BB50 BH2:BH50 BO2:BO50" type="whole">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" error="Выберите значение из списка" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AD2" type="list">
+    <dataValidation allowBlank="true" error="Неверный формат данных" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AJ2:AJ50" type="whole">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="false" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="AS2:AS50" type="list">
       <formula1>#name?</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" error="Выберите значение из списка" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AE2" type="list">
+    <dataValidation allowBlank="true" error="Выберите значение из списка" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AU2:AU50" type="list">
       <formula1>#name?</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" error="Неверный формат данных" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AR2 BB2 BH2 BO2" type="whole">
-      <formula1>0</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" error="Неверный формат данных" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AJ2" type="whole">
-      <formula1>0</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="false" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="AS2" type="list">
+    <dataValidation allowBlank="false" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="AX2:AX50" type="list">
       <formula1>#name?</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" error="Выберите значение из списка" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AU2" type="list">
+    <dataValidation allowBlank="false" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="BA2:BA50" type="list">
       <formula1>#name?</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="AX2" type="list">
+    <dataValidation allowBlank="false" error="Неверное значение" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="BC2:BC50" type="list">
+      <formula1>"Да,Нет"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="false" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="BD2:BD50" type="list">
       <formula1>#name?</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="BA2" type="list">
+    <dataValidation allowBlank="false" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="BF2:BF50" type="list">
       <formula1>#name?</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" error="Неверное значение" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="BC2" type="list">
-      <formula1>"Да,Нет"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="false" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="BD2" type="list">
+    <dataValidation allowBlank="false" error="Выберите значение из списка" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="BI2:BI50" type="list">
       <formula1>#name?</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="BF2" type="list">
+    <dataValidation allowBlank="false" error="Выберите значение из списка" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="BJ2:BJ50" type="list">
       <formula1>#name?</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" error="Выберите значение из списка" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="BI2" type="list">
+    <dataValidation allowBlank="false" error="Выберите значение из списка" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="BK2:BK50" type="list">
       <formula1>#name?</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" error="Выберите значение из списка" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="BJ2" type="list">
-      <formula1>#name?</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="false" error="Выберите значение из списка" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="BK2" type="list">
-      <formula1>#name?</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="false" error="Выберите значение из списка" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="BL2" type="list">
+    <dataValidation allowBlank="false" error="Выберите значение из списка" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="BL2:BL50" type="list">
       <formula1>#name?</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -3272,7 +11174,7 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>25</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -3325,11 +11227,11 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="21" t="s">
         <v>78</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>85</v>
+        <v>179</v>
       </c>
       <c r="D2" s="0" t="str">
         <f aca="false">CONCATENATE(Лист1!H2,Лист1!C2,"_1.jpg")</f>
@@ -3343,14 +11245,14 @@
         <v>80</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>86</v>
+        <v>180</v>
       </c>
       <c r="H2" s="0" t="str">
         <f aca="false">SUBSTITUTE(Лист1!A2,"Термонаклейка ","")</f>
         <v>Девушка волосы облако</v>
       </c>
-      <c r="I2" s="20" t="s">
-        <v>82</v>
+      <c r="I2" s="22" t="s">
+        <v>81</v>
       </c>
       <c r="J2" s="0" t="str">
         <f aca="false">CONCATENATE(Лист1!A2,". Наши термонаклейки для одежды помогут сделать любую вещь уникальной и неповторимой! Вам понадобится только горячий утюг, декор для одежды, инструкция и пара минут. Принт яркий, сочный и стойкий к износу и стирке. Термотрансферы хорошо тянутся, не трескаются и не отклеиваются при стирке. Термоаппликация - это оригинальный способ украсить или пометить новую одежду, спрятать пятна, мелкие дефекты и повреждения. Легко клеится обычным утюгом и подходит для большинства типов тканей. Наши аппликации можно наносить как на натуральный, синтетический, так и смесовый текстиль, хлопок, джинсу, кожу, экокожу. Все наклейки для одежды изготовлены из современного качественного материала. Мы гарантируем отличное приклеивание принта на однотонные или цветные ткани.Наклейки очень просты в применении: нужно просто вырезать наклейку (если используете только часть рисунка), приложить к ткани и пройти утюгом.Главное сделать все по инструкции, которая прилагается в каждом наборе, ничего сложного в переносе нет, красотища! По все")</f>
@@ -3374,10 +11276,10 @@
         <v>210</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>87</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>

--- a/create cards for OZON WB XLS/Data_to_create.xlsx
+++ b/create cards for OZON WB XLS/Data_to_create.xlsx
@@ -1687,7 +1687,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="231">
   <si>
     <t xml:space="preserve">Артикул</t>
   </si>
@@ -1905,6 +1905,9 @@
     <t xml:space="preserve">Термонаклейка Девушка волосы облако</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1425245752</t>
+  </si>
+  <si>
     <t xml:space="preserve">1_girl_with_cloud_hair</t>
   </si>
   <si>
@@ -1941,52 +1944,79 @@
     <t xml:space="preserve">Термонаклейка Девушка очки с краской розовой</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1425243566</t>
+  </si>
+  <si>
     <t xml:space="preserve">2_girl_pink_glasses</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Мэрилин Монро поп арт вырезки</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1425250627</t>
+  </si>
+  <si>
     <t xml:space="preserve">3_merlin_monroe_popart</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Африканская Девушка черный силуэт</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1425250669</t>
+  </si>
+  <si>
     <t xml:space="preserve">4_blackgirl1_250</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Кот Шанель Chanel</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1425250687</t>
+  </si>
+  <si>
     <t xml:space="preserve">5_cat_channel_250</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Кот выглядывает радуга</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1425250595</t>
+  </si>
+  <si>
     <t xml:space="preserve">6_cat_face_250</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Кот картина Ван Гог</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1425250644</t>
+  </si>
+  <si>
     <t xml:space="preserve">7_cat250</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка мультяшный Кот картина Ван Гог</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1425250751</t>
+  </si>
+  <si>
     <t xml:space="preserve">8_cat250_1</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Женщина кошка ест вишинку</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1425250714</t>
+  </si>
+  <si>
     <t xml:space="preserve">9_cherry_250</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Красные перцы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1425250634</t>
   </si>
   <si>
     <t xml:space="preserve">10_chillis</t>
@@ -2024,22 +2054,34 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">OZN1425250643</t>
+  </si>
+  <si>
     <t xml:space="preserve">11_dior2_260</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Dior Диор Цветы</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1425250773</t>
+  </si>
+  <si>
     <t xml:space="preserve">12_dior250</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Vogue Вог Эйфелева башня</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1425250607</t>
+  </si>
+  <si>
     <t xml:space="preserve">13_efel250</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Бюст статуи Feelings скрыты глаза</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1425266743</t>
   </si>
   <si>
     <t xml:space="preserve">14_feelings_250</t>
@@ -2077,76 +2119,115 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">OZN1425250727</t>
+  </si>
+  <si>
     <t xml:space="preserve">15_fish250</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Розовый Фламинго цветок</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1425250716</t>
+  </si>
+  <si>
     <t xml:space="preserve">16_flamingo250</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Дали Ван Гог Фрида Кало в машине</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1425250740</t>
+  </si>
+  <si>
     <t xml:space="preserve">17_freands1_250</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Женщина кошка пьет молоко из стакана</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1425250766</t>
+  </si>
+  <si>
     <t xml:space="preserve">18_girl_drink_250</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Африка Девушка разнацветные воосы</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1425266611</t>
+  </si>
+  <si>
     <t xml:space="preserve">19_girl_hair_250</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Леопардовая блондинка девушка mood</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1425250726</t>
+  </si>
+  <si>
     <t xml:space="preserve">20_girl1_260</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Цветы Черный Силуэт Девушки</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1425250712</t>
+  </si>
+  <si>
     <t xml:space="preserve">21_head250</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Леопардовое сердце поцелуй губ</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1425250774</t>
+  </si>
+  <si>
     <t xml:space="preserve">22_heart2_20</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Девушка с чупа чупсом I dont care</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1425250863</t>
+  </si>
+  <si>
     <t xml:space="preserve">24_idontcare_250</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Аниме девочка с мечом розовые волосы</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1425250847</t>
+  </si>
+  <si>
     <t xml:space="preserve">25_japan1_250</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Аниме девочка в куртке со стикерами</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1425250720</t>
+  </si>
+  <si>
     <t xml:space="preserve">26_japan2_250</t>
   </si>
   <si>
-    <t xml:space="preserve">Термонаклейка Сейлор Мун в куртке Аниме Sailor Moon</t>
+    <t xml:space="preserve">Термонаклейка Сейлор Мун в куртке Sailor Moon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1425275426</t>
   </si>
   <si>
     <t xml:space="preserve">27_japan3_250</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Аниме Девочка с чупа чупсом</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1425250629</t>
   </si>
   <si>
     <t xml:space="preserve">28_japan4_250</t>
@@ -2184,40 +2265,61 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">OZN1425266666</t>
+  </si>
+  <si>
     <t xml:space="preserve">29_japan5_250</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Аниме Девочка в розовый капюшоном</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1425266747</t>
+  </si>
+  <si>
     <t xml:space="preserve">30_japan6_250</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Девушка Блондинка с котом на голове</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1425250655</t>
+  </si>
+  <si>
     <t xml:space="preserve">31_japan7_250</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Поцелуй берега и реки картина маслом</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1425250633</t>
+  </si>
+  <si>
     <t xml:space="preserve">32_kiss_art2_250</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка картина Поцелуй Густава Климта</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1425250579</t>
+  </si>
+  <si>
     <t xml:space="preserve">33_kiss_art3_250</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Поцелуй в космосе картина маслом</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1425250606</t>
+  </si>
+  <si>
     <t xml:space="preserve">34_kiss250</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Губы с чупа чупсом</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1425250874</t>
   </si>
   <si>
     <t xml:space="preserve">35_leaps1_250</t>
@@ -2245,6 +2347,9 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">OZN1425250776</t>
+  </si>
+  <si>
     <t xml:space="preserve">36_lemons250</t>
   </si>
   <si>
@@ -2270,22 +2375,34 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">OZN1425250722</t>
+  </si>
+  <si>
     <t xml:space="preserve">37_love2_250</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка надпись love любовь</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1425250661</t>
+  </si>
+  <si>
     <t xml:space="preserve">38_love220</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Мэрилин Монро Supreme Суприм глаза</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1425250650</t>
+  </si>
+  <si>
     <t xml:space="preserve">39_MERLIN2_250</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Микки Маус надписи на фоне</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1425250758</t>
   </si>
   <si>
     <t xml:space="preserve">40_mickey1_20</t>
@@ -2313,22 +2430,34 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">OZN1425266670</t>
+  </si>
+  <si>
     <t xml:space="preserve">41_perl_girl_250</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Play Boy губы обложка губы марка</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1425266577</t>
+  </si>
+  <si>
     <t xml:space="preserve">42_playboy250</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Змеи Змея на розовом фоне паттерн</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1425266721</t>
+  </si>
+  <si>
     <t xml:space="preserve">43_snake250</t>
   </si>
   <si>
-    <t xml:space="preserve">Термонаклейка Солнце Цветок большое в ретро стиле хиппи</t>
+    <t xml:space="preserve">Термонаклейка Солнце Цветок в ретро</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1425275399</t>
   </si>
   <si>
     <t xml:space="preserve">44_sun1_250</t>
@@ -2337,28 +2466,43 @@
     <t xml:space="preserve">Термонаклейка Тигр розовый крупный план</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1425250805</t>
+  </si>
+  <si>
     <t xml:space="preserve">45_tiger_face_260</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Леопард розовый крупный план</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1425250781</t>
+  </si>
+  <si>
     <t xml:space="preserve">46_tiger_pink250</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Кит в море картина маслом</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1425250733</t>
+  </si>
+  <si>
     <t xml:space="preserve">47_whale_226</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Бокал красного вина сердце</t>
   </si>
   <si>
+    <t xml:space="preserve">OZN1425250678</t>
+  </si>
+  <si>
     <t xml:space="preserve">48_wine250</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Джокер поп арт Joker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1425250735</t>
   </si>
   <si>
     <t xml:space="preserve">49_ZEE_Why_So_Serious_250</t>
@@ -2394,6 +2538,9 @@
       </rPr>
       <t xml:space="preserve">поп арт</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">OZN1425250637</t>
   </si>
   <si>
     <t xml:space="preserve">50_Audrey Hepburn</t>
@@ -2593,7 +2740,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2626,7 +2773,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2646,7 +2793,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2662,6 +2809,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2672,6 +2823,10 @@
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -2788,8 +2943,8 @@
   </sheetPr>
   <dimension ref="A1:BS130"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A42" activeCellId="0" sqref="A42"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="S3" activeCellId="0" sqref="S2:S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3059,8 +3214,11 @@
       <c r="A2" s="6" t="s">
         <v>71</v>
       </c>
+      <c r="B2" s="0" t="s">
+        <v>72</v>
+      </c>
       <c r="C2" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D2" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\", A2, ".pdf")</f>
@@ -3077,13 +3235,13 @@
         <v>1</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M2" s="0" t="str">
         <f aca="false">A2</f>
@@ -3093,19 +3251,19 @@
         <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(A2, "Термонаклейка", "")</f>
         <v>Термонаклейка для одежды: Девушка волосы облако</v>
       </c>
-      <c r="P2" s="0" t="n">
+      <c r="P2" s="0" t="str">
         <f aca="false">B2</f>
-        <v>0</v>
+        <v>OZN1425245752</v>
       </c>
       <c r="Q2" s="0" t="n">
         <v>285</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S2" s="7" t="str">
-        <f aca="false">CONCATENATE(A2,". Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.")</f>
-        <v>Термонаклейка Девушка волосы облако. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+        <f aca="false">CONCATENATE(A2,". Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. ")</f>
+        <v>Термонаклейка Девушка волосы облако. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
       </c>
       <c r="T2" s="0" t="n">
         <v>1</v>
@@ -3120,7 +3278,7 @@
         <v>12</v>
       </c>
       <c r="X2" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y2" s="8" t="str">
         <f aca="false">CONCATENATE(CONCATENATE(H2,C2,"_1.jpg;"),CONCATENATE(H2,C2,"_2.jpg;"),CONCATENATE(H2,C2,"_3.jpg;"),CONCATENATE(H2,C2,"_4.jpg;"),CONCATENATE(H2,C2,"_5.jpg;"),CONCATENATE(H2,C2,"_6.jpg;"),CONCATENATE(H2,C2,"_7.jpg;"),CONCATENATE(H2,C2,"_8.jpg;"),CONCATENATE(H2,C2,"_9.jpg;"),CONCATENATE(H2,C2,"_10.jpg;"),CONCATENATE(H2,"instruction_A4.jpg;"),CONCATENATE(H2,"Video_DTF.mp4;"))</f>
@@ -3139,10 +3297,10 @@
         <v>428</v>
       </c>
       <c r="AD2" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE2" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH2" s="0" t="n">
         <f aca="false">W2</f>
@@ -3172,7 +3330,7 @@
         <v>Punky Monkey</v>
       </c>
       <c r="AQ2" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AS2" s="10"/>
       <c r="AT2" s="0" t="str">
@@ -3180,11 +3338,11 @@
         <v>Девушка волосы облако</v>
       </c>
       <c r="AU2" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AV2" s="0" t="str">
         <f aca="false">S2</f>
-        <v>Термонаклейка Девушка волосы облако. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+        <v>Термонаклейка Девушка волосы облако. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
       </c>
       <c r="AX2" s="15" t="str">
         <f aca="false">X2</f>
@@ -3195,7 +3353,7 @@
         <v>Полимерный материал</v>
       </c>
       <c r="BC2" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="BD2" s="10"/>
       <c r="BE2" s="13" t="str">
@@ -3207,19 +3365,22 @@
         <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Девушка волосы облако</v>
       </c>
       <c r="BR2" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="BS2" s="6" t="str">
+        <v>83</v>
+      </c>
+      <c r="BS2" s="17" t="str">
         <f aca="false">CONCATENATE(H2,"Video_DTF.mp4")</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
-        <v>83</v>
+      <c r="A3" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>85</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D3" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\", A3, ".pdf")</f>
@@ -3236,13 +3397,13 @@
         <v>1</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M3" s="0" t="str">
         <f aca="false">A3</f>
@@ -3252,19 +3413,19 @@
         <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(A3, "Термонаклейка", "")</f>
         <v>Термонаклейка для одежды: Девушка очки с краской розовой</v>
       </c>
-      <c r="P3" s="0" t="n">
+      <c r="P3" s="0" t="str">
         <f aca="false">B3</f>
-        <v>0</v>
+        <v>OZN1425243566</v>
       </c>
       <c r="Q3" s="0" t="n">
         <v>285</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S3" s="7" t="str">
-        <f aca="false">CONCATENATE(A3,". Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.")</f>
-        <v>Термонаклейка Девушка очки с краской розовой. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+        <f aca="false">CONCATENATE(A3,". Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. ")</f>
+        <v>Термонаклейка Девушка очки с краской розовой. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
       </c>
       <c r="T3" s="0" t="n">
         <v>1</v>
@@ -3279,7 +3440,7 @@
         <v>12</v>
       </c>
       <c r="X3" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y3" s="8" t="str">
         <f aca="false">CONCATENATE(CONCATENATE(H3,C3,"_1.jpg;"),CONCATENATE(H3,C3,"_2.jpg;"),CONCATENATE(H3,C3,"_3.jpg;"),CONCATENATE(H3,C3,"_4.jpg;"),CONCATENATE(H3,C3,"_5.jpg;"),CONCATENATE(H3,C3,"_6.jpg;"),CONCATENATE(H3,C3,"_7.jpg;"),CONCATENATE(H3,C3,"_8.jpg;"),CONCATENATE(H3,C3,"_9.jpg;"),CONCATENATE(H3,C3,"_10.jpg;"),CONCATENATE(H3,"instruction_A4.jpg;"),CONCATENATE(H3,"Video_DTF.mp4;"))</f>
@@ -3298,10 +3459,10 @@
         <v>428</v>
       </c>
       <c r="AD3" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE3" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH3" s="0" t="n">
         <f aca="false">W3</f>
@@ -3331,7 +3492,7 @@
         <v>Punky Monkey</v>
       </c>
       <c r="AQ3" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AS3" s="10"/>
       <c r="AT3" s="0" t="str">
@@ -3339,11 +3500,11 @@
         <v>Девушка очки с краской розовой</v>
       </c>
       <c r="AU3" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AV3" s="0" t="str">
         <f aca="false">S3</f>
-        <v>Термонаклейка Девушка очки с краской розовой. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+        <v>Термонаклейка Девушка очки с краской розовой. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
       </c>
       <c r="AX3" s="15" t="str">
         <f aca="false">X3</f>
@@ -3354,7 +3515,7 @@
         <v>Полимерный материал</v>
       </c>
       <c r="BC3" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="BD3" s="10"/>
       <c r="BE3" s="13" t="str">
@@ -3366,19 +3527,22 @@
         <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Девушка очки с краской розовой</v>
       </c>
       <c r="BR3" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="BS3" s="6" t="str">
+        <v>83</v>
+      </c>
+      <c r="BS3" s="17" t="str">
         <f aca="false">CONCATENATE(H3,"Video_DTF.mp4")</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>86</v>
+        <v>87</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>89</v>
       </c>
       <c r="D4" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\", A4, ".pdf")</f>
@@ -3395,13 +3559,13 @@
         <v>1</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M4" s="0" t="str">
         <f aca="false">A4</f>
@@ -3411,19 +3575,19 @@
         <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(A4, "Термонаклейка", "")</f>
         <v>Термонаклейка для одежды: Мэрилин Монро поп арт вырезки</v>
       </c>
-      <c r="P4" s="0" t="n">
+      <c r="P4" s="0" t="str">
         <f aca="false">B4</f>
-        <v>0</v>
+        <v>OZN1425250627</v>
       </c>
       <c r="Q4" s="0" t="n">
         <v>285</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S4" s="7" t="str">
-        <f aca="false">CONCATENATE(A4,". Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.")</f>
-        <v>Термонаклейка Мэрилин Монро поп арт вырезки. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+        <f aca="false">CONCATENATE(A4,". Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. ")</f>
+        <v>Термонаклейка Мэрилин Монро поп арт вырезки. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
       </c>
       <c r="T4" s="0" t="n">
         <v>1</v>
@@ -3438,7 +3602,7 @@
         <v>12</v>
       </c>
       <c r="X4" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y4" s="8" t="str">
         <f aca="false">CONCATENATE(CONCATENATE(H4,C4,"_1.jpg;"),CONCATENATE(H4,C4,"_2.jpg;"),CONCATENATE(H4,C4,"_3.jpg;"),CONCATENATE(H4,C4,"_4.jpg;"),CONCATENATE(H4,C4,"_5.jpg;"),CONCATENATE(H4,C4,"_6.jpg;"),CONCATENATE(H4,C4,"_7.jpg;"),CONCATENATE(H4,C4,"_8.jpg;"),CONCATENATE(H4,C4,"_9.jpg;"),CONCATENATE(H4,C4,"_10.jpg;"),CONCATENATE(H4,"instruction_A4.jpg;"),CONCATENATE(H4,"Video_DTF.mp4;"))</f>
@@ -3457,10 +3621,10 @@
         <v>428</v>
       </c>
       <c r="AD4" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE4" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH4" s="0" t="n">
         <f aca="false">W4</f>
@@ -3490,7 +3654,7 @@
         <v>Punky Monkey</v>
       </c>
       <c r="AQ4" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AS4" s="10"/>
       <c r="AT4" s="0" t="str">
@@ -3498,11 +3662,11 @@
         <v>Мэрилин Монро поп арт вырезки</v>
       </c>
       <c r="AU4" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AV4" s="0" t="str">
         <f aca="false">S4</f>
-        <v>Термонаклейка Мэрилин Монро поп арт вырезки. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+        <v>Термонаклейка Мэрилин Монро поп арт вырезки. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
       </c>
       <c r="AX4" s="15" t="str">
         <f aca="false">X4</f>
@@ -3513,7 +3677,7 @@
         <v>Полимерный материал</v>
       </c>
       <c r="BC4" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="BD4" s="10"/>
       <c r="BE4" s="13" t="str">
@@ -3525,19 +3689,22 @@
         <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Мэрилин Монро поп арт вырезки</v>
       </c>
       <c r="BR4" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="BS4" s="6" t="str">
+        <v>83</v>
+      </c>
+      <c r="BS4" s="17" t="str">
         <f aca="false">CONCATENATE(H4,"Video_DTF.mp4")</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>91</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D5" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\", A5, ".pdf")</f>
@@ -3554,13 +3721,13 @@
         <v>1</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M5" s="0" t="str">
         <f aca="false">A5</f>
@@ -3570,19 +3737,19 @@
         <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(A5, "Термонаклейка", "")</f>
         <v>Термонаклейка для одежды: Африканская Девушка черный силуэт</v>
       </c>
-      <c r="P5" s="0" t="n">
+      <c r="P5" s="0" t="str">
         <f aca="false">B5</f>
-        <v>0</v>
+        <v>OZN1425250669</v>
       </c>
       <c r="Q5" s="0" t="n">
         <v>285</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S5" s="7" t="str">
-        <f aca="false">CONCATENATE(A5,". Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.")</f>
-        <v>Термонаклейка Африканская Девушка черный силуэт. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+        <f aca="false">CONCATENATE(A5,". Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. ")</f>
+        <v>Термонаклейка Африканская Девушка черный силуэт. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
       </c>
       <c r="T5" s="0" t="n">
         <v>1</v>
@@ -3597,7 +3764,7 @@
         <v>12</v>
       </c>
       <c r="X5" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y5" s="8" t="str">
         <f aca="false">CONCATENATE(CONCATENATE(H5,C5,"_1.jpg;"),CONCATENATE(H5,C5,"_2.jpg;"),CONCATENATE(H5,C5,"_3.jpg;"),CONCATENATE(H5,C5,"_4.jpg;"),CONCATENATE(H5,C5,"_5.jpg;"),CONCATENATE(H5,C5,"_6.jpg;"),CONCATENATE(H5,C5,"_7.jpg;"),CONCATENATE(H5,C5,"_8.jpg;"),CONCATENATE(H5,C5,"_9.jpg;"),CONCATENATE(H5,C5,"_10.jpg;"),CONCATENATE(H5,"instruction_A4.jpg;"),CONCATENATE(H5,"Video_DTF.mp4;"))</f>
@@ -3616,10 +3783,10 @@
         <v>428</v>
       </c>
       <c r="AD5" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE5" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH5" s="0" t="n">
         <f aca="false">W5</f>
@@ -3649,7 +3816,7 @@
         <v>Punky Monkey</v>
       </c>
       <c r="AQ5" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AS5" s="10"/>
       <c r="AT5" s="0" t="str">
@@ -3657,11 +3824,11 @@
         <v>Африканская Девушка черный силуэт</v>
       </c>
       <c r="AU5" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AV5" s="0" t="str">
         <f aca="false">S5</f>
-        <v>Термонаклейка Африканская Девушка черный силуэт. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+        <v>Термонаклейка Африканская Девушка черный силуэт. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
       </c>
       <c r="AX5" s="15" t="str">
         <f aca="false">X5</f>
@@ -3672,7 +3839,7 @@
         <v>Полимерный материал</v>
       </c>
       <c r="BC5" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="BD5" s="10"/>
       <c r="BE5" s="13" t="str">
@@ -3684,19 +3851,22 @@
         <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Африканская Девушка черный силуэт</v>
       </c>
       <c r="BR5" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="BS5" s="6" t="str">
+        <v>83</v>
+      </c>
+      <c r="BS5" s="17" t="str">
         <f aca="false">CONCATENATE(H5,"Video_DTF.mp4")</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>94</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D6" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\", A6, ".pdf")</f>
@@ -3713,13 +3883,13 @@
         <v>1</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M6" s="0" t="str">
         <f aca="false">A6</f>
@@ -3729,19 +3899,19 @@
         <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(A6, "Термонаклейка", "")</f>
         <v>Термонаклейка для одежды: Кот Шанель Chanel</v>
       </c>
-      <c r="P6" s="0" t="n">
+      <c r="P6" s="0" t="str">
         <f aca="false">B6</f>
-        <v>0</v>
+        <v>OZN1425250687</v>
       </c>
       <c r="Q6" s="0" t="n">
         <v>285</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S6" s="7" t="str">
-        <f aca="false">CONCATENATE(A6,". Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.")</f>
-        <v>Термонаклейка Кот Шанель Chanel. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+        <f aca="false">CONCATENATE(A6,". Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. ")</f>
+        <v>Термонаклейка Кот Шанель Chanel. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
       </c>
       <c r="T6" s="0" t="n">
         <v>1</v>
@@ -3756,7 +3926,7 @@
         <v>12</v>
       </c>
       <c r="X6" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y6" s="8" t="str">
         <f aca="false">CONCATENATE(CONCATENATE(H6,C6,"_1.jpg;"),CONCATENATE(H6,C6,"_2.jpg;"),CONCATENATE(H6,C6,"_3.jpg;"),CONCATENATE(H6,C6,"_4.jpg;"),CONCATENATE(H6,C6,"_5.jpg;"),CONCATENATE(H6,C6,"_6.jpg;"),CONCATENATE(H6,C6,"_7.jpg;"),CONCATENATE(H6,C6,"_8.jpg;"),CONCATENATE(H6,C6,"_9.jpg;"),CONCATENATE(H6,C6,"_10.jpg;"),CONCATENATE(H6,"instruction_A4.jpg;"),CONCATENATE(H6,"Video_DTF.mp4;"))</f>
@@ -3775,10 +3945,10 @@
         <v>428</v>
       </c>
       <c r="AD6" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE6" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH6" s="0" t="n">
         <f aca="false">W6</f>
@@ -3808,7 +3978,7 @@
         <v>Punky Monkey</v>
       </c>
       <c r="AQ6" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AS6" s="10"/>
       <c r="AT6" s="0" t="str">
@@ -3816,11 +3986,11 @@
         <v>Кот Шанель Chanel</v>
       </c>
       <c r="AU6" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AV6" s="0" t="str">
         <f aca="false">S6</f>
-        <v>Термонаклейка Кот Шанель Chanel. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+        <v>Термонаклейка Кот Шанель Chanel. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
       </c>
       <c r="AX6" s="15" t="str">
         <f aca="false">X6</f>
@@ -3831,7 +4001,7 @@
         <v>Полимерный материал</v>
       </c>
       <c r="BC6" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="BD6" s="10"/>
       <c r="BE6" s="13" t="str">
@@ -3843,19 +4013,22 @@
         <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Кот Шанель Chanel</v>
       </c>
       <c r="BR6" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="BS6" s="6" t="str">
+        <v>83</v>
+      </c>
+      <c r="BS6" s="17" t="str">
         <f aca="false">CONCATENATE(H6,"Video_DTF.mp4")</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>91</v>
+        <v>96</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>97</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D7" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\", A7, ".pdf")</f>
@@ -3872,13 +4045,13 @@
         <v>1</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M7" s="0" t="str">
         <f aca="false">A7</f>
@@ -3888,19 +4061,19 @@
         <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(A7, "Термонаклейка", "")</f>
         <v>Термонаклейка для одежды: Кот выглядывает радуга</v>
       </c>
-      <c r="P7" s="0" t="n">
+      <c r="P7" s="0" t="str">
         <f aca="false">B7</f>
-        <v>0</v>
+        <v>OZN1425250595</v>
       </c>
       <c r="Q7" s="0" t="n">
         <v>285</v>
       </c>
       <c r="R7" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S7" s="7" t="str">
-        <f aca="false">CONCATENATE(A7,". Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.")</f>
-        <v>Термонаклейка Кот выглядывает радуга. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+        <f aca="false">CONCATENATE(A7,". Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. ")</f>
+        <v>Термонаклейка Кот выглядывает радуга. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
       </c>
       <c r="T7" s="0" t="n">
         <v>1</v>
@@ -3915,7 +4088,7 @@
         <v>12</v>
       </c>
       <c r="X7" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y7" s="8" t="str">
         <f aca="false">CONCATENATE(CONCATENATE(H7,C7,"_1.jpg;"),CONCATENATE(H7,C7,"_2.jpg;"),CONCATENATE(H7,C7,"_3.jpg;"),CONCATENATE(H7,C7,"_4.jpg;"),CONCATENATE(H7,C7,"_5.jpg;"),CONCATENATE(H7,C7,"_6.jpg;"),CONCATENATE(H7,C7,"_7.jpg;"),CONCATENATE(H7,C7,"_8.jpg;"),CONCATENATE(H7,C7,"_9.jpg;"),CONCATENATE(H7,C7,"_10.jpg;"),CONCATENATE(H7,"instruction_A4.jpg;"),CONCATENATE(H7,"Video_DTF.mp4;"))</f>
@@ -3934,10 +4107,10 @@
         <v>428</v>
       </c>
       <c r="AD7" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE7" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH7" s="0" t="n">
         <f aca="false">W7</f>
@@ -3967,7 +4140,7 @@
         <v>Punky Monkey</v>
       </c>
       <c r="AQ7" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AS7" s="10"/>
       <c r="AT7" s="0" t="str">
@@ -3975,11 +4148,11 @@
         <v>Кот выглядывает радуга</v>
       </c>
       <c r="AU7" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AV7" s="0" t="str">
         <f aca="false">S7</f>
-        <v>Термонаклейка Кот выглядывает радуга. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+        <v>Термонаклейка Кот выглядывает радуга. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
       </c>
       <c r="AX7" s="15" t="str">
         <f aca="false">X7</f>
@@ -3990,7 +4163,7 @@
         <v>Полимерный материал</v>
       </c>
       <c r="BC7" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="BD7" s="10"/>
       <c r="BE7" s="13" t="str">
@@ -4002,19 +4175,22 @@
         <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Кот выглядывает радуга</v>
       </c>
       <c r="BR7" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="BS7" s="6" t="str">
+        <v>83</v>
+      </c>
+      <c r="BS7" s="17" t="str">
         <f aca="false">CONCATENATE(H7,"Video_DTF.mp4")</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>93</v>
+        <v>99</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>100</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="D8" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\", A8, ".pdf")</f>
@@ -4031,13 +4207,13 @@
         <v>1</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M8" s="0" t="str">
         <f aca="false">A8</f>
@@ -4047,19 +4223,19 @@
         <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(A8, "Термонаклейка", "")</f>
         <v>Термонаклейка для одежды: Кот картина Ван Гог</v>
       </c>
-      <c r="P8" s="0" t="n">
+      <c r="P8" s="0" t="str">
         <f aca="false">B8</f>
-        <v>0</v>
+        <v>OZN1425250644</v>
       </c>
       <c r="Q8" s="0" t="n">
         <v>285</v>
       </c>
       <c r="R8" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S8" s="7" t="str">
-        <f aca="false">CONCATENATE(A8,". Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.")</f>
-        <v>Термонаклейка Кот картина Ван Гог. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+        <f aca="false">CONCATENATE(A8,". Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. ")</f>
+        <v>Термонаклейка Кот картина Ван Гог. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
       </c>
       <c r="T8" s="0" t="n">
         <v>1</v>
@@ -4074,7 +4250,7 @@
         <v>12</v>
       </c>
       <c r="X8" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y8" s="8" t="str">
         <f aca="false">CONCATENATE(CONCATENATE(H8,C8,"_1.jpg;"),CONCATENATE(H8,C8,"_2.jpg;"),CONCATENATE(H8,C8,"_3.jpg;"),CONCATENATE(H8,C8,"_4.jpg;"),CONCATENATE(H8,C8,"_5.jpg;"),CONCATENATE(H8,C8,"_6.jpg;"),CONCATENATE(H8,C8,"_7.jpg;"),CONCATENATE(H8,C8,"_8.jpg;"),CONCATENATE(H8,C8,"_9.jpg;"),CONCATENATE(H8,C8,"_10.jpg;"),CONCATENATE(H8,"instruction_A4.jpg;"),CONCATENATE(H8,"Video_DTF.mp4;"))</f>
@@ -4093,10 +4269,10 @@
         <v>428</v>
       </c>
       <c r="AD8" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE8" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH8" s="0" t="n">
         <f aca="false">W8</f>
@@ -4126,7 +4302,7 @@
         <v>Punky Monkey</v>
       </c>
       <c r="AQ8" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AS8" s="10"/>
       <c r="AT8" s="0" t="str">
@@ -4134,11 +4310,11 @@
         <v>Кот картина Ван Гог</v>
       </c>
       <c r="AU8" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AV8" s="0" t="str">
         <f aca="false">S8</f>
-        <v>Термонаклейка Кот картина Ван Гог. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+        <v>Термонаклейка Кот картина Ван Гог. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
       </c>
       <c r="AX8" s="15" t="str">
         <f aca="false">X8</f>
@@ -4149,7 +4325,7 @@
         <v>Полимерный материал</v>
       </c>
       <c r="BC8" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="BD8" s="10"/>
       <c r="BE8" s="13" t="str">
@@ -4161,19 +4337,22 @@
         <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Кот картина Ван Гог</v>
       </c>
       <c r="BR8" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="BS8" s="6" t="str">
+        <v>83</v>
+      </c>
+      <c r="BS8" s="17" t="str">
         <f aca="false">CONCATENATE(H8,"Video_DTF.mp4")</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>95</v>
+        <v>102</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>103</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="D9" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\", A9, ".pdf")</f>
@@ -4190,13 +4369,13 @@
         <v>1</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M9" s="0" t="str">
         <f aca="false">A9</f>
@@ -4206,19 +4385,19 @@
         <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(A9, "Термонаклейка", "")</f>
         <v>Термонаклейка для одежды: мультяшный Кот картина Ван Гог</v>
       </c>
-      <c r="P9" s="0" t="n">
+      <c r="P9" s="0" t="str">
         <f aca="false">B9</f>
-        <v>0</v>
+        <v>OZN1425250751</v>
       </c>
       <c r="Q9" s="0" t="n">
         <v>285</v>
       </c>
       <c r="R9" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S9" s="7" t="str">
-        <f aca="false">CONCATENATE(A9,". Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.")</f>
-        <v>Термонаклейка мультяшный Кот картина Ван Гог. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+        <f aca="false">CONCATENATE(A9,". Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. ")</f>
+        <v>Термонаклейка мультяшный Кот картина Ван Гог. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
       </c>
       <c r="T9" s="0" t="n">
         <v>1</v>
@@ -4233,7 +4412,7 @@
         <v>12</v>
       </c>
       <c r="X9" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y9" s="8" t="str">
         <f aca="false">CONCATENATE(CONCATENATE(H9,C9,"_1.jpg;"),CONCATENATE(H9,C9,"_2.jpg;"),CONCATENATE(H9,C9,"_3.jpg;"),CONCATENATE(H9,C9,"_4.jpg;"),CONCATENATE(H9,C9,"_5.jpg;"),CONCATENATE(H9,C9,"_6.jpg;"),CONCATENATE(H9,C9,"_7.jpg;"),CONCATENATE(H9,C9,"_8.jpg;"),CONCATENATE(H9,C9,"_9.jpg;"),CONCATENATE(H9,C9,"_10.jpg;"),CONCATENATE(H9,"instruction_A4.jpg;"),CONCATENATE(H9,"Video_DTF.mp4;"))</f>
@@ -4252,10 +4431,10 @@
         <v>428</v>
       </c>
       <c r="AD9" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE9" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH9" s="0" t="n">
         <f aca="false">W9</f>
@@ -4285,7 +4464,7 @@
         <v>Punky Monkey</v>
       </c>
       <c r="AQ9" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AS9" s="10"/>
       <c r="AT9" s="0" t="str">
@@ -4293,11 +4472,11 @@
         <v>мультяшный Кот картина Ван Гог</v>
       </c>
       <c r="AU9" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AV9" s="0" t="str">
         <f aca="false">S9</f>
-        <v>Термонаклейка мультяшный Кот картина Ван Гог. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+        <v>Термонаклейка мультяшный Кот картина Ван Гог. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
       </c>
       <c r="AX9" s="15" t="str">
         <f aca="false">X9</f>
@@ -4308,7 +4487,7 @@
         <v>Полимерный материал</v>
       </c>
       <c r="BC9" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="BD9" s="10"/>
       <c r="BE9" s="13" t="str">
@@ -4320,19 +4499,22 @@
         <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, мультяшный Кот картина Ван Гог</v>
       </c>
       <c r="BR9" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="BS9" s="6" t="str">
+        <v>83</v>
+      </c>
+      <c r="BS9" s="17" t="str">
         <f aca="false">CONCATENATE(H9,"Video_DTF.mp4")</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>97</v>
+        <v>105</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>106</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="D10" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\", A10, ".pdf")</f>
@@ -4349,13 +4531,13 @@
         <v>1</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M10" s="0" t="str">
         <f aca="false">A10</f>
@@ -4365,19 +4547,19 @@
         <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(A10, "Термонаклейка", "")</f>
         <v>Термонаклейка для одежды: Женщина кошка ест вишинку</v>
       </c>
-      <c r="P10" s="0" t="n">
+      <c r="P10" s="0" t="str">
         <f aca="false">B10</f>
-        <v>0</v>
+        <v>OZN1425250714</v>
       </c>
       <c r="Q10" s="0" t="n">
         <v>285</v>
       </c>
       <c r="R10" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S10" s="7" t="str">
-        <f aca="false">CONCATENATE(A10,". Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.")</f>
-        <v>Термонаклейка Женщина кошка ест вишинку. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+        <f aca="false">CONCATENATE(A10,". Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. ")</f>
+        <v>Термонаклейка Женщина кошка ест вишинку. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
       </c>
       <c r="T10" s="0" t="n">
         <v>1</v>
@@ -4392,7 +4574,7 @@
         <v>12</v>
       </c>
       <c r="X10" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y10" s="8" t="str">
         <f aca="false">CONCATENATE(CONCATENATE(H10,C10,"_1.jpg;"),CONCATENATE(H10,C10,"_2.jpg;"),CONCATENATE(H10,C10,"_3.jpg;"),CONCATENATE(H10,C10,"_4.jpg;"),CONCATENATE(H10,C10,"_5.jpg;"),CONCATENATE(H10,C10,"_6.jpg;"),CONCATENATE(H10,C10,"_7.jpg;"),CONCATENATE(H10,C10,"_8.jpg;"),CONCATENATE(H10,C10,"_9.jpg;"),CONCATENATE(H10,C10,"_10.jpg;"),CONCATENATE(H10,"instruction_A4.jpg;"),CONCATENATE(H10,"Video_DTF.mp4;"))</f>
@@ -4411,10 +4593,10 @@
         <v>428</v>
       </c>
       <c r="AD10" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE10" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH10" s="0" t="n">
         <f aca="false">W10</f>
@@ -4444,7 +4626,7 @@
         <v>Punky Monkey</v>
       </c>
       <c r="AQ10" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AS10" s="10"/>
       <c r="AT10" s="0" t="str">
@@ -4452,11 +4634,11 @@
         <v>Женщина кошка ест вишинку</v>
       </c>
       <c r="AU10" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AV10" s="0" t="str">
         <f aca="false">S10</f>
-        <v>Термонаклейка Женщина кошка ест вишинку. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+        <v>Термонаклейка Женщина кошка ест вишинку. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
       </c>
       <c r="AX10" s="15" t="str">
         <f aca="false">X10</f>
@@ -4467,7 +4649,7 @@
         <v>Полимерный материал</v>
       </c>
       <c r="BC10" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="BD10" s="10"/>
       <c r="BE10" s="13" t="str">
@@ -4479,19 +4661,22 @@
         <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Женщина кошка ест вишинку</v>
       </c>
       <c r="BR10" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="BS10" s="6" t="str">
+        <v>83</v>
+      </c>
+      <c r="BS10" s="17" t="str">
         <f aca="false">CONCATENATE(H10,"Video_DTF.mp4")</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>99</v>
+        <v>108</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>109</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D11" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\", A11, ".pdf")</f>
@@ -4508,13 +4693,13 @@
         <v>1</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M11" s="0" t="str">
         <f aca="false">A11</f>
@@ -4524,19 +4709,19 @@
         <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(A11, "Термонаклейка", "")</f>
         <v>Термонаклейка для одежды: Красные перцы</v>
       </c>
-      <c r="P11" s="0" t="n">
+      <c r="P11" s="0" t="str">
         <f aca="false">B11</f>
-        <v>0</v>
+        <v>OZN1425250634</v>
       </c>
       <c r="Q11" s="0" t="n">
         <v>285</v>
       </c>
       <c r="R11" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S11" s="7" t="str">
-        <f aca="false">CONCATENATE(A11,". Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.")</f>
-        <v>Термонаклейка Красные перцы. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+        <f aca="false">CONCATENATE(A11,". Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. ")</f>
+        <v>Термонаклейка Красные перцы. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
       </c>
       <c r="T11" s="0" t="n">
         <v>1</v>
@@ -4551,7 +4736,7 @@
         <v>12</v>
       </c>
       <c r="X11" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y11" s="8" t="str">
         <f aca="false">CONCATENATE(CONCATENATE(H11,C11,"_1.jpg;"),CONCATENATE(H11,C11,"_2.jpg;"),CONCATENATE(H11,C11,"_3.jpg;"),CONCATENATE(H11,C11,"_4.jpg;"),CONCATENATE(H11,C11,"_5.jpg;"),CONCATENATE(H11,C11,"_6.jpg;"),CONCATENATE(H11,C11,"_7.jpg;"),CONCATENATE(H11,C11,"_8.jpg;"),CONCATENATE(H11,C11,"_9.jpg;"),CONCATENATE(H11,C11,"_10.jpg;"),CONCATENATE(H11,"instruction_A4.jpg;"),CONCATENATE(H11,"Video_DTF.mp4;"))</f>
@@ -4570,10 +4755,10 @@
         <v>428</v>
       </c>
       <c r="AD11" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE11" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH11" s="0" t="n">
         <f aca="false">W11</f>
@@ -4603,7 +4788,7 @@
         <v>Punky Monkey</v>
       </c>
       <c r="AQ11" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AS11" s="10"/>
       <c r="AT11" s="0" t="str">
@@ -4611,11 +4796,11 @@
         <v>Красные перцы</v>
       </c>
       <c r="AU11" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AV11" s="0" t="str">
         <f aca="false">S11</f>
-        <v>Термонаклейка Красные перцы. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+        <v>Термонаклейка Красные перцы. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
       </c>
       <c r="AX11" s="15" t="str">
         <f aca="false">X11</f>
@@ -4626,7 +4811,7 @@
         <v>Полимерный материал</v>
       </c>
       <c r="BC11" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="BD11" s="10"/>
       <c r="BE11" s="13" t="str">
@@ -4638,19 +4823,22 @@
         <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Красные перцы</v>
       </c>
       <c r="BR11" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="BS11" s="6" t="str">
+        <v>83</v>
+      </c>
+      <c r="BS11" s="17" t="str">
         <f aca="false">CONCATENATE(H11,"Video_DTF.mp4")</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="s">
-        <v>101</v>
+      <c r="A12" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>112</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="D12" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\", A12, ".pdf")</f>
@@ -4667,13 +4855,13 @@
         <v>1</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M12" s="0" t="str">
         <f aca="false">A12</f>
@@ -4683,19 +4871,19 @@
         <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(A12, "Термонаклейка", "")</f>
         <v>Термонаклейка для одежды: Dior Диор Девушка курит облако</v>
       </c>
-      <c r="P12" s="0" t="n">
+      <c r="P12" s="0" t="str">
         <f aca="false">B12</f>
-        <v>0</v>
+        <v>OZN1425250643</v>
       </c>
       <c r="Q12" s="0" t="n">
         <v>285</v>
       </c>
       <c r="R12" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S12" s="7" t="str">
-        <f aca="false">CONCATENATE(A12,". Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.")</f>
-        <v>Термонаклейка Dior Диор Девушка курит облако. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+        <f aca="false">CONCATENATE(A12,". Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. ")</f>
+        <v>Термонаклейка Dior Диор Девушка курит облако. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
       </c>
       <c r="T12" s="0" t="n">
         <v>1</v>
@@ -4710,7 +4898,7 @@
         <v>12</v>
       </c>
       <c r="X12" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y12" s="8" t="str">
         <f aca="false">CONCATENATE(CONCATENATE(H12,C12,"_1.jpg;"),CONCATENATE(H12,C12,"_2.jpg;"),CONCATENATE(H12,C12,"_3.jpg;"),CONCATENATE(H12,C12,"_4.jpg;"),CONCATENATE(H12,C12,"_5.jpg;"),CONCATENATE(H12,C12,"_6.jpg;"),CONCATENATE(H12,C12,"_7.jpg;"),CONCATENATE(H12,C12,"_8.jpg;"),CONCATENATE(H12,C12,"_9.jpg;"),CONCATENATE(H12,C12,"_10.jpg;"),CONCATENATE(H12,"instruction_A4.jpg;"),CONCATENATE(H12,"Video_DTF.mp4;"))</f>
@@ -4729,10 +4917,10 @@
         <v>428</v>
       </c>
       <c r="AD12" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE12" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH12" s="0" t="n">
         <f aca="false">W12</f>
@@ -4762,7 +4950,7 @@
         <v>Punky Monkey</v>
       </c>
       <c r="AQ12" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AS12" s="10"/>
       <c r="AT12" s="0" t="str">
@@ -4770,11 +4958,11 @@
         <v>Dior Диор Девушка курит облако</v>
       </c>
       <c r="AU12" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AV12" s="0" t="str">
         <f aca="false">S12</f>
-        <v>Термонаклейка Dior Диор Девушка курит облако. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+        <v>Термонаклейка Dior Диор Девушка курит облако. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
       </c>
       <c r="AX12" s="15" t="str">
         <f aca="false">X12</f>
@@ -4785,7 +4973,7 @@
         <v>Полимерный материал</v>
       </c>
       <c r="BC12" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="BD12" s="10"/>
       <c r="BE12" s="13" t="str">
@@ -4797,19 +4985,22 @@
         <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Dior Диор Девушка курит облако</v>
       </c>
       <c r="BR12" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="BS12" s="6" t="str">
+        <v>83</v>
+      </c>
+      <c r="BS12" s="17" t="str">
         <f aca="false">CONCATENATE(H12,"Video_DTF.mp4")</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>103</v>
+        <v>114</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>115</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="D13" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\", A13, ".pdf")</f>
@@ -4826,13 +5017,13 @@
         <v>1</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M13" s="0" t="str">
         <f aca="false">A13</f>
@@ -4842,19 +5033,19 @@
         <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(A13, "Термонаклейка", "")</f>
         <v>Термонаклейка для одежды: Dior Диор Цветы</v>
       </c>
-      <c r="P13" s="0" t="n">
+      <c r="P13" s="0" t="str">
         <f aca="false">B13</f>
-        <v>0</v>
+        <v>OZN1425250773</v>
       </c>
       <c r="Q13" s="0" t="n">
         <v>285</v>
       </c>
       <c r="R13" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S13" s="7" t="str">
-        <f aca="false">CONCATENATE(A13,". Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.")</f>
-        <v>Термонаклейка Dior Диор Цветы. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+        <f aca="false">CONCATENATE(A13,". Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. ")</f>
+        <v>Термонаклейка Dior Диор Цветы. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
       </c>
       <c r="T13" s="0" t="n">
         <v>1</v>
@@ -4869,7 +5060,7 @@
         <v>12</v>
       </c>
       <c r="X13" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y13" s="8" t="str">
         <f aca="false">CONCATENATE(CONCATENATE(H13,C13,"_1.jpg;"),CONCATENATE(H13,C13,"_2.jpg;"),CONCATENATE(H13,C13,"_3.jpg;"),CONCATENATE(H13,C13,"_4.jpg;"),CONCATENATE(H13,C13,"_5.jpg;"),CONCATENATE(H13,C13,"_6.jpg;"),CONCATENATE(H13,C13,"_7.jpg;"),CONCATENATE(H13,C13,"_8.jpg;"),CONCATENATE(H13,C13,"_9.jpg;"),CONCATENATE(H13,C13,"_10.jpg;"),CONCATENATE(H13,"instruction_A4.jpg;"),CONCATENATE(H13,"Video_DTF.mp4;"))</f>
@@ -4888,10 +5079,10 @@
         <v>428</v>
       </c>
       <c r="AD13" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE13" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH13" s="0" t="n">
         <f aca="false">W13</f>
@@ -4921,7 +5112,7 @@
         <v>Punky Monkey</v>
       </c>
       <c r="AQ13" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AS13" s="10"/>
       <c r="AT13" s="0" t="str">
@@ -4929,11 +5120,11 @@
         <v>Dior Диор Цветы</v>
       </c>
       <c r="AU13" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AV13" s="0" t="str">
         <f aca="false">S13</f>
-        <v>Термонаклейка Dior Диор Цветы. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+        <v>Термонаклейка Dior Диор Цветы. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
       </c>
       <c r="AX13" s="15" t="str">
         <f aca="false">X13</f>
@@ -4944,7 +5135,7 @@
         <v>Полимерный материал</v>
       </c>
       <c r="BC13" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="BD13" s="10"/>
       <c r="BE13" s="13" t="str">
@@ -4956,19 +5147,22 @@
         <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Dior Диор Цветы</v>
       </c>
       <c r="BR13" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="BS13" s="6" t="str">
+        <v>83</v>
+      </c>
+      <c r="BS13" s="17" t="str">
         <f aca="false">CONCATENATE(H13,"Video_DTF.mp4")</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>105</v>
+        <v>117</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>118</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="D14" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\", A14, ".pdf")</f>
@@ -4985,13 +5179,13 @@
         <v>1</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M14" s="0" t="str">
         <f aca="false">A14</f>
@@ -5001,19 +5195,19 @@
         <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(A14, "Термонаклейка", "")</f>
         <v>Термонаклейка для одежды: Vogue Вог Эйфелева башня</v>
       </c>
-      <c r="P14" s="0" t="n">
+      <c r="P14" s="0" t="str">
         <f aca="false">B14</f>
-        <v>0</v>
+        <v>OZN1425250607</v>
       </c>
       <c r="Q14" s="0" t="n">
         <v>285</v>
       </c>
       <c r="R14" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S14" s="7" t="str">
-        <f aca="false">CONCATENATE(A14,". Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.")</f>
-        <v>Термонаклейка Vogue Вог Эйфелева башня. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+        <f aca="false">CONCATENATE(A14,". Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. ")</f>
+        <v>Термонаклейка Vogue Вог Эйфелева башня. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
       </c>
       <c r="T14" s="0" t="n">
         <v>1</v>
@@ -5028,7 +5222,7 @@
         <v>12</v>
       </c>
       <c r="X14" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y14" s="8" t="str">
         <f aca="false">CONCATENATE(CONCATENATE(H14,C14,"_1.jpg;"),CONCATENATE(H14,C14,"_2.jpg;"),CONCATENATE(H14,C14,"_3.jpg;"),CONCATENATE(H14,C14,"_4.jpg;"),CONCATENATE(H14,C14,"_5.jpg;"),CONCATENATE(H14,C14,"_6.jpg;"),CONCATENATE(H14,C14,"_7.jpg;"),CONCATENATE(H14,C14,"_8.jpg;"),CONCATENATE(H14,C14,"_9.jpg;"),CONCATENATE(H14,C14,"_10.jpg;"),CONCATENATE(H14,"instruction_A4.jpg;"),CONCATENATE(H14,"Video_DTF.mp4;"))</f>
@@ -5047,10 +5241,10 @@
         <v>428</v>
       </c>
       <c r="AD14" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE14" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH14" s="0" t="n">
         <f aca="false">W14</f>
@@ -5080,7 +5274,7 @@
         <v>Punky Monkey</v>
       </c>
       <c r="AQ14" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AS14" s="10"/>
       <c r="AT14" s="0" t="str">
@@ -5088,11 +5282,11 @@
         <v>Vogue Вог Эйфелева башня</v>
       </c>
       <c r="AU14" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AV14" s="0" t="str">
         <f aca="false">S14</f>
-        <v>Термонаклейка Vogue Вог Эйфелева башня. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+        <v>Термонаклейка Vogue Вог Эйфелева башня. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
       </c>
       <c r="AX14" s="15" t="str">
         <f aca="false">X14</f>
@@ -5103,7 +5297,7 @@
         <v>Полимерный материал</v>
       </c>
       <c r="BC14" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="BD14" s="10"/>
       <c r="BE14" s="13" t="str">
@@ -5115,19 +5309,22 @@
         <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Vogue Вог Эйфелева башня</v>
       </c>
       <c r="BR14" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="BS14" s="6" t="str">
+        <v>83</v>
+      </c>
+      <c r="BS14" s="17" t="str">
         <f aca="false">CONCATENATE(H14,"Video_DTF.mp4")</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>107</v>
+        <v>120</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>121</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="D15" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\", A15, ".pdf")</f>
@@ -5144,13 +5341,13 @@
         <v>1</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M15" s="0" t="str">
         <f aca="false">A15</f>
@@ -5160,19 +5357,19 @@
         <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(A15, "Термонаклейка", "")</f>
         <v>Термонаклейка для одежды: Бюст статуи Feelings скрыты глаза</v>
       </c>
-      <c r="P15" s="0" t="n">
+      <c r="P15" s="0" t="str">
         <f aca="false">B15</f>
-        <v>0</v>
+        <v>OZN1425266743</v>
       </c>
       <c r="Q15" s="0" t="n">
         <v>285</v>
       </c>
       <c r="R15" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S15" s="7" t="str">
-        <f aca="false">CONCATENATE(A15,". Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.")</f>
-        <v>Термонаклейка Бюст статуи Feelings скрыты глаза. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+        <f aca="false">CONCATENATE(A15,". Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. ")</f>
+        <v>Термонаклейка Бюст статуи Feelings скрыты глаза. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
       </c>
       <c r="T15" s="0" t="n">
         <v>1</v>
@@ -5187,7 +5384,7 @@
         <v>12</v>
       </c>
       <c r="X15" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y15" s="8" t="str">
         <f aca="false">CONCATENATE(CONCATENATE(H15,C15,"_1.jpg;"),CONCATENATE(H15,C15,"_2.jpg;"),CONCATENATE(H15,C15,"_3.jpg;"),CONCATENATE(H15,C15,"_4.jpg;"),CONCATENATE(H15,C15,"_5.jpg;"),CONCATENATE(H15,C15,"_6.jpg;"),CONCATENATE(H15,C15,"_7.jpg;"),CONCATENATE(H15,C15,"_8.jpg;"),CONCATENATE(H15,C15,"_9.jpg;"),CONCATENATE(H15,C15,"_10.jpg;"),CONCATENATE(H15,"instruction_A4.jpg;"),CONCATENATE(H15,"Video_DTF.mp4;"))</f>
@@ -5206,10 +5403,10 @@
         <v>428</v>
       </c>
       <c r="AD15" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE15" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH15" s="0" t="n">
         <f aca="false">W15</f>
@@ -5239,7 +5436,7 @@
         <v>Punky Monkey</v>
       </c>
       <c r="AQ15" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AS15" s="10"/>
       <c r="AT15" s="0" t="str">
@@ -5247,11 +5444,11 @@
         <v>Бюст статуи Feelings скрыты глаза</v>
       </c>
       <c r="AU15" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AV15" s="0" t="str">
         <f aca="false">S15</f>
-        <v>Термонаклейка Бюст статуи Feelings скрыты глаза. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+        <v>Термонаклейка Бюст статуи Feelings скрыты глаза. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
       </c>
       <c r="AX15" s="15" t="str">
         <f aca="false">X15</f>
@@ -5262,7 +5459,7 @@
         <v>Полимерный материал</v>
       </c>
       <c r="BC15" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="BD15" s="10"/>
       <c r="BE15" s="13" t="str">
@@ -5274,19 +5471,22 @@
         <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Бюст статуи Feelings скрыты глаза</v>
       </c>
       <c r="BR15" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="BS15" s="6" t="str">
+        <v>83</v>
+      </c>
+      <c r="BS15" s="17" t="str">
         <f aca="false">CONCATENATE(H15,"Video_DTF.mp4")</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6" t="s">
-        <v>109</v>
+      <c r="A16" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>124</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="D16" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\", A16, ".pdf")</f>
@@ -5303,13 +5503,13 @@
         <v>1</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M16" s="0" t="str">
         <f aca="false">A16</f>
@@ -5319,19 +5519,19 @@
         <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(A16, "Термонаклейка", "")</f>
         <v>Термонаклейка для одежды: Рыба паттерн яркая красивая</v>
       </c>
-      <c r="P16" s="0" t="n">
+      <c r="P16" s="0" t="str">
         <f aca="false">B16</f>
-        <v>0</v>
+        <v>OZN1425250727</v>
       </c>
       <c r="Q16" s="0" t="n">
         <v>285</v>
       </c>
       <c r="R16" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S16" s="7" t="str">
-        <f aca="false">CONCATENATE(A16,". Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.")</f>
-        <v>Термонаклейка Рыба паттерн яркая красивая. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+        <f aca="false">CONCATENATE(A16,". Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. ")</f>
+        <v>Термонаклейка Рыба паттерн яркая красивая. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
       </c>
       <c r="T16" s="0" t="n">
         <v>1</v>
@@ -5346,7 +5546,7 @@
         <v>12</v>
       </c>
       <c r="X16" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y16" s="8" t="str">
         <f aca="false">CONCATENATE(CONCATENATE(H16,C16,"_1.jpg;"),CONCATENATE(H16,C16,"_2.jpg;"),CONCATENATE(H16,C16,"_3.jpg;"),CONCATENATE(H16,C16,"_4.jpg;"),CONCATENATE(H16,C16,"_5.jpg;"),CONCATENATE(H16,C16,"_6.jpg;"),CONCATENATE(H16,C16,"_7.jpg;"),CONCATENATE(H16,C16,"_8.jpg;"),CONCATENATE(H16,C16,"_9.jpg;"),CONCATENATE(H16,C16,"_10.jpg;"),CONCATENATE(H16,"instruction_A4.jpg;"),CONCATENATE(H16,"Video_DTF.mp4;"))</f>
@@ -5365,10 +5565,10 @@
         <v>428</v>
       </c>
       <c r="AD16" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE16" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH16" s="0" t="n">
         <f aca="false">W16</f>
@@ -5398,7 +5598,7 @@
         <v>Punky Monkey</v>
       </c>
       <c r="AQ16" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AS16" s="10"/>
       <c r="AT16" s="0" t="str">
@@ -5406,11 +5606,11 @@
         <v>Рыба паттерн яркая красивая</v>
       </c>
       <c r="AU16" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AV16" s="0" t="str">
         <f aca="false">S16</f>
-        <v>Термонаклейка Рыба паттерн яркая красивая. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+        <v>Термонаклейка Рыба паттерн яркая красивая. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
       </c>
       <c r="AX16" s="15" t="str">
         <f aca="false">X16</f>
@@ -5421,7 +5621,7 @@
         <v>Полимерный материал</v>
       </c>
       <c r="BC16" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="BD16" s="10"/>
       <c r="BE16" s="13" t="str">
@@ -5433,19 +5633,22 @@
         <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Рыба паттерн яркая красивая</v>
       </c>
       <c r="BR16" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="BS16" s="6" t="str">
+        <v>83</v>
+      </c>
+      <c r="BS16" s="17" t="str">
         <f aca="false">CONCATENATE(H16,"Video_DTF.mp4")</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>111</v>
+        <v>126</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>127</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="D17" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\", A17, ".pdf")</f>
@@ -5462,13 +5665,13 @@
         <v>1</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M17" s="0" t="str">
         <f aca="false">A17</f>
@@ -5478,19 +5681,19 @@
         <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(A17, "Термонаклейка", "")</f>
         <v>Термонаклейка для одежды: Розовый Фламинго цветок</v>
       </c>
-      <c r="P17" s="0" t="n">
+      <c r="P17" s="0" t="str">
         <f aca="false">B17</f>
-        <v>0</v>
+        <v>OZN1425250716</v>
       </c>
       <c r="Q17" s="0" t="n">
         <v>285</v>
       </c>
       <c r="R17" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S17" s="7" t="str">
-        <f aca="false">CONCATENATE(A17,". Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.")</f>
-        <v>Термонаклейка Розовый Фламинго цветок. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+        <f aca="false">CONCATENATE(A17,". Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. ")</f>
+        <v>Термонаклейка Розовый Фламинго цветок. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
       </c>
       <c r="T17" s="0" t="n">
         <v>1</v>
@@ -5505,7 +5708,7 @@
         <v>12</v>
       </c>
       <c r="X17" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y17" s="8" t="str">
         <f aca="false">CONCATENATE(CONCATENATE(H17,C17,"_1.jpg;"),CONCATENATE(H17,C17,"_2.jpg;"),CONCATENATE(H17,C17,"_3.jpg;"),CONCATENATE(H17,C17,"_4.jpg;"),CONCATENATE(H17,C17,"_5.jpg;"),CONCATENATE(H17,C17,"_6.jpg;"),CONCATENATE(H17,C17,"_7.jpg;"),CONCATENATE(H17,C17,"_8.jpg;"),CONCATENATE(H17,C17,"_9.jpg;"),CONCATENATE(H17,C17,"_10.jpg;"),CONCATENATE(H17,"instruction_A4.jpg;"),CONCATENATE(H17,"Video_DTF.mp4;"))</f>
@@ -5524,10 +5727,10 @@
         <v>428</v>
       </c>
       <c r="AD17" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE17" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH17" s="0" t="n">
         <f aca="false">W17</f>
@@ -5557,7 +5760,7 @@
         <v>Punky Monkey</v>
       </c>
       <c r="AQ17" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AS17" s="10"/>
       <c r="AT17" s="0" t="str">
@@ -5565,11 +5768,11 @@
         <v>Розовый Фламинго цветок</v>
       </c>
       <c r="AU17" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AV17" s="0" t="str">
         <f aca="false">S17</f>
-        <v>Термонаклейка Розовый Фламинго цветок. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+        <v>Термонаклейка Розовый Фламинго цветок. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
       </c>
       <c r="AX17" s="15" t="str">
         <f aca="false">X17</f>
@@ -5580,7 +5783,7 @@
         <v>Полимерный материал</v>
       </c>
       <c r="BC17" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="BD17" s="10"/>
       <c r="BE17" s="13" t="str">
@@ -5592,19 +5795,22 @@
         <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Розовый Фламинго цветок</v>
       </c>
       <c r="BR17" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="BS17" s="6" t="str">
+        <v>83</v>
+      </c>
+      <c r="BS17" s="17" t="str">
         <f aca="false">CONCATENATE(H17,"Video_DTF.mp4")</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>113</v>
+        <v>129</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>130</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="D18" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\", A18, ".pdf")</f>
@@ -5621,13 +5827,13 @@
         <v>1</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M18" s="0" t="str">
         <f aca="false">A18</f>
@@ -5637,19 +5843,19 @@
         <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(A18, "Термонаклейка", "")</f>
         <v>Термонаклейка для одежды: Дали Ван Гог Фрида Кало в машине</v>
       </c>
-      <c r="P18" s="0" t="n">
+      <c r="P18" s="0" t="str">
         <f aca="false">B18</f>
-        <v>0</v>
+        <v>OZN1425250740</v>
       </c>
       <c r="Q18" s="0" t="n">
         <v>285</v>
       </c>
       <c r="R18" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S18" s="7" t="str">
-        <f aca="false">CONCATENATE(A18,". Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.")</f>
-        <v>Термонаклейка Дали Ван Гог Фрида Кало в машине. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+        <f aca="false">CONCATENATE(A18,". Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. ")</f>
+        <v>Термонаклейка Дали Ван Гог Фрида Кало в машине. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
       </c>
       <c r="T18" s="0" t="n">
         <v>1</v>
@@ -5664,7 +5870,7 @@
         <v>12</v>
       </c>
       <c r="X18" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y18" s="8" t="str">
         <f aca="false">CONCATENATE(CONCATENATE(H18,C18,"_1.jpg;"),CONCATENATE(H18,C18,"_2.jpg;"),CONCATENATE(H18,C18,"_3.jpg;"),CONCATENATE(H18,C18,"_4.jpg;"),CONCATENATE(H18,C18,"_5.jpg;"),CONCATENATE(H18,C18,"_6.jpg;"),CONCATENATE(H18,C18,"_7.jpg;"),CONCATENATE(H18,C18,"_8.jpg;"),CONCATENATE(H18,C18,"_9.jpg;"),CONCATENATE(H18,C18,"_10.jpg;"),CONCATENATE(H18,"instruction_A4.jpg;"),CONCATENATE(H18,"Video_DTF.mp4;"))</f>
@@ -5683,10 +5889,10 @@
         <v>428</v>
       </c>
       <c r="AD18" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE18" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH18" s="0" t="n">
         <f aca="false">W18</f>
@@ -5716,7 +5922,7 @@
         <v>Punky Monkey</v>
       </c>
       <c r="AQ18" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AS18" s="10"/>
       <c r="AT18" s="0" t="str">
@@ -5724,11 +5930,11 @@
         <v>Дали Ван Гог Фрида Кало в машине</v>
       </c>
       <c r="AU18" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AV18" s="0" t="str">
         <f aca="false">S18</f>
-        <v>Термонаклейка Дали Ван Гог Фрида Кало в машине. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+        <v>Термонаклейка Дали Ван Гог Фрида Кало в машине. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
       </c>
       <c r="AX18" s="15" t="str">
         <f aca="false">X18</f>
@@ -5739,7 +5945,7 @@
         <v>Полимерный материал</v>
       </c>
       <c r="BC18" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="BD18" s="10"/>
       <c r="BE18" s="13" t="str">
@@ -5751,19 +5957,22 @@
         <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Дали Ван Гог Фрида Кало в машине</v>
       </c>
       <c r="BR18" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="BS18" s="6" t="str">
+        <v>83</v>
+      </c>
+      <c r="BS18" s="17" t="str">
         <f aca="false">CONCATENATE(H18,"Video_DTF.mp4")</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>115</v>
+        <v>132</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>133</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="D19" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\", A19, ".pdf")</f>
@@ -5780,13 +5989,13 @@
         <v>1</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M19" s="0" t="str">
         <f aca="false">A19</f>
@@ -5796,19 +6005,19 @@
         <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(A19, "Термонаклейка", "")</f>
         <v>Термонаклейка для одежды: Женщина кошка пьет молоко из стакана</v>
       </c>
-      <c r="P19" s="0" t="n">
+      <c r="P19" s="0" t="str">
         <f aca="false">B19</f>
-        <v>0</v>
+        <v>OZN1425250766</v>
       </c>
       <c r="Q19" s="0" t="n">
         <v>285</v>
       </c>
       <c r="R19" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S19" s="7" t="str">
-        <f aca="false">CONCATENATE(A19,". Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.")</f>
-        <v>Термонаклейка Женщина кошка пьет молоко из стакана. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+        <f aca="false">CONCATENATE(A19,". Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. ")</f>
+        <v>Термонаклейка Женщина кошка пьет молоко из стакана. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
       </c>
       <c r="T19" s="0" t="n">
         <v>1</v>
@@ -5823,7 +6032,7 @@
         <v>12</v>
       </c>
       <c r="X19" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y19" s="8" t="str">
         <f aca="false">CONCATENATE(CONCATENATE(H19,C19,"_1.jpg;"),CONCATENATE(H19,C19,"_2.jpg;"),CONCATENATE(H19,C19,"_3.jpg;"),CONCATENATE(H19,C19,"_4.jpg;"),CONCATENATE(H19,C19,"_5.jpg;"),CONCATENATE(H19,C19,"_6.jpg;"),CONCATENATE(H19,C19,"_7.jpg;"),CONCATENATE(H19,C19,"_8.jpg;"),CONCATENATE(H19,C19,"_9.jpg;"),CONCATENATE(H19,C19,"_10.jpg;"),CONCATENATE(H19,"instruction_A4.jpg;"),CONCATENATE(H19,"Video_DTF.mp4;"))</f>
@@ -5842,10 +6051,10 @@
         <v>428</v>
       </c>
       <c r="AD19" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE19" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH19" s="0" t="n">
         <f aca="false">W19</f>
@@ -5875,7 +6084,7 @@
         <v>Punky Monkey</v>
       </c>
       <c r="AQ19" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AS19" s="10"/>
       <c r="AT19" s="0" t="str">
@@ -5883,11 +6092,11 @@
         <v>Женщина кошка пьет молоко из стакана</v>
       </c>
       <c r="AU19" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AV19" s="0" t="str">
         <f aca="false">S19</f>
-        <v>Термонаклейка Женщина кошка пьет молоко из стакана. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+        <v>Термонаклейка Женщина кошка пьет молоко из стакана. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
       </c>
       <c r="AX19" s="15" t="str">
         <f aca="false">X19</f>
@@ -5898,7 +6107,7 @@
         <v>Полимерный материал</v>
       </c>
       <c r="BC19" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="BD19" s="10"/>
       <c r="BE19" s="13" t="str">
@@ -5910,19 +6119,22 @@
         <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Женщина кошка пьет молоко из стакана</v>
       </c>
       <c r="BR19" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="BS19" s="6" t="str">
+        <v>83</v>
+      </c>
+      <c r="BS19" s="17" t="str">
         <f aca="false">CONCATENATE(H19,"Video_DTF.mp4")</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>117</v>
+        <v>135</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>136</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="D20" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\", A20, ".pdf")</f>
@@ -5939,13 +6151,13 @@
         <v>1</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M20" s="0" t="str">
         <f aca="false">A20</f>
@@ -5955,19 +6167,19 @@
         <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(A20, "Термонаклейка", "")</f>
         <v>Термонаклейка для одежды: Африка Девушка разнацветные воосы</v>
       </c>
-      <c r="P20" s="0" t="n">
+      <c r="P20" s="0" t="str">
         <f aca="false">B20</f>
-        <v>0</v>
+        <v>OZN1425266611</v>
       </c>
       <c r="Q20" s="0" t="n">
         <v>285</v>
       </c>
       <c r="R20" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S20" s="7" t="str">
-        <f aca="false">CONCATENATE(A20,". Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.")</f>
-        <v>Термонаклейка Африка Девушка разнацветные воосы. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+        <f aca="false">CONCATENATE(A20,". Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. ")</f>
+        <v>Термонаклейка Африка Девушка разнацветные воосы. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
       </c>
       <c r="T20" s="0" t="n">
         <v>1</v>
@@ -5982,7 +6194,7 @@
         <v>12</v>
       </c>
       <c r="X20" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y20" s="8" t="str">
         <f aca="false">CONCATENATE(CONCATENATE(H20,C20,"_1.jpg;"),CONCATENATE(H20,C20,"_2.jpg;"),CONCATENATE(H20,C20,"_3.jpg;"),CONCATENATE(H20,C20,"_4.jpg;"),CONCATENATE(H20,C20,"_5.jpg;"),CONCATENATE(H20,C20,"_6.jpg;"),CONCATENATE(H20,C20,"_7.jpg;"),CONCATENATE(H20,C20,"_8.jpg;"),CONCATENATE(H20,C20,"_9.jpg;"),CONCATENATE(H20,C20,"_10.jpg;"),CONCATENATE(H20,"instruction_A4.jpg;"),CONCATENATE(H20,"Video_DTF.mp4;"))</f>
@@ -6001,10 +6213,10 @@
         <v>428</v>
       </c>
       <c r="AD20" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE20" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH20" s="0" t="n">
         <f aca="false">W20</f>
@@ -6034,7 +6246,7 @@
         <v>Punky Monkey</v>
       </c>
       <c r="AQ20" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AS20" s="10"/>
       <c r="AT20" s="0" t="str">
@@ -6042,11 +6254,11 @@
         <v>Африка Девушка разнацветные воосы</v>
       </c>
       <c r="AU20" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AV20" s="0" t="str">
         <f aca="false">S20</f>
-        <v>Термонаклейка Африка Девушка разнацветные воосы. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+        <v>Термонаклейка Африка Девушка разнацветные воосы. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
       </c>
       <c r="AX20" s="15" t="str">
         <f aca="false">X20</f>
@@ -6057,7 +6269,7 @@
         <v>Полимерный материал</v>
       </c>
       <c r="BC20" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="BD20" s="10"/>
       <c r="BE20" s="13" t="str">
@@ -6069,19 +6281,22 @@
         <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Африка Девушка разнацветные воосы</v>
       </c>
       <c r="BR20" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="BS20" s="6" t="str">
+        <v>83</v>
+      </c>
+      <c r="BS20" s="17" t="str">
         <f aca="false">CONCATENATE(H20,"Video_DTF.mp4")</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="6" t="s">
-        <v>119</v>
+      <c r="A21" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>139</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D21" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\", A21, ".pdf")</f>
@@ -6098,13 +6313,13 @@
         <v>1</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M21" s="0" t="str">
         <f aca="false">A21</f>
@@ -6114,19 +6329,19 @@
         <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(A21, "Термонаклейка", "")</f>
         <v>Термонаклейка для одежды: Леопардовая блондинка девушка mood</v>
       </c>
-      <c r="P21" s="0" t="n">
+      <c r="P21" s="0" t="str">
         <f aca="false">B21</f>
-        <v>0</v>
+        <v>OZN1425250726</v>
       </c>
       <c r="Q21" s="0" t="n">
         <v>285</v>
       </c>
       <c r="R21" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S21" s="7" t="str">
-        <f aca="false">CONCATENATE(A21,". Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.")</f>
-        <v>Термонаклейка Леопардовая блондинка девушка mood. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+        <f aca="false">CONCATENATE(A21,". Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. ")</f>
+        <v>Термонаклейка Леопардовая блондинка девушка mood. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
       </c>
       <c r="T21" s="0" t="n">
         <v>1</v>
@@ -6141,7 +6356,7 @@
         <v>12</v>
       </c>
       <c r="X21" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y21" s="8" t="str">
         <f aca="false">CONCATENATE(CONCATENATE(H21,C21,"_1.jpg;"),CONCATENATE(H21,C21,"_2.jpg;"),CONCATENATE(H21,C21,"_3.jpg;"),CONCATENATE(H21,C21,"_4.jpg;"),CONCATENATE(H21,C21,"_5.jpg;"),CONCATENATE(H21,C21,"_6.jpg;"),CONCATENATE(H21,C21,"_7.jpg;"),CONCATENATE(H21,C21,"_8.jpg;"),CONCATENATE(H21,C21,"_9.jpg;"),CONCATENATE(H21,C21,"_10.jpg;"),CONCATENATE(H21,"instruction_A4.jpg;"),CONCATENATE(H21,"Video_DTF.mp4;"))</f>
@@ -6160,10 +6375,10 @@
         <v>428</v>
       </c>
       <c r="AD21" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE21" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH21" s="0" t="n">
         <f aca="false">W21</f>
@@ -6193,7 +6408,7 @@
         <v>Punky Monkey</v>
       </c>
       <c r="AQ21" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AS21" s="10"/>
       <c r="AT21" s="0" t="str">
@@ -6201,11 +6416,11 @@
         <v>Леопардовая блондинка девушка mood</v>
       </c>
       <c r="AU21" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AV21" s="0" t="str">
         <f aca="false">S21</f>
-        <v>Термонаклейка Леопардовая блондинка девушка mood. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+        <v>Термонаклейка Леопардовая блондинка девушка mood. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
       </c>
       <c r="AX21" s="15" t="str">
         <f aca="false">X21</f>
@@ -6216,7 +6431,7 @@
         <v>Полимерный материал</v>
       </c>
       <c r="BC21" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="BD21" s="10"/>
       <c r="BE21" s="13" t="str">
@@ -6228,19 +6443,22 @@
         <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Леопардовая блондинка девушка mood</v>
       </c>
       <c r="BR21" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="BS21" s="6" t="str">
+        <v>83</v>
+      </c>
+      <c r="BS21" s="17" t="str">
         <f aca="false">CONCATENATE(H21,"Video_DTF.mp4")</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="6" t="s">
-        <v>121</v>
+      <c r="A22" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>142</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="D22" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\", A22, ".pdf")</f>
@@ -6257,13 +6475,13 @@
         <v>1</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M22" s="0" t="str">
         <f aca="false">A22</f>
@@ -6273,19 +6491,19 @@
         <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(A22, "Термонаклейка", "")</f>
         <v>Термонаклейка для одежды: Цветы Черный Силуэт Девушки</v>
       </c>
-      <c r="P22" s="0" t="n">
+      <c r="P22" s="0" t="str">
         <f aca="false">B22</f>
-        <v>0</v>
+        <v>OZN1425250712</v>
       </c>
       <c r="Q22" s="0" t="n">
         <v>285</v>
       </c>
       <c r="R22" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S22" s="7" t="str">
-        <f aca="false">CONCATENATE(A22,". Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.")</f>
-        <v>Термонаклейка Цветы Черный Силуэт Девушки. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+        <f aca="false">CONCATENATE(A22,". Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. ")</f>
+        <v>Термонаклейка Цветы Черный Силуэт Девушки. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
       </c>
       <c r="T22" s="0" t="n">
         <v>1</v>
@@ -6300,7 +6518,7 @@
         <v>12</v>
       </c>
       <c r="X22" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y22" s="8" t="str">
         <f aca="false">CONCATENATE(CONCATENATE(H22,C22,"_1.jpg;"),CONCATENATE(H22,C22,"_2.jpg;"),CONCATENATE(H22,C22,"_3.jpg;"),CONCATENATE(H22,C22,"_4.jpg;"),CONCATENATE(H22,C22,"_5.jpg;"),CONCATENATE(H22,C22,"_6.jpg;"),CONCATENATE(H22,C22,"_7.jpg;"),CONCATENATE(H22,C22,"_8.jpg;"),CONCATENATE(H22,C22,"_9.jpg;"),CONCATENATE(H22,C22,"_10.jpg;"),CONCATENATE(H22,"instruction_A4.jpg;"),CONCATENATE(H22,"Video_DTF.mp4;"))</f>
@@ -6319,10 +6537,10 @@
         <v>428</v>
       </c>
       <c r="AD22" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE22" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH22" s="0" t="n">
         <f aca="false">W22</f>
@@ -6352,7 +6570,7 @@
         <v>Punky Monkey</v>
       </c>
       <c r="AQ22" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AS22" s="10"/>
       <c r="AT22" s="0" t="str">
@@ -6360,11 +6578,11 @@
         <v>Цветы Черный Силуэт Девушки</v>
       </c>
       <c r="AU22" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AV22" s="0" t="str">
         <f aca="false">S22</f>
-        <v>Термонаклейка Цветы Черный Силуэт Девушки. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+        <v>Термонаклейка Цветы Черный Силуэт Девушки. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
       </c>
       <c r="AX22" s="15" t="str">
         <f aca="false">X22</f>
@@ -6375,7 +6593,7 @@
         <v>Полимерный материал</v>
       </c>
       <c r="BC22" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="BD22" s="10"/>
       <c r="BE22" s="13" t="str">
@@ -6387,19 +6605,22 @@
         <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Цветы Черный Силуэт Девушки</v>
       </c>
       <c r="BR22" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="BS22" s="6" t="str">
+        <v>83</v>
+      </c>
+      <c r="BS22" s="17" t="str">
         <f aca="false">CONCATENATE(H22,"Video_DTF.mp4")</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="6" t="s">
-        <v>123</v>
+      <c r="A23" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>145</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="D23" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\", A23, ".pdf")</f>
@@ -6416,13 +6637,13 @@
         <v>1</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M23" s="0" t="str">
         <f aca="false">A23</f>
@@ -6432,19 +6653,19 @@
         <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(A23, "Термонаклейка", "")</f>
         <v>Термонаклейка для одежды: Леопардовое сердце поцелуй губ</v>
       </c>
-      <c r="P23" s="0" t="n">
+      <c r="P23" s="0" t="str">
         <f aca="false">B23</f>
-        <v>0</v>
+        <v>OZN1425250774</v>
       </c>
       <c r="Q23" s="0" t="n">
         <v>285</v>
       </c>
       <c r="R23" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S23" s="7" t="str">
-        <f aca="false">CONCATENATE(A23,". Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.")</f>
-        <v>Термонаклейка Леопардовое сердце поцелуй губ. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+        <f aca="false">CONCATENATE(A23,". Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. ")</f>
+        <v>Термонаклейка Леопардовое сердце поцелуй губ. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
       </c>
       <c r="T23" s="0" t="n">
         <v>1</v>
@@ -6459,7 +6680,7 @@
         <v>12</v>
       </c>
       <c r="X23" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y23" s="8" t="str">
         <f aca="false">CONCATENATE(CONCATENATE(H23,C23,"_1.jpg;"),CONCATENATE(H23,C23,"_2.jpg;"),CONCATENATE(H23,C23,"_3.jpg;"),CONCATENATE(H23,C23,"_4.jpg;"),CONCATENATE(H23,C23,"_5.jpg;"),CONCATENATE(H23,C23,"_6.jpg;"),CONCATENATE(H23,C23,"_7.jpg;"),CONCATENATE(H23,C23,"_8.jpg;"),CONCATENATE(H23,C23,"_9.jpg;"),CONCATENATE(H23,C23,"_10.jpg;"),CONCATENATE(H23,"instruction_A4.jpg;"),CONCATENATE(H23,"Video_DTF.mp4;"))</f>
@@ -6478,10 +6699,10 @@
         <v>428</v>
       </c>
       <c r="AD23" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE23" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH23" s="0" t="n">
         <f aca="false">W23</f>
@@ -6511,7 +6732,7 @@
         <v>Punky Monkey</v>
       </c>
       <c r="AQ23" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AS23" s="10"/>
       <c r="AT23" s="0" t="str">
@@ -6519,11 +6740,11 @@
         <v>Леопардовое сердце поцелуй губ</v>
       </c>
       <c r="AU23" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AV23" s="0" t="str">
         <f aca="false">S23</f>
-        <v>Термонаклейка Леопардовое сердце поцелуй губ. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+        <v>Термонаклейка Леопардовое сердце поцелуй губ. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
       </c>
       <c r="AX23" s="15" t="str">
         <f aca="false">X23</f>
@@ -6534,7 +6755,7 @@
         <v>Полимерный материал</v>
       </c>
       <c r="BC23" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="BD23" s="10"/>
       <c r="BE23" s="13" t="str">
@@ -6546,19 +6767,22 @@
         <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Леопардовое сердце поцелуй губ</v>
       </c>
       <c r="BR23" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="BS23" s="6" t="str">
+        <v>83</v>
+      </c>
+      <c r="BS23" s="17" t="str">
         <f aca="false">CONCATENATE(H23,"Video_DTF.mp4")</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6" t="s">
-        <v>125</v>
+      <c r="A24" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>148</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="D24" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\", A24, ".pdf")</f>
@@ -6575,13 +6799,13 @@
         <v>1</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M24" s="0" t="str">
         <f aca="false">A24</f>
@@ -6591,19 +6815,19 @@
         <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(A24, "Термонаклейка", "")</f>
         <v>Термонаклейка для одежды: Девушка с чупа чупсом I dont care</v>
       </c>
-      <c r="P24" s="0" t="n">
+      <c r="P24" s="0" t="str">
         <f aca="false">B24</f>
-        <v>0</v>
+        <v>OZN1425250863</v>
       </c>
       <c r="Q24" s="0" t="n">
         <v>285</v>
       </c>
       <c r="R24" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S24" s="7" t="str">
-        <f aca="false">CONCATENATE(A24,". Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.")</f>
-        <v>Термонаклейка Девушка с чупа чупсом I dont care. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+        <f aca="false">CONCATENATE(A24,". Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. ")</f>
+        <v>Термонаклейка Девушка с чупа чупсом I dont care. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
       </c>
       <c r="T24" s="0" t="n">
         <v>1</v>
@@ -6618,7 +6842,7 @@
         <v>12</v>
       </c>
       <c r="X24" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y24" s="8" t="str">
         <f aca="false">CONCATENATE(CONCATENATE(H24,C24,"_1.jpg;"),CONCATENATE(H24,C24,"_2.jpg;"),CONCATENATE(H24,C24,"_3.jpg;"),CONCATENATE(H24,C24,"_4.jpg;"),CONCATENATE(H24,C24,"_5.jpg;"),CONCATENATE(H24,C24,"_6.jpg;"),CONCATENATE(H24,C24,"_7.jpg;"),CONCATENATE(H24,C24,"_8.jpg;"),CONCATENATE(H24,C24,"_9.jpg;"),CONCATENATE(H24,C24,"_10.jpg;"),CONCATENATE(H24,"instruction_A4.jpg;"),CONCATENATE(H24,"Video_DTF.mp4;"))</f>
@@ -6637,10 +6861,10 @@
         <v>428</v>
       </c>
       <c r="AD24" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE24" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH24" s="0" t="n">
         <f aca="false">W24</f>
@@ -6670,7 +6894,7 @@
         <v>Punky Monkey</v>
       </c>
       <c r="AQ24" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AS24" s="10"/>
       <c r="AT24" s="0" t="str">
@@ -6678,11 +6902,11 @@
         <v>Девушка с чупа чупсом I dont care</v>
       </c>
       <c r="AU24" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AV24" s="0" t="str">
         <f aca="false">S24</f>
-        <v>Термонаклейка Девушка с чупа чупсом I dont care. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+        <v>Термонаклейка Девушка с чупа чупсом I dont care. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
       </c>
       <c r="AX24" s="15" t="str">
         <f aca="false">X24</f>
@@ -6693,7 +6917,7 @@
         <v>Полимерный материал</v>
       </c>
       <c r="BC24" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="BD24" s="10"/>
       <c r="BE24" s="13" t="str">
@@ -6705,19 +6929,22 @@
         <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Девушка с чупа чупсом I dont care</v>
       </c>
       <c r="BR24" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="BS24" s="6" t="str">
+        <v>83</v>
+      </c>
+      <c r="BS24" s="17" t="str">
         <f aca="false">CONCATENATE(H24,"Video_DTF.mp4")</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="6" t="s">
-        <v>127</v>
+      <c r="A25" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>151</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>128</v>
+        <v>152</v>
       </c>
       <c r="D25" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\", A25, ".pdf")</f>
@@ -6734,13 +6961,13 @@
         <v>1</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M25" s="0" t="str">
         <f aca="false">A25</f>
@@ -6750,19 +6977,19 @@
         <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(A25, "Термонаклейка", "")</f>
         <v>Термонаклейка для одежды: Аниме девочка с мечом розовые волосы</v>
       </c>
-      <c r="P25" s="0" t="n">
+      <c r="P25" s="0" t="str">
         <f aca="false">B25</f>
-        <v>0</v>
+        <v>OZN1425250847</v>
       </c>
       <c r="Q25" s="0" t="n">
         <v>285</v>
       </c>
       <c r="R25" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S25" s="7" t="str">
-        <f aca="false">CONCATENATE(A25,". Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.")</f>
-        <v>Термонаклейка Аниме девочка с мечом розовые волосы. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+        <f aca="false">CONCATENATE(A25,". Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. ")</f>
+        <v>Термонаклейка Аниме девочка с мечом розовые волосы. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
       </c>
       <c r="T25" s="0" t="n">
         <v>1</v>
@@ -6777,7 +7004,7 @@
         <v>12</v>
       </c>
       <c r="X25" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y25" s="8" t="str">
         <f aca="false">CONCATENATE(CONCATENATE(H25,C25,"_1.jpg;"),CONCATENATE(H25,C25,"_2.jpg;"),CONCATENATE(H25,C25,"_3.jpg;"),CONCATENATE(H25,C25,"_4.jpg;"),CONCATENATE(H25,C25,"_5.jpg;"),CONCATENATE(H25,C25,"_6.jpg;"),CONCATENATE(H25,C25,"_7.jpg;"),CONCATENATE(H25,C25,"_8.jpg;"),CONCATENATE(H25,C25,"_9.jpg;"),CONCATENATE(H25,C25,"_10.jpg;"),CONCATENATE(H25,"instruction_A4.jpg;"),CONCATENATE(H25,"Video_DTF.mp4;"))</f>
@@ -6796,10 +7023,10 @@
         <v>428</v>
       </c>
       <c r="AD25" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE25" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH25" s="0" t="n">
         <f aca="false">W25</f>
@@ -6829,7 +7056,7 @@
         <v>Punky Monkey</v>
       </c>
       <c r="AQ25" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AS25" s="10"/>
       <c r="AT25" s="0" t="str">
@@ -6837,11 +7064,11 @@
         <v>Аниме девочка с мечом розовые волосы</v>
       </c>
       <c r="AU25" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AV25" s="0" t="str">
         <f aca="false">S25</f>
-        <v>Термонаклейка Аниме девочка с мечом розовые волосы. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+        <v>Термонаклейка Аниме девочка с мечом розовые волосы. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
       </c>
       <c r="AX25" s="15" t="str">
         <f aca="false">X25</f>
@@ -6852,7 +7079,7 @@
         <v>Полимерный материал</v>
       </c>
       <c r="BC25" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="BD25" s="10"/>
       <c r="BE25" s="13" t="str">
@@ -6864,19 +7091,22 @@
         <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Аниме девочка с мечом розовые волосы</v>
       </c>
       <c r="BR25" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="BS25" s="6" t="str">
+        <v>83</v>
+      </c>
+      <c r="BS25" s="17" t="str">
         <f aca="false">CONCATENATE(H25,"Video_DTF.mp4")</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>129</v>
+        <v>153</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>154</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="D26" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\", A26, ".pdf")</f>
@@ -6893,13 +7123,13 @@
         <v>1</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M26" s="0" t="str">
         <f aca="false">A26</f>
@@ -6909,19 +7139,19 @@
         <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(A26, "Термонаклейка", "")</f>
         <v>Термонаклейка для одежды: Аниме девочка в куртке со стикерами</v>
       </c>
-      <c r="P26" s="0" t="n">
+      <c r="P26" s="0" t="str">
         <f aca="false">B26</f>
-        <v>0</v>
+        <v>OZN1425250720</v>
       </c>
       <c r="Q26" s="0" t="n">
         <v>285</v>
       </c>
       <c r="R26" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S26" s="7" t="str">
-        <f aca="false">CONCATENATE(A26,". Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.")</f>
-        <v>Термонаклейка Аниме девочка в куртке со стикерами. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+        <f aca="false">CONCATENATE(A26,". Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. ")</f>
+        <v>Термонаклейка Аниме девочка в куртке со стикерами. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
       </c>
       <c r="T26" s="0" t="n">
         <v>1</v>
@@ -6936,7 +7166,7 @@
         <v>12</v>
       </c>
       <c r="X26" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y26" s="8" t="str">
         <f aca="false">CONCATENATE(CONCATENATE(H26,C26,"_1.jpg;"),CONCATENATE(H26,C26,"_2.jpg;"),CONCATENATE(H26,C26,"_3.jpg;"),CONCATENATE(H26,C26,"_4.jpg;"),CONCATENATE(H26,C26,"_5.jpg;"),CONCATENATE(H26,C26,"_6.jpg;"),CONCATENATE(H26,C26,"_7.jpg;"),CONCATENATE(H26,C26,"_8.jpg;"),CONCATENATE(H26,C26,"_9.jpg;"),CONCATENATE(H26,C26,"_10.jpg;"),CONCATENATE(H26,"instruction_A4.jpg;"),CONCATENATE(H26,"Video_DTF.mp4;"))</f>
@@ -6955,10 +7185,10 @@
         <v>428</v>
       </c>
       <c r="AD26" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE26" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH26" s="0" t="n">
         <f aca="false">W26</f>
@@ -6988,7 +7218,7 @@
         <v>Punky Monkey</v>
       </c>
       <c r="AQ26" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AS26" s="10"/>
       <c r="AT26" s="0" t="str">
@@ -6996,11 +7226,11 @@
         <v>Аниме девочка в куртке со стикерами</v>
       </c>
       <c r="AU26" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AV26" s="0" t="str">
         <f aca="false">S26</f>
-        <v>Термонаклейка Аниме девочка в куртке со стикерами. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+        <v>Термонаклейка Аниме девочка в куртке со стикерами. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
       </c>
       <c r="AX26" s="15" t="str">
         <f aca="false">X26</f>
@@ -7011,7 +7241,7 @@
         <v>Полимерный материал</v>
       </c>
       <c r="BC26" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="BD26" s="10"/>
       <c r="BE26" s="13" t="str">
@@ -7023,27 +7253,30 @@
         <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Аниме девочка в куртке со стикерами</v>
       </c>
       <c r="BR26" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="BS26" s="6" t="str">
+        <v>83</v>
+      </c>
+      <c r="BS26" s="17" t="str">
         <f aca="false">CONCATENATE(H26,"Video_DTF.mp4")</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>131</v>
+        <v>156</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>157</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>132</v>
+        <v>158</v>
       </c>
       <c r="D27" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\", A27, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\Термонаклейка Сейлор Мун в куртке Аниме Sailor Moon.pdf</v>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\Термонаклейка Сейлор Мун в куртке Sailor Moon.pdf</v>
       </c>
       <c r="E27" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A27,"_img.tif")</f>
-        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Сейлор Мун в куртке Аниме Sailor Moon_img.tif</v>
+        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Сейлор Мун в куртке Sailor Moon_img.tif</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>1</v>
@@ -7052,35 +7285,35 @@
         <v>1</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M27" s="0" t="str">
         <f aca="false">A27</f>
-        <v>Термонаклейка Сейлор Мун в куртке Аниме Sailor Moon</v>
+        <v>Термонаклейка Сейлор Мун в куртке Sailor Moon</v>
       </c>
       <c r="O27" s="0" t="str">
         <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(A27, "Термонаклейка", "")</f>
-        <v>Термонаклейка для одежды: Сейлор Мун в куртке Аниме Sailor Moon</v>
-      </c>
-      <c r="P27" s="0" t="n">
+        <v>Термонаклейка для одежды: Сейлор Мун в куртке Sailor Moon</v>
+      </c>
+      <c r="P27" s="0" t="str">
         <f aca="false">B27</f>
-        <v>0</v>
+        <v>OZN1425275426</v>
       </c>
       <c r="Q27" s="0" t="n">
         <v>285</v>
       </c>
       <c r="R27" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S27" s="7" t="str">
-        <f aca="false">CONCATENATE(A27,". Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.")</f>
-        <v>Термонаклейка Сейлор Мун в куртке Аниме Sailor Moon. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+        <f aca="false">CONCATENATE(A27,". Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. ")</f>
+        <v>Термонаклейка Сейлор Мун в куртке Sailor Moon. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
       </c>
       <c r="T27" s="0" t="n">
         <v>1</v>
@@ -7095,7 +7328,7 @@
         <v>12</v>
       </c>
       <c r="X27" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y27" s="8" t="str">
         <f aca="false">CONCATENATE(CONCATENATE(H27,C27,"_1.jpg;"),CONCATENATE(H27,C27,"_2.jpg;"),CONCATENATE(H27,C27,"_3.jpg;"),CONCATENATE(H27,C27,"_4.jpg;"),CONCATENATE(H27,C27,"_5.jpg;"),CONCATENATE(H27,C27,"_6.jpg;"),CONCATENATE(H27,C27,"_7.jpg;"),CONCATENATE(H27,C27,"_8.jpg;"),CONCATENATE(H27,C27,"_9.jpg;"),CONCATENATE(H27,C27,"_10.jpg;"),CONCATENATE(H27,"instruction_A4.jpg;"),CONCATENATE(H27,"Video_DTF.mp4;"))</f>
@@ -7103,7 +7336,7 @@
       </c>
       <c r="AA27" s="0" t="str">
         <f aca="false">A27</f>
-        <v>Термонаклейка Сейлор Мун в куртке Аниме Sailor Moon</v>
+        <v>Термонаклейка Сейлор Мун в куртке Sailor Moon</v>
       </c>
       <c r="AB27" s="0" t="n">
         <f aca="false">Q27</f>
@@ -7114,10 +7347,10 @@
         <v>428</v>
       </c>
       <c r="AD27" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE27" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH27" s="0" t="n">
         <f aca="false">W27</f>
@@ -7147,19 +7380,19 @@
         <v>Punky Monkey</v>
       </c>
       <c r="AQ27" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AS27" s="10"/>
       <c r="AT27" s="0" t="str">
         <f aca="false">SUBSTITUTE(A27,"Термонаклейка ","")</f>
-        <v>Сейлор Мун в куртке Аниме Sailor Moon</v>
+        <v>Сейлор Мун в куртке Sailor Moon</v>
       </c>
       <c r="AU27" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AV27" s="0" t="str">
         <f aca="false">S27</f>
-        <v>Термонаклейка Сейлор Мун в куртке Аниме Sailor Moon. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+        <v>Термонаклейка Сейлор Мун в куртке Sailor Moon. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
       </c>
       <c r="AX27" s="15" t="str">
         <f aca="false">X27</f>
@@ -7170,7 +7403,7 @@
         <v>Полимерный материал</v>
       </c>
       <c r="BC27" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="BD27" s="10"/>
       <c r="BE27" s="13" t="str">
@@ -7179,22 +7412,25 @@
       </c>
       <c r="BM27" s="0" t="str">
         <f aca="false">CONCATENATE("термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля,",SUBSTITUTE(A27,"Термонаклейка",""))</f>
-        <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Сейлор Мун в куртке Аниме Sailor Moon</v>
+        <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Сейлор Мун в куртке Sailor Moon</v>
       </c>
       <c r="BR27" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="BS27" s="6" t="str">
+        <v>83</v>
+      </c>
+      <c r="BS27" s="17" t="str">
         <f aca="false">CONCATENATE(H27,"Video_DTF.mp4")</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="18" t="s">
-        <v>133</v>
+      <c r="A28" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>160</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="D28" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\", A28, ".pdf")</f>
@@ -7211,13 +7447,13 @@
         <v>1</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M28" s="0" t="str">
         <f aca="false">A28</f>
@@ -7227,19 +7463,19 @@
         <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(A28, "Термонаклейка", "")</f>
         <v>Термонаклейка для одежды: Аниме Девочка с чупа чупсом</v>
       </c>
-      <c r="P28" s="0" t="n">
+      <c r="P28" s="0" t="str">
         <f aca="false">B28</f>
-        <v>0</v>
+        <v>OZN1425250629</v>
       </c>
       <c r="Q28" s="0" t="n">
         <v>285</v>
       </c>
       <c r="R28" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S28" s="7" t="str">
-        <f aca="false">CONCATENATE(A28,". Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.")</f>
-        <v>Термонаклейка Аниме Девочка с чупа чупсом. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+        <f aca="false">CONCATENATE(A28,". Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. ")</f>
+        <v>Термонаклейка Аниме Девочка с чупа чупсом. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
       </c>
       <c r="T28" s="0" t="n">
         <v>1</v>
@@ -7254,7 +7490,7 @@
         <v>12</v>
       </c>
       <c r="X28" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y28" s="8" t="str">
         <f aca="false">CONCATENATE(CONCATENATE(H28,C28,"_1.jpg;"),CONCATENATE(H28,C28,"_2.jpg;"),CONCATENATE(H28,C28,"_3.jpg;"),CONCATENATE(H28,C28,"_4.jpg;"),CONCATENATE(H28,C28,"_5.jpg;"),CONCATENATE(H28,C28,"_6.jpg;"),CONCATENATE(H28,C28,"_7.jpg;"),CONCATENATE(H28,C28,"_8.jpg;"),CONCATENATE(H28,C28,"_9.jpg;"),CONCATENATE(H28,C28,"_10.jpg;"),CONCATENATE(H28,"instruction_A4.jpg;"),CONCATENATE(H28,"Video_DTF.mp4;"))</f>
@@ -7273,10 +7509,10 @@
         <v>428</v>
       </c>
       <c r="AD28" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE28" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH28" s="0" t="n">
         <f aca="false">W28</f>
@@ -7306,7 +7542,7 @@
         <v>Punky Monkey</v>
       </c>
       <c r="AQ28" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AS28" s="10"/>
       <c r="AT28" s="0" t="str">
@@ -7314,11 +7550,11 @@
         <v>Аниме Девочка с чупа чупсом</v>
       </c>
       <c r="AU28" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AV28" s="0" t="str">
         <f aca="false">S28</f>
-        <v>Термонаклейка Аниме Девочка с чупа чупсом. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+        <v>Термонаклейка Аниме Девочка с чупа чупсом. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
       </c>
       <c r="AX28" s="15" t="str">
         <f aca="false">X28</f>
@@ -7329,7 +7565,7 @@
         <v>Полимерный материал</v>
       </c>
       <c r="BC28" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="BD28" s="10"/>
       <c r="BE28" s="13" t="str">
@@ -7341,19 +7577,22 @@
         <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Аниме Девочка с чупа чупсом</v>
       </c>
       <c r="BR28" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="BS28" s="6" t="str">
+        <v>83</v>
+      </c>
+      <c r="BS28" s="17" t="str">
         <f aca="false">CONCATENATE(H28,"Video_DTF.mp4")</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="18" t="s">
-        <v>135</v>
+      <c r="A29" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>163</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="D29" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\", A29, ".pdf")</f>
@@ -7370,13 +7609,13 @@
         <v>1</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M29" s="0" t="str">
         <f aca="false">A29</f>
@@ -7386,19 +7625,19 @@
         <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(A29, "Термонаклейка", "")</f>
         <v>Термонаклейка для одежды: Аниме Девочка с черным капюшоном</v>
       </c>
-      <c r="P29" s="0" t="n">
+      <c r="P29" s="0" t="str">
         <f aca="false">B29</f>
-        <v>0</v>
+        <v>OZN1425266666</v>
       </c>
       <c r="Q29" s="0" t="n">
         <v>285</v>
       </c>
       <c r="R29" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S29" s="7" t="str">
-        <f aca="false">CONCATENATE(A29,". Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.")</f>
-        <v>Термонаклейка Аниме Девочка с черным капюшоном. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+        <f aca="false">CONCATENATE(A29,". Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. ")</f>
+        <v>Термонаклейка Аниме Девочка с черным капюшоном. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
       </c>
       <c r="T29" s="0" t="n">
         <v>1</v>
@@ -7413,7 +7652,7 @@
         <v>12</v>
       </c>
       <c r="X29" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y29" s="8" t="str">
         <f aca="false">CONCATENATE(CONCATENATE(H29,C29,"_1.jpg;"),CONCATENATE(H29,C29,"_2.jpg;"),CONCATENATE(H29,C29,"_3.jpg;"),CONCATENATE(H29,C29,"_4.jpg;"),CONCATENATE(H29,C29,"_5.jpg;"),CONCATENATE(H29,C29,"_6.jpg;"),CONCATENATE(H29,C29,"_7.jpg;"),CONCATENATE(H29,C29,"_8.jpg;"),CONCATENATE(H29,C29,"_9.jpg;"),CONCATENATE(H29,C29,"_10.jpg;"),CONCATENATE(H29,"instruction_A4.jpg;"),CONCATENATE(H29,"Video_DTF.mp4;"))</f>
@@ -7432,10 +7671,10 @@
         <v>428</v>
       </c>
       <c r="AD29" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE29" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH29" s="0" t="n">
         <f aca="false">W29</f>
@@ -7465,7 +7704,7 @@
         <v>Punky Monkey</v>
       </c>
       <c r="AQ29" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AS29" s="10"/>
       <c r="AT29" s="0" t="str">
@@ -7473,11 +7712,11 @@
         <v>Аниме Девочка с черным капюшоном</v>
       </c>
       <c r="AU29" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AV29" s="0" t="str">
         <f aca="false">S29</f>
-        <v>Термонаклейка Аниме Девочка с черным капюшоном. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+        <v>Термонаклейка Аниме Девочка с черным капюшоном. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
       </c>
       <c r="AX29" s="15" t="str">
         <f aca="false">X29</f>
@@ -7488,7 +7727,7 @@
         <v>Полимерный материал</v>
       </c>
       <c r="BC29" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="BD29" s="10"/>
       <c r="BE29" s="13" t="str">
@@ -7500,19 +7739,22 @@
         <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Аниме Девочка с черным капюшоном</v>
       </c>
       <c r="BR29" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="BS29" s="6" t="str">
+        <v>83</v>
+      </c>
+      <c r="BS29" s="17" t="str">
         <f aca="false">CONCATENATE(H29,"Video_DTF.mp4")</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="18" t="s">
-        <v>137</v>
+      <c r="A30" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>166</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>138</v>
+        <v>167</v>
       </c>
       <c r="D30" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\", A30, ".pdf")</f>
@@ -7529,13 +7771,13 @@
         <v>1</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M30" s="0" t="str">
         <f aca="false">A30</f>
@@ -7545,19 +7787,19 @@
         <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(A30, "Термонаклейка", "")</f>
         <v>Термонаклейка для одежды: Аниме Девочка в розовый капюшоном</v>
       </c>
-      <c r="P30" s="0" t="n">
+      <c r="P30" s="0" t="str">
         <f aca="false">B30</f>
-        <v>0</v>
+        <v>OZN1425266747</v>
       </c>
       <c r="Q30" s="0" t="n">
         <v>285</v>
       </c>
       <c r="R30" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S30" s="7" t="str">
-        <f aca="false">CONCATENATE(A30,". Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.")</f>
-        <v>Термонаклейка Аниме Девочка в розовый капюшоном. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+        <f aca="false">CONCATENATE(A30,". Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. ")</f>
+        <v>Термонаклейка Аниме Девочка в розовый капюшоном. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
       </c>
       <c r="T30" s="0" t="n">
         <v>1</v>
@@ -7572,7 +7814,7 @@
         <v>12</v>
       </c>
       <c r="X30" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y30" s="8" t="str">
         <f aca="false">CONCATENATE(CONCATENATE(H30,C30,"_1.jpg;"),CONCATENATE(H30,C30,"_2.jpg;"),CONCATENATE(H30,C30,"_3.jpg;"),CONCATENATE(H30,C30,"_4.jpg;"),CONCATENATE(H30,C30,"_5.jpg;"),CONCATENATE(H30,C30,"_6.jpg;"),CONCATENATE(H30,C30,"_7.jpg;"),CONCATENATE(H30,C30,"_8.jpg;"),CONCATENATE(H30,C30,"_9.jpg;"),CONCATENATE(H30,C30,"_10.jpg;"),CONCATENATE(H30,"instruction_A4.jpg;"),CONCATENATE(H30,"Video_DTF.mp4;"))</f>
@@ -7591,10 +7833,10 @@
         <v>428</v>
       </c>
       <c r="AD30" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE30" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH30" s="0" t="n">
         <f aca="false">W30</f>
@@ -7624,7 +7866,7 @@
         <v>Punky Monkey</v>
       </c>
       <c r="AQ30" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AS30" s="10"/>
       <c r="AT30" s="0" t="str">
@@ -7632,11 +7874,11 @@
         <v>Аниме Девочка в розовый капюшоном</v>
       </c>
       <c r="AU30" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AV30" s="0" t="str">
         <f aca="false">S30</f>
-        <v>Термонаклейка Аниме Девочка в розовый капюшоном. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+        <v>Термонаклейка Аниме Девочка в розовый капюшоном. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
       </c>
       <c r="AX30" s="15" t="str">
         <f aca="false">X30</f>
@@ -7647,7 +7889,7 @@
         <v>Полимерный материал</v>
       </c>
       <c r="BC30" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="BD30" s="10"/>
       <c r="BE30" s="13" t="str">
@@ -7659,19 +7901,22 @@
         <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Аниме Девочка в розовый капюшоном</v>
       </c>
       <c r="BR30" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="BS30" s="6" t="str">
+        <v>83</v>
+      </c>
+      <c r="BS30" s="17" t="str">
         <f aca="false">CONCATENATE(H30,"Video_DTF.mp4")</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="18" t="s">
-        <v>139</v>
+      <c r="A31" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>169</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="D31" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\", A31, ".pdf")</f>
@@ -7688,13 +7933,13 @@
         <v>1</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M31" s="0" t="str">
         <f aca="false">A31</f>
@@ -7704,19 +7949,19 @@
         <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(A31, "Термонаклейка", "")</f>
         <v>Термонаклейка для одежды: Девушка Блондинка с котом на голове</v>
       </c>
-      <c r="P31" s="0" t="n">
+      <c r="P31" s="0" t="str">
         <f aca="false">B31</f>
-        <v>0</v>
+        <v>OZN1425250655</v>
       </c>
       <c r="Q31" s="0" t="n">
         <v>285</v>
       </c>
       <c r="R31" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S31" s="7" t="str">
-        <f aca="false">CONCATENATE(A31,". Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.")</f>
-        <v>Термонаклейка Девушка Блондинка с котом на голове. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+        <f aca="false">CONCATENATE(A31,". Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. ")</f>
+        <v>Термонаклейка Девушка Блондинка с котом на голове. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
       </c>
       <c r="T31" s="0" t="n">
         <v>1</v>
@@ -7731,7 +7976,7 @@
         <v>12</v>
       </c>
       <c r="X31" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y31" s="8" t="str">
         <f aca="false">CONCATENATE(CONCATENATE(H31,C31,"_1.jpg;"),CONCATENATE(H31,C31,"_2.jpg;"),CONCATENATE(H31,C31,"_3.jpg;"),CONCATENATE(H31,C31,"_4.jpg;"),CONCATENATE(H31,C31,"_5.jpg;"),CONCATENATE(H31,C31,"_6.jpg;"),CONCATENATE(H31,C31,"_7.jpg;"),CONCATENATE(H31,C31,"_8.jpg;"),CONCATENATE(H31,C31,"_9.jpg;"),CONCATENATE(H31,C31,"_10.jpg;"),CONCATENATE(H31,"instruction_A4.jpg;"),CONCATENATE(H31,"Video_DTF.mp4;"))</f>
@@ -7750,10 +7995,10 @@
         <v>428</v>
       </c>
       <c r="AD31" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE31" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH31" s="0" t="n">
         <f aca="false">W31</f>
@@ -7783,7 +8028,7 @@
         <v>Punky Monkey</v>
       </c>
       <c r="AQ31" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AS31" s="10"/>
       <c r="AT31" s="0" t="str">
@@ -7791,11 +8036,11 @@
         <v>Девушка Блондинка с котом на голове</v>
       </c>
       <c r="AU31" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AV31" s="0" t="str">
         <f aca="false">S31</f>
-        <v>Термонаклейка Девушка Блондинка с котом на голове. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+        <v>Термонаклейка Девушка Блондинка с котом на голове. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
       </c>
       <c r="AX31" s="15" t="str">
         <f aca="false">X31</f>
@@ -7806,7 +8051,7 @@
         <v>Полимерный материал</v>
       </c>
       <c r="BC31" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="BD31" s="10"/>
       <c r="BE31" s="13" t="str">
@@ -7818,19 +8063,22 @@
         <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Девушка Блондинка с котом на голове</v>
       </c>
       <c r="BR31" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="BS31" s="6" t="str">
+        <v>83</v>
+      </c>
+      <c r="BS31" s="17" t="str">
         <f aca="false">CONCATENATE(H31,"Video_DTF.mp4")</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="18" t="s">
-        <v>141</v>
+      <c r="A32" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>172</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>142</v>
+        <v>173</v>
       </c>
       <c r="D32" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\", A32, ".pdf")</f>
@@ -7847,13 +8095,13 @@
         <v>1</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M32" s="0" t="str">
         <f aca="false">A32</f>
@@ -7863,19 +8111,19 @@
         <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(A32, "Термонаклейка", "")</f>
         <v>Термонаклейка для одежды: Поцелуй берега и реки картина маслом</v>
       </c>
-      <c r="P32" s="0" t="n">
+      <c r="P32" s="0" t="str">
         <f aca="false">B32</f>
-        <v>0</v>
+        <v>OZN1425250633</v>
       </c>
       <c r="Q32" s="0" t="n">
         <v>285</v>
       </c>
       <c r="R32" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S32" s="7" t="str">
-        <f aca="false">CONCATENATE(A32,". Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.")</f>
-        <v>Термонаклейка Поцелуй берега и реки картина маслом. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+        <f aca="false">CONCATENATE(A32,". Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. ")</f>
+        <v>Термонаклейка Поцелуй берега и реки картина маслом. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
       </c>
       <c r="T32" s="0" t="n">
         <v>1</v>
@@ -7890,7 +8138,7 @@
         <v>12</v>
       </c>
       <c r="X32" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y32" s="8" t="str">
         <f aca="false">CONCATENATE(CONCATENATE(H32,C32,"_1.jpg;"),CONCATENATE(H32,C32,"_2.jpg;"),CONCATENATE(H32,C32,"_3.jpg;"),CONCATENATE(H32,C32,"_4.jpg;"),CONCATENATE(H32,C32,"_5.jpg;"),CONCATENATE(H32,C32,"_6.jpg;"),CONCATENATE(H32,C32,"_7.jpg;"),CONCATENATE(H32,C32,"_8.jpg;"),CONCATENATE(H32,C32,"_9.jpg;"),CONCATENATE(H32,C32,"_10.jpg;"),CONCATENATE(H32,"instruction_A4.jpg;"),CONCATENATE(H32,"Video_DTF.mp4;"))</f>
@@ -7909,10 +8157,10 @@
         <v>428</v>
       </c>
       <c r="AD32" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE32" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH32" s="0" t="n">
         <f aca="false">W32</f>
@@ -7942,7 +8190,7 @@
         <v>Punky Monkey</v>
       </c>
       <c r="AQ32" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AS32" s="10"/>
       <c r="AT32" s="0" t="str">
@@ -7950,11 +8198,11 @@
         <v>Поцелуй берега и реки картина маслом</v>
       </c>
       <c r="AU32" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AV32" s="0" t="str">
         <f aca="false">S32</f>
-        <v>Термонаклейка Поцелуй берега и реки картина маслом. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+        <v>Термонаклейка Поцелуй берега и реки картина маслом. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
       </c>
       <c r="AX32" s="15" t="str">
         <f aca="false">X32</f>
@@ -7965,7 +8213,7 @@
         <v>Полимерный материал</v>
       </c>
       <c r="BC32" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="BD32" s="10"/>
       <c r="BE32" s="13" t="str">
@@ -7977,19 +8225,22 @@
         <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Поцелуй берега и реки картина маслом</v>
       </c>
       <c r="BR32" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="BS32" s="6" t="str">
+        <v>83</v>
+      </c>
+      <c r="BS32" s="17" t="str">
         <f aca="false">CONCATENATE(H32,"Video_DTF.mp4")</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="18" t="s">
-        <v>143</v>
+      <c r="A33" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>175</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="D33" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\", A33, ".pdf")</f>
@@ -8006,13 +8257,13 @@
         <v>1</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M33" s="0" t="str">
         <f aca="false">A33</f>
@@ -8022,19 +8273,19 @@
         <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(A33, "Термонаклейка", "")</f>
         <v>Термонаклейка для одежды: картина Поцелуй Густава Климта</v>
       </c>
-      <c r="P33" s="0" t="n">
+      <c r="P33" s="0" t="str">
         <f aca="false">B33</f>
-        <v>0</v>
+        <v>OZN1425250579</v>
       </c>
       <c r="Q33" s="0" t="n">
         <v>285</v>
       </c>
       <c r="R33" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S33" s="7" t="str">
-        <f aca="false">CONCATENATE(A33,". Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.")</f>
-        <v>Термонаклейка картина Поцелуй Густава Климта. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+        <f aca="false">CONCATENATE(A33,". Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. ")</f>
+        <v>Термонаклейка картина Поцелуй Густава Климта. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
       </c>
       <c r="T33" s="0" t="n">
         <v>1</v>
@@ -8049,7 +8300,7 @@
         <v>12</v>
       </c>
       <c r="X33" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y33" s="8" t="str">
         <f aca="false">CONCATENATE(CONCATENATE(H33,C33,"_1.jpg;"),CONCATENATE(H33,C33,"_2.jpg;"),CONCATENATE(H33,C33,"_3.jpg;"),CONCATENATE(H33,C33,"_4.jpg;"),CONCATENATE(H33,C33,"_5.jpg;"),CONCATENATE(H33,C33,"_6.jpg;"),CONCATENATE(H33,C33,"_7.jpg;"),CONCATENATE(H33,C33,"_8.jpg;"),CONCATENATE(H33,C33,"_9.jpg;"),CONCATENATE(H33,C33,"_10.jpg;"),CONCATENATE(H33,"instruction_A4.jpg;"),CONCATENATE(H33,"Video_DTF.mp4;"))</f>
@@ -8068,10 +8319,10 @@
         <v>428</v>
       </c>
       <c r="AD33" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE33" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH33" s="0" t="n">
         <f aca="false">W33</f>
@@ -8101,7 +8352,7 @@
         <v>Punky Monkey</v>
       </c>
       <c r="AQ33" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AS33" s="10"/>
       <c r="AT33" s="0" t="str">
@@ -8109,11 +8360,11 @@
         <v>картина Поцелуй Густава Климта</v>
       </c>
       <c r="AU33" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AV33" s="0" t="str">
         <f aca="false">S33</f>
-        <v>Термонаклейка картина Поцелуй Густава Климта. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+        <v>Термонаклейка картина Поцелуй Густава Климта. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
       </c>
       <c r="AX33" s="15" t="str">
         <f aca="false">X33</f>
@@ -8124,7 +8375,7 @@
         <v>Полимерный материал</v>
       </c>
       <c r="BC33" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="BD33" s="10"/>
       <c r="BE33" s="13" t="str">
@@ -8136,19 +8387,22 @@
         <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, картина Поцелуй Густава Климта</v>
       </c>
       <c r="BR33" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="BS33" s="6" t="str">
+        <v>83</v>
+      </c>
+      <c r="BS33" s="17" t="str">
         <f aca="false">CONCATENATE(H33,"Video_DTF.mp4")</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="19" t="s">
-        <v>145</v>
+      <c r="A34" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>178</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>146</v>
+        <v>179</v>
       </c>
       <c r="D34" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\", A34, ".pdf")</f>
@@ -8165,13 +8419,13 @@
         <v>1</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J34" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M34" s="0" t="str">
         <f aca="false">A34</f>
@@ -8181,19 +8435,19 @@
         <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(A34, "Термонаклейка", "")</f>
         <v>Термонаклейка для одежды: Поцелуй в космосе картина маслом</v>
       </c>
-      <c r="P34" s="0" t="n">
+      <c r="P34" s="0" t="str">
         <f aca="false">B34</f>
-        <v>0</v>
+        <v>OZN1425250606</v>
       </c>
       <c r="Q34" s="0" t="n">
         <v>285</v>
       </c>
       <c r="R34" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S34" s="7" t="str">
-        <f aca="false">CONCATENATE(A34,". Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.")</f>
-        <v>Термонаклейка Поцелуй в космосе картина маслом. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+        <f aca="false">CONCATENATE(A34,". Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. ")</f>
+        <v>Термонаклейка Поцелуй в космосе картина маслом. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
       </c>
       <c r="T34" s="0" t="n">
         <v>1</v>
@@ -8208,7 +8462,7 @@
         <v>12</v>
       </c>
       <c r="X34" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y34" s="8" t="str">
         <f aca="false">CONCATENATE(CONCATENATE(H34,C34,"_1.jpg;"),CONCATENATE(H34,C34,"_2.jpg;"),CONCATENATE(H34,C34,"_3.jpg;"),CONCATENATE(H34,C34,"_4.jpg;"),CONCATENATE(H34,C34,"_5.jpg;"),CONCATENATE(H34,C34,"_6.jpg;"),CONCATENATE(H34,C34,"_7.jpg;"),CONCATENATE(H34,C34,"_8.jpg;"),CONCATENATE(H34,C34,"_9.jpg;"),CONCATENATE(H34,C34,"_10.jpg;"),CONCATENATE(H34,"instruction_A4.jpg;"),CONCATENATE(H34,"Video_DTF.mp4;"))</f>
@@ -8227,10 +8481,10 @@
         <v>428</v>
       </c>
       <c r="AD34" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE34" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH34" s="0" t="n">
         <f aca="false">W34</f>
@@ -8260,7 +8514,7 @@
         <v>Punky Monkey</v>
       </c>
       <c r="AQ34" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AS34" s="10"/>
       <c r="AT34" s="0" t="str">
@@ -8268,11 +8522,11 @@
         <v>Поцелуй в космосе картина маслом</v>
       </c>
       <c r="AU34" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AV34" s="0" t="str">
         <f aca="false">S34</f>
-        <v>Термонаклейка Поцелуй в космосе картина маслом. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+        <v>Термонаклейка Поцелуй в космосе картина маслом. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
       </c>
       <c r="AX34" s="15" t="str">
         <f aca="false">X34</f>
@@ -8283,7 +8537,7 @@
         <v>Полимерный материал</v>
       </c>
       <c r="BC34" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="BD34" s="10"/>
       <c r="BE34" s="13" t="str">
@@ -8295,19 +8549,22 @@
         <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Поцелуй в космосе картина маслом</v>
       </c>
       <c r="BR34" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="BS34" s="6" t="str">
+        <v>83</v>
+      </c>
+      <c r="BS34" s="17" t="str">
         <f aca="false">CONCATENATE(H34,"Video_DTF.mp4")</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="18" t="s">
-        <v>147</v>
+      <c r="A35" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>181</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="D35" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\", A35, ".pdf")</f>
@@ -8324,13 +8581,13 @@
         <v>1</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J35" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M35" s="0" t="str">
         <f aca="false">A35</f>
@@ -8340,19 +8597,19 @@
         <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(A35, "Термонаклейка", "")</f>
         <v>Термонаклейка для одежды: Губы с чупа чупсом</v>
       </c>
-      <c r="P35" s="0" t="n">
+      <c r="P35" s="0" t="str">
         <f aca="false">B35</f>
-        <v>0</v>
+        <v>OZN1425250874</v>
       </c>
       <c r="Q35" s="0" t="n">
         <v>285</v>
       </c>
       <c r="R35" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S35" s="7" t="str">
-        <f aca="false">CONCATENATE(A35,". Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.")</f>
-        <v>Термонаклейка Губы с чупа чупсом. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+        <f aca="false">CONCATENATE(A35,". Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. ")</f>
+        <v>Термонаклейка Губы с чупа чупсом. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
       </c>
       <c r="T35" s="0" t="n">
         <v>1</v>
@@ -8367,7 +8624,7 @@
         <v>12</v>
       </c>
       <c r="X35" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y35" s="8" t="str">
         <f aca="false">CONCATENATE(CONCATENATE(H35,C35,"_1.jpg;"),CONCATENATE(H35,C35,"_2.jpg;"),CONCATENATE(H35,C35,"_3.jpg;"),CONCATENATE(H35,C35,"_4.jpg;"),CONCATENATE(H35,C35,"_5.jpg;"),CONCATENATE(H35,C35,"_6.jpg;"),CONCATENATE(H35,C35,"_7.jpg;"),CONCATENATE(H35,C35,"_8.jpg;"),CONCATENATE(H35,C35,"_9.jpg;"),CONCATENATE(H35,C35,"_10.jpg;"),CONCATENATE(H35,"instruction_A4.jpg;"),CONCATENATE(H35,"Video_DTF.mp4;"))</f>
@@ -8386,10 +8643,10 @@
         <v>428</v>
       </c>
       <c r="AD35" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE35" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH35" s="0" t="n">
         <f aca="false">W35</f>
@@ -8419,7 +8676,7 @@
         <v>Punky Monkey</v>
       </c>
       <c r="AQ35" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AS35" s="10"/>
       <c r="AT35" s="0" t="str">
@@ -8427,11 +8684,11 @@
         <v>Губы с чупа чупсом</v>
       </c>
       <c r="AU35" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AV35" s="0" t="str">
         <f aca="false">S35</f>
-        <v>Термонаклейка Губы с чупа чупсом. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+        <v>Термонаклейка Губы с чупа чупсом. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
       </c>
       <c r="AX35" s="15" t="str">
         <f aca="false">X35</f>
@@ -8442,7 +8699,7 @@
         <v>Полимерный материал</v>
       </c>
       <c r="BC35" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="BD35" s="10"/>
       <c r="BE35" s="13" t="str">
@@ -8454,19 +8711,22 @@
         <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Губы с чупа чупсом</v>
       </c>
       <c r="BR35" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="BS35" s="6" t="str">
+        <v>83</v>
+      </c>
+      <c r="BS35" s="17" t="str">
         <f aca="false">CONCATENATE(H35,"Video_DTF.mp4")</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="19" t="s">
-        <v>149</v>
+      <c r="A36" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>184</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>150</v>
+        <v>185</v>
       </c>
       <c r="D36" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\", A36, ".pdf")</f>
@@ -8483,13 +8743,13 @@
         <v>1</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J36" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M36" s="0" t="str">
         <f aca="false">A36</f>
@@ -8499,19 +8759,19 @@
         <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(A36, "Термонаклейка", "")</f>
         <v>Термонаклейка для одежды: Dolce Gabbana Дольче Габбана лимоны</v>
       </c>
-      <c r="P36" s="0" t="n">
+      <c r="P36" s="0" t="str">
         <f aca="false">B36</f>
-        <v>0</v>
+        <v>OZN1425250776</v>
       </c>
       <c r="Q36" s="0" t="n">
         <v>285</v>
       </c>
       <c r="R36" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S36" s="7" t="str">
-        <f aca="false">CONCATENATE(A36,". Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.")</f>
-        <v>Термонаклейка Dolce Gabbana Дольче Габбана лимоны. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+        <f aca="false">CONCATENATE(A36,". Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. ")</f>
+        <v>Термонаклейка Dolce Gabbana Дольче Габбана лимоны. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
       </c>
       <c r="T36" s="0" t="n">
         <v>1</v>
@@ -8526,7 +8786,7 @@
         <v>12</v>
       </c>
       <c r="X36" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y36" s="8" t="str">
         <f aca="false">CONCATENATE(CONCATENATE(H36,C36,"_1.jpg;"),CONCATENATE(H36,C36,"_2.jpg;"),CONCATENATE(H36,C36,"_3.jpg;"),CONCATENATE(H36,C36,"_4.jpg;"),CONCATENATE(H36,C36,"_5.jpg;"),CONCATENATE(H36,C36,"_6.jpg;"),CONCATENATE(H36,C36,"_7.jpg;"),CONCATENATE(H36,C36,"_8.jpg;"),CONCATENATE(H36,C36,"_9.jpg;"),CONCATENATE(H36,C36,"_10.jpg;"),CONCATENATE(H36,"instruction_A4.jpg;"),CONCATENATE(H36,"Video_DTF.mp4;"))</f>
@@ -8545,10 +8805,10 @@
         <v>428</v>
       </c>
       <c r="AD36" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE36" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH36" s="0" t="n">
         <f aca="false">W36</f>
@@ -8578,7 +8838,7 @@
         <v>Punky Monkey</v>
       </c>
       <c r="AQ36" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AS36" s="10"/>
       <c r="AT36" s="0" t="str">
@@ -8586,11 +8846,11 @@
         <v>Dolce Gabbana Дольче Габбана лимоны</v>
       </c>
       <c r="AU36" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AV36" s="0" t="str">
         <f aca="false">S36</f>
-        <v>Термонаклейка Dolce Gabbana Дольче Габбана лимоны. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+        <v>Термонаклейка Dolce Gabbana Дольче Габбана лимоны. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
       </c>
       <c r="AX36" s="15" t="str">
         <f aca="false">X36</f>
@@ -8601,7 +8861,7 @@
         <v>Полимерный материал</v>
       </c>
       <c r="BC36" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="BD36" s="10"/>
       <c r="BE36" s="13" t="str">
@@ -8613,19 +8873,22 @@
         <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Dolce Gabbana Дольче Габбана лимоны</v>
       </c>
       <c r="BR36" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="BS36" s="6" t="str">
+        <v>83</v>
+      </c>
+      <c r="BS36" s="17" t="str">
         <f aca="false">CONCATENATE(H36,"Video_DTF.mp4")</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="18" t="s">
-        <v>151</v>
+      <c r="A37" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="B37" s="21" t="s">
+        <v>187</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>152</v>
+        <v>188</v>
       </c>
       <c r="D37" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\", A37, ".pdf")</f>
@@ -8642,13 +8905,13 @@
         <v>1</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J37" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M37" s="0" t="str">
         <f aca="false">A37</f>
@@ -8659,18 +8922,18 @@
         <v>Термонаклейка для одежды: надпись love любовь 3 раза</v>
       </c>
       <c r="P37" s="0" t="n">
-        <f aca="false">B37</f>
+        <f aca="false">B52</f>
         <v>0</v>
       </c>
       <c r="Q37" s="0" t="n">
         <v>285</v>
       </c>
       <c r="R37" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S37" s="7" t="str">
-        <f aca="false">CONCATENATE(A37,". Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.")</f>
-        <v>Термонаклейка надпись love любовь 3 раза. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+        <f aca="false">CONCATENATE(A37,". Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. ")</f>
+        <v>Термонаклейка надпись love любовь 3 раза. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
       </c>
       <c r="T37" s="0" t="n">
         <v>1</v>
@@ -8685,7 +8948,7 @@
         <v>12</v>
       </c>
       <c r="X37" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y37" s="8" t="str">
         <f aca="false">CONCATENATE(CONCATENATE(H37,C37,"_1.jpg;"),CONCATENATE(H37,C37,"_2.jpg;"),CONCATENATE(H37,C37,"_3.jpg;"),CONCATENATE(H37,C37,"_4.jpg;"),CONCATENATE(H37,C37,"_5.jpg;"),CONCATENATE(H37,C37,"_6.jpg;"),CONCATENATE(H37,C37,"_7.jpg;"),CONCATENATE(H37,C37,"_8.jpg;"),CONCATENATE(H37,C37,"_9.jpg;"),CONCATENATE(H37,C37,"_10.jpg;"),CONCATENATE(H37,"instruction_A4.jpg;"),CONCATENATE(H37,"Video_DTF.mp4;"))</f>
@@ -8704,10 +8967,10 @@
         <v>428</v>
       </c>
       <c r="AD37" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE37" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH37" s="0" t="n">
         <f aca="false">W37</f>
@@ -8737,7 +9000,7 @@
         <v>Punky Monkey</v>
       </c>
       <c r="AQ37" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AS37" s="10"/>
       <c r="AT37" s="0" t="str">
@@ -8745,11 +9008,11 @@
         <v>надпись love любовь 3 раза</v>
       </c>
       <c r="AU37" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AV37" s="0" t="str">
         <f aca="false">S37</f>
-        <v>Термонаклейка надпись love любовь 3 раза. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+        <v>Термонаклейка надпись love любовь 3 раза. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
       </c>
       <c r="AX37" s="15" t="str">
         <f aca="false">X37</f>
@@ -8760,7 +9023,7 @@
         <v>Полимерный материал</v>
       </c>
       <c r="BC37" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="BD37" s="10"/>
       <c r="BE37" s="13" t="str">
@@ -8772,19 +9035,22 @@
         <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, надпись love любовь 3 раза</v>
       </c>
       <c r="BR37" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="BS37" s="6" t="str">
+        <v>83</v>
+      </c>
+      <c r="BS37" s="17" t="str">
         <f aca="false">CONCATENATE(H37,"Video_DTF.mp4")</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="19" t="s">
-        <v>153</v>
+      <c r="A38" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>190</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>154</v>
+        <v>191</v>
       </c>
       <c r="D38" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\", A38, ".pdf")</f>
@@ -8801,13 +9067,13 @@
         <v>1</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J38" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M38" s="0" t="str">
         <f aca="false">A38</f>
@@ -8817,19 +9083,19 @@
         <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(A38, "Термонаклейка", "")</f>
         <v>Термонаклейка для одежды: надпись love любовь</v>
       </c>
-      <c r="P38" s="0" t="n">
+      <c r="P38" s="0" t="str">
         <f aca="false">B38</f>
-        <v>0</v>
+        <v>OZN1425250661</v>
       </c>
       <c r="Q38" s="0" t="n">
         <v>285</v>
       </c>
       <c r="R38" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S38" s="7" t="str">
-        <f aca="false">CONCATENATE(A38,". Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.")</f>
-        <v>Термонаклейка надпись love любовь. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+        <f aca="false">CONCATENATE(A38,". Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. ")</f>
+        <v>Термонаклейка надпись love любовь. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
       </c>
       <c r="T38" s="0" t="n">
         <v>1</v>
@@ -8844,7 +9110,7 @@
         <v>12</v>
       </c>
       <c r="X38" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y38" s="8" t="str">
         <f aca="false">CONCATENATE(CONCATENATE(H38,C38,"_1.jpg;"),CONCATENATE(H38,C38,"_2.jpg;"),CONCATENATE(H38,C38,"_3.jpg;"),CONCATENATE(H38,C38,"_4.jpg;"),CONCATENATE(H38,C38,"_5.jpg;"),CONCATENATE(H38,C38,"_6.jpg;"),CONCATENATE(H38,C38,"_7.jpg;"),CONCATENATE(H38,C38,"_8.jpg;"),CONCATENATE(H38,C38,"_9.jpg;"),CONCATENATE(H38,C38,"_10.jpg;"),CONCATENATE(H38,"instruction_A4.jpg;"),CONCATENATE(H38,"Video_DTF.mp4;"))</f>
@@ -8863,10 +9129,10 @@
         <v>428</v>
       </c>
       <c r="AD38" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE38" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH38" s="0" t="n">
         <f aca="false">W38</f>
@@ -8896,7 +9162,7 @@
         <v>Punky Monkey</v>
       </c>
       <c r="AQ38" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AS38" s="10"/>
       <c r="AT38" s="0" t="str">
@@ -8904,11 +9170,11 @@
         <v>надпись love любовь</v>
       </c>
       <c r="AU38" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AV38" s="0" t="str">
         <f aca="false">S38</f>
-        <v>Термонаклейка надпись love любовь. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+        <v>Термонаклейка надпись love любовь. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
       </c>
       <c r="AX38" s="15" t="str">
         <f aca="false">X38</f>
@@ -8919,7 +9185,7 @@
         <v>Полимерный материал</v>
       </c>
       <c r="BC38" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="BD38" s="10"/>
       <c r="BE38" s="13" t="str">
@@ -8931,19 +9197,22 @@
         <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, надпись love любовь</v>
       </c>
       <c r="BR38" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="BS38" s="6" t="str">
+        <v>83</v>
+      </c>
+      <c r="BS38" s="17" t="str">
         <f aca="false">CONCATENATE(H38,"Video_DTF.mp4")</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="19" t="s">
-        <v>155</v>
+      <c r="A39" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>193</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>156</v>
+        <v>194</v>
       </c>
       <c r="D39" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\", A39, ".pdf")</f>
@@ -8960,13 +9229,13 @@
         <v>1</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I39" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J39" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M39" s="0" t="str">
         <f aca="false">A39</f>
@@ -8977,18 +9246,18 @@
         <v>Термонаклейка для одежды: Мэрилин Монро Supreme Суприм глаза</v>
       </c>
       <c r="P39" s="0" t="n">
-        <f aca="false">B39</f>
+        <f aca="false">B52</f>
         <v>0</v>
       </c>
       <c r="Q39" s="0" t="n">
         <v>285</v>
       </c>
       <c r="R39" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S39" s="7" t="str">
-        <f aca="false">CONCATENATE(A39,". Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.")</f>
-        <v>Термонаклейка Мэрилин Монро Supreme Суприм глаза. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+        <f aca="false">CONCATENATE(A39,". Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. ")</f>
+        <v>Термонаклейка Мэрилин Монро Supreme Суприм глаза. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
       </c>
       <c r="T39" s="0" t="n">
         <v>1</v>
@@ -9003,7 +9272,7 @@
         <v>12</v>
       </c>
       <c r="X39" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y39" s="8" t="str">
         <f aca="false">CONCATENATE(CONCATENATE(H39,C39,"_1.jpg;"),CONCATENATE(H39,C39,"_2.jpg;"),CONCATENATE(H39,C39,"_3.jpg;"),CONCATENATE(H39,C39,"_4.jpg;"),CONCATENATE(H39,C39,"_5.jpg;"),CONCATENATE(H39,C39,"_6.jpg;"),CONCATENATE(H39,C39,"_7.jpg;"),CONCATENATE(H39,C39,"_8.jpg;"),CONCATENATE(H39,C39,"_9.jpg;"),CONCATENATE(H39,C39,"_10.jpg;"),CONCATENATE(H39,"instruction_A4.jpg;"),CONCATENATE(H39,"Video_DTF.mp4;"))</f>
@@ -9022,10 +9291,10 @@
         <v>428</v>
       </c>
       <c r="AD39" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE39" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH39" s="0" t="n">
         <f aca="false">W39</f>
@@ -9055,7 +9324,7 @@
         <v>Punky Monkey</v>
       </c>
       <c r="AQ39" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AS39" s="10"/>
       <c r="AT39" s="0" t="str">
@@ -9063,11 +9332,11 @@
         <v>Мэрилин Монро Supreme Суприм глаза</v>
       </c>
       <c r="AU39" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AV39" s="0" t="str">
         <f aca="false">S39</f>
-        <v>Термонаклейка Мэрилин Монро Supreme Суприм глаза. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+        <v>Термонаклейка Мэрилин Монро Supreme Суприм глаза. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
       </c>
       <c r="AX39" s="15" t="str">
         <f aca="false">X39</f>
@@ -9078,7 +9347,7 @@
         <v>Полимерный материал</v>
       </c>
       <c r="BC39" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="BD39" s="10"/>
       <c r="BE39" s="13" t="str">
@@ -9090,19 +9359,22 @@
         <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Мэрилин Монро Supreme Суприм глаза</v>
       </c>
       <c r="BR39" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="BS39" s="6" t="str">
+        <v>83</v>
+      </c>
+      <c r="BS39" s="17" t="str">
         <f aca="false">CONCATENATE(H39,"Video_DTF.mp4")</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="19" t="s">
-        <v>157</v>
+      <c r="A40" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>196</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>158</v>
+        <v>197</v>
       </c>
       <c r="D40" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\", A40, ".pdf")</f>
@@ -9119,13 +9391,13 @@
         <v>1</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I40" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J40" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M40" s="0" t="str">
         <f aca="false">A40</f>
@@ -9135,19 +9407,19 @@
         <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(A40, "Термонаклейка", "")</f>
         <v>Термонаклейка для одежды: Микки Маус надписи на фоне</v>
       </c>
-      <c r="P40" s="0" t="n">
+      <c r="P40" s="0" t="str">
         <f aca="false">B40</f>
-        <v>0</v>
+        <v>OZN1425250758</v>
       </c>
       <c r="Q40" s="0" t="n">
         <v>285</v>
       </c>
       <c r="R40" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S40" s="7" t="str">
-        <f aca="false">CONCATENATE(A40,". Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.")</f>
-        <v>Термонаклейка Микки Маус надписи на фоне. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+        <f aca="false">CONCATENATE(A40,". Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. ")</f>
+        <v>Термонаклейка Микки Маус надписи на фоне. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
       </c>
       <c r="T40" s="0" t="n">
         <v>1</v>
@@ -9162,7 +9434,7 @@
         <v>12</v>
       </c>
       <c r="X40" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y40" s="8" t="str">
         <f aca="false">CONCATENATE(CONCATENATE(H40,C40,"_1.jpg;"),CONCATENATE(H40,C40,"_2.jpg;"),CONCATENATE(H40,C40,"_3.jpg;"),CONCATENATE(H40,C40,"_4.jpg;"),CONCATENATE(H40,C40,"_5.jpg;"),CONCATENATE(H40,C40,"_6.jpg;"),CONCATENATE(H40,C40,"_7.jpg;"),CONCATENATE(H40,C40,"_8.jpg;"),CONCATENATE(H40,C40,"_9.jpg;"),CONCATENATE(H40,C40,"_10.jpg;"),CONCATENATE(H40,"instruction_A4.jpg;"),CONCATENATE(H40,"Video_DTF.mp4;"))</f>
@@ -9181,10 +9453,10 @@
         <v>428</v>
       </c>
       <c r="AD40" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE40" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH40" s="0" t="n">
         <f aca="false">W40</f>
@@ -9214,7 +9486,7 @@
         <v>Punky Monkey</v>
       </c>
       <c r="AQ40" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AS40" s="10"/>
       <c r="AT40" s="0" t="str">
@@ -9222,11 +9494,11 @@
         <v>Микки Маус надписи на фоне</v>
       </c>
       <c r="AU40" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AV40" s="0" t="str">
         <f aca="false">S40</f>
-        <v>Термонаклейка Микки Маус надписи на фоне. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+        <v>Термонаклейка Микки Маус надписи на фоне. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
       </c>
       <c r="AX40" s="15" t="str">
         <f aca="false">X40</f>
@@ -9237,7 +9509,7 @@
         <v>Полимерный материал</v>
       </c>
       <c r="BC40" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="BD40" s="10"/>
       <c r="BE40" s="13" t="str">
@@ -9249,19 +9521,22 @@
         <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Микки Маус надписи на фоне</v>
       </c>
       <c r="BR40" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="BS40" s="6" t="str">
+        <v>83</v>
+      </c>
+      <c r="BS40" s="17" t="str">
         <f aca="false">CONCATENATE(H40,"Video_DTF.mp4")</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="19" t="s">
-        <v>159</v>
+      <c r="A41" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>199</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="D41" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\", A41, ".pdf")</f>
@@ -9278,13 +9553,13 @@
         <v>1</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I41" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J41" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M41" s="0" t="str">
         <f aca="false">A41</f>
@@ -9294,19 +9569,19 @@
         <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(A41, "Термонаклейка", "")</f>
         <v>Термонаклейка для одежды: картина Девушка с сережкой Билли</v>
       </c>
-      <c r="P41" s="0" t="n">
+      <c r="P41" s="0" t="str">
         <f aca="false">B41</f>
-        <v>0</v>
+        <v>OZN1425266670</v>
       </c>
       <c r="Q41" s="0" t="n">
         <v>285</v>
       </c>
       <c r="R41" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S41" s="7" t="str">
-        <f aca="false">CONCATENATE(A41,". Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.")</f>
-        <v>Термонаклейка картина Девушка с сережкой Билли. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+        <f aca="false">CONCATENATE(A41,". Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. ")</f>
+        <v>Термонаклейка картина Девушка с сережкой Билли. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
       </c>
       <c r="T41" s="0" t="n">
         <v>1</v>
@@ -9321,7 +9596,7 @@
         <v>12</v>
       </c>
       <c r="X41" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y41" s="8" t="str">
         <f aca="false">CONCATENATE(CONCATENATE(H41,C41,"_1.jpg;"),CONCATENATE(H41,C41,"_2.jpg;"),CONCATENATE(H41,C41,"_3.jpg;"),CONCATENATE(H41,C41,"_4.jpg;"),CONCATENATE(H41,C41,"_5.jpg;"),CONCATENATE(H41,C41,"_6.jpg;"),CONCATENATE(H41,C41,"_7.jpg;"),CONCATENATE(H41,C41,"_8.jpg;"),CONCATENATE(H41,C41,"_9.jpg;"),CONCATENATE(H41,C41,"_10.jpg;"),CONCATENATE(H41,"instruction_A4.jpg;"),CONCATENATE(H41,"Video_DTF.mp4;"))</f>
@@ -9340,10 +9615,10 @@
         <v>428</v>
       </c>
       <c r="AD41" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE41" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH41" s="0" t="n">
         <f aca="false">W41</f>
@@ -9373,7 +9648,7 @@
         <v>Punky Monkey</v>
       </c>
       <c r="AQ41" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AS41" s="10"/>
       <c r="AT41" s="0" t="str">
@@ -9381,11 +9656,11 @@
         <v>картина Девушка с сережкой Билли</v>
       </c>
       <c r="AU41" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AV41" s="0" t="str">
         <f aca="false">S41</f>
-        <v>Термонаклейка картина Девушка с сережкой Билли. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+        <v>Термонаклейка картина Девушка с сережкой Билли. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
       </c>
       <c r="AX41" s="15" t="str">
         <f aca="false">X41</f>
@@ -9396,7 +9671,7 @@
         <v>Полимерный материал</v>
       </c>
       <c r="BC41" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="BD41" s="10"/>
       <c r="BE41" s="13" t="str">
@@ -9408,19 +9683,22 @@
         <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, картина Девушка с сережкой Билли</v>
       </c>
       <c r="BR41" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="BS41" s="6" t="str">
+        <v>83</v>
+      </c>
+      <c r="BS41" s="17" t="str">
         <f aca="false">CONCATENATE(H41,"Video_DTF.mp4")</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="19" t="s">
-        <v>161</v>
+      <c r="A42" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>202</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>162</v>
+        <v>203</v>
       </c>
       <c r="D42" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\", A42, ".pdf")</f>
@@ -9437,13 +9715,13 @@
         <v>1</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J42" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M42" s="0" t="str">
         <f aca="false">A42</f>
@@ -9453,19 +9731,19 @@
         <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(A42, "Термонаклейка", "")</f>
         <v>Термонаклейка для одежды: Play Boy губы обложка губы марка</v>
       </c>
-      <c r="P42" s="0" t="n">
+      <c r="P42" s="0" t="str">
         <f aca="false">B42</f>
-        <v>0</v>
+        <v>OZN1425266577</v>
       </c>
       <c r="Q42" s="0" t="n">
         <v>285</v>
       </c>
       <c r="R42" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S42" s="7" t="str">
-        <f aca="false">CONCATENATE(A42,". Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.")</f>
-        <v>Термонаклейка Play Boy губы обложка губы марка. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+        <f aca="false">CONCATENATE(A42,". Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. ")</f>
+        <v>Термонаклейка Play Boy губы обложка губы марка. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
       </c>
       <c r="T42" s="0" t="n">
         <v>1</v>
@@ -9480,7 +9758,7 @@
         <v>12</v>
       </c>
       <c r="X42" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y42" s="8" t="str">
         <f aca="false">CONCATENATE(CONCATENATE(H42,C42,"_1.jpg;"),CONCATENATE(H42,C42,"_2.jpg;"),CONCATENATE(H42,C42,"_3.jpg;"),CONCATENATE(H42,C42,"_4.jpg;"),CONCATENATE(H42,C42,"_5.jpg;"),CONCATENATE(H42,C42,"_6.jpg;"),CONCATENATE(H42,C42,"_7.jpg;"),CONCATENATE(H42,C42,"_8.jpg;"),CONCATENATE(H42,C42,"_9.jpg;"),CONCATENATE(H42,C42,"_10.jpg;"),CONCATENATE(H42,"instruction_A4.jpg;"),CONCATENATE(H42,"Video_DTF.mp4;"))</f>
@@ -9499,10 +9777,10 @@
         <v>428</v>
       </c>
       <c r="AD42" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE42" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH42" s="0" t="n">
         <f aca="false">W42</f>
@@ -9532,7 +9810,7 @@
         <v>Punky Monkey</v>
       </c>
       <c r="AQ42" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AS42" s="10"/>
       <c r="AT42" s="0" t="str">
@@ -9540,11 +9818,11 @@
         <v>Play Boy губы обложка губы марка</v>
       </c>
       <c r="AU42" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AV42" s="0" t="str">
         <f aca="false">S42</f>
-        <v>Термонаклейка Play Boy губы обложка губы марка. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+        <v>Термонаклейка Play Boy губы обложка губы марка. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
       </c>
       <c r="AX42" s="15" t="str">
         <f aca="false">X42</f>
@@ -9555,7 +9833,7 @@
         <v>Полимерный материал</v>
       </c>
       <c r="BC42" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="BD42" s="10"/>
       <c r="BE42" s="13" t="str">
@@ -9567,19 +9845,22 @@
         <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Play Boy губы обложка губы марка</v>
       </c>
       <c r="BR42" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="BS42" s="6" t="str">
+        <v>83</v>
+      </c>
+      <c r="BS42" s="17" t="str">
         <f aca="false">CONCATENATE(H42,"Video_DTF.mp4")</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="19" t="s">
-        <v>163</v>
+      <c r="A43" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>205</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>164</v>
+        <v>206</v>
       </c>
       <c r="D43" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\", A43, ".pdf")</f>
@@ -9596,13 +9877,13 @@
         <v>1</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J43" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M43" s="0" t="str">
         <f aca="false">A43</f>
@@ -9612,19 +9893,19 @@
         <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(A43, "Термонаклейка", "")</f>
         <v>Термонаклейка для одежды: Змеи Змея на розовом фоне паттерн</v>
       </c>
-      <c r="P43" s="0" t="n">
+      <c r="P43" s="0" t="str">
         <f aca="false">B43</f>
-        <v>0</v>
+        <v>OZN1425266721</v>
       </c>
       <c r="Q43" s="0" t="n">
         <v>285</v>
       </c>
       <c r="R43" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S43" s="7" t="str">
-        <f aca="false">CONCATENATE(A43,". Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.")</f>
-        <v>Термонаклейка Змеи Змея на розовом фоне паттерн. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+        <f aca="false">CONCATENATE(A43,". Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. ")</f>
+        <v>Термонаклейка Змеи Змея на розовом фоне паттерн. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
       </c>
       <c r="T43" s="0" t="n">
         <v>1</v>
@@ -9639,7 +9920,7 @@
         <v>12</v>
       </c>
       <c r="X43" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y43" s="8" t="str">
         <f aca="false">CONCATENATE(CONCATENATE(H43,C43,"_1.jpg;"),CONCATENATE(H43,C43,"_2.jpg;"),CONCATENATE(H43,C43,"_3.jpg;"),CONCATENATE(H43,C43,"_4.jpg;"),CONCATENATE(H43,C43,"_5.jpg;"),CONCATENATE(H43,C43,"_6.jpg;"),CONCATENATE(H43,C43,"_7.jpg;"),CONCATENATE(H43,C43,"_8.jpg;"),CONCATENATE(H43,C43,"_9.jpg;"),CONCATENATE(H43,C43,"_10.jpg;"),CONCATENATE(H43,"instruction_A4.jpg;"),CONCATENATE(H43,"Video_DTF.mp4;"))</f>
@@ -9658,10 +9939,10 @@
         <v>428</v>
       </c>
       <c r="AD43" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE43" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH43" s="0" t="n">
         <f aca="false">W43</f>
@@ -9691,7 +9972,7 @@
         <v>Punky Monkey</v>
       </c>
       <c r="AQ43" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AS43" s="10"/>
       <c r="AT43" s="0" t="str">
@@ -9699,11 +9980,11 @@
         <v>Змеи Змея на розовом фоне паттерн</v>
       </c>
       <c r="AU43" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AV43" s="0" t="str">
         <f aca="false">S43</f>
-        <v>Термонаклейка Змеи Змея на розовом фоне паттерн. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+        <v>Термонаклейка Змеи Змея на розовом фоне паттерн. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
       </c>
       <c r="AX43" s="15" t="str">
         <f aca="false">X43</f>
@@ -9714,7 +9995,7 @@
         <v>Полимерный материал</v>
       </c>
       <c r="BC43" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="BD43" s="10"/>
       <c r="BE43" s="13" t="str">
@@ -9726,27 +10007,30 @@
         <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Змеи Змея на розовом фоне паттерн</v>
       </c>
       <c r="BR43" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="BS43" s="6" t="str">
+        <v>83</v>
+      </c>
+      <c r="BS43" s="17" t="str">
         <f aca="false">CONCATENATE(H43,"Video_DTF.mp4")</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="19" t="s">
-        <v>165</v>
+      <c r="A44" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>208</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>166</v>
+        <v>209</v>
       </c>
       <c r="D44" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\", A44, ".pdf")</f>
-        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\Термонаклейка Солнце Цветок большое в ретро стиле хиппи.pdf</v>
+        <v>C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\Термонаклейка Солнце Цветок в ретро.pdf</v>
       </c>
       <c r="E44" s="0" t="str">
         <f aca="false">CONCATENATE("C:\work\baby prints\MainTop\tif\A4\",A44,"_img.tif")</f>
-        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Солнце Цветок большое в ретро стиле хиппи_img.tif</v>
+        <v>C:\work\baby prints\MainTop\tif\A4\Термонаклейка Солнце Цветок в ретро_img.tif</v>
       </c>
       <c r="F44" s="0" t="n">
         <v>1</v>
@@ -9755,35 +10039,35 @@
         <v>1</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J44" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M44" s="0" t="str">
         <f aca="false">A44</f>
-        <v>Термонаклейка Солнце Цветок большое в ретро стиле хиппи</v>
+        <v>Термонаклейка Солнце Цветок в ретро</v>
       </c>
       <c r="O44" s="0" t="str">
         <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(A44, "Термонаклейка", "")</f>
-        <v>Термонаклейка для одежды: Солнце Цветок большое в ретро стиле хиппи</v>
-      </c>
-      <c r="P44" s="0" t="n">
+        <v>Термонаклейка для одежды: Солнце Цветок в ретро</v>
+      </c>
+      <c r="P44" s="0" t="str">
         <f aca="false">B44</f>
-        <v>0</v>
+        <v>OZN1425275399</v>
       </c>
       <c r="Q44" s="0" t="n">
         <v>285</v>
       </c>
       <c r="R44" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S44" s="7" t="str">
-        <f aca="false">CONCATENATE(A44,". Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.")</f>
-        <v>Термонаклейка Солнце Цветок большое в ретро стиле хиппи. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+        <f aca="false">CONCATENATE(A44,". Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. ")</f>
+        <v>Термонаклейка Солнце Цветок в ретро. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
       </c>
       <c r="T44" s="0" t="n">
         <v>1</v>
@@ -9798,7 +10082,7 @@
         <v>12</v>
       </c>
       <c r="X44" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y44" s="8" t="str">
         <f aca="false">CONCATENATE(CONCATENATE(H44,C44,"_1.jpg;"),CONCATENATE(H44,C44,"_2.jpg;"),CONCATENATE(H44,C44,"_3.jpg;"),CONCATENATE(H44,C44,"_4.jpg;"),CONCATENATE(H44,C44,"_5.jpg;"),CONCATENATE(H44,C44,"_6.jpg;"),CONCATENATE(H44,C44,"_7.jpg;"),CONCATENATE(H44,C44,"_8.jpg;"),CONCATENATE(H44,C44,"_9.jpg;"),CONCATENATE(H44,C44,"_10.jpg;"),CONCATENATE(H44,"instruction_A4.jpg;"),CONCATENATE(H44,"Video_DTF.mp4;"))</f>
@@ -9806,7 +10090,7 @@
       </c>
       <c r="AA44" s="0" t="str">
         <f aca="false">A44</f>
-        <v>Термонаклейка Солнце Цветок большое в ретро стиле хиппи</v>
+        <v>Термонаклейка Солнце Цветок в ретро</v>
       </c>
       <c r="AB44" s="0" t="n">
         <f aca="false">Q44</f>
@@ -9817,10 +10101,10 @@
         <v>428</v>
       </c>
       <c r="AD44" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE44" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH44" s="0" t="n">
         <f aca="false">W44</f>
@@ -9850,19 +10134,19 @@
         <v>Punky Monkey</v>
       </c>
       <c r="AQ44" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AS44" s="10"/>
       <c r="AT44" s="0" t="str">
         <f aca="false">SUBSTITUTE(A44,"Термонаклейка ","")</f>
-        <v>Солнце Цветок большое в ретро стиле хиппи</v>
+        <v>Солнце Цветок в ретро</v>
       </c>
       <c r="AU44" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AV44" s="0" t="str">
         <f aca="false">S44</f>
-        <v>Термонаклейка Солнце Цветок большое в ретро стиле хиппи. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+        <v>Термонаклейка Солнце Цветок в ретро. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
       </c>
       <c r="AX44" s="15" t="str">
         <f aca="false">X44</f>
@@ -9873,7 +10157,7 @@
         <v>Полимерный материал</v>
       </c>
       <c r="BC44" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="BD44" s="10"/>
       <c r="BE44" s="13" t="str">
@@ -9882,22 +10166,25 @@
       </c>
       <c r="BM44" s="0" t="str">
         <f aca="false">CONCATENATE("термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля,",SUBSTITUTE(A44,"Термонаклейка",""))</f>
-        <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Солнце Цветок большое в ретро стиле хиппи</v>
+        <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Солнце Цветок в ретро</v>
       </c>
       <c r="BR44" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="BS44" s="6" t="str">
+        <v>83</v>
+      </c>
+      <c r="BS44" s="17" t="str">
         <f aca="false">CONCATENATE(H44,"Video_DTF.mp4")</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="18" t="s">
-        <v>167</v>
+      <c r="A45" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>211</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>168</v>
+        <v>212</v>
       </c>
       <c r="D45" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\", A45, ".pdf")</f>
@@ -9914,13 +10201,13 @@
         <v>1</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J45" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M45" s="0" t="str">
         <f aca="false">A45</f>
@@ -9930,19 +10217,19 @@
         <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(A45, "Термонаклейка", "")</f>
         <v>Термонаклейка для одежды: Тигр розовый крупный план</v>
       </c>
-      <c r="P45" s="0" t="n">
+      <c r="P45" s="0" t="str">
         <f aca="false">B45</f>
-        <v>0</v>
+        <v>OZN1425250805</v>
       </c>
       <c r="Q45" s="0" t="n">
         <v>285</v>
       </c>
       <c r="R45" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S45" s="7" t="str">
-        <f aca="false">CONCATENATE(A45,". Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.")</f>
-        <v>Термонаклейка Тигр розовый крупный план. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+        <f aca="false">CONCATENATE(A45,". Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. ")</f>
+        <v>Термонаклейка Тигр розовый крупный план. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
       </c>
       <c r="T45" s="0" t="n">
         <v>1</v>
@@ -9957,7 +10244,7 @@
         <v>12</v>
       </c>
       <c r="X45" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y45" s="8" t="str">
         <f aca="false">CONCATENATE(CONCATENATE(H45,C45,"_1.jpg;"),CONCATENATE(H45,C45,"_2.jpg;"),CONCATENATE(H45,C45,"_3.jpg;"),CONCATENATE(H45,C45,"_4.jpg;"),CONCATENATE(H45,C45,"_5.jpg;"),CONCATENATE(H45,C45,"_6.jpg;"),CONCATENATE(H45,C45,"_7.jpg;"),CONCATENATE(H45,C45,"_8.jpg;"),CONCATENATE(H45,C45,"_9.jpg;"),CONCATENATE(H45,C45,"_10.jpg;"),CONCATENATE(H45,"instruction_A4.jpg;"),CONCATENATE(H45,"Video_DTF.mp4;"))</f>
@@ -9976,10 +10263,10 @@
         <v>428</v>
       </c>
       <c r="AD45" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE45" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH45" s="0" t="n">
         <f aca="false">W45</f>
@@ -10009,7 +10296,7 @@
         <v>Punky Monkey</v>
       </c>
       <c r="AQ45" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AS45" s="10"/>
       <c r="AT45" s="0" t="str">
@@ -10017,11 +10304,11 @@
         <v>Тигр розовый крупный план</v>
       </c>
       <c r="AU45" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AV45" s="0" t="str">
         <f aca="false">S45</f>
-        <v>Термонаклейка Тигр розовый крупный план. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+        <v>Термонаклейка Тигр розовый крупный план. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
       </c>
       <c r="AX45" s="15" t="str">
         <f aca="false">X45</f>
@@ -10032,7 +10319,7 @@
         <v>Полимерный материал</v>
       </c>
       <c r="BC45" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="BD45" s="10"/>
       <c r="BE45" s="13" t="str">
@@ -10044,19 +10331,22 @@
         <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Тигр розовый крупный план</v>
       </c>
       <c r="BR45" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="BS45" s="6" t="str">
+        <v>83</v>
+      </c>
+      <c r="BS45" s="17" t="str">
         <f aca="false">CONCATENATE(H45,"Video_DTF.mp4")</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="19" t="s">
-        <v>169</v>
+      <c r="A46" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>214</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>170</v>
+        <v>215</v>
       </c>
       <c r="D46" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\", A46, ".pdf")</f>
@@ -10073,13 +10363,13 @@
         <v>1</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I46" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J46" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M46" s="0" t="str">
         <f aca="false">A46</f>
@@ -10089,19 +10379,19 @@
         <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(A46, "Термонаклейка", "")</f>
         <v>Термонаклейка для одежды: Леопард розовый крупный план</v>
       </c>
-      <c r="P46" s="0" t="n">
+      <c r="P46" s="0" t="str">
         <f aca="false">B46</f>
-        <v>0</v>
+        <v>OZN1425250781</v>
       </c>
       <c r="Q46" s="0" t="n">
         <v>285</v>
       </c>
       <c r="R46" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S46" s="7" t="str">
-        <f aca="false">CONCATENATE(A46,". Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.")</f>
-        <v>Термонаклейка Леопард розовый крупный план. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+        <f aca="false">CONCATENATE(A46,". Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. ")</f>
+        <v>Термонаклейка Леопард розовый крупный план. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
       </c>
       <c r="T46" s="0" t="n">
         <v>1</v>
@@ -10116,7 +10406,7 @@
         <v>12</v>
       </c>
       <c r="X46" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y46" s="8" t="str">
         <f aca="false">CONCATENATE(CONCATENATE(H46,C46,"_1.jpg;"),CONCATENATE(H46,C46,"_2.jpg;"),CONCATENATE(H46,C46,"_3.jpg;"),CONCATENATE(H46,C46,"_4.jpg;"),CONCATENATE(H46,C46,"_5.jpg;"),CONCATENATE(H46,C46,"_6.jpg;"),CONCATENATE(H46,C46,"_7.jpg;"),CONCATENATE(H46,C46,"_8.jpg;"),CONCATENATE(H46,C46,"_9.jpg;"),CONCATENATE(H46,C46,"_10.jpg;"),CONCATENATE(H46,"instruction_A4.jpg;"),CONCATENATE(H46,"Video_DTF.mp4;"))</f>
@@ -10135,10 +10425,10 @@
         <v>428</v>
       </c>
       <c r="AD46" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE46" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH46" s="0" t="n">
         <f aca="false">W46</f>
@@ -10168,7 +10458,7 @@
         <v>Punky Monkey</v>
       </c>
       <c r="AQ46" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AS46" s="10"/>
       <c r="AT46" s="0" t="str">
@@ -10176,11 +10466,11 @@
         <v>Леопард розовый крупный план</v>
       </c>
       <c r="AU46" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AV46" s="0" t="str">
         <f aca="false">S46</f>
-        <v>Термонаклейка Леопард розовый крупный план. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+        <v>Термонаклейка Леопард розовый крупный план. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
       </c>
       <c r="AX46" s="15" t="str">
         <f aca="false">X46</f>
@@ -10191,7 +10481,7 @@
         <v>Полимерный материал</v>
       </c>
       <c r="BC46" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="BD46" s="10"/>
       <c r="BE46" s="13" t="str">
@@ -10203,19 +10493,22 @@
         <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Леопард розовый крупный план</v>
       </c>
       <c r="BR46" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="BS46" s="6" t="str">
+        <v>83</v>
+      </c>
+      <c r="BS46" s="17" t="str">
         <f aca="false">CONCATENATE(H46,"Video_DTF.mp4")</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="19" t="s">
-        <v>171</v>
+      <c r="A47" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>217</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>172</v>
+        <v>218</v>
       </c>
       <c r="D47" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\", A47, ".pdf")</f>
@@ -10232,13 +10525,13 @@
         <v>1</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I47" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J47" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M47" s="0" t="str">
         <f aca="false">A47</f>
@@ -10248,19 +10541,19 @@
         <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(A47, "Термонаклейка", "")</f>
         <v>Термонаклейка для одежды: Кит в море картина маслом</v>
       </c>
-      <c r="P47" s="0" t="n">
+      <c r="P47" s="0" t="str">
         <f aca="false">B47</f>
-        <v>0</v>
+        <v>OZN1425250733</v>
       </c>
       <c r="Q47" s="0" t="n">
         <v>285</v>
       </c>
       <c r="R47" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S47" s="7" t="str">
-        <f aca="false">CONCATENATE(A47,". Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.")</f>
-        <v>Термонаклейка Кит в море картина маслом. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+        <f aca="false">CONCATENATE(A47,". Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. ")</f>
+        <v>Термонаклейка Кит в море картина маслом. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
       </c>
       <c r="T47" s="0" t="n">
         <v>1</v>
@@ -10275,7 +10568,7 @@
         <v>12</v>
       </c>
       <c r="X47" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y47" s="8" t="str">
         <f aca="false">CONCATENATE(CONCATENATE(H47,C47,"_1.jpg;"),CONCATENATE(H47,C47,"_2.jpg;"),CONCATENATE(H47,C47,"_3.jpg;"),CONCATENATE(H47,C47,"_4.jpg;"),CONCATENATE(H47,C47,"_5.jpg;"),CONCATENATE(H47,C47,"_6.jpg;"),CONCATENATE(H47,C47,"_7.jpg;"),CONCATENATE(H47,C47,"_8.jpg;"),CONCATENATE(H47,C47,"_9.jpg;"),CONCATENATE(H47,C47,"_10.jpg;"),CONCATENATE(H47,"instruction_A4.jpg;"),CONCATENATE(H47,"Video_DTF.mp4;"))</f>
@@ -10294,10 +10587,10 @@
         <v>428</v>
       </c>
       <c r="AD47" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE47" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH47" s="0" t="n">
         <f aca="false">W47</f>
@@ -10327,7 +10620,7 @@
         <v>Punky Monkey</v>
       </c>
       <c r="AQ47" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AS47" s="10"/>
       <c r="AT47" s="0" t="str">
@@ -10335,11 +10628,11 @@
         <v>Кит в море картина маслом</v>
       </c>
       <c r="AU47" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AV47" s="0" t="str">
         <f aca="false">S47</f>
-        <v>Термонаклейка Кит в море картина маслом. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+        <v>Термонаклейка Кит в море картина маслом. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
       </c>
       <c r="AX47" s="15" t="str">
         <f aca="false">X47</f>
@@ -10350,7 +10643,7 @@
         <v>Полимерный материал</v>
       </c>
       <c r="BC47" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="BD47" s="10"/>
       <c r="BE47" s="13" t="str">
@@ -10362,19 +10655,22 @@
         <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Кит в море картина маслом</v>
       </c>
       <c r="BR47" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="BS47" s="6" t="str">
+        <v>83</v>
+      </c>
+      <c r="BS47" s="17" t="str">
         <f aca="false">CONCATENATE(H47,"Video_DTF.mp4")</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="19" t="s">
-        <v>173</v>
+      <c r="A48" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>220</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>174</v>
+        <v>221</v>
       </c>
       <c r="D48" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\", A48, ".pdf")</f>
@@ -10391,13 +10687,13 @@
         <v>1</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J48" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M48" s="0" t="str">
         <f aca="false">A48</f>
@@ -10407,19 +10703,19 @@
         <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(A48, "Термонаклейка", "")</f>
         <v>Термонаклейка для одежды: Бокал красного вина сердце</v>
       </c>
-      <c r="P48" s="0" t="n">
+      <c r="P48" s="0" t="str">
         <f aca="false">B48</f>
-        <v>0</v>
+        <v>OZN1425250678</v>
       </c>
       <c r="Q48" s="0" t="n">
         <v>285</v>
       </c>
       <c r="R48" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S48" s="7" t="str">
-        <f aca="false">CONCATENATE(A48,". Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.")</f>
-        <v>Термонаклейка Бокал красного вина сердце. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+        <f aca="false">CONCATENATE(A48,". Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. ")</f>
+        <v>Термонаклейка Бокал красного вина сердце. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
       </c>
       <c r="T48" s="0" t="n">
         <v>1</v>
@@ -10434,7 +10730,7 @@
         <v>12</v>
       </c>
       <c r="X48" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y48" s="8" t="str">
         <f aca="false">CONCATENATE(CONCATENATE(H48,C48,"_1.jpg;"),CONCATENATE(H48,C48,"_2.jpg;"),CONCATENATE(H48,C48,"_3.jpg;"),CONCATENATE(H48,C48,"_4.jpg;"),CONCATENATE(H48,C48,"_5.jpg;"),CONCATENATE(H48,C48,"_6.jpg;"),CONCATENATE(H48,C48,"_7.jpg;"),CONCATENATE(H48,C48,"_8.jpg;"),CONCATENATE(H48,C48,"_9.jpg;"),CONCATENATE(H48,C48,"_10.jpg;"),CONCATENATE(H48,"instruction_A4.jpg;"),CONCATENATE(H48,"Video_DTF.mp4;"))</f>
@@ -10453,10 +10749,10 @@
         <v>428</v>
       </c>
       <c r="AD48" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE48" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH48" s="0" t="n">
         <f aca="false">W48</f>
@@ -10486,7 +10782,7 @@
         <v>Punky Monkey</v>
       </c>
       <c r="AQ48" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AS48" s="10"/>
       <c r="AT48" s="0" t="str">
@@ -10494,11 +10790,11 @@
         <v>Бокал красного вина сердце</v>
       </c>
       <c r="AU48" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AV48" s="0" t="str">
         <f aca="false">S48</f>
-        <v>Термонаклейка Бокал красного вина сердце. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+        <v>Термонаклейка Бокал красного вина сердце. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
       </c>
       <c r="AX48" s="15" t="str">
         <f aca="false">X48</f>
@@ -10509,7 +10805,7 @@
         <v>Полимерный материал</v>
       </c>
       <c r="BC48" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="BD48" s="10"/>
       <c r="BE48" s="13" t="str">
@@ -10521,19 +10817,22 @@
         <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Бокал красного вина сердце</v>
       </c>
       <c r="BR48" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="BS48" s="6" t="str">
+        <v>83</v>
+      </c>
+      <c r="BS48" s="17" t="str">
         <f aca="false">CONCATENATE(H48,"Video_DTF.mp4")</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="19" t="s">
-        <v>175</v>
+      <c r="A49" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>223</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>176</v>
+        <v>224</v>
       </c>
       <c r="D49" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\", A49, ".pdf")</f>
@@ -10550,13 +10849,13 @@
         <v>1</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J49" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M49" s="0" t="str">
         <f aca="false">A49</f>
@@ -10566,19 +10865,19 @@
         <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(A49, "Термонаклейка", "")</f>
         <v>Термонаклейка для одежды: Джокер поп арт Joker</v>
       </c>
-      <c r="P49" s="0" t="n">
+      <c r="P49" s="0" t="str">
         <f aca="false">B49</f>
-        <v>0</v>
+        <v>OZN1425250735</v>
       </c>
       <c r="Q49" s="0" t="n">
         <v>285</v>
       </c>
       <c r="R49" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S49" s="7" t="str">
-        <f aca="false">CONCATENATE(A49,". Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.")</f>
-        <v>Термонаклейка Джокер поп арт Joker. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+        <f aca="false">CONCATENATE(A49,". Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. ")</f>
+        <v>Термонаклейка Джокер поп арт Joker. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
       </c>
       <c r="T49" s="0" t="n">
         <v>1</v>
@@ -10593,7 +10892,7 @@
         <v>12</v>
       </c>
       <c r="X49" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y49" s="8" t="str">
         <f aca="false">CONCATENATE(CONCATENATE(H49,C49,"_1.jpg;"),CONCATENATE(H49,C49,"_2.jpg;"),CONCATENATE(H49,C49,"_3.jpg;"),CONCATENATE(H49,C49,"_4.jpg;"),CONCATENATE(H49,C49,"_5.jpg;"),CONCATENATE(H49,C49,"_6.jpg;"),CONCATENATE(H49,C49,"_7.jpg;"),CONCATENATE(H49,C49,"_8.jpg;"),CONCATENATE(H49,C49,"_9.jpg;"),CONCATENATE(H49,C49,"_10.jpg;"),CONCATENATE(H49,"instruction_A4.jpg;"),CONCATENATE(H49,"Video_DTF.mp4;"))</f>
@@ -10612,10 +10911,10 @@
         <v>428</v>
       </c>
       <c r="AD49" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE49" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH49" s="0" t="n">
         <f aca="false">W49</f>
@@ -10645,7 +10944,7 @@
         <v>Punky Monkey</v>
       </c>
       <c r="AQ49" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AS49" s="10"/>
       <c r="AT49" s="0" t="str">
@@ -10653,11 +10952,11 @@
         <v>Джокер поп арт Joker</v>
       </c>
       <c r="AU49" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AV49" s="0" t="str">
         <f aca="false">S49</f>
-        <v>Термонаклейка Джокер поп арт Joker. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+        <v>Термонаклейка Джокер поп арт Joker. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
       </c>
       <c r="AX49" s="15" t="str">
         <f aca="false">X49</f>
@@ -10668,7 +10967,7 @@
         <v>Полимерный материал</v>
       </c>
       <c r="BC49" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="BD49" s="10"/>
       <c r="BE49" s="13" t="str">
@@ -10680,19 +10979,22 @@
         <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Джокер поп арт Joker</v>
       </c>
       <c r="BR49" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="BS49" s="6" t="str">
+        <v>83</v>
+      </c>
+      <c r="BS49" s="17" t="str">
         <f aca="false">CONCATENATE(H49,"Video_DTF.mp4")</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="19" t="s">
-        <v>177</v>
+      <c r="A50" s="20" t="s">
+        <v>225</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>226</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>178</v>
+        <v>227</v>
       </c>
       <c r="D50" s="0" t="str">
         <f aca="false">CONCATENATE("C:\Users\Max\Documents\GitHub\Ozon_upload\barcode\Термонаклека\A4\", A50, ".pdf")</f>
@@ -10709,13 +11011,13 @@
         <v>1</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I50" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J50" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M50" s="0" t="str">
         <f aca="false">A50</f>
@@ -10725,19 +11027,19 @@
         <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(A50, "Термонаклейка", "")</f>
         <v>Термонаклейка для одежды: Одри Хепбёрн поп арт</v>
       </c>
-      <c r="P50" s="0" t="n">
+      <c r="P50" s="0" t="str">
         <f aca="false">B50</f>
-        <v>0</v>
+        <v>OZN1425250637</v>
       </c>
       <c r="Q50" s="0" t="n">
         <v>285</v>
       </c>
       <c r="R50" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S50" s="7" t="str">
-        <f aca="false">CONCATENATE(A50,". Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.")</f>
-        <v>Термонаклейка Одри Хепбёрн поп арт. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+        <f aca="false">CONCATENATE(A50,". Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. ")</f>
+        <v>Термонаклейка Одри Хепбёрн поп арт. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
       </c>
       <c r="T50" s="0" t="n">
         <v>1</v>
@@ -10752,7 +11054,7 @@
         <v>12</v>
       </c>
       <c r="X50" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y50" s="8" t="str">
         <f aca="false">CONCATENATE(CONCATENATE(H50,C50,"_1.jpg;"),CONCATENATE(H50,C50,"_2.jpg;"),CONCATENATE(H50,C50,"_3.jpg;"),CONCATENATE(H50,C50,"_4.jpg;"),CONCATENATE(H50,C50,"_5.jpg;"),CONCATENATE(H50,C50,"_6.jpg;"),CONCATENATE(H50,C50,"_7.jpg;"),CONCATENATE(H50,C50,"_8.jpg;"),CONCATENATE(H50,C50,"_9.jpg;"),CONCATENATE(H50,C50,"_10.jpg;"),CONCATENATE(H50,"instruction_A4.jpg;"),CONCATENATE(H50,"Video_DTF.mp4;"))</f>
@@ -10771,10 +11073,10 @@
         <v>428</v>
       </c>
       <c r="AD50" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE50" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH50" s="0" t="n">
         <f aca="false">W50</f>
@@ -10804,7 +11106,7 @@
         <v>Punky Monkey</v>
       </c>
       <c r="AQ50" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AS50" s="10"/>
       <c r="AT50" s="0" t="str">
@@ -10812,11 +11114,11 @@
         <v>Одри Хепбёрн поп арт</v>
       </c>
       <c r="AU50" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AV50" s="0" t="str">
         <f aca="false">S50</f>
-        <v>Термонаклейка Одри Хепбёрн поп арт. Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах. видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару. термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод сублимации. так же нашивки можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. термостикеры идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга и приложенной инструкцией! термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. аппликация может иметь разные размеры, большие и маленькие, разнообразные цвета или принт, такие как логотипы брендов, рисунки, надпись.</v>
+        <v>Термонаклейка Одри Хепбёрн поп арт. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
       </c>
       <c r="AX50" s="15" t="str">
         <f aca="false">X50</f>
@@ -10827,7 +11129,7 @@
         <v>Полимерный материал</v>
       </c>
       <c r="BC50" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="BD50" s="10"/>
       <c r="BE50" s="13" t="str">
@@ -10839,235 +11141,235 @@
         <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Одри Хепбёрн поп арт</v>
       </c>
       <c r="BR50" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="BS50" s="6" t="str">
+        <v>83</v>
+      </c>
+      <c r="BS50" s="17" t="str">
         <f aca="false">CONCATENATE(H50,"Video_DTF.mp4")</f>
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="52" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="19"/>
+      <c r="A52" s="20"/>
     </row>
     <row r="53" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="19"/>
+      <c r="A53" s="20"/>
     </row>
     <row r="54" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="19"/>
+      <c r="A54" s="20"/>
     </row>
     <row r="55" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="19"/>
+      <c r="A55" s="20"/>
     </row>
     <row r="56" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="19"/>
+      <c r="A56" s="20"/>
     </row>
     <row r="57" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="19"/>
+      <c r="A57" s="20"/>
     </row>
     <row r="58" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="19"/>
+      <c r="A58" s="20"/>
     </row>
     <row r="59" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="19"/>
+      <c r="A59" s="20"/>
     </row>
     <row r="60" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="19"/>
+      <c r="A60" s="20"/>
     </row>
     <row r="61" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="19"/>
+      <c r="A61" s="20"/>
     </row>
     <row r="62" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="19"/>
+      <c r="A62" s="20"/>
     </row>
     <row r="63" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="19"/>
+      <c r="A63" s="20"/>
     </row>
     <row r="64" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="19"/>
+      <c r="A64" s="20"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="19"/>
+      <c r="A65" s="20"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="19"/>
+      <c r="A66" s="20"/>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="19"/>
+      <c r="A67" s="20"/>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="19"/>
+      <c r="A68" s="20"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="19"/>
+      <c r="A69" s="20"/>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="19"/>
+      <c r="A70" s="20"/>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="19"/>
+      <c r="A71" s="20"/>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="19"/>
+      <c r="A72" s="20"/>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="19"/>
+      <c r="A73" s="20"/>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="19"/>
+      <c r="A74" s="20"/>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="19"/>
+      <c r="A75" s="20"/>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="19"/>
+      <c r="A76" s="20"/>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="19"/>
+      <c r="A77" s="20"/>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="19"/>
+      <c r="A78" s="20"/>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="19"/>
+      <c r="A79" s="20"/>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="19"/>
+      <c r="A80" s="20"/>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="19"/>
+      <c r="A81" s="20"/>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="19"/>
+      <c r="A82" s="20"/>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="19"/>
+      <c r="A83" s="20"/>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="19"/>
+      <c r="A84" s="20"/>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="19"/>
+      <c r="A85" s="20"/>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="19"/>
+      <c r="A86" s="20"/>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="19"/>
+      <c r="A87" s="20"/>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="19"/>
+      <c r="A88" s="20"/>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="19"/>
+      <c r="A89" s="20"/>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="19"/>
+      <c r="A90" s="20"/>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="19"/>
+      <c r="A91" s="20"/>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="19"/>
+      <c r="A92" s="20"/>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="19"/>
+      <c r="A93" s="20"/>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="19"/>
+      <c r="A94" s="20"/>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="19"/>
+      <c r="A95" s="20"/>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="19"/>
+      <c r="A96" s="20"/>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="19"/>
+      <c r="A97" s="20"/>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="19"/>
+      <c r="A98" s="20"/>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="19"/>
+      <c r="A99" s="20"/>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="19"/>
+      <c r="A100" s="20"/>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="19"/>
+      <c r="A101" s="20"/>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="19"/>
+      <c r="A102" s="20"/>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="19"/>
+      <c r="A103" s="20"/>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="19"/>
+      <c r="A104" s="20"/>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="19"/>
+      <c r="A105" s="20"/>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="19"/>
+      <c r="A106" s="20"/>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="19"/>
+      <c r="A107" s="20"/>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="19"/>
+      <c r="A108" s="20"/>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="19"/>
+      <c r="A109" s="20"/>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="19"/>
+      <c r="A110" s="20"/>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="19"/>
+      <c r="A111" s="20"/>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="19"/>
+      <c r="A112" s="20"/>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="19"/>
+      <c r="A113" s="20"/>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="19"/>
+      <c r="A114" s="20"/>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="19"/>
+      <c r="A115" s="20"/>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="19"/>
+      <c r="A116" s="20"/>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="19"/>
+      <c r="A117" s="20"/>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="19"/>
+      <c r="A118" s="20"/>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="19"/>
+      <c r="A119" s="20"/>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="19"/>
+      <c r="A120" s="20"/>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="19"/>
+      <c r="A121" s="20"/>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="19"/>
+      <c r="A122" s="20"/>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="19"/>
+      <c r="A123" s="20"/>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="19"/>
+      <c r="A124" s="20"/>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="19"/>
+      <c r="A125" s="20"/>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -11077,7 +11379,7 @@
   </sheetData>
   <conditionalFormatting sqref="A2">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>LEN(#REF!!$B$4) &gt;50</formula>
+      <formula>LEN(#ref!!$b$4) &gt;50</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="16">
@@ -11165,7 +11467,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q2" activeCellId="0" sqref="Q2"/>
+      <selection pane="topLeft" activeCell="Q2" activeCellId="1" sqref="S2:S3 Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11174,7 +11476,7 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="22" t="s">
         <v>25</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -11227,11 +11529,11 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="21" t="s">
-        <v>78</v>
+      <c r="B2" s="23" t="s">
+        <v>79</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>179</v>
+        <v>228</v>
       </c>
       <c r="D2" s="0" t="str">
         <f aca="false">CONCATENATE(Лист1!H2,Лист1!C2,"_1.jpg")</f>
@@ -11242,17 +11544,17 @@
         <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_10.jpg;</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>180</v>
+        <v>229</v>
       </c>
       <c r="H2" s="0" t="str">
         <f aca="false">SUBSTITUTE(Лист1!A2,"Термонаклейка ","")</f>
         <v>Девушка волосы облако</v>
       </c>
-      <c r="I2" s="22" t="s">
-        <v>81</v>
+      <c r="I2" s="24" t="s">
+        <v>82</v>
       </c>
       <c r="J2" s="0" t="str">
         <f aca="false">CONCATENATE(Лист1!A2,". Наши термонаклейки для одежды помогут сделать любую вещь уникальной и неповторимой! Вам понадобится только горячий утюг, декор для одежды, инструкция и пара минут. Принт яркий, сочный и стойкий к износу и стирке. Термотрансферы хорошо тянутся, не трескаются и не отклеиваются при стирке. Термоаппликация - это оригинальный способ украсить или пометить новую одежду, спрятать пятна, мелкие дефекты и повреждения. Легко клеится обычным утюгом и подходит для большинства типов тканей. Наши аппликации можно наносить как на натуральный, синтетический, так и смесовый текстиль, хлопок, джинсу, кожу, экокожу. Все наклейки для одежды изготовлены из современного качественного материала. Мы гарантируем отличное приклеивание принта на однотонные или цветные ткани.Наклейки очень просты в применении: нужно просто вырезать наклейку (если используете только часть рисунка), приложить к ткани и пройти утюгом.Главное сделать все по инструкции, которая прилагается в каждом наборе, ничего сложного в переносе нет, красотища! По все")</f>
@@ -11276,10 +11578,10 @@
         <v>210</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>181</v>
+        <v>83</v>
+      </c>
+      <c r="Q2" s="17" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>

--- a/create cards for OZON WB XLS/Data_to_create.xlsx
+++ b/create cards for OZON WB XLS/Data_to_create.xlsx
@@ -9,7 +9,7 @@
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Описание" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -1272,422 +1272,8 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <authors>
-    <author> </author>
-  </authors>
-  <commentList>
-    <comment ref="B1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">OZON:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Укажите ставку НДС. Если товар не облагается НДС или вы не платите НДС, укажите Не облагается. </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b val="true"/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">OZON:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Выберите «Да», чтобы покупатели видели ваш товар чаще. </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b val="true"/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">OZON:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Вы можете загрузить товары в xls-шаблоне и API без фото, а потом загрузить фото через карточку товара или раздел «Обновить изображения»
-Требования к изображениям
-- формат: jpeg, jpg, png;
-- разрешение: от 200px на 200px до 4320px на 7680px;
-- размер: не привышает 10МБ;
-- фон: белый или светлый. Для белых или прозрачных товаров допустим черный фон. Для категории товаров Одежда, обувь и аксессуары фон серый (#f2f3f5);
-название: не может содержать символы «/» и «_».Нельзя использовать
-- изображения алкоголя;
-- эскизы товара (например, 3D-модели);
-- любые надписи (цены, логотипы, водяные знаки, контакты и пр);
-- чёрно-белые фото, фото с рамками и полосками;
-- размытые, нерезкие, некачественные фото;
-- фотографии сделанные в «домашних условиях»: на фоне ковра, мебели с тенями от других предметов.
-Требования к фото 18+
-На изображениях должны быть размыты или скрыты другим образом интимные части тела.
-Краткое требование к ссылкам
-Для загрузки главного фото можно добавить только одну ссылку, лишние ссылки не будут использованы.
-Прямая ссылка на изображение
-По ссылкам должны открываться и скачиваться только сами изображения. Обычно такие ссылки заканчиваются символами: *.jpeg, *.jpg, *.png, но есть исключение – ссылки на Яндекс.Диск. Они доступны в формате https://yadi.sk/i/qUXcCwzmryWINw или https://disk.yandex.ru/i/qUXcCwzmryWINw
-Правильная ссылка:
-- не содержит дополнительных портов;
-- не ведет на HTML-страницу с изображением. Например, нельзя указывать ссылку на обзор товара, в котором есть фотографии;
-- не требует авторизации для доступа к изображению.
-Подробнее о требованиях можно узнать в https://seller-edu.ozon.ru/work-with-goods/trebovaniya-k-kartochkam-tovarov/media/foto-i-video-tovara</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">OZON:Вы можете загрузить товары в xls-шаблоне и API без фото, а потом загрузить фото через карточку товара или раздел «Обновить изображения»
-Требования к изображениям
-- формат: jpeg, jpg, png;
-- разрешение: от 200px на 200px до 4320px на 7680px;
-- размер: не превышает 10МБ;
-- фон: белый или светлый. Для белых или прозрачных товаров допустим черный фон. Для категории товаров Одежда, обувь и аксессуары фон серый (#f2f3f5).
-- название: не может содержать символ «/».Нельзя использовать
-- изображения алкоголя;
-- эскизы товара (например, 3D-модели);
-- любые надписи (цены, логотипы, водяные знаки, контакты и пр);
-- чёрно-белые фото, фото с рамками и полосками;
-- размытые, нерезкие, некачественные фото;
-- фотографии сделанные в «домашних условиях»: на фоне ковра, мебели с тенями от других предметов.
-Требования к фото 18+
-На изображениях должны быть размыты или скрыты другим образом интимные части тела.
-Краткое требование к ссылкам
-Прямая ссылка на изображение
-Если загружаете дополнительные фотографии по отдельности, поочерёдно прикрепите ссылки для каждого изображения. Ограничение по количеству – 14 штук. По ссылкам должны открываться и скачиваться только сами изображения. Обычно такие ссылки заканчиваются символами: *.jpeg, *.jpg, *.png, но есть исключение – ссылки на Яндекс.Диск. Они доступны в формате https://yadi.sk/i/qUXcCwzmryWINw или https://disk.yandex.ru/i/qUXcCwzmryWINw. Разделите ссылки пробелом или знаком переноса строки.
-Правильная ссылка:
-- не содержит дополнительных портов;
-- не ведет на HTML-страницу с изображением. Например, нельзя указывать ссылку на обзор товара, в котором есть фотографии;
-- не требует авторизации для доступа к изображению.
-Ссылка на папку с изображениями
-Можно использовать ссылку на папку с изображениями на Я.Диске. Например, https://yadi.sk/d/qUXcCwzmryWINw или https://disk.yandex.ru/d/qUXcCwzmryWINw
-В качестве дополнительных фото будут использованы 14 изображений из папки.  Если вы хотите, чтобы картинки загрузились в нужном порядке, пронумеруйте их названия. Например, «1», «2», «3» или «фото1», «фото2», «фото3».
-Подробнее о требованиях можно узнать в https://seller-edu.ozon.ru/work-with-goods/trebovaniya-k-kartochkam-tovarov/media/foto-i-video-tovara</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">OZON:Укажите название модели товара. Не указывайте в этом поле тип и бренд. </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b val="true"/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">OZON:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Укажите базовый или доминирующий цвет вашего товара, выбрав значение из списка. Если точного соответствия вы не находите, используйте ближайшие похожие цвета. 
-Сложные цвета нужно описывать перечислением простых цветов. Например, если вы описываете шмеля, и у него, очевидно, преобладают чёрный, жёлтый и белый цвета, то укажите их все простым перечислением. 
-Помните, что атрибут Цвет товара - это базовый цвет, все любые другие цвета вы можете прописать в атрибуте Название цвета.
- </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b val="true"/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">OZON:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Укажите словесное описание цвета вашего товара. Если товар имеет красивое название цвета от поставщика, не ограничивайте себя, укажите его. Для косметики смело пишите номера тонов и оттенков, и даже "Нежная голубая лазурь" будет уместна. </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b val="true"/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">OZON:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Выберите наиболее подходящий тип товара. По типам товары распределяются по категориям на сайте Ozon. Если тип указан неправильно, товар попадет в неверную категорию. Чтобы правильно указать тип, найдите на сайте Ozon товары, похожие на ваш, и посмотрите, какой тип у них указан. </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b val="true"/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">OZON:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Описание товара, маркетинговый текст. Необходимо заполнять на русском языке. </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b val="true"/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">OZON:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Если цвет вашего товара настолько привлекателен, что заслуживает показа на сайте в виде маленькой миниатюры - загружайте сюда его образец. Это может быть крупный фрагмент товара, мазок краски или помады. Главное помните, что это всего лишь миниатюра, не заливайте изображения, содержащие текст или какие-либо пояснительные рисунки, наш сайт сделает его очень маленьким. Проще говоря, если вместо стандартных кружочков простых цветов выбора варианта товара вы желаете показать клиенту реальный цвет, смело заливайте сюда изображение </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b val="true"/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">OZON:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Через точку с запятой укажите ключевые слова и словосочетания, которые описывают ваш товар. Используйте только соответствующие фактическому товару значения. </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">OZON:Измерьте в миллиметрах любую сторону товара в заводской упаковке. Если упаковки нет, то сам товар.
-Изделие неправильной формы измерьте от одного края до другого.
-Комплект из нескольких позиций сложите вместе стопкой.
-Одежду, текстиль, наборы для вышивания сложите пополам в упаковке. https://seller-edu.ozon.ru/docs/work-with-goods/trebovaniya-k-kartochkam-tovarov/ovh.html#как-правильно-измерить-длину-ширину-и-высоту</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">OZON:Измерьте в миллиметрах любую сторону товара в заводской упаковке. Если упаковки нет, то сам товар.
-Изделие неправильной формы измерьте от одного края до другого.
-Комплект из нескольких позиций сложите вместе стопкой.
-Одежду, текстиль, наборы для вышивания сложите пополам в упаковке. https://seller-edu.ozon.ru/docs/work-with-goods/trebovaniya-k-kartochkam-tovarov/ovh.html#как-правильно-измерить-длину-ширину-и-высоту</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">OZON:Измерьте в миллиметрах любую сторону товара в заводской упаковке. Если упаковки нет, то сам товар.
-Изделие неправильной формы измерьте от одного края до другого.
-Комплект из нескольких позиций сложите вместе стопкой.
-Одежду, текстиль, наборы для вышивания сложите пополам в упаковке. https://seller-edu.ozon.ru/docs/work-with-goods/trebovaniya-k-kartochkam-tovarov/ovh.html#как-правильно-измерить-длину-ширину-и-высоту</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b val="true"/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">OZON:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Укажите название для видео </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Q1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b val="true"/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">OZON:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Загрузите файл в формате MP4, WebM, MOV, QT, FLV, AVI. Размер файла не должен превышать 5ГБ </t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="230">
   <si>
     <t xml:space="preserve">Артикул</t>
   </si>
@@ -2546,13 +2132,11 @@
     <t xml:space="preserve">50_Audrey Hepburn</t>
   </si>
   <si>
-    <t xml:space="preserve">нет</t>
-  </si>
-  <si>
-    <t xml:space="preserve">белый</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Video_DTF.mp4</t>
+    <t xml:space="preserve">термонаклейка А4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Punkey Monkey!
+</t>
   </si>
 </sst>
 </file>
@@ -2563,7 +2147,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2654,20 +2238,6 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -2740,7 +2310,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2769,7 +2339,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2825,22 +2395,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2876,7 +2430,7 @@
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFDFDFD"/>
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
@@ -2893,7 +2447,7 @@
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFDFDFD"/>
+      <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
@@ -2941,13 +2495,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BS130"/>
+  <dimension ref="A1:BS125"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S3" activeCellId="0" sqref="S2:S3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="U41" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="W54" activeCellId="0" sqref="W54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="43.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.52"/>
@@ -2967,7 +2521,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="18.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="22.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="12.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="37.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="56.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="22.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="18.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="20.56"/>
@@ -3210,7 +2764,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
         <v>71</v>
       </c>
@@ -3262,8 +2816,9 @@
         <v>77</v>
       </c>
       <c r="S2" s="7" t="str">
-        <f aca="false">CONCATENATE(A2,". Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. ")</f>
-        <v>Термонаклейка Девушка волосы облако. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
+        <f aca="false">A2&amp;Описание!B2</f>
+        <v>Термонаклейка Девушка волосы облако - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Punkey Monkey!
+</v>
       </c>
       <c r="T2" s="0" t="n">
         <v>1</v>
@@ -3281,8 +2836,8 @@
         <v>78</v>
       </c>
       <c r="Y2" s="8" t="str">
-        <f aca="false">CONCATENATE(CONCATENATE(H2,C2,"_1.jpg;"),CONCATENATE(H2,C2,"_2.jpg;"),CONCATENATE(H2,C2,"_3.jpg;"),CONCATENATE(H2,C2,"_4.jpg;"),CONCATENATE(H2,C2,"_5.jpg;"),CONCATENATE(H2,C2,"_6.jpg;"),CONCATENATE(H2,C2,"_7.jpg;"),CONCATENATE(H2,C2,"_8.jpg;"),CONCATENATE(H2,C2,"_9.jpg;"),CONCATENATE(H2,C2,"_10.jpg;"),CONCATENATE(H2,"instruction_A4.jpg;"),CONCATENATE(H2,"Video_DTF.mp4;"))</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
+        <f aca="false">CONCATENATE(CONCATENATE(H2,C2,"_1.jpg;"),CONCATENATE(H2,C2,"_2.jpg;"),CONCATENATE(H2,C2,"_3.jpg;"),CONCATENATE(H2,C2,"_4.jpg;"),CONCATENATE(H2,C2,"_5.jpg;"),CONCATENATE(H2,C2,"_6.jpg;"),CONCATENATE(H2,C2,"_7.jpg;"),CONCATENATE(H2,"instruction_A4.jpg;"),CONCATENATE(H2,"Video_DTF.mp4;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
       </c>
       <c r="AA2" s="0" t="str">
         <f aca="false">A2</f>
@@ -3342,7 +2897,8 @@
       </c>
       <c r="AV2" s="0" t="str">
         <f aca="false">S2</f>
-        <v>Термонаклейка Девушка волосы облако. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
+        <v>Термонаклейка Девушка волосы облако - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Punkey Monkey!
+</v>
       </c>
       <c r="AX2" s="15" t="str">
         <f aca="false">X2</f>
@@ -3424,8 +2980,9 @@
         <v>77</v>
       </c>
       <c r="S3" s="7" t="str">
-        <f aca="false">CONCATENATE(A3,". Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. ")</f>
-        <v>Термонаклейка Девушка очки с краской розовой. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
+        <f aca="false">A3&amp;Описание!B3</f>
+        <v>Термонаклейка Девушка очки с краской розовой - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Punkey Monkey!
+</v>
       </c>
       <c r="T3" s="0" t="n">
         <v>1</v>
@@ -3443,8 +3000,8 @@
         <v>78</v>
       </c>
       <c r="Y3" s="8" t="str">
-        <f aca="false">CONCATENATE(CONCATENATE(H3,C3,"_1.jpg;"),CONCATENATE(H3,C3,"_2.jpg;"),CONCATENATE(H3,C3,"_3.jpg;"),CONCATENATE(H3,C3,"_4.jpg;"),CONCATENATE(H3,C3,"_5.jpg;"),CONCATENATE(H3,C3,"_6.jpg;"),CONCATENATE(H3,C3,"_7.jpg;"),CONCATENATE(H3,C3,"_8.jpg;"),CONCATENATE(H3,C3,"_9.jpg;"),CONCATENATE(H3,C3,"_10.jpg;"),CONCATENATE(H3,"instruction_A4.jpg;"),CONCATENATE(H3,"Video_DTF.mp4;"))</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/2_girl_pink_glasses_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/2_girl_pink_glasses_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/2_girl_pink_glasses_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/2_girl_pink_glasses_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/2_girl_pink_glasses_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/2_girl_pink_glasses_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/2_girl_pink_glasses_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/2_girl_pink_glasses_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/2_girl_pink_glasses_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/2_girl_pink_glasses_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
+        <f aca="false">CONCATENATE(CONCATENATE(H3,C3,"_1.jpg;"),CONCATENATE(H3,C3,"_2.jpg;"),CONCATENATE(H3,C3,"_3.jpg;"),CONCATENATE(H3,C3,"_4.jpg;"),CONCATENATE(H3,C3,"_5.jpg;"),CONCATENATE(H3,C3,"_6.jpg;"),CONCATENATE(H3,C3,"_7.jpg;"),CONCATENATE(H3,"instruction_A4.jpg;"),CONCATENATE(H3,"Video_DTF.mp4;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/2_girl_pink_glasses_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/2_girl_pink_glasses_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/2_girl_pink_glasses_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/2_girl_pink_glasses_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/2_girl_pink_glasses_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/2_girl_pink_glasses_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/2_girl_pink_glasses_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
       </c>
       <c r="AA3" s="0" t="str">
         <f aca="false">A3</f>
@@ -3504,7 +3061,8 @@
       </c>
       <c r="AV3" s="0" t="str">
         <f aca="false">S3</f>
-        <v>Термонаклейка Девушка очки с краской розовой. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
+        <v>Термонаклейка Девушка очки с краской розовой - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Punkey Monkey!
+</v>
       </c>
       <c r="AX3" s="15" t="str">
         <f aca="false">X3</f>
@@ -3586,8 +3144,9 @@
         <v>77</v>
       </c>
       <c r="S4" s="7" t="str">
-        <f aca="false">CONCATENATE(A4,". Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. ")</f>
-        <v>Термонаклейка Мэрилин Монро поп арт вырезки. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
+        <f aca="false">A4&amp;Описание!B4</f>
+        <v>Термонаклейка Мэрилин Монро поп арт вырезки - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Punkey Monkey!
+</v>
       </c>
       <c r="T4" s="0" t="n">
         <v>1</v>
@@ -3605,8 +3164,8 @@
         <v>78</v>
       </c>
       <c r="Y4" s="8" t="str">
-        <f aca="false">CONCATENATE(CONCATENATE(H4,C4,"_1.jpg;"),CONCATENATE(H4,C4,"_2.jpg;"),CONCATENATE(H4,C4,"_3.jpg;"),CONCATENATE(H4,C4,"_4.jpg;"),CONCATENATE(H4,C4,"_5.jpg;"),CONCATENATE(H4,C4,"_6.jpg;"),CONCATENATE(H4,C4,"_7.jpg;"),CONCATENATE(H4,C4,"_8.jpg;"),CONCATENATE(H4,C4,"_9.jpg;"),CONCATENATE(H4,C4,"_10.jpg;"),CONCATENATE(H4,"instruction_A4.jpg;"),CONCATENATE(H4,"Video_DTF.mp4;"))</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/3_merlin_monroe_popart_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/3_merlin_monroe_popart_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/3_merlin_monroe_popart_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/3_merlin_monroe_popart_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/3_merlin_monroe_popart_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/3_merlin_monroe_popart_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/3_merlin_monroe_popart_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/3_merlin_monroe_popart_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/3_merlin_monroe_popart_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/3_merlin_monroe_popart_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
+        <f aca="false">CONCATENATE(CONCATENATE(H4,C4,"_1.jpg;"),CONCATENATE(H4,C4,"_2.jpg;"),CONCATENATE(H4,C4,"_3.jpg;"),CONCATENATE(H4,C4,"_4.jpg;"),CONCATENATE(H4,C4,"_5.jpg;"),CONCATENATE(H4,C4,"_6.jpg;"),CONCATENATE(H4,C4,"_7.jpg;"),CONCATENATE(H4,"instruction_A4.jpg;"),CONCATENATE(H4,"Video_DTF.mp4;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/3_merlin_monroe_popart_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/3_merlin_monroe_popart_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/3_merlin_monroe_popart_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/3_merlin_monroe_popart_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/3_merlin_monroe_popart_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/3_merlin_monroe_popart_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/3_merlin_monroe_popart_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
       </c>
       <c r="AA4" s="0" t="str">
         <f aca="false">A4</f>
@@ -3666,7 +3225,8 @@
       </c>
       <c r="AV4" s="0" t="str">
         <f aca="false">S4</f>
-        <v>Термонаклейка Мэрилин Монро поп арт вырезки. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
+        <v>Термонаклейка Мэрилин Монро поп арт вырезки - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Punkey Monkey!
+</v>
       </c>
       <c r="AX4" s="15" t="str">
         <f aca="false">X4</f>
@@ -3748,8 +3308,9 @@
         <v>77</v>
       </c>
       <c r="S5" s="7" t="str">
-        <f aca="false">CONCATENATE(A5,". Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. ")</f>
-        <v>Термонаклейка Африканская Девушка черный силуэт. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
+        <f aca="false">A5&amp;Описание!B5</f>
+        <v>Термонаклейка Африканская Девушка черный силуэт - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Punkey Monkey!
+</v>
       </c>
       <c r="T5" s="0" t="n">
         <v>1</v>
@@ -3767,8 +3328,8 @@
         <v>78</v>
       </c>
       <c r="Y5" s="8" t="str">
-        <f aca="false">CONCATENATE(CONCATENATE(H5,C5,"_1.jpg;"),CONCATENATE(H5,C5,"_2.jpg;"),CONCATENATE(H5,C5,"_3.jpg;"),CONCATENATE(H5,C5,"_4.jpg;"),CONCATENATE(H5,C5,"_5.jpg;"),CONCATENATE(H5,C5,"_6.jpg;"),CONCATENATE(H5,C5,"_7.jpg;"),CONCATENATE(H5,C5,"_8.jpg;"),CONCATENATE(H5,C5,"_9.jpg;"),CONCATENATE(H5,C5,"_10.jpg;"),CONCATENATE(H5,"instruction_A4.jpg;"),CONCATENATE(H5,"Video_DTF.mp4;"))</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/4_blackgirl1_250_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/4_blackgirl1_250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/4_blackgirl1_250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/4_blackgirl1_250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/4_blackgirl1_250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/4_blackgirl1_250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/4_blackgirl1_250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/4_blackgirl1_250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/4_blackgirl1_250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/4_blackgirl1_250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
+        <f aca="false">CONCATENATE(CONCATENATE(H5,C5,"_1.jpg;"),CONCATENATE(H5,C5,"_2.jpg;"),CONCATENATE(H5,C5,"_3.jpg;"),CONCATENATE(H5,C5,"_4.jpg;"),CONCATENATE(H5,C5,"_5.jpg;"),CONCATENATE(H5,C5,"_6.jpg;"),CONCATENATE(H5,C5,"_7.jpg;"),CONCATENATE(H5,"instruction_A4.jpg;"),CONCATENATE(H5,"Video_DTF.mp4;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/4_blackgirl1_250_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/4_blackgirl1_250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/4_blackgirl1_250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/4_blackgirl1_250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/4_blackgirl1_250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/4_blackgirl1_250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/4_blackgirl1_250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
       </c>
       <c r="AA5" s="0" t="str">
         <f aca="false">A5</f>
@@ -3828,7 +3389,8 @@
       </c>
       <c r="AV5" s="0" t="str">
         <f aca="false">S5</f>
-        <v>Термонаклейка Африканская Девушка черный силуэт. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
+        <v>Термонаклейка Африканская Девушка черный силуэт - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Punkey Monkey!
+</v>
       </c>
       <c r="AX5" s="15" t="str">
         <f aca="false">X5</f>
@@ -3910,8 +3472,9 @@
         <v>77</v>
       </c>
       <c r="S6" s="7" t="str">
-        <f aca="false">CONCATENATE(A6,". Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. ")</f>
-        <v>Термонаклейка Кот Шанель Chanel. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
+        <f aca="false">A6&amp;Описание!B6</f>
+        <v>Термонаклейка Кот Шанель Chanel - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Punkey Monkey!
+</v>
       </c>
       <c r="T6" s="0" t="n">
         <v>1</v>
@@ -3929,8 +3492,8 @@
         <v>78</v>
       </c>
       <c r="Y6" s="8" t="str">
-        <f aca="false">CONCATENATE(CONCATENATE(H6,C6,"_1.jpg;"),CONCATENATE(H6,C6,"_2.jpg;"),CONCATENATE(H6,C6,"_3.jpg;"),CONCATENATE(H6,C6,"_4.jpg;"),CONCATENATE(H6,C6,"_5.jpg;"),CONCATENATE(H6,C6,"_6.jpg;"),CONCATENATE(H6,C6,"_7.jpg;"),CONCATENATE(H6,C6,"_8.jpg;"),CONCATENATE(H6,C6,"_9.jpg;"),CONCATENATE(H6,C6,"_10.jpg;"),CONCATENATE(H6,"instruction_A4.jpg;"),CONCATENATE(H6,"Video_DTF.mp4;"))</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/5_cat_channel_250_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/5_cat_channel_250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/5_cat_channel_250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/5_cat_channel_250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/5_cat_channel_250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/5_cat_channel_250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/5_cat_channel_250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/5_cat_channel_250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/5_cat_channel_250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/5_cat_channel_250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
+        <f aca="false">CONCATENATE(CONCATENATE(H6,C6,"_1.jpg;"),CONCATENATE(H6,C6,"_2.jpg;"),CONCATENATE(H6,C6,"_3.jpg;"),CONCATENATE(H6,C6,"_4.jpg;"),CONCATENATE(H6,C6,"_5.jpg;"),CONCATENATE(H6,C6,"_6.jpg;"),CONCATENATE(H6,C6,"_7.jpg;"),CONCATENATE(H6,"instruction_A4.jpg;"),CONCATENATE(H6,"Video_DTF.mp4;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/5_cat_channel_250_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/5_cat_channel_250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/5_cat_channel_250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/5_cat_channel_250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/5_cat_channel_250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/5_cat_channel_250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/5_cat_channel_250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
       </c>
       <c r="AA6" s="0" t="str">
         <f aca="false">A6</f>
@@ -3990,7 +3553,8 @@
       </c>
       <c r="AV6" s="0" t="str">
         <f aca="false">S6</f>
-        <v>Термонаклейка Кот Шанель Chanel. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
+        <v>Термонаклейка Кот Шанель Chanel - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Punkey Monkey!
+</v>
       </c>
       <c r="AX6" s="15" t="str">
         <f aca="false">X6</f>
@@ -4072,8 +3636,9 @@
         <v>77</v>
       </c>
       <c r="S7" s="7" t="str">
-        <f aca="false">CONCATENATE(A7,". Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. ")</f>
-        <v>Термонаклейка Кот выглядывает радуга. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
+        <f aca="false">A7&amp;Описание!B7</f>
+        <v>Термонаклейка Кот выглядывает радуга - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Punkey Monkey!
+</v>
       </c>
       <c r="T7" s="0" t="n">
         <v>1</v>
@@ -4091,8 +3656,8 @@
         <v>78</v>
       </c>
       <c r="Y7" s="8" t="str">
-        <f aca="false">CONCATENATE(CONCATENATE(H7,C7,"_1.jpg;"),CONCATENATE(H7,C7,"_2.jpg;"),CONCATENATE(H7,C7,"_3.jpg;"),CONCATENATE(H7,C7,"_4.jpg;"),CONCATENATE(H7,C7,"_5.jpg;"),CONCATENATE(H7,C7,"_6.jpg;"),CONCATENATE(H7,C7,"_7.jpg;"),CONCATENATE(H7,C7,"_8.jpg;"),CONCATENATE(H7,C7,"_9.jpg;"),CONCATENATE(H7,C7,"_10.jpg;"),CONCATENATE(H7,"instruction_A4.jpg;"),CONCATENATE(H7,"Video_DTF.mp4;"))</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/6_cat_face_250_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/6_cat_face_250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/6_cat_face_250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/6_cat_face_250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/6_cat_face_250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/6_cat_face_250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/6_cat_face_250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/6_cat_face_250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/6_cat_face_250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/6_cat_face_250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
+        <f aca="false">CONCATENATE(CONCATENATE(H7,C7,"_1.jpg;"),CONCATENATE(H7,C7,"_2.jpg;"),CONCATENATE(H7,C7,"_3.jpg;"),CONCATENATE(H7,C7,"_4.jpg;"),CONCATENATE(H7,C7,"_5.jpg;"),CONCATENATE(H7,C7,"_6.jpg;"),CONCATENATE(H7,C7,"_7.jpg;"),CONCATENATE(H7,"instruction_A4.jpg;"),CONCATENATE(H7,"Video_DTF.mp4;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/6_cat_face_250_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/6_cat_face_250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/6_cat_face_250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/6_cat_face_250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/6_cat_face_250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/6_cat_face_250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/6_cat_face_250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
       </c>
       <c r="AA7" s="0" t="str">
         <f aca="false">A7</f>
@@ -4152,7 +3717,8 @@
       </c>
       <c r="AV7" s="0" t="str">
         <f aca="false">S7</f>
-        <v>Термонаклейка Кот выглядывает радуга. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
+        <v>Термонаклейка Кот выглядывает радуга - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Punkey Monkey!
+</v>
       </c>
       <c r="AX7" s="15" t="str">
         <f aca="false">X7</f>
@@ -4234,8 +3800,9 @@
         <v>77</v>
       </c>
       <c r="S8" s="7" t="str">
-        <f aca="false">CONCATENATE(A8,". Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. ")</f>
-        <v>Термонаклейка Кот картина Ван Гог. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
+        <f aca="false">A8&amp;Описание!B8</f>
+        <v>Термонаклейка Кот картина Ван Гог - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Punkey Monkey!
+</v>
       </c>
       <c r="T8" s="0" t="n">
         <v>1</v>
@@ -4253,8 +3820,8 @@
         <v>78</v>
       </c>
       <c r="Y8" s="8" t="str">
-        <f aca="false">CONCATENATE(CONCATENATE(H8,C8,"_1.jpg;"),CONCATENATE(H8,C8,"_2.jpg;"),CONCATENATE(H8,C8,"_3.jpg;"),CONCATENATE(H8,C8,"_4.jpg;"),CONCATENATE(H8,C8,"_5.jpg;"),CONCATENATE(H8,C8,"_6.jpg;"),CONCATENATE(H8,C8,"_7.jpg;"),CONCATENATE(H8,C8,"_8.jpg;"),CONCATENATE(H8,C8,"_9.jpg;"),CONCATENATE(H8,C8,"_10.jpg;"),CONCATENATE(H8,"instruction_A4.jpg;"),CONCATENATE(H8,"Video_DTF.mp4;"))</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/7_cat250_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/7_cat250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/7_cat250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/7_cat250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/7_cat250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/7_cat250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/7_cat250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/7_cat250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/7_cat250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/7_cat250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
+        <f aca="false">CONCATENATE(CONCATENATE(H8,C8,"_1.jpg;"),CONCATENATE(H8,C8,"_2.jpg;"),CONCATENATE(H8,C8,"_3.jpg;"),CONCATENATE(H8,C8,"_4.jpg;"),CONCATENATE(H8,C8,"_5.jpg;"),CONCATENATE(H8,C8,"_6.jpg;"),CONCATENATE(H8,C8,"_7.jpg;"),CONCATENATE(H8,"instruction_A4.jpg;"),CONCATENATE(H8,"Video_DTF.mp4;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/7_cat250_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/7_cat250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/7_cat250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/7_cat250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/7_cat250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/7_cat250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/7_cat250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
       </c>
       <c r="AA8" s="0" t="str">
         <f aca="false">A8</f>
@@ -4314,7 +3881,8 @@
       </c>
       <c r="AV8" s="0" t="str">
         <f aca="false">S8</f>
-        <v>Термонаклейка Кот картина Ван Гог. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
+        <v>Термонаклейка Кот картина Ван Гог - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Punkey Monkey!
+</v>
       </c>
       <c r="AX8" s="15" t="str">
         <f aca="false">X8</f>
@@ -4396,8 +3964,9 @@
         <v>77</v>
       </c>
       <c r="S9" s="7" t="str">
-        <f aca="false">CONCATENATE(A9,". Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. ")</f>
-        <v>Термонаклейка мультяшный Кот картина Ван Гог. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
+        <f aca="false">A9&amp;Описание!B9</f>
+        <v>Термонаклейка мультяшный Кот картина Ван Гог - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Punkey Monkey!
+</v>
       </c>
       <c r="T9" s="0" t="n">
         <v>1</v>
@@ -4415,8 +3984,8 @@
         <v>78</v>
       </c>
       <c r="Y9" s="8" t="str">
-        <f aca="false">CONCATENATE(CONCATENATE(H9,C9,"_1.jpg;"),CONCATENATE(H9,C9,"_2.jpg;"),CONCATENATE(H9,C9,"_3.jpg;"),CONCATENATE(H9,C9,"_4.jpg;"),CONCATENATE(H9,C9,"_5.jpg;"),CONCATENATE(H9,C9,"_6.jpg;"),CONCATENATE(H9,C9,"_7.jpg;"),CONCATENATE(H9,C9,"_8.jpg;"),CONCATENATE(H9,C9,"_9.jpg;"),CONCATENATE(H9,C9,"_10.jpg;"),CONCATENATE(H9,"instruction_A4.jpg;"),CONCATENATE(H9,"Video_DTF.mp4;"))</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/8_cat250_1_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/8_cat250_1_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/8_cat250_1_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/8_cat250_1_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/8_cat250_1_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/8_cat250_1_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/8_cat250_1_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/8_cat250_1_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/8_cat250_1_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/8_cat250_1_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
+        <f aca="false">CONCATENATE(CONCATENATE(H9,C9,"_1.jpg;"),CONCATENATE(H9,C9,"_2.jpg;"),CONCATENATE(H9,C9,"_3.jpg;"),CONCATENATE(H9,C9,"_4.jpg;"),CONCATENATE(H9,C9,"_5.jpg;"),CONCATENATE(H9,C9,"_6.jpg;"),CONCATENATE(H9,C9,"_7.jpg;"),CONCATENATE(H9,"instruction_A4.jpg;"),CONCATENATE(H9,"Video_DTF.mp4;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/8_cat250_1_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/8_cat250_1_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/8_cat250_1_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/8_cat250_1_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/8_cat250_1_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/8_cat250_1_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/8_cat250_1_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
       </c>
       <c r="AA9" s="0" t="str">
         <f aca="false">A9</f>
@@ -4476,7 +4045,8 @@
       </c>
       <c r="AV9" s="0" t="str">
         <f aca="false">S9</f>
-        <v>Термонаклейка мультяшный Кот картина Ван Гог. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
+        <v>Термонаклейка мультяшный Кот картина Ван Гог - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Punkey Monkey!
+</v>
       </c>
       <c r="AX9" s="15" t="str">
         <f aca="false">X9</f>
@@ -4558,8 +4128,9 @@
         <v>77</v>
       </c>
       <c r="S10" s="7" t="str">
-        <f aca="false">CONCATENATE(A10,". Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. ")</f>
-        <v>Термонаклейка Женщина кошка ест вишинку. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
+        <f aca="false">A10&amp;Описание!B10</f>
+        <v>Термонаклейка Женщина кошка ест вишинку - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Punkey Monkey!
+</v>
       </c>
       <c r="T10" s="0" t="n">
         <v>1</v>
@@ -4577,8 +4148,8 @@
         <v>78</v>
       </c>
       <c r="Y10" s="8" t="str">
-        <f aca="false">CONCATENATE(CONCATENATE(H10,C10,"_1.jpg;"),CONCATENATE(H10,C10,"_2.jpg;"),CONCATENATE(H10,C10,"_3.jpg;"),CONCATENATE(H10,C10,"_4.jpg;"),CONCATENATE(H10,C10,"_5.jpg;"),CONCATENATE(H10,C10,"_6.jpg;"),CONCATENATE(H10,C10,"_7.jpg;"),CONCATENATE(H10,C10,"_8.jpg;"),CONCATENATE(H10,C10,"_9.jpg;"),CONCATENATE(H10,C10,"_10.jpg;"),CONCATENATE(H10,"instruction_A4.jpg;"),CONCATENATE(H10,"Video_DTF.mp4;"))</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/9_cherry_250_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/9_cherry_250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/9_cherry_250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/9_cherry_250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/9_cherry_250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/9_cherry_250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/9_cherry_250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/9_cherry_250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/9_cherry_250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/9_cherry_250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
+        <f aca="false">CONCATENATE(CONCATENATE(H10,C10,"_1.jpg;"),CONCATENATE(H10,C10,"_2.jpg;"),CONCATENATE(H10,C10,"_3.jpg;"),CONCATENATE(H10,C10,"_4.jpg;"),CONCATENATE(H10,C10,"_5.jpg;"),CONCATENATE(H10,C10,"_6.jpg;"),CONCATENATE(H10,C10,"_7.jpg;"),CONCATENATE(H10,"instruction_A4.jpg;"),CONCATENATE(H10,"Video_DTF.mp4;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/9_cherry_250_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/9_cherry_250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/9_cherry_250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/9_cherry_250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/9_cherry_250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/9_cherry_250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/9_cherry_250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
       </c>
       <c r="AA10" s="0" t="str">
         <f aca="false">A10</f>
@@ -4638,7 +4209,8 @@
       </c>
       <c r="AV10" s="0" t="str">
         <f aca="false">S10</f>
-        <v>Термонаклейка Женщина кошка ест вишинку. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
+        <v>Термонаклейка Женщина кошка ест вишинку - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Punkey Monkey!
+</v>
       </c>
       <c r="AX10" s="15" t="str">
         <f aca="false">X10</f>
@@ -4720,8 +4292,9 @@
         <v>77</v>
       </c>
       <c r="S11" s="7" t="str">
-        <f aca="false">CONCATENATE(A11,". Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. ")</f>
-        <v>Термонаклейка Красные перцы. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
+        <f aca="false">A11&amp;Описание!B11</f>
+        <v>Термонаклейка Красные перцы - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Punkey Monkey!
+</v>
       </c>
       <c r="T11" s="0" t="n">
         <v>1</v>
@@ -4739,8 +4312,8 @@
         <v>78</v>
       </c>
       <c r="Y11" s="8" t="str">
-        <f aca="false">CONCATENATE(CONCATENATE(H11,C11,"_1.jpg;"),CONCATENATE(H11,C11,"_2.jpg;"),CONCATENATE(H11,C11,"_3.jpg;"),CONCATENATE(H11,C11,"_4.jpg;"),CONCATENATE(H11,C11,"_5.jpg;"),CONCATENATE(H11,C11,"_6.jpg;"),CONCATENATE(H11,C11,"_7.jpg;"),CONCATENATE(H11,C11,"_8.jpg;"),CONCATENATE(H11,C11,"_9.jpg;"),CONCATENATE(H11,C11,"_10.jpg;"),CONCATENATE(H11,"instruction_A4.jpg;"),CONCATENATE(H11,"Video_DTF.mp4;"))</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/10_chillis_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/10_chillis_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/10_chillis_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/10_chillis_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/10_chillis_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/10_chillis_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/10_chillis_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/10_chillis_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/10_chillis_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/10_chillis_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
+        <f aca="false">CONCATENATE(CONCATENATE(H11,C11,"_1.jpg;"),CONCATENATE(H11,C11,"_2.jpg;"),CONCATENATE(H11,C11,"_3.jpg;"),CONCATENATE(H11,C11,"_4.jpg;"),CONCATENATE(H11,C11,"_5.jpg;"),CONCATENATE(H11,C11,"_6.jpg;"),CONCATENATE(H11,C11,"_7.jpg;"),CONCATENATE(H11,"instruction_A4.jpg;"),CONCATENATE(H11,"Video_DTF.mp4;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/10_chillis_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/10_chillis_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/10_chillis_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/10_chillis_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/10_chillis_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/10_chillis_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/10_chillis_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
       </c>
       <c r="AA11" s="0" t="str">
         <f aca="false">A11</f>
@@ -4800,7 +4373,8 @@
       </c>
       <c r="AV11" s="0" t="str">
         <f aca="false">S11</f>
-        <v>Термонаклейка Красные перцы. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
+        <v>Термонаклейка Красные перцы - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Punkey Monkey!
+</v>
       </c>
       <c r="AX11" s="15" t="str">
         <f aca="false">X11</f>
@@ -4882,8 +4456,9 @@
         <v>77</v>
       </c>
       <c r="S12" s="7" t="str">
-        <f aca="false">CONCATENATE(A12,". Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. ")</f>
-        <v>Термонаклейка Dior Диор Девушка курит облако. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
+        <f aca="false">A12&amp;Описание!B12</f>
+        <v>Термонаклейка Dior Диор Девушка курит облако - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Punkey Monkey!
+</v>
       </c>
       <c r="T12" s="0" t="n">
         <v>1</v>
@@ -4901,8 +4476,8 @@
         <v>78</v>
       </c>
       <c r="Y12" s="8" t="str">
-        <f aca="false">CONCATENATE(CONCATENATE(H12,C12,"_1.jpg;"),CONCATENATE(H12,C12,"_2.jpg;"),CONCATENATE(H12,C12,"_3.jpg;"),CONCATENATE(H12,C12,"_4.jpg;"),CONCATENATE(H12,C12,"_5.jpg;"),CONCATENATE(H12,C12,"_6.jpg;"),CONCATENATE(H12,C12,"_7.jpg;"),CONCATENATE(H12,C12,"_8.jpg;"),CONCATENATE(H12,C12,"_9.jpg;"),CONCATENATE(H12,C12,"_10.jpg;"),CONCATENATE(H12,"instruction_A4.jpg;"),CONCATENATE(H12,"Video_DTF.mp4;"))</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/11_dior2_260_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/11_dior2_260_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/11_dior2_260_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/11_dior2_260_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/11_dior2_260_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/11_dior2_260_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/11_dior2_260_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/11_dior2_260_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/11_dior2_260_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/11_dior2_260_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
+        <f aca="false">CONCATENATE(CONCATENATE(H12,C12,"_1.jpg;"),CONCATENATE(H12,C12,"_2.jpg;"),CONCATENATE(H12,C12,"_3.jpg;"),CONCATENATE(H12,C12,"_4.jpg;"),CONCATENATE(H12,C12,"_5.jpg;"),CONCATENATE(H12,C12,"_6.jpg;"),CONCATENATE(H12,C12,"_7.jpg;"),CONCATENATE(H12,"instruction_A4.jpg;"),CONCATENATE(H12,"Video_DTF.mp4;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/11_dior2_260_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/11_dior2_260_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/11_dior2_260_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/11_dior2_260_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/11_dior2_260_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/11_dior2_260_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/11_dior2_260_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
       </c>
       <c r="AA12" s="0" t="str">
         <f aca="false">A12</f>
@@ -4962,7 +4537,8 @@
       </c>
       <c r="AV12" s="0" t="str">
         <f aca="false">S12</f>
-        <v>Термонаклейка Dior Диор Девушка курит облако. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
+        <v>Термонаклейка Dior Диор Девушка курит облако - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Punkey Monkey!
+</v>
       </c>
       <c r="AX12" s="15" t="str">
         <f aca="false">X12</f>
@@ -5044,8 +4620,9 @@
         <v>77</v>
       </c>
       <c r="S13" s="7" t="str">
-        <f aca="false">CONCATENATE(A13,". Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. ")</f>
-        <v>Термонаклейка Dior Диор Цветы. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
+        <f aca="false">A13&amp;Описание!B13</f>
+        <v>Термонаклейка Dior Диор Цветы - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Punkey Monkey!
+</v>
       </c>
       <c r="T13" s="0" t="n">
         <v>1</v>
@@ -5063,8 +4640,8 @@
         <v>78</v>
       </c>
       <c r="Y13" s="8" t="str">
-        <f aca="false">CONCATENATE(CONCATENATE(H13,C13,"_1.jpg;"),CONCATENATE(H13,C13,"_2.jpg;"),CONCATENATE(H13,C13,"_3.jpg;"),CONCATENATE(H13,C13,"_4.jpg;"),CONCATENATE(H13,C13,"_5.jpg;"),CONCATENATE(H13,C13,"_6.jpg;"),CONCATENATE(H13,C13,"_7.jpg;"),CONCATENATE(H13,C13,"_8.jpg;"),CONCATENATE(H13,C13,"_9.jpg;"),CONCATENATE(H13,C13,"_10.jpg;"),CONCATENATE(H13,"instruction_A4.jpg;"),CONCATENATE(H13,"Video_DTF.mp4;"))</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/12_dior250_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/12_dior250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/12_dior250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/12_dior250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/12_dior250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/12_dior250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/12_dior250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/12_dior250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/12_dior250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/12_dior250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
+        <f aca="false">CONCATENATE(CONCATENATE(H13,C13,"_1.jpg;"),CONCATENATE(H13,C13,"_2.jpg;"),CONCATENATE(H13,C13,"_3.jpg;"),CONCATENATE(H13,C13,"_4.jpg;"),CONCATENATE(H13,C13,"_5.jpg;"),CONCATENATE(H13,C13,"_6.jpg;"),CONCATENATE(H13,C13,"_7.jpg;"),CONCATENATE(H13,"instruction_A4.jpg;"),CONCATENATE(H13,"Video_DTF.mp4;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/12_dior250_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/12_dior250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/12_dior250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/12_dior250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/12_dior250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/12_dior250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/12_dior250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
       </c>
       <c r="AA13" s="0" t="str">
         <f aca="false">A13</f>
@@ -5124,7 +4701,8 @@
       </c>
       <c r="AV13" s="0" t="str">
         <f aca="false">S13</f>
-        <v>Термонаклейка Dior Диор Цветы. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
+        <v>Термонаклейка Dior Диор Цветы - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Punkey Monkey!
+</v>
       </c>
       <c r="AX13" s="15" t="str">
         <f aca="false">X13</f>
@@ -5206,8 +4784,9 @@
         <v>77</v>
       </c>
       <c r="S14" s="7" t="str">
-        <f aca="false">CONCATENATE(A14,". Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. ")</f>
-        <v>Термонаклейка Vogue Вог Эйфелева башня. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
+        <f aca="false">A14&amp;Описание!B14</f>
+        <v>Термонаклейка Vogue Вог Эйфелева башня - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Punkey Monkey!
+</v>
       </c>
       <c r="T14" s="0" t="n">
         <v>1</v>
@@ -5225,8 +4804,8 @@
         <v>78</v>
       </c>
       <c r="Y14" s="8" t="str">
-        <f aca="false">CONCATENATE(CONCATENATE(H14,C14,"_1.jpg;"),CONCATENATE(H14,C14,"_2.jpg;"),CONCATENATE(H14,C14,"_3.jpg;"),CONCATENATE(H14,C14,"_4.jpg;"),CONCATENATE(H14,C14,"_5.jpg;"),CONCATENATE(H14,C14,"_6.jpg;"),CONCATENATE(H14,C14,"_7.jpg;"),CONCATENATE(H14,C14,"_8.jpg;"),CONCATENATE(H14,C14,"_9.jpg;"),CONCATENATE(H14,C14,"_10.jpg;"),CONCATENATE(H14,"instruction_A4.jpg;"),CONCATENATE(H14,"Video_DTF.mp4;"))</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/13_efel250_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/13_efel250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/13_efel250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/13_efel250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/13_efel250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/13_efel250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/13_efel250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/13_efel250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/13_efel250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/13_efel250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
+        <f aca="false">CONCATENATE(CONCATENATE(H14,C14,"_1.jpg;"),CONCATENATE(H14,C14,"_2.jpg;"),CONCATENATE(H14,C14,"_3.jpg;"),CONCATENATE(H14,C14,"_4.jpg;"),CONCATENATE(H14,C14,"_5.jpg;"),CONCATENATE(H14,C14,"_6.jpg;"),CONCATENATE(H14,C14,"_7.jpg;"),CONCATENATE(H14,"instruction_A4.jpg;"),CONCATENATE(H14,"Video_DTF.mp4;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/13_efel250_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/13_efel250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/13_efel250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/13_efel250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/13_efel250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/13_efel250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/13_efel250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
       </c>
       <c r="AA14" s="0" t="str">
         <f aca="false">A14</f>
@@ -5286,7 +4865,8 @@
       </c>
       <c r="AV14" s="0" t="str">
         <f aca="false">S14</f>
-        <v>Термонаклейка Vogue Вог Эйфелева башня. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
+        <v>Термонаклейка Vogue Вог Эйфелева башня - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Punkey Monkey!
+</v>
       </c>
       <c r="AX14" s="15" t="str">
         <f aca="false">X14</f>
@@ -5368,8 +4948,9 @@
         <v>77</v>
       </c>
       <c r="S15" s="7" t="str">
-        <f aca="false">CONCATENATE(A15,". Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. ")</f>
-        <v>Термонаклейка Бюст статуи Feelings скрыты глаза. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
+        <f aca="false">A15&amp;Описание!B15</f>
+        <v>Термонаклейка Бюст статуи Feelings скрыты глаза - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Punkey Monkey!
+</v>
       </c>
       <c r="T15" s="0" t="n">
         <v>1</v>
@@ -5387,8 +4968,8 @@
         <v>78</v>
       </c>
       <c r="Y15" s="8" t="str">
-        <f aca="false">CONCATENATE(CONCATENATE(H15,C15,"_1.jpg;"),CONCATENATE(H15,C15,"_2.jpg;"),CONCATENATE(H15,C15,"_3.jpg;"),CONCATENATE(H15,C15,"_4.jpg;"),CONCATENATE(H15,C15,"_5.jpg;"),CONCATENATE(H15,C15,"_6.jpg;"),CONCATENATE(H15,C15,"_7.jpg;"),CONCATENATE(H15,C15,"_8.jpg;"),CONCATENATE(H15,C15,"_9.jpg;"),CONCATENATE(H15,C15,"_10.jpg;"),CONCATENATE(H15,"instruction_A4.jpg;"),CONCATENATE(H15,"Video_DTF.mp4;"))</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/14_feelings_250_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/14_feelings_250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/14_feelings_250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/14_feelings_250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/14_feelings_250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/14_feelings_250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/14_feelings_250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/14_feelings_250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/14_feelings_250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/14_feelings_250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
+        <f aca="false">CONCATENATE(CONCATENATE(H15,C15,"_1.jpg;"),CONCATENATE(H15,C15,"_2.jpg;"),CONCATENATE(H15,C15,"_3.jpg;"),CONCATENATE(H15,C15,"_4.jpg;"),CONCATENATE(H15,C15,"_5.jpg;"),CONCATENATE(H15,C15,"_6.jpg;"),CONCATENATE(H15,C15,"_7.jpg;"),CONCATENATE(H15,"instruction_A4.jpg;"),CONCATENATE(H15,"Video_DTF.mp4;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/14_feelings_250_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/14_feelings_250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/14_feelings_250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/14_feelings_250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/14_feelings_250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/14_feelings_250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/14_feelings_250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
       </c>
       <c r="AA15" s="0" t="str">
         <f aca="false">A15</f>
@@ -5448,7 +5029,8 @@
       </c>
       <c r="AV15" s="0" t="str">
         <f aca="false">S15</f>
-        <v>Термонаклейка Бюст статуи Feelings скрыты глаза. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
+        <v>Термонаклейка Бюст статуи Feelings скрыты глаза - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Punkey Monkey!
+</v>
       </c>
       <c r="AX15" s="15" t="str">
         <f aca="false">X15</f>
@@ -5530,8 +5112,9 @@
         <v>77</v>
       </c>
       <c r="S16" s="7" t="str">
-        <f aca="false">CONCATENATE(A16,". Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. ")</f>
-        <v>Термонаклейка Рыба паттерн яркая красивая. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
+        <f aca="false">A16&amp;Описание!B16</f>
+        <v>Термонаклейка Рыба паттерн яркая красивая - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Punkey Monkey!
+</v>
       </c>
       <c r="T16" s="0" t="n">
         <v>1</v>
@@ -5549,8 +5132,8 @@
         <v>78</v>
       </c>
       <c r="Y16" s="8" t="str">
-        <f aca="false">CONCATENATE(CONCATENATE(H16,C16,"_1.jpg;"),CONCATENATE(H16,C16,"_2.jpg;"),CONCATENATE(H16,C16,"_3.jpg;"),CONCATENATE(H16,C16,"_4.jpg;"),CONCATENATE(H16,C16,"_5.jpg;"),CONCATENATE(H16,C16,"_6.jpg;"),CONCATENATE(H16,C16,"_7.jpg;"),CONCATENATE(H16,C16,"_8.jpg;"),CONCATENATE(H16,C16,"_9.jpg;"),CONCATENATE(H16,C16,"_10.jpg;"),CONCATENATE(H16,"instruction_A4.jpg;"),CONCATENATE(H16,"Video_DTF.mp4;"))</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/15_fish250_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/15_fish250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/15_fish250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/15_fish250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/15_fish250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/15_fish250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/15_fish250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/15_fish250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/15_fish250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/15_fish250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
+        <f aca="false">CONCATENATE(CONCATENATE(H16,C16,"_1.jpg;"),CONCATENATE(H16,C16,"_2.jpg;"),CONCATENATE(H16,C16,"_3.jpg;"),CONCATENATE(H16,C16,"_4.jpg;"),CONCATENATE(H16,C16,"_5.jpg;"),CONCATENATE(H16,C16,"_6.jpg;"),CONCATENATE(H16,C16,"_7.jpg;"),CONCATENATE(H16,"instruction_A4.jpg;"),CONCATENATE(H16,"Video_DTF.mp4;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/15_fish250_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/15_fish250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/15_fish250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/15_fish250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/15_fish250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/15_fish250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/15_fish250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
       </c>
       <c r="AA16" s="0" t="str">
         <f aca="false">A16</f>
@@ -5610,7 +5193,8 @@
       </c>
       <c r="AV16" s="0" t="str">
         <f aca="false">S16</f>
-        <v>Термонаклейка Рыба паттерн яркая красивая. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
+        <v>Термонаклейка Рыба паттерн яркая красивая - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Punkey Monkey!
+</v>
       </c>
       <c r="AX16" s="15" t="str">
         <f aca="false">X16</f>
@@ -5692,8 +5276,9 @@
         <v>77</v>
       </c>
       <c r="S17" s="7" t="str">
-        <f aca="false">CONCATENATE(A17,". Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. ")</f>
-        <v>Термонаклейка Розовый Фламинго цветок. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
+        <f aca="false">A17&amp;Описание!B17</f>
+        <v>Термонаклейка Розовый Фламинго цветок - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Punkey Monkey!
+</v>
       </c>
       <c r="T17" s="0" t="n">
         <v>1</v>
@@ -5711,8 +5296,8 @@
         <v>78</v>
       </c>
       <c r="Y17" s="8" t="str">
-        <f aca="false">CONCATENATE(CONCATENATE(H17,C17,"_1.jpg;"),CONCATENATE(H17,C17,"_2.jpg;"),CONCATENATE(H17,C17,"_3.jpg;"),CONCATENATE(H17,C17,"_4.jpg;"),CONCATENATE(H17,C17,"_5.jpg;"),CONCATENATE(H17,C17,"_6.jpg;"),CONCATENATE(H17,C17,"_7.jpg;"),CONCATENATE(H17,C17,"_8.jpg;"),CONCATENATE(H17,C17,"_9.jpg;"),CONCATENATE(H17,C17,"_10.jpg;"),CONCATENATE(H17,"instruction_A4.jpg;"),CONCATENATE(H17,"Video_DTF.mp4;"))</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/16_flamingo250_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/16_flamingo250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/16_flamingo250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/16_flamingo250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/16_flamingo250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/16_flamingo250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/16_flamingo250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/16_flamingo250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/16_flamingo250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/16_flamingo250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
+        <f aca="false">CONCATENATE(CONCATENATE(H17,C17,"_1.jpg;"),CONCATENATE(H17,C17,"_2.jpg;"),CONCATENATE(H17,C17,"_3.jpg;"),CONCATENATE(H17,C17,"_4.jpg;"),CONCATENATE(H17,C17,"_5.jpg;"),CONCATENATE(H17,C17,"_6.jpg;"),CONCATENATE(H17,C17,"_7.jpg;"),CONCATENATE(H17,"instruction_A4.jpg;"),CONCATENATE(H17,"Video_DTF.mp4;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/16_flamingo250_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/16_flamingo250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/16_flamingo250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/16_flamingo250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/16_flamingo250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/16_flamingo250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/16_flamingo250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
       </c>
       <c r="AA17" s="0" t="str">
         <f aca="false">A17</f>
@@ -5772,7 +5357,8 @@
       </c>
       <c r="AV17" s="0" t="str">
         <f aca="false">S17</f>
-        <v>Термонаклейка Розовый Фламинго цветок. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
+        <v>Термонаклейка Розовый Фламинго цветок - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Punkey Monkey!
+</v>
       </c>
       <c r="AX17" s="15" t="str">
         <f aca="false">X17</f>
@@ -5854,8 +5440,9 @@
         <v>77</v>
       </c>
       <c r="S18" s="7" t="str">
-        <f aca="false">CONCATENATE(A18,". Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. ")</f>
-        <v>Термонаклейка Дали Ван Гог Фрида Кало в машине. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
+        <f aca="false">A18&amp;Описание!B18</f>
+        <v>Термонаклейка Дали Ван Гог Фрида Кало в машине - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Punkey Monkey!
+</v>
       </c>
       <c r="T18" s="0" t="n">
         <v>1</v>
@@ -5873,8 +5460,8 @@
         <v>78</v>
       </c>
       <c r="Y18" s="8" t="str">
-        <f aca="false">CONCATENATE(CONCATENATE(H18,C18,"_1.jpg;"),CONCATENATE(H18,C18,"_2.jpg;"),CONCATENATE(H18,C18,"_3.jpg;"),CONCATENATE(H18,C18,"_4.jpg;"),CONCATENATE(H18,C18,"_5.jpg;"),CONCATENATE(H18,C18,"_6.jpg;"),CONCATENATE(H18,C18,"_7.jpg;"),CONCATENATE(H18,C18,"_8.jpg;"),CONCATENATE(H18,C18,"_9.jpg;"),CONCATENATE(H18,C18,"_10.jpg;"),CONCATENATE(H18,"instruction_A4.jpg;"),CONCATENATE(H18,"Video_DTF.mp4;"))</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/17_freands1_250_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/17_freands1_250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/17_freands1_250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/17_freands1_250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/17_freands1_250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/17_freands1_250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/17_freands1_250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/17_freands1_250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/17_freands1_250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/17_freands1_250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
+        <f aca="false">CONCATENATE(CONCATENATE(H18,C18,"_1.jpg;"),CONCATENATE(H18,C18,"_2.jpg;"),CONCATENATE(H18,C18,"_3.jpg;"),CONCATENATE(H18,C18,"_4.jpg;"),CONCATENATE(H18,C18,"_5.jpg;"),CONCATENATE(H18,C18,"_6.jpg;"),CONCATENATE(H18,C18,"_7.jpg;"),CONCATENATE(H18,"instruction_A4.jpg;"),CONCATENATE(H18,"Video_DTF.mp4;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/17_freands1_250_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/17_freands1_250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/17_freands1_250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/17_freands1_250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/17_freands1_250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/17_freands1_250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/17_freands1_250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
       </c>
       <c r="AA18" s="0" t="str">
         <f aca="false">A18</f>
@@ -5934,7 +5521,8 @@
       </c>
       <c r="AV18" s="0" t="str">
         <f aca="false">S18</f>
-        <v>Термонаклейка Дали Ван Гог Фрида Кало в машине. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
+        <v>Термонаклейка Дали Ван Гог Фрида Кало в машине - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Punkey Monkey!
+</v>
       </c>
       <c r="AX18" s="15" t="str">
         <f aca="false">X18</f>
@@ -6016,8 +5604,9 @@
         <v>77</v>
       </c>
       <c r="S19" s="7" t="str">
-        <f aca="false">CONCATENATE(A19,". Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. ")</f>
-        <v>Термонаклейка Женщина кошка пьет молоко из стакана. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
+        <f aca="false">A19&amp;Описание!B19</f>
+        <v>Термонаклейка Женщина кошка пьет молоко из стакана - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Punkey Monkey!
+</v>
       </c>
       <c r="T19" s="0" t="n">
         <v>1</v>
@@ -6035,8 +5624,8 @@
         <v>78</v>
       </c>
       <c r="Y19" s="8" t="str">
-        <f aca="false">CONCATENATE(CONCATENATE(H19,C19,"_1.jpg;"),CONCATENATE(H19,C19,"_2.jpg;"),CONCATENATE(H19,C19,"_3.jpg;"),CONCATENATE(H19,C19,"_4.jpg;"),CONCATENATE(H19,C19,"_5.jpg;"),CONCATENATE(H19,C19,"_6.jpg;"),CONCATENATE(H19,C19,"_7.jpg;"),CONCATENATE(H19,C19,"_8.jpg;"),CONCATENATE(H19,C19,"_9.jpg;"),CONCATENATE(H19,C19,"_10.jpg;"),CONCATENATE(H19,"instruction_A4.jpg;"),CONCATENATE(H19,"Video_DTF.mp4;"))</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/18_girl_drink_250_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/18_girl_drink_250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/18_girl_drink_250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/18_girl_drink_250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/18_girl_drink_250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/18_girl_drink_250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/18_girl_drink_250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/18_girl_drink_250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/18_girl_drink_250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/18_girl_drink_250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
+        <f aca="false">CONCATENATE(CONCATENATE(H19,C19,"_1.jpg;"),CONCATENATE(H19,C19,"_2.jpg;"),CONCATENATE(H19,C19,"_3.jpg;"),CONCATENATE(H19,C19,"_4.jpg;"),CONCATENATE(H19,C19,"_5.jpg;"),CONCATENATE(H19,C19,"_6.jpg;"),CONCATENATE(H19,C19,"_7.jpg;"),CONCATENATE(H19,"instruction_A4.jpg;"),CONCATENATE(H19,"Video_DTF.mp4;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/18_girl_drink_250_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/18_girl_drink_250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/18_girl_drink_250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/18_girl_drink_250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/18_girl_drink_250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/18_girl_drink_250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/18_girl_drink_250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
       </c>
       <c r="AA19" s="0" t="str">
         <f aca="false">A19</f>
@@ -6096,7 +5685,8 @@
       </c>
       <c r="AV19" s="0" t="str">
         <f aca="false">S19</f>
-        <v>Термонаклейка Женщина кошка пьет молоко из стакана. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
+        <v>Термонаклейка Женщина кошка пьет молоко из стакана - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Punkey Monkey!
+</v>
       </c>
       <c r="AX19" s="15" t="str">
         <f aca="false">X19</f>
@@ -6178,8 +5768,9 @@
         <v>77</v>
       </c>
       <c r="S20" s="7" t="str">
-        <f aca="false">CONCATENATE(A20,". Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. ")</f>
-        <v>Термонаклейка Африка Девушка разнацветные воосы. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
+        <f aca="false">A20&amp;Описание!B20</f>
+        <v>Термонаклейка Африка Девушка разнацветные воосы - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Punkey Monkey!
+</v>
       </c>
       <c r="T20" s="0" t="n">
         <v>1</v>
@@ -6197,8 +5788,8 @@
         <v>78</v>
       </c>
       <c r="Y20" s="8" t="str">
-        <f aca="false">CONCATENATE(CONCATENATE(H20,C20,"_1.jpg;"),CONCATENATE(H20,C20,"_2.jpg;"),CONCATENATE(H20,C20,"_3.jpg;"),CONCATENATE(H20,C20,"_4.jpg;"),CONCATENATE(H20,C20,"_5.jpg;"),CONCATENATE(H20,C20,"_6.jpg;"),CONCATENATE(H20,C20,"_7.jpg;"),CONCATENATE(H20,C20,"_8.jpg;"),CONCATENATE(H20,C20,"_9.jpg;"),CONCATENATE(H20,C20,"_10.jpg;"),CONCATENATE(H20,"instruction_A4.jpg;"),CONCATENATE(H20,"Video_DTF.mp4;"))</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/19_girl_hair_250_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/19_girl_hair_250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/19_girl_hair_250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/19_girl_hair_250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/19_girl_hair_250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/19_girl_hair_250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/19_girl_hair_250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/19_girl_hair_250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/19_girl_hair_250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/19_girl_hair_250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
+        <f aca="false">CONCATENATE(CONCATENATE(H20,C20,"_1.jpg;"),CONCATENATE(H20,C20,"_2.jpg;"),CONCATENATE(H20,C20,"_3.jpg;"),CONCATENATE(H20,C20,"_4.jpg;"),CONCATENATE(H20,C20,"_5.jpg;"),CONCATENATE(H20,C20,"_6.jpg;"),CONCATENATE(H20,C20,"_7.jpg;"),CONCATENATE(H20,"instruction_A4.jpg;"),CONCATENATE(H20,"Video_DTF.mp4;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/19_girl_hair_250_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/19_girl_hair_250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/19_girl_hair_250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/19_girl_hair_250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/19_girl_hair_250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/19_girl_hair_250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/19_girl_hair_250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
       </c>
       <c r="AA20" s="0" t="str">
         <f aca="false">A20</f>
@@ -6258,7 +5849,8 @@
       </c>
       <c r="AV20" s="0" t="str">
         <f aca="false">S20</f>
-        <v>Термонаклейка Африка Девушка разнацветные воосы. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
+        <v>Термонаклейка Африка Девушка разнацветные воосы - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Punkey Monkey!
+</v>
       </c>
       <c r="AX20" s="15" t="str">
         <f aca="false">X20</f>
@@ -6340,8 +5932,9 @@
         <v>77</v>
       </c>
       <c r="S21" s="7" t="str">
-        <f aca="false">CONCATENATE(A21,". Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. ")</f>
-        <v>Термонаклейка Леопардовая блондинка девушка mood. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
+        <f aca="false">A21&amp;Описание!B21</f>
+        <v>Термонаклейка Леопардовая блондинка девушка mood - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Punkey Monkey!
+</v>
       </c>
       <c r="T21" s="0" t="n">
         <v>1</v>
@@ -6359,8 +5952,8 @@
         <v>78</v>
       </c>
       <c r="Y21" s="8" t="str">
-        <f aca="false">CONCATENATE(CONCATENATE(H21,C21,"_1.jpg;"),CONCATENATE(H21,C21,"_2.jpg;"),CONCATENATE(H21,C21,"_3.jpg;"),CONCATENATE(H21,C21,"_4.jpg;"),CONCATENATE(H21,C21,"_5.jpg;"),CONCATENATE(H21,C21,"_6.jpg;"),CONCATENATE(H21,C21,"_7.jpg;"),CONCATENATE(H21,C21,"_8.jpg;"),CONCATENATE(H21,C21,"_9.jpg;"),CONCATENATE(H21,C21,"_10.jpg;"),CONCATENATE(H21,"instruction_A4.jpg;"),CONCATENATE(H21,"Video_DTF.mp4;"))</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/20_girl1_260_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/20_girl1_260_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/20_girl1_260_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/20_girl1_260_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/20_girl1_260_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/20_girl1_260_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/20_girl1_260_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/20_girl1_260_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/20_girl1_260_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/20_girl1_260_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
+        <f aca="false">CONCATENATE(CONCATENATE(H21,C21,"_1.jpg;"),CONCATENATE(H21,C21,"_2.jpg;"),CONCATENATE(H21,C21,"_3.jpg;"),CONCATENATE(H21,C21,"_4.jpg;"),CONCATENATE(H21,C21,"_5.jpg;"),CONCATENATE(H21,C21,"_6.jpg;"),CONCATENATE(H21,C21,"_7.jpg;"),CONCATENATE(H21,"instruction_A4.jpg;"),CONCATENATE(H21,"Video_DTF.mp4;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/20_girl1_260_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/20_girl1_260_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/20_girl1_260_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/20_girl1_260_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/20_girl1_260_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/20_girl1_260_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/20_girl1_260_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
       </c>
       <c r="AA21" s="0" t="str">
         <f aca="false">A21</f>
@@ -6420,7 +6013,8 @@
       </c>
       <c r="AV21" s="0" t="str">
         <f aca="false">S21</f>
-        <v>Термонаклейка Леопардовая блондинка девушка mood. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
+        <v>Термонаклейка Леопардовая блондинка девушка mood - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Punkey Monkey!
+</v>
       </c>
       <c r="AX21" s="15" t="str">
         <f aca="false">X21</f>
@@ -6502,8 +6096,9 @@
         <v>77</v>
       </c>
       <c r="S22" s="7" t="str">
-        <f aca="false">CONCATENATE(A22,". Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. ")</f>
-        <v>Термонаклейка Цветы Черный Силуэт Девушки. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
+        <f aca="false">A22&amp;Описание!B22</f>
+        <v>Термонаклейка Цветы Черный Силуэт Девушки - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Punkey Monkey!
+</v>
       </c>
       <c r="T22" s="0" t="n">
         <v>1</v>
@@ -6521,8 +6116,8 @@
         <v>78</v>
       </c>
       <c r="Y22" s="8" t="str">
-        <f aca="false">CONCATENATE(CONCATENATE(H22,C22,"_1.jpg;"),CONCATENATE(H22,C22,"_2.jpg;"),CONCATENATE(H22,C22,"_3.jpg;"),CONCATENATE(H22,C22,"_4.jpg;"),CONCATENATE(H22,C22,"_5.jpg;"),CONCATENATE(H22,C22,"_6.jpg;"),CONCATENATE(H22,C22,"_7.jpg;"),CONCATENATE(H22,C22,"_8.jpg;"),CONCATENATE(H22,C22,"_9.jpg;"),CONCATENATE(H22,C22,"_10.jpg;"),CONCATENATE(H22,"instruction_A4.jpg;"),CONCATENATE(H22,"Video_DTF.mp4;"))</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/21_head250_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/21_head250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/21_head250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/21_head250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/21_head250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/21_head250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/21_head250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/21_head250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/21_head250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/21_head250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
+        <f aca="false">CONCATENATE(CONCATENATE(H22,C22,"_1.jpg;"),CONCATENATE(H22,C22,"_2.jpg;"),CONCATENATE(H22,C22,"_3.jpg;"),CONCATENATE(H22,C22,"_4.jpg;"),CONCATENATE(H22,C22,"_5.jpg;"),CONCATENATE(H22,C22,"_6.jpg;"),CONCATENATE(H22,C22,"_7.jpg;"),CONCATENATE(H22,"instruction_A4.jpg;"),CONCATENATE(H22,"Video_DTF.mp4;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/21_head250_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/21_head250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/21_head250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/21_head250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/21_head250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/21_head250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/21_head250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
       </c>
       <c r="AA22" s="0" t="str">
         <f aca="false">A22</f>
@@ -6582,7 +6177,8 @@
       </c>
       <c r="AV22" s="0" t="str">
         <f aca="false">S22</f>
-        <v>Термонаклейка Цветы Черный Силуэт Девушки. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
+        <v>Термонаклейка Цветы Черный Силуэт Девушки - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Punkey Monkey!
+</v>
       </c>
       <c r="AX22" s="15" t="str">
         <f aca="false">X22</f>
@@ -6664,8 +6260,9 @@
         <v>77</v>
       </c>
       <c r="S23" s="7" t="str">
-        <f aca="false">CONCATENATE(A23,". Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. ")</f>
-        <v>Термонаклейка Леопардовое сердце поцелуй губ. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
+        <f aca="false">A23&amp;Описание!B23</f>
+        <v>Термонаклейка Леопардовое сердце поцелуй губ - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Punkey Monkey!
+</v>
       </c>
       <c r="T23" s="0" t="n">
         <v>1</v>
@@ -6683,8 +6280,8 @@
         <v>78</v>
       </c>
       <c r="Y23" s="8" t="str">
-        <f aca="false">CONCATENATE(CONCATENATE(H23,C23,"_1.jpg;"),CONCATENATE(H23,C23,"_2.jpg;"),CONCATENATE(H23,C23,"_3.jpg;"),CONCATENATE(H23,C23,"_4.jpg;"),CONCATENATE(H23,C23,"_5.jpg;"),CONCATENATE(H23,C23,"_6.jpg;"),CONCATENATE(H23,C23,"_7.jpg;"),CONCATENATE(H23,C23,"_8.jpg;"),CONCATENATE(H23,C23,"_9.jpg;"),CONCATENATE(H23,C23,"_10.jpg;"),CONCATENATE(H23,"instruction_A4.jpg;"),CONCATENATE(H23,"Video_DTF.mp4;"))</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/22_heart2_20_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/22_heart2_20_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/22_heart2_20_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/22_heart2_20_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/22_heart2_20_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/22_heart2_20_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/22_heart2_20_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/22_heart2_20_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/22_heart2_20_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/22_heart2_20_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
+        <f aca="false">CONCATENATE(CONCATENATE(H23,C23,"_1.jpg;"),CONCATENATE(H23,C23,"_2.jpg;"),CONCATENATE(H23,C23,"_3.jpg;"),CONCATENATE(H23,C23,"_4.jpg;"),CONCATENATE(H23,C23,"_5.jpg;"),CONCATENATE(H23,C23,"_6.jpg;"),CONCATENATE(H23,C23,"_7.jpg;"),CONCATENATE(H23,"instruction_A4.jpg;"),CONCATENATE(H23,"Video_DTF.mp4;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/22_heart2_20_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/22_heart2_20_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/22_heart2_20_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/22_heart2_20_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/22_heart2_20_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/22_heart2_20_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/22_heart2_20_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
       </c>
       <c r="AA23" s="0" t="str">
         <f aca="false">A23</f>
@@ -6744,7 +6341,8 @@
       </c>
       <c r="AV23" s="0" t="str">
         <f aca="false">S23</f>
-        <v>Термонаклейка Леопардовое сердце поцелуй губ. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
+        <v>Термонаклейка Леопардовое сердце поцелуй губ - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Punkey Monkey!
+</v>
       </c>
       <c r="AX23" s="15" t="str">
         <f aca="false">X23</f>
@@ -6826,8 +6424,9 @@
         <v>77</v>
       </c>
       <c r="S24" s="7" t="str">
-        <f aca="false">CONCATENATE(A24,". Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. ")</f>
-        <v>Термонаклейка Девушка с чупа чупсом I dont care. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
+        <f aca="false">A24&amp;Описание!B24</f>
+        <v>Термонаклейка Девушка с чупа чупсом I dont care - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Punkey Monkey!
+</v>
       </c>
       <c r="T24" s="0" t="n">
         <v>1</v>
@@ -6845,8 +6444,8 @@
         <v>78</v>
       </c>
       <c r="Y24" s="8" t="str">
-        <f aca="false">CONCATENATE(CONCATENATE(H24,C24,"_1.jpg;"),CONCATENATE(H24,C24,"_2.jpg;"),CONCATENATE(H24,C24,"_3.jpg;"),CONCATENATE(H24,C24,"_4.jpg;"),CONCATENATE(H24,C24,"_5.jpg;"),CONCATENATE(H24,C24,"_6.jpg;"),CONCATENATE(H24,C24,"_7.jpg;"),CONCATENATE(H24,C24,"_8.jpg;"),CONCATENATE(H24,C24,"_9.jpg;"),CONCATENATE(H24,C24,"_10.jpg;"),CONCATENATE(H24,"instruction_A4.jpg;"),CONCATENATE(H24,"Video_DTF.mp4;"))</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/24_idontcare_250_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/24_idontcare_250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/24_idontcare_250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/24_idontcare_250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/24_idontcare_250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/24_idontcare_250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/24_idontcare_250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/24_idontcare_250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/24_idontcare_250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/24_idontcare_250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
+        <f aca="false">CONCATENATE(CONCATENATE(H24,C24,"_1.jpg;"),CONCATENATE(H24,C24,"_2.jpg;"),CONCATENATE(H24,C24,"_3.jpg;"),CONCATENATE(H24,C24,"_4.jpg;"),CONCATENATE(H24,C24,"_5.jpg;"),CONCATENATE(H24,C24,"_6.jpg;"),CONCATENATE(H24,C24,"_7.jpg;"),CONCATENATE(H24,"instruction_A4.jpg;"),CONCATENATE(H24,"Video_DTF.mp4;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/24_idontcare_250_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/24_idontcare_250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/24_idontcare_250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/24_idontcare_250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/24_idontcare_250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/24_idontcare_250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/24_idontcare_250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
       </c>
       <c r="AA24" s="0" t="str">
         <f aca="false">A24</f>
@@ -6906,7 +6505,8 @@
       </c>
       <c r="AV24" s="0" t="str">
         <f aca="false">S24</f>
-        <v>Термонаклейка Девушка с чупа чупсом I dont care. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
+        <v>Термонаклейка Девушка с чупа чупсом I dont care - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Punkey Monkey!
+</v>
       </c>
       <c r="AX24" s="15" t="str">
         <f aca="false">X24</f>
@@ -6988,8 +6588,9 @@
         <v>77</v>
       </c>
       <c r="S25" s="7" t="str">
-        <f aca="false">CONCATENATE(A25,". Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. ")</f>
-        <v>Термонаклейка Аниме девочка с мечом розовые волосы. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
+        <f aca="false">A25&amp;Описание!B25</f>
+        <v>Термонаклейка Аниме девочка с мечом розовые волосы - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Punkey Monkey!
+</v>
       </c>
       <c r="T25" s="0" t="n">
         <v>1</v>
@@ -7007,8 +6608,8 @@
         <v>78</v>
       </c>
       <c r="Y25" s="8" t="str">
-        <f aca="false">CONCATENATE(CONCATENATE(H25,C25,"_1.jpg;"),CONCATENATE(H25,C25,"_2.jpg;"),CONCATENATE(H25,C25,"_3.jpg;"),CONCATENATE(H25,C25,"_4.jpg;"),CONCATENATE(H25,C25,"_5.jpg;"),CONCATENATE(H25,C25,"_6.jpg;"),CONCATENATE(H25,C25,"_7.jpg;"),CONCATENATE(H25,C25,"_8.jpg;"),CONCATENATE(H25,C25,"_9.jpg;"),CONCATENATE(H25,C25,"_10.jpg;"),CONCATENATE(H25,"instruction_A4.jpg;"),CONCATENATE(H25,"Video_DTF.mp4;"))</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/25_japan1_250_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/25_japan1_250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/25_japan1_250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/25_japan1_250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/25_japan1_250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/25_japan1_250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/25_japan1_250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/25_japan1_250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/25_japan1_250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/25_japan1_250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
+        <f aca="false">CONCATENATE(CONCATENATE(H25,C25,"_1.jpg;"),CONCATENATE(H25,C25,"_2.jpg;"),CONCATENATE(H25,C25,"_3.jpg;"),CONCATENATE(H25,C25,"_4.jpg;"),CONCATENATE(H25,C25,"_5.jpg;"),CONCATENATE(H25,C25,"_6.jpg;"),CONCATENATE(H25,C25,"_7.jpg;"),CONCATENATE(H25,"instruction_A4.jpg;"),CONCATENATE(H25,"Video_DTF.mp4;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/25_japan1_250_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/25_japan1_250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/25_japan1_250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/25_japan1_250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/25_japan1_250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/25_japan1_250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/25_japan1_250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
       </c>
       <c r="AA25" s="0" t="str">
         <f aca="false">A25</f>
@@ -7068,7 +6669,8 @@
       </c>
       <c r="AV25" s="0" t="str">
         <f aca="false">S25</f>
-        <v>Термонаклейка Аниме девочка с мечом розовые волосы. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
+        <v>Термонаклейка Аниме девочка с мечом розовые волосы - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Punkey Monkey!
+</v>
       </c>
       <c r="AX25" s="15" t="str">
         <f aca="false">X25</f>
@@ -7150,8 +6752,9 @@
         <v>77</v>
       </c>
       <c r="S26" s="7" t="str">
-        <f aca="false">CONCATENATE(A26,". Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. ")</f>
-        <v>Термонаклейка Аниме девочка в куртке со стикерами. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
+        <f aca="false">A26&amp;Описание!B26</f>
+        <v>Термонаклейка Аниме девочка в куртке со стикерами - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Punkey Monkey!
+</v>
       </c>
       <c r="T26" s="0" t="n">
         <v>1</v>
@@ -7169,8 +6772,8 @@
         <v>78</v>
       </c>
       <c r="Y26" s="8" t="str">
-        <f aca="false">CONCATENATE(CONCATENATE(H26,C26,"_1.jpg;"),CONCATENATE(H26,C26,"_2.jpg;"),CONCATENATE(H26,C26,"_3.jpg;"),CONCATENATE(H26,C26,"_4.jpg;"),CONCATENATE(H26,C26,"_5.jpg;"),CONCATENATE(H26,C26,"_6.jpg;"),CONCATENATE(H26,C26,"_7.jpg;"),CONCATENATE(H26,C26,"_8.jpg;"),CONCATENATE(H26,C26,"_9.jpg;"),CONCATENATE(H26,C26,"_10.jpg;"),CONCATENATE(H26,"instruction_A4.jpg;"),CONCATENATE(H26,"Video_DTF.mp4;"))</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/26_japan2_250_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/26_japan2_250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/26_japan2_250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/26_japan2_250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/26_japan2_250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/26_japan2_250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/26_japan2_250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/26_japan2_250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/26_japan2_250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/26_japan2_250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
+        <f aca="false">CONCATENATE(CONCATENATE(H26,C26,"_1.jpg;"),CONCATENATE(H26,C26,"_2.jpg;"),CONCATENATE(H26,C26,"_3.jpg;"),CONCATENATE(H26,C26,"_4.jpg;"),CONCATENATE(H26,C26,"_5.jpg;"),CONCATENATE(H26,C26,"_6.jpg;"),CONCATENATE(H26,C26,"_7.jpg;"),CONCATENATE(H26,"instruction_A4.jpg;"),CONCATENATE(H26,"Video_DTF.mp4;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/26_japan2_250_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/26_japan2_250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/26_japan2_250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/26_japan2_250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/26_japan2_250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/26_japan2_250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/26_japan2_250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
       </c>
       <c r="AA26" s="0" t="str">
         <f aca="false">A26</f>
@@ -7230,7 +6833,8 @@
       </c>
       <c r="AV26" s="0" t="str">
         <f aca="false">S26</f>
-        <v>Термонаклейка Аниме девочка в куртке со стикерами. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
+        <v>Термонаклейка Аниме девочка в куртке со стикерами - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Punkey Monkey!
+</v>
       </c>
       <c r="AX26" s="15" t="str">
         <f aca="false">X26</f>
@@ -7312,8 +6916,9 @@
         <v>77</v>
       </c>
       <c r="S27" s="7" t="str">
-        <f aca="false">CONCATENATE(A27,". Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. ")</f>
-        <v>Термонаклейка Сейлор Мун в куртке Sailor Moon. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
+        <f aca="false">A27&amp;Описание!B27</f>
+        <v>Термонаклейка Сейлор Мун в куртке Sailor Moon - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Punkey Monkey!
+</v>
       </c>
       <c r="T27" s="0" t="n">
         <v>1</v>
@@ -7331,8 +6936,8 @@
         <v>78</v>
       </c>
       <c r="Y27" s="8" t="str">
-        <f aca="false">CONCATENATE(CONCATENATE(H27,C27,"_1.jpg;"),CONCATENATE(H27,C27,"_2.jpg;"),CONCATENATE(H27,C27,"_3.jpg;"),CONCATENATE(H27,C27,"_4.jpg;"),CONCATENATE(H27,C27,"_5.jpg;"),CONCATENATE(H27,C27,"_6.jpg;"),CONCATENATE(H27,C27,"_7.jpg;"),CONCATENATE(H27,C27,"_8.jpg;"),CONCATENATE(H27,C27,"_9.jpg;"),CONCATENATE(H27,C27,"_10.jpg;"),CONCATENATE(H27,"instruction_A4.jpg;"),CONCATENATE(H27,"Video_DTF.mp4;"))</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/27_japan3_250_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/27_japan3_250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/27_japan3_250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/27_japan3_250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/27_japan3_250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/27_japan3_250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/27_japan3_250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/27_japan3_250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/27_japan3_250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/27_japan3_250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
+        <f aca="false">CONCATENATE(CONCATENATE(H27,C27,"_1.jpg;"),CONCATENATE(H27,C27,"_2.jpg;"),CONCATENATE(H27,C27,"_3.jpg;"),CONCATENATE(H27,C27,"_4.jpg;"),CONCATENATE(H27,C27,"_5.jpg;"),CONCATENATE(H27,C27,"_6.jpg;"),CONCATENATE(H27,C27,"_7.jpg;"),CONCATENATE(H27,"instruction_A4.jpg;"),CONCATENATE(H27,"Video_DTF.mp4;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/27_japan3_250_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/27_japan3_250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/27_japan3_250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/27_japan3_250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/27_japan3_250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/27_japan3_250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/27_japan3_250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
       </c>
       <c r="AA27" s="0" t="str">
         <f aca="false">A27</f>
@@ -7392,7 +6997,8 @@
       </c>
       <c r="AV27" s="0" t="str">
         <f aca="false">S27</f>
-        <v>Термонаклейка Сейлор Мун в куртке Sailor Moon. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
+        <v>Термонаклейка Сейлор Мун в куртке Sailor Moon - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Punkey Monkey!
+</v>
       </c>
       <c r="AX27" s="15" t="str">
         <f aca="false">X27</f>
@@ -7474,8 +7080,9 @@
         <v>77</v>
       </c>
       <c r="S28" s="7" t="str">
-        <f aca="false">CONCATENATE(A28,". Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. ")</f>
-        <v>Термонаклейка Аниме Девочка с чупа чупсом. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
+        <f aca="false">A28&amp;Описание!B28</f>
+        <v>Термонаклейка Аниме Девочка с чупа чупсом - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Punkey Monkey!
+</v>
       </c>
       <c r="T28" s="0" t="n">
         <v>1</v>
@@ -7493,8 +7100,8 @@
         <v>78</v>
       </c>
       <c r="Y28" s="8" t="str">
-        <f aca="false">CONCATENATE(CONCATENATE(H28,C28,"_1.jpg;"),CONCATENATE(H28,C28,"_2.jpg;"),CONCATENATE(H28,C28,"_3.jpg;"),CONCATENATE(H28,C28,"_4.jpg;"),CONCATENATE(H28,C28,"_5.jpg;"),CONCATENATE(H28,C28,"_6.jpg;"),CONCATENATE(H28,C28,"_7.jpg;"),CONCATENATE(H28,C28,"_8.jpg;"),CONCATENATE(H28,C28,"_9.jpg;"),CONCATENATE(H28,C28,"_10.jpg;"),CONCATENATE(H28,"instruction_A4.jpg;"),CONCATENATE(H28,"Video_DTF.mp4;"))</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/28_japan4_250_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/28_japan4_250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/28_japan4_250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/28_japan4_250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/28_japan4_250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/28_japan4_250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/28_japan4_250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/28_japan4_250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/28_japan4_250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/28_japan4_250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
+        <f aca="false">CONCATENATE(CONCATENATE(H28,C28,"_1.jpg;"),CONCATENATE(H28,C28,"_2.jpg;"),CONCATENATE(H28,C28,"_3.jpg;"),CONCATENATE(H28,C28,"_4.jpg;"),CONCATENATE(H28,C28,"_5.jpg;"),CONCATENATE(H28,C28,"_6.jpg;"),CONCATENATE(H28,C28,"_7.jpg;"),CONCATENATE(H28,"instruction_A4.jpg;"),CONCATENATE(H28,"Video_DTF.mp4;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/28_japan4_250_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/28_japan4_250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/28_japan4_250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/28_japan4_250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/28_japan4_250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/28_japan4_250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/28_japan4_250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
       </c>
       <c r="AA28" s="0" t="str">
         <f aca="false">A28</f>
@@ -7554,7 +7161,8 @@
       </c>
       <c r="AV28" s="0" t="str">
         <f aca="false">S28</f>
-        <v>Термонаклейка Аниме Девочка с чупа чупсом. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
+        <v>Термонаклейка Аниме Девочка с чупа чупсом - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Punkey Monkey!
+</v>
       </c>
       <c r="AX28" s="15" t="str">
         <f aca="false">X28</f>
@@ -7636,8 +7244,9 @@
         <v>77</v>
       </c>
       <c r="S29" s="7" t="str">
-        <f aca="false">CONCATENATE(A29,". Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. ")</f>
-        <v>Термонаклейка Аниме Девочка с черным капюшоном. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
+        <f aca="false">A29&amp;Описание!B29</f>
+        <v>Термонаклейка Аниме Девочка с черным капюшоном - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Punkey Monkey!
+</v>
       </c>
       <c r="T29" s="0" t="n">
         <v>1</v>
@@ -7655,8 +7264,8 @@
         <v>78</v>
       </c>
       <c r="Y29" s="8" t="str">
-        <f aca="false">CONCATENATE(CONCATENATE(H29,C29,"_1.jpg;"),CONCATENATE(H29,C29,"_2.jpg;"),CONCATENATE(H29,C29,"_3.jpg;"),CONCATENATE(H29,C29,"_4.jpg;"),CONCATENATE(H29,C29,"_5.jpg;"),CONCATENATE(H29,C29,"_6.jpg;"),CONCATENATE(H29,C29,"_7.jpg;"),CONCATENATE(H29,C29,"_8.jpg;"),CONCATENATE(H29,C29,"_9.jpg;"),CONCATENATE(H29,C29,"_10.jpg;"),CONCATENATE(H29,"instruction_A4.jpg;"),CONCATENATE(H29,"Video_DTF.mp4;"))</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/29_japan5_250_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/29_japan5_250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/29_japan5_250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/29_japan5_250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/29_japan5_250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/29_japan5_250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/29_japan5_250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/29_japan5_250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/29_japan5_250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/29_japan5_250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
+        <f aca="false">CONCATENATE(CONCATENATE(H29,C29,"_1.jpg;"),CONCATENATE(H29,C29,"_2.jpg;"),CONCATENATE(H29,C29,"_3.jpg;"),CONCATENATE(H29,C29,"_4.jpg;"),CONCATENATE(H29,C29,"_5.jpg;"),CONCATENATE(H29,C29,"_6.jpg;"),CONCATENATE(H29,C29,"_7.jpg;"),CONCATENATE(H29,"instruction_A4.jpg;"),CONCATENATE(H29,"Video_DTF.mp4;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/29_japan5_250_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/29_japan5_250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/29_japan5_250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/29_japan5_250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/29_japan5_250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/29_japan5_250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/29_japan5_250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
       </c>
       <c r="AA29" s="0" t="str">
         <f aca="false">A29</f>
@@ -7716,7 +7325,8 @@
       </c>
       <c r="AV29" s="0" t="str">
         <f aca="false">S29</f>
-        <v>Термонаклейка Аниме Девочка с черным капюшоном. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
+        <v>Термонаклейка Аниме Девочка с черным капюшоном - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Punkey Monkey!
+</v>
       </c>
       <c r="AX29" s="15" t="str">
         <f aca="false">X29</f>
@@ -7798,8 +7408,9 @@
         <v>77</v>
       </c>
       <c r="S30" s="7" t="str">
-        <f aca="false">CONCATENATE(A30,". Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. ")</f>
-        <v>Термонаклейка Аниме Девочка в розовый капюшоном. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
+        <f aca="false">A30&amp;Описание!B30</f>
+        <v>Термонаклейка Аниме Девочка в розовый капюшоном - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Punkey Monkey!
+</v>
       </c>
       <c r="T30" s="0" t="n">
         <v>1</v>
@@ -7817,8 +7428,8 @@
         <v>78</v>
       </c>
       <c r="Y30" s="8" t="str">
-        <f aca="false">CONCATENATE(CONCATENATE(H30,C30,"_1.jpg;"),CONCATENATE(H30,C30,"_2.jpg;"),CONCATENATE(H30,C30,"_3.jpg;"),CONCATENATE(H30,C30,"_4.jpg;"),CONCATENATE(H30,C30,"_5.jpg;"),CONCATENATE(H30,C30,"_6.jpg;"),CONCATENATE(H30,C30,"_7.jpg;"),CONCATENATE(H30,C30,"_8.jpg;"),CONCATENATE(H30,C30,"_9.jpg;"),CONCATENATE(H30,C30,"_10.jpg;"),CONCATENATE(H30,"instruction_A4.jpg;"),CONCATENATE(H30,"Video_DTF.mp4;"))</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/30_japan6_250_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/30_japan6_250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/30_japan6_250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/30_japan6_250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/30_japan6_250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/30_japan6_250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/30_japan6_250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/30_japan6_250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/30_japan6_250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/30_japan6_250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
+        <f aca="false">CONCATENATE(CONCATENATE(H30,C30,"_1.jpg;"),CONCATENATE(H30,C30,"_2.jpg;"),CONCATENATE(H30,C30,"_3.jpg;"),CONCATENATE(H30,C30,"_4.jpg;"),CONCATENATE(H30,C30,"_5.jpg;"),CONCATENATE(H30,C30,"_6.jpg;"),CONCATENATE(H30,C30,"_7.jpg;"),CONCATENATE(H30,"instruction_A4.jpg;"),CONCATENATE(H30,"Video_DTF.mp4;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/30_japan6_250_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/30_japan6_250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/30_japan6_250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/30_japan6_250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/30_japan6_250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/30_japan6_250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/30_japan6_250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
       </c>
       <c r="AA30" s="0" t="str">
         <f aca="false">A30</f>
@@ -7878,7 +7489,8 @@
       </c>
       <c r="AV30" s="0" t="str">
         <f aca="false">S30</f>
-        <v>Термонаклейка Аниме Девочка в розовый капюшоном. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
+        <v>Термонаклейка Аниме Девочка в розовый капюшоном - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Punkey Monkey!
+</v>
       </c>
       <c r="AX30" s="15" t="str">
         <f aca="false">X30</f>
@@ -7960,8 +7572,9 @@
         <v>77</v>
       </c>
       <c r="S31" s="7" t="str">
-        <f aca="false">CONCATENATE(A31,". Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. ")</f>
-        <v>Термонаклейка Девушка Блондинка с котом на голове. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
+        <f aca="false">A31&amp;Описание!B31</f>
+        <v>Термонаклейка Девушка Блондинка с котом на голове - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Punkey Monkey!
+</v>
       </c>
       <c r="T31" s="0" t="n">
         <v>1</v>
@@ -7979,8 +7592,8 @@
         <v>78</v>
       </c>
       <c r="Y31" s="8" t="str">
-        <f aca="false">CONCATENATE(CONCATENATE(H31,C31,"_1.jpg;"),CONCATENATE(H31,C31,"_2.jpg;"),CONCATENATE(H31,C31,"_3.jpg;"),CONCATENATE(H31,C31,"_4.jpg;"),CONCATENATE(H31,C31,"_5.jpg;"),CONCATENATE(H31,C31,"_6.jpg;"),CONCATENATE(H31,C31,"_7.jpg;"),CONCATENATE(H31,C31,"_8.jpg;"),CONCATENATE(H31,C31,"_9.jpg;"),CONCATENATE(H31,C31,"_10.jpg;"),CONCATENATE(H31,"instruction_A4.jpg;"),CONCATENATE(H31,"Video_DTF.mp4;"))</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/31_japan7_250_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/31_japan7_250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/31_japan7_250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/31_japan7_250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/31_japan7_250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/31_japan7_250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/31_japan7_250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/31_japan7_250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/31_japan7_250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/31_japan7_250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
+        <f aca="false">CONCATENATE(CONCATENATE(H31,C31,"_1.jpg;"),CONCATENATE(H31,C31,"_2.jpg;"),CONCATENATE(H31,C31,"_3.jpg;"),CONCATENATE(H31,C31,"_4.jpg;"),CONCATENATE(H31,C31,"_5.jpg;"),CONCATENATE(H31,C31,"_6.jpg;"),CONCATENATE(H31,C31,"_7.jpg;"),CONCATENATE(H31,"instruction_A4.jpg;"),CONCATENATE(H31,"Video_DTF.mp4;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/31_japan7_250_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/31_japan7_250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/31_japan7_250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/31_japan7_250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/31_japan7_250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/31_japan7_250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/31_japan7_250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
       </c>
       <c r="AA31" s="0" t="str">
         <f aca="false">A31</f>
@@ -8040,7 +7653,8 @@
       </c>
       <c r="AV31" s="0" t="str">
         <f aca="false">S31</f>
-        <v>Термонаклейка Девушка Блондинка с котом на голове. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
+        <v>Термонаклейка Девушка Блондинка с котом на голове - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Punkey Monkey!
+</v>
       </c>
       <c r="AX31" s="15" t="str">
         <f aca="false">X31</f>
@@ -8122,8 +7736,9 @@
         <v>77</v>
       </c>
       <c r="S32" s="7" t="str">
-        <f aca="false">CONCATENATE(A32,". Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. ")</f>
-        <v>Термонаклейка Поцелуй берега и реки картина маслом. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
+        <f aca="false">A32&amp;Описание!B32</f>
+        <v>Термонаклейка Поцелуй берега и реки картина маслом - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Punkey Monkey!
+</v>
       </c>
       <c r="T32" s="0" t="n">
         <v>1</v>
@@ -8141,8 +7756,8 @@
         <v>78</v>
       </c>
       <c r="Y32" s="8" t="str">
-        <f aca="false">CONCATENATE(CONCATENATE(H32,C32,"_1.jpg;"),CONCATENATE(H32,C32,"_2.jpg;"),CONCATENATE(H32,C32,"_3.jpg;"),CONCATENATE(H32,C32,"_4.jpg;"),CONCATENATE(H32,C32,"_5.jpg;"),CONCATENATE(H32,C32,"_6.jpg;"),CONCATENATE(H32,C32,"_7.jpg;"),CONCATENATE(H32,C32,"_8.jpg;"),CONCATENATE(H32,C32,"_9.jpg;"),CONCATENATE(H32,C32,"_10.jpg;"),CONCATENATE(H32,"instruction_A4.jpg;"),CONCATENATE(H32,"Video_DTF.mp4;"))</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/32_kiss_art2_250_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/32_kiss_art2_250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/32_kiss_art2_250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/32_kiss_art2_250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/32_kiss_art2_250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/32_kiss_art2_250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/32_kiss_art2_250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/32_kiss_art2_250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/32_kiss_art2_250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/32_kiss_art2_250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
+        <f aca="false">CONCATENATE(CONCATENATE(H32,C32,"_1.jpg;"),CONCATENATE(H32,C32,"_2.jpg;"),CONCATENATE(H32,C32,"_3.jpg;"),CONCATENATE(H32,C32,"_4.jpg;"),CONCATENATE(H32,C32,"_5.jpg;"),CONCATENATE(H32,C32,"_6.jpg;"),CONCATENATE(H32,C32,"_7.jpg;"),CONCATENATE(H32,"instruction_A4.jpg;"),CONCATENATE(H32,"Video_DTF.mp4;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/32_kiss_art2_250_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/32_kiss_art2_250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/32_kiss_art2_250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/32_kiss_art2_250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/32_kiss_art2_250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/32_kiss_art2_250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/32_kiss_art2_250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
       </c>
       <c r="AA32" s="0" t="str">
         <f aca="false">A32</f>
@@ -8202,7 +7817,8 @@
       </c>
       <c r="AV32" s="0" t="str">
         <f aca="false">S32</f>
-        <v>Термонаклейка Поцелуй берега и реки картина маслом. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
+        <v>Термонаклейка Поцелуй берега и реки картина маслом - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Punkey Monkey!
+</v>
       </c>
       <c r="AX32" s="15" t="str">
         <f aca="false">X32</f>
@@ -8284,8 +7900,9 @@
         <v>77</v>
       </c>
       <c r="S33" s="7" t="str">
-        <f aca="false">CONCATENATE(A33,". Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. ")</f>
-        <v>Термонаклейка картина Поцелуй Густава Климта. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
+        <f aca="false">A33&amp;Описание!B33</f>
+        <v>Термонаклейка картина Поцелуй Густава Климта - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Punkey Monkey!
+</v>
       </c>
       <c r="T33" s="0" t="n">
         <v>1</v>
@@ -8303,8 +7920,8 @@
         <v>78</v>
       </c>
       <c r="Y33" s="8" t="str">
-        <f aca="false">CONCATENATE(CONCATENATE(H33,C33,"_1.jpg;"),CONCATENATE(H33,C33,"_2.jpg;"),CONCATENATE(H33,C33,"_3.jpg;"),CONCATENATE(H33,C33,"_4.jpg;"),CONCATENATE(H33,C33,"_5.jpg;"),CONCATENATE(H33,C33,"_6.jpg;"),CONCATENATE(H33,C33,"_7.jpg;"),CONCATENATE(H33,C33,"_8.jpg;"),CONCATENATE(H33,C33,"_9.jpg;"),CONCATENATE(H33,C33,"_10.jpg;"),CONCATENATE(H33,"instruction_A4.jpg;"),CONCATENATE(H33,"Video_DTF.mp4;"))</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/33_kiss_art3_250_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/33_kiss_art3_250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/33_kiss_art3_250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/33_kiss_art3_250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/33_kiss_art3_250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/33_kiss_art3_250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/33_kiss_art3_250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/33_kiss_art3_250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/33_kiss_art3_250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/33_kiss_art3_250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
+        <f aca="false">CONCATENATE(CONCATENATE(H33,C33,"_1.jpg;"),CONCATENATE(H33,C33,"_2.jpg;"),CONCATENATE(H33,C33,"_3.jpg;"),CONCATENATE(H33,C33,"_4.jpg;"),CONCATENATE(H33,C33,"_5.jpg;"),CONCATENATE(H33,C33,"_6.jpg;"),CONCATENATE(H33,C33,"_7.jpg;"),CONCATENATE(H33,"instruction_A4.jpg;"),CONCATENATE(H33,"Video_DTF.mp4;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/33_kiss_art3_250_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/33_kiss_art3_250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/33_kiss_art3_250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/33_kiss_art3_250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/33_kiss_art3_250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/33_kiss_art3_250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/33_kiss_art3_250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
       </c>
       <c r="AA33" s="0" t="str">
         <f aca="false">A33</f>
@@ -8364,7 +7981,8 @@
       </c>
       <c r="AV33" s="0" t="str">
         <f aca="false">S33</f>
-        <v>Термонаклейка картина Поцелуй Густава Климта. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
+        <v>Термонаклейка картина Поцелуй Густава Климта - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Punkey Monkey!
+</v>
       </c>
       <c r="AX33" s="15" t="str">
         <f aca="false">X33</f>
@@ -8446,8 +8064,9 @@
         <v>77</v>
       </c>
       <c r="S34" s="7" t="str">
-        <f aca="false">CONCATENATE(A34,". Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. ")</f>
-        <v>Термонаклейка Поцелуй в космосе картина маслом. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
+        <f aca="false">A34&amp;Описание!B34</f>
+        <v>Термонаклейка Поцелуй в космосе картина маслом - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Punkey Monkey!
+</v>
       </c>
       <c r="T34" s="0" t="n">
         <v>1</v>
@@ -8465,8 +8084,8 @@
         <v>78</v>
       </c>
       <c r="Y34" s="8" t="str">
-        <f aca="false">CONCATENATE(CONCATENATE(H34,C34,"_1.jpg;"),CONCATENATE(H34,C34,"_2.jpg;"),CONCATENATE(H34,C34,"_3.jpg;"),CONCATENATE(H34,C34,"_4.jpg;"),CONCATENATE(H34,C34,"_5.jpg;"),CONCATENATE(H34,C34,"_6.jpg;"),CONCATENATE(H34,C34,"_7.jpg;"),CONCATENATE(H34,C34,"_8.jpg;"),CONCATENATE(H34,C34,"_9.jpg;"),CONCATENATE(H34,C34,"_10.jpg;"),CONCATENATE(H34,"instruction_A4.jpg;"),CONCATENATE(H34,"Video_DTF.mp4;"))</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/34_kiss250_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/34_kiss250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/34_kiss250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/34_kiss250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/34_kiss250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/34_kiss250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/34_kiss250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/34_kiss250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/34_kiss250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/34_kiss250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
+        <f aca="false">CONCATENATE(CONCATENATE(H34,C34,"_1.jpg;"),CONCATENATE(H34,C34,"_2.jpg;"),CONCATENATE(H34,C34,"_3.jpg;"),CONCATENATE(H34,C34,"_4.jpg;"),CONCATENATE(H34,C34,"_5.jpg;"),CONCATENATE(H34,C34,"_6.jpg;"),CONCATENATE(H34,C34,"_7.jpg;"),CONCATENATE(H34,"instruction_A4.jpg;"),CONCATENATE(H34,"Video_DTF.mp4;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/34_kiss250_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/34_kiss250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/34_kiss250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/34_kiss250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/34_kiss250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/34_kiss250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/34_kiss250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
       </c>
       <c r="AA34" s="0" t="str">
         <f aca="false">A34</f>
@@ -8526,7 +8145,8 @@
       </c>
       <c r="AV34" s="0" t="str">
         <f aca="false">S34</f>
-        <v>Термонаклейка Поцелуй в космосе картина маслом. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
+        <v>Термонаклейка Поцелуй в космосе картина маслом - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Punkey Monkey!
+</v>
       </c>
       <c r="AX34" s="15" t="str">
         <f aca="false">X34</f>
@@ -8608,8 +8228,9 @@
         <v>77</v>
       </c>
       <c r="S35" s="7" t="str">
-        <f aca="false">CONCATENATE(A35,". Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. ")</f>
-        <v>Термонаклейка Губы с чупа чупсом. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
+        <f aca="false">A35&amp;Описание!B35</f>
+        <v>Термонаклейка Губы с чупа чупсом - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Punkey Monkey!
+</v>
       </c>
       <c r="T35" s="0" t="n">
         <v>1</v>
@@ -8627,8 +8248,8 @@
         <v>78</v>
       </c>
       <c r="Y35" s="8" t="str">
-        <f aca="false">CONCATENATE(CONCATENATE(H35,C35,"_1.jpg;"),CONCATENATE(H35,C35,"_2.jpg;"),CONCATENATE(H35,C35,"_3.jpg;"),CONCATENATE(H35,C35,"_4.jpg;"),CONCATENATE(H35,C35,"_5.jpg;"),CONCATENATE(H35,C35,"_6.jpg;"),CONCATENATE(H35,C35,"_7.jpg;"),CONCATENATE(H35,C35,"_8.jpg;"),CONCATENATE(H35,C35,"_9.jpg;"),CONCATENATE(H35,C35,"_10.jpg;"),CONCATENATE(H35,"instruction_A4.jpg;"),CONCATENATE(H35,"Video_DTF.mp4;"))</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/35_leaps1_250_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/35_leaps1_250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/35_leaps1_250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/35_leaps1_250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/35_leaps1_250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/35_leaps1_250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/35_leaps1_250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/35_leaps1_250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/35_leaps1_250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/35_leaps1_250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
+        <f aca="false">CONCATENATE(CONCATENATE(H35,C35,"_1.jpg;"),CONCATENATE(H35,C35,"_2.jpg;"),CONCATENATE(H35,C35,"_3.jpg;"),CONCATENATE(H35,C35,"_4.jpg;"),CONCATENATE(H35,C35,"_5.jpg;"),CONCATENATE(H35,C35,"_6.jpg;"),CONCATENATE(H35,C35,"_7.jpg;"),CONCATENATE(H35,"instruction_A4.jpg;"),CONCATENATE(H35,"Video_DTF.mp4;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/35_leaps1_250_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/35_leaps1_250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/35_leaps1_250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/35_leaps1_250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/35_leaps1_250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/35_leaps1_250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/35_leaps1_250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
       </c>
       <c r="AA35" s="0" t="str">
         <f aca="false">A35</f>
@@ -8688,7 +8309,8 @@
       </c>
       <c r="AV35" s="0" t="str">
         <f aca="false">S35</f>
-        <v>Термонаклейка Губы с чупа чупсом. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
+        <v>Термонаклейка Губы с чупа чупсом - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Punkey Monkey!
+</v>
       </c>
       <c r="AX35" s="15" t="str">
         <f aca="false">X35</f>
@@ -8770,8 +8392,9 @@
         <v>77</v>
       </c>
       <c r="S36" s="7" t="str">
-        <f aca="false">CONCATENATE(A36,". Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. ")</f>
-        <v>Термонаклейка Dolce Gabbana Дольче Габбана лимоны. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
+        <f aca="false">A36&amp;Описание!B36</f>
+        <v>Термонаклейка Dolce Gabbana Дольче Габбана лимоны - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Punkey Monkey!
+</v>
       </c>
       <c r="T36" s="0" t="n">
         <v>1</v>
@@ -8789,8 +8412,8 @@
         <v>78</v>
       </c>
       <c r="Y36" s="8" t="str">
-        <f aca="false">CONCATENATE(CONCATENATE(H36,C36,"_1.jpg;"),CONCATENATE(H36,C36,"_2.jpg;"),CONCATENATE(H36,C36,"_3.jpg;"),CONCATENATE(H36,C36,"_4.jpg;"),CONCATENATE(H36,C36,"_5.jpg;"),CONCATENATE(H36,C36,"_6.jpg;"),CONCATENATE(H36,C36,"_7.jpg;"),CONCATENATE(H36,C36,"_8.jpg;"),CONCATENATE(H36,C36,"_9.jpg;"),CONCATENATE(H36,C36,"_10.jpg;"),CONCATENATE(H36,"instruction_A4.jpg;"),CONCATENATE(H36,"Video_DTF.mp4;"))</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/36_lemons250_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/36_lemons250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/36_lemons250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/36_lemons250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/36_lemons250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/36_lemons250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/36_lemons250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/36_lemons250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/36_lemons250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/36_lemons250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
+        <f aca="false">CONCATENATE(CONCATENATE(H36,C36,"_1.jpg;"),CONCATENATE(H36,C36,"_2.jpg;"),CONCATENATE(H36,C36,"_3.jpg;"),CONCATENATE(H36,C36,"_4.jpg;"),CONCATENATE(H36,C36,"_5.jpg;"),CONCATENATE(H36,C36,"_6.jpg;"),CONCATENATE(H36,C36,"_7.jpg;"),CONCATENATE(H36,"instruction_A4.jpg;"),CONCATENATE(H36,"Video_DTF.mp4;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/36_lemons250_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/36_lemons250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/36_lemons250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/36_lemons250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/36_lemons250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/36_lemons250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/36_lemons250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
       </c>
       <c r="AA36" s="0" t="str">
         <f aca="false">A36</f>
@@ -8850,7 +8473,8 @@
       </c>
       <c r="AV36" s="0" t="str">
         <f aca="false">S36</f>
-        <v>Термонаклейка Dolce Gabbana Дольче Габбана лимоны. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
+        <v>Термонаклейка Dolce Gabbana Дольче Габбана лимоны - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Punkey Monkey!
+</v>
       </c>
       <c r="AX36" s="15" t="str">
         <f aca="false">X36</f>
@@ -8884,7 +8508,7 @@
       <c r="A37" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="B37" s="21" t="s">
+      <c r="B37" s="7" t="s">
         <v>187</v>
       </c>
       <c r="C37" s="0" t="s">
@@ -8932,8 +8556,9 @@
         <v>77</v>
       </c>
       <c r="S37" s="7" t="str">
-        <f aca="false">CONCATENATE(A37,". Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. ")</f>
-        <v>Термонаклейка надпись love любовь 3 раза. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
+        <f aca="false">A37&amp;Описание!B37</f>
+        <v>Термонаклейка надпись love любовь 3 раза - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Punkey Monkey!
+</v>
       </c>
       <c r="T37" s="0" t="n">
         <v>1</v>
@@ -8951,8 +8576,8 @@
         <v>78</v>
       </c>
       <c r="Y37" s="8" t="str">
-        <f aca="false">CONCATENATE(CONCATENATE(H37,C37,"_1.jpg;"),CONCATENATE(H37,C37,"_2.jpg;"),CONCATENATE(H37,C37,"_3.jpg;"),CONCATENATE(H37,C37,"_4.jpg;"),CONCATENATE(H37,C37,"_5.jpg;"),CONCATENATE(H37,C37,"_6.jpg;"),CONCATENATE(H37,C37,"_7.jpg;"),CONCATENATE(H37,C37,"_8.jpg;"),CONCATENATE(H37,C37,"_9.jpg;"),CONCATENATE(H37,C37,"_10.jpg;"),CONCATENATE(H37,"instruction_A4.jpg;"),CONCATENATE(H37,"Video_DTF.mp4;"))</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/37_love2_250_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/37_love2_250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/37_love2_250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/37_love2_250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/37_love2_250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/37_love2_250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/37_love2_250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/37_love2_250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/37_love2_250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/37_love2_250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
+        <f aca="false">CONCATENATE(CONCATENATE(H37,C37,"_1.jpg;"),CONCATENATE(H37,C37,"_2.jpg;"),CONCATENATE(H37,C37,"_3.jpg;"),CONCATENATE(H37,C37,"_4.jpg;"),CONCATENATE(H37,C37,"_5.jpg;"),CONCATENATE(H37,C37,"_6.jpg;"),CONCATENATE(H37,C37,"_7.jpg;"),CONCATENATE(H37,"instruction_A4.jpg;"),CONCATENATE(H37,"Video_DTF.mp4;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/37_love2_250_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/37_love2_250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/37_love2_250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/37_love2_250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/37_love2_250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/37_love2_250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/37_love2_250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
       </c>
       <c r="AA37" s="0" t="str">
         <f aca="false">A37</f>
@@ -9012,7 +8637,8 @@
       </c>
       <c r="AV37" s="0" t="str">
         <f aca="false">S37</f>
-        <v>Термонаклейка надпись love любовь 3 раза. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
+        <v>Термонаклейка надпись love любовь 3 раза - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Punkey Monkey!
+</v>
       </c>
       <c r="AX37" s="15" t="str">
         <f aca="false">X37</f>
@@ -9094,8 +8720,9 @@
         <v>77</v>
       </c>
       <c r="S38" s="7" t="str">
-        <f aca="false">CONCATENATE(A38,". Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. ")</f>
-        <v>Термонаклейка надпись love любовь. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
+        <f aca="false">A38&amp;Описание!B38</f>
+        <v>Термонаклейка надпись love любовь - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Punkey Monkey!
+</v>
       </c>
       <c r="T38" s="0" t="n">
         <v>1</v>
@@ -9113,8 +8740,8 @@
         <v>78</v>
       </c>
       <c r="Y38" s="8" t="str">
-        <f aca="false">CONCATENATE(CONCATENATE(H38,C38,"_1.jpg;"),CONCATENATE(H38,C38,"_2.jpg;"),CONCATENATE(H38,C38,"_3.jpg;"),CONCATENATE(H38,C38,"_4.jpg;"),CONCATENATE(H38,C38,"_5.jpg;"),CONCATENATE(H38,C38,"_6.jpg;"),CONCATENATE(H38,C38,"_7.jpg;"),CONCATENATE(H38,C38,"_8.jpg;"),CONCATENATE(H38,C38,"_9.jpg;"),CONCATENATE(H38,C38,"_10.jpg;"),CONCATENATE(H38,"instruction_A4.jpg;"),CONCATENATE(H38,"Video_DTF.mp4;"))</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/38_love220_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/38_love220_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/38_love220_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/38_love220_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/38_love220_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/38_love220_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/38_love220_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/38_love220_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/38_love220_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/38_love220_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
+        <f aca="false">CONCATENATE(CONCATENATE(H38,C38,"_1.jpg;"),CONCATENATE(H38,C38,"_2.jpg;"),CONCATENATE(H38,C38,"_3.jpg;"),CONCATENATE(H38,C38,"_4.jpg;"),CONCATENATE(H38,C38,"_5.jpg;"),CONCATENATE(H38,C38,"_6.jpg;"),CONCATENATE(H38,C38,"_7.jpg;"),CONCATENATE(H38,"instruction_A4.jpg;"),CONCATENATE(H38,"Video_DTF.mp4;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/38_love220_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/38_love220_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/38_love220_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/38_love220_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/38_love220_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/38_love220_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/38_love220_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
       </c>
       <c r="AA38" s="0" t="str">
         <f aca="false">A38</f>
@@ -9174,7 +8801,8 @@
       </c>
       <c r="AV38" s="0" t="str">
         <f aca="false">S38</f>
-        <v>Термонаклейка надпись love любовь. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
+        <v>Термонаклейка надпись love любовь - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Punkey Monkey!
+</v>
       </c>
       <c r="AX38" s="15" t="str">
         <f aca="false">X38</f>
@@ -9256,8 +8884,9 @@
         <v>77</v>
       </c>
       <c r="S39" s="7" t="str">
-        <f aca="false">CONCATENATE(A39,". Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. ")</f>
-        <v>Термонаклейка Мэрилин Монро Supreme Суприм глаза. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
+        <f aca="false">A39&amp;Описание!B39</f>
+        <v>Термонаклейка Мэрилин Монро Supreme Суприм глаза - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Punkey Monkey!
+</v>
       </c>
       <c r="T39" s="0" t="n">
         <v>1</v>
@@ -9275,8 +8904,8 @@
         <v>78</v>
       </c>
       <c r="Y39" s="8" t="str">
-        <f aca="false">CONCATENATE(CONCATENATE(H39,C39,"_1.jpg;"),CONCATENATE(H39,C39,"_2.jpg;"),CONCATENATE(H39,C39,"_3.jpg;"),CONCATENATE(H39,C39,"_4.jpg;"),CONCATENATE(H39,C39,"_5.jpg;"),CONCATENATE(H39,C39,"_6.jpg;"),CONCATENATE(H39,C39,"_7.jpg;"),CONCATENATE(H39,C39,"_8.jpg;"),CONCATENATE(H39,C39,"_9.jpg;"),CONCATENATE(H39,C39,"_10.jpg;"),CONCATENATE(H39,"instruction_A4.jpg;"),CONCATENATE(H39,"Video_DTF.mp4;"))</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/39_MERLIN2_250_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/39_MERLIN2_250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/39_MERLIN2_250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/39_MERLIN2_250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/39_MERLIN2_250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/39_MERLIN2_250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/39_MERLIN2_250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/39_MERLIN2_250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/39_MERLIN2_250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/39_MERLIN2_250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
+        <f aca="false">CONCATENATE(CONCATENATE(H39,C39,"_1.jpg;"),CONCATENATE(H39,C39,"_2.jpg;"),CONCATENATE(H39,C39,"_3.jpg;"),CONCATENATE(H39,C39,"_4.jpg;"),CONCATENATE(H39,C39,"_5.jpg;"),CONCATENATE(H39,C39,"_6.jpg;"),CONCATENATE(H39,C39,"_7.jpg;"),CONCATENATE(H39,"instruction_A4.jpg;"),CONCATENATE(H39,"Video_DTF.mp4;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/39_MERLIN2_250_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/39_MERLIN2_250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/39_MERLIN2_250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/39_MERLIN2_250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/39_MERLIN2_250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/39_MERLIN2_250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/39_MERLIN2_250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
       </c>
       <c r="AA39" s="0" t="str">
         <f aca="false">A39</f>
@@ -9336,7 +8965,8 @@
       </c>
       <c r="AV39" s="0" t="str">
         <f aca="false">S39</f>
-        <v>Термонаклейка Мэрилин Монро Supreme Суприм глаза. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
+        <v>Термонаклейка Мэрилин Монро Supreme Суприм глаза - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Punkey Monkey!
+</v>
       </c>
       <c r="AX39" s="15" t="str">
         <f aca="false">X39</f>
@@ -9418,8 +9048,9 @@
         <v>77</v>
       </c>
       <c r="S40" s="7" t="str">
-        <f aca="false">CONCATENATE(A40,". Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. ")</f>
-        <v>Термонаклейка Микки Маус надписи на фоне. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
+        <f aca="false">A40&amp;Описание!B40</f>
+        <v>Термонаклейка Микки Маус надписи на фоне - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Punkey Monkey!
+</v>
       </c>
       <c r="T40" s="0" t="n">
         <v>1</v>
@@ -9437,8 +9068,8 @@
         <v>78</v>
       </c>
       <c r="Y40" s="8" t="str">
-        <f aca="false">CONCATENATE(CONCATENATE(H40,C40,"_1.jpg;"),CONCATENATE(H40,C40,"_2.jpg;"),CONCATENATE(H40,C40,"_3.jpg;"),CONCATENATE(H40,C40,"_4.jpg;"),CONCATENATE(H40,C40,"_5.jpg;"),CONCATENATE(H40,C40,"_6.jpg;"),CONCATENATE(H40,C40,"_7.jpg;"),CONCATENATE(H40,C40,"_8.jpg;"),CONCATENATE(H40,C40,"_9.jpg;"),CONCATENATE(H40,C40,"_10.jpg;"),CONCATENATE(H40,"instruction_A4.jpg;"),CONCATENATE(H40,"Video_DTF.mp4;"))</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/40_mickey1_20_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/40_mickey1_20_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/40_mickey1_20_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/40_mickey1_20_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/40_mickey1_20_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/40_mickey1_20_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/40_mickey1_20_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/40_mickey1_20_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/40_mickey1_20_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/40_mickey1_20_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
+        <f aca="false">CONCATENATE(CONCATENATE(H40,C40,"_1.jpg;"),CONCATENATE(H40,C40,"_2.jpg;"),CONCATENATE(H40,C40,"_3.jpg;"),CONCATENATE(H40,C40,"_4.jpg;"),CONCATENATE(H40,C40,"_5.jpg;"),CONCATENATE(H40,C40,"_6.jpg;"),CONCATENATE(H40,C40,"_7.jpg;"),CONCATENATE(H40,"instruction_A4.jpg;"),CONCATENATE(H40,"Video_DTF.mp4;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/40_mickey1_20_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/40_mickey1_20_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/40_mickey1_20_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/40_mickey1_20_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/40_mickey1_20_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/40_mickey1_20_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/40_mickey1_20_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
       </c>
       <c r="AA40" s="0" t="str">
         <f aca="false">A40</f>
@@ -9498,7 +9129,8 @@
       </c>
       <c r="AV40" s="0" t="str">
         <f aca="false">S40</f>
-        <v>Термонаклейка Микки Маус надписи на фоне. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
+        <v>Термонаклейка Микки Маус надписи на фоне - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Punkey Monkey!
+</v>
       </c>
       <c r="AX40" s="15" t="str">
         <f aca="false">X40</f>
@@ -9580,8 +9212,9 @@
         <v>77</v>
       </c>
       <c r="S41" s="7" t="str">
-        <f aca="false">CONCATENATE(A41,". Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. ")</f>
-        <v>Термонаклейка картина Девушка с сережкой Билли. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
+        <f aca="false">A41&amp;Описание!B41</f>
+        <v>Термонаклейка картина Девушка с сережкой Билли - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Punkey Monkey!
+</v>
       </c>
       <c r="T41" s="0" t="n">
         <v>1</v>
@@ -9599,8 +9232,8 @@
         <v>78</v>
       </c>
       <c r="Y41" s="8" t="str">
-        <f aca="false">CONCATENATE(CONCATENATE(H41,C41,"_1.jpg;"),CONCATENATE(H41,C41,"_2.jpg;"),CONCATENATE(H41,C41,"_3.jpg;"),CONCATENATE(H41,C41,"_4.jpg;"),CONCATENATE(H41,C41,"_5.jpg;"),CONCATENATE(H41,C41,"_6.jpg;"),CONCATENATE(H41,C41,"_7.jpg;"),CONCATENATE(H41,C41,"_8.jpg;"),CONCATENATE(H41,C41,"_9.jpg;"),CONCATENATE(H41,C41,"_10.jpg;"),CONCATENATE(H41,"instruction_A4.jpg;"),CONCATENATE(H41,"Video_DTF.mp4;"))</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/41_perl_girl_250_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/41_perl_girl_250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/41_perl_girl_250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/41_perl_girl_250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/41_perl_girl_250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/41_perl_girl_250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/41_perl_girl_250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/41_perl_girl_250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/41_perl_girl_250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/41_perl_girl_250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
+        <f aca="false">CONCATENATE(CONCATENATE(H41,C41,"_1.jpg;"),CONCATENATE(H41,C41,"_2.jpg;"),CONCATENATE(H41,C41,"_3.jpg;"),CONCATENATE(H41,C41,"_4.jpg;"),CONCATENATE(H41,C41,"_5.jpg;"),CONCATENATE(H41,C41,"_6.jpg;"),CONCATENATE(H41,C41,"_7.jpg;"),CONCATENATE(H41,"instruction_A4.jpg;"),CONCATENATE(H41,"Video_DTF.mp4;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/41_perl_girl_250_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/41_perl_girl_250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/41_perl_girl_250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/41_perl_girl_250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/41_perl_girl_250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/41_perl_girl_250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/41_perl_girl_250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
       </c>
       <c r="AA41" s="0" t="str">
         <f aca="false">A41</f>
@@ -9660,7 +9293,8 @@
       </c>
       <c r="AV41" s="0" t="str">
         <f aca="false">S41</f>
-        <v>Термонаклейка картина Девушка с сережкой Билли. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
+        <v>Термонаклейка картина Девушка с сережкой Билли - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Punkey Monkey!
+</v>
       </c>
       <c r="AX41" s="15" t="str">
         <f aca="false">X41</f>
@@ -9742,8 +9376,9 @@
         <v>77</v>
       </c>
       <c r="S42" s="7" t="str">
-        <f aca="false">CONCATENATE(A42,". Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. ")</f>
-        <v>Термонаклейка Play Boy губы обложка губы марка. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
+        <f aca="false">A42&amp;Описание!B42</f>
+        <v>Термонаклейка Play Boy губы обложка губы марка - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Punkey Monkey!
+</v>
       </c>
       <c r="T42" s="0" t="n">
         <v>1</v>
@@ -9761,8 +9396,8 @@
         <v>78</v>
       </c>
       <c r="Y42" s="8" t="str">
-        <f aca="false">CONCATENATE(CONCATENATE(H42,C42,"_1.jpg;"),CONCATENATE(H42,C42,"_2.jpg;"),CONCATENATE(H42,C42,"_3.jpg;"),CONCATENATE(H42,C42,"_4.jpg;"),CONCATENATE(H42,C42,"_5.jpg;"),CONCATENATE(H42,C42,"_6.jpg;"),CONCATENATE(H42,C42,"_7.jpg;"),CONCATENATE(H42,C42,"_8.jpg;"),CONCATENATE(H42,C42,"_9.jpg;"),CONCATENATE(H42,C42,"_10.jpg;"),CONCATENATE(H42,"instruction_A4.jpg;"),CONCATENATE(H42,"Video_DTF.mp4;"))</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/42_playboy250_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/42_playboy250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/42_playboy250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/42_playboy250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/42_playboy250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/42_playboy250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/42_playboy250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/42_playboy250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/42_playboy250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/42_playboy250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
+        <f aca="false">CONCATENATE(CONCATENATE(H42,C42,"_1.jpg;"),CONCATENATE(H42,C42,"_2.jpg;"),CONCATENATE(H42,C42,"_3.jpg;"),CONCATENATE(H42,C42,"_4.jpg;"),CONCATENATE(H42,C42,"_5.jpg;"),CONCATENATE(H42,C42,"_6.jpg;"),CONCATENATE(H42,C42,"_7.jpg;"),CONCATENATE(H42,"instruction_A4.jpg;"),CONCATENATE(H42,"Video_DTF.mp4;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/42_playboy250_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/42_playboy250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/42_playboy250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/42_playboy250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/42_playboy250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/42_playboy250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/42_playboy250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
       </c>
       <c r="AA42" s="0" t="str">
         <f aca="false">A42</f>
@@ -9822,7 +9457,8 @@
       </c>
       <c r="AV42" s="0" t="str">
         <f aca="false">S42</f>
-        <v>Термонаклейка Play Boy губы обложка губы марка. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
+        <v>Термонаклейка Play Boy губы обложка губы марка - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Punkey Monkey!
+</v>
       </c>
       <c r="AX42" s="15" t="str">
         <f aca="false">X42</f>
@@ -9904,8 +9540,9 @@
         <v>77</v>
       </c>
       <c r="S43" s="7" t="str">
-        <f aca="false">CONCATENATE(A43,". Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. ")</f>
-        <v>Термонаклейка Змеи Змея на розовом фоне паттерн. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
+        <f aca="false">A43&amp;Описание!B43</f>
+        <v>Термонаклейка Змеи Змея на розовом фоне паттерн - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Punkey Monkey!
+</v>
       </c>
       <c r="T43" s="0" t="n">
         <v>1</v>
@@ -9923,8 +9560,8 @@
         <v>78</v>
       </c>
       <c r="Y43" s="8" t="str">
-        <f aca="false">CONCATENATE(CONCATENATE(H43,C43,"_1.jpg;"),CONCATENATE(H43,C43,"_2.jpg;"),CONCATENATE(H43,C43,"_3.jpg;"),CONCATENATE(H43,C43,"_4.jpg;"),CONCATENATE(H43,C43,"_5.jpg;"),CONCATENATE(H43,C43,"_6.jpg;"),CONCATENATE(H43,C43,"_7.jpg;"),CONCATENATE(H43,C43,"_8.jpg;"),CONCATENATE(H43,C43,"_9.jpg;"),CONCATENATE(H43,C43,"_10.jpg;"),CONCATENATE(H43,"instruction_A4.jpg;"),CONCATENATE(H43,"Video_DTF.mp4;"))</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/43_snake250_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/43_snake250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/43_snake250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/43_snake250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/43_snake250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/43_snake250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/43_snake250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/43_snake250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/43_snake250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/43_snake250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
+        <f aca="false">CONCATENATE(CONCATENATE(H43,C43,"_1.jpg;"),CONCATENATE(H43,C43,"_2.jpg;"),CONCATENATE(H43,C43,"_3.jpg;"),CONCATENATE(H43,C43,"_4.jpg;"),CONCATENATE(H43,C43,"_5.jpg;"),CONCATENATE(H43,C43,"_6.jpg;"),CONCATENATE(H43,C43,"_7.jpg;"),CONCATENATE(H43,"instruction_A4.jpg;"),CONCATENATE(H43,"Video_DTF.mp4;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/43_snake250_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/43_snake250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/43_snake250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/43_snake250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/43_snake250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/43_snake250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/43_snake250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
       </c>
       <c r="AA43" s="0" t="str">
         <f aca="false">A43</f>
@@ -9984,7 +9621,8 @@
       </c>
       <c r="AV43" s="0" t="str">
         <f aca="false">S43</f>
-        <v>Термонаклейка Змеи Змея на розовом фоне паттерн. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
+        <v>Термонаклейка Змеи Змея на розовом фоне паттерн - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Punkey Monkey!
+</v>
       </c>
       <c r="AX43" s="15" t="str">
         <f aca="false">X43</f>
@@ -10066,8 +9704,9 @@
         <v>77</v>
       </c>
       <c r="S44" s="7" t="str">
-        <f aca="false">CONCATENATE(A44,". Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. ")</f>
-        <v>Термонаклейка Солнце Цветок в ретро. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
+        <f aca="false">A44&amp;Описание!B44</f>
+        <v>Термонаклейка Солнце Цветок в ретро - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Punkey Monkey!
+</v>
       </c>
       <c r="T44" s="0" t="n">
         <v>1</v>
@@ -10085,8 +9724,8 @@
         <v>78</v>
       </c>
       <c r="Y44" s="8" t="str">
-        <f aca="false">CONCATENATE(CONCATENATE(H44,C44,"_1.jpg;"),CONCATENATE(H44,C44,"_2.jpg;"),CONCATENATE(H44,C44,"_3.jpg;"),CONCATENATE(H44,C44,"_4.jpg;"),CONCATENATE(H44,C44,"_5.jpg;"),CONCATENATE(H44,C44,"_6.jpg;"),CONCATENATE(H44,C44,"_7.jpg;"),CONCATENATE(H44,C44,"_8.jpg;"),CONCATENATE(H44,C44,"_9.jpg;"),CONCATENATE(H44,C44,"_10.jpg;"),CONCATENATE(H44,"instruction_A4.jpg;"),CONCATENATE(H44,"Video_DTF.mp4;"))</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/44_sun1_250_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/44_sun1_250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/44_sun1_250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/44_sun1_250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/44_sun1_250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/44_sun1_250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/44_sun1_250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/44_sun1_250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/44_sun1_250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/44_sun1_250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
+        <f aca="false">CONCATENATE(CONCATENATE(H44,C44,"_1.jpg;"),CONCATENATE(H44,C44,"_2.jpg;"),CONCATENATE(H44,C44,"_3.jpg;"),CONCATENATE(H44,C44,"_4.jpg;"),CONCATENATE(H44,C44,"_5.jpg;"),CONCATENATE(H44,C44,"_6.jpg;"),CONCATENATE(H44,C44,"_7.jpg;"),CONCATENATE(H44,"instruction_A4.jpg;"),CONCATENATE(H44,"Video_DTF.mp4;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/44_sun1_250_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/44_sun1_250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/44_sun1_250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/44_sun1_250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/44_sun1_250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/44_sun1_250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/44_sun1_250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
       </c>
       <c r="AA44" s="0" t="str">
         <f aca="false">A44</f>
@@ -10146,7 +9785,8 @@
       </c>
       <c r="AV44" s="0" t="str">
         <f aca="false">S44</f>
-        <v>Термонаклейка Солнце Цветок в ретро. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
+        <v>Термонаклейка Солнце Цветок в ретро - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Punkey Monkey!
+</v>
       </c>
       <c r="AX44" s="15" t="str">
         <f aca="false">X44</f>
@@ -10228,8 +9868,9 @@
         <v>77</v>
       </c>
       <c r="S45" s="7" t="str">
-        <f aca="false">CONCATENATE(A45,". Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. ")</f>
-        <v>Термонаклейка Тигр розовый крупный план. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
+        <f aca="false">A45&amp;Описание!B45</f>
+        <v>Термонаклейка Тигр розовый крупный план - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Punkey Monkey!
+</v>
       </c>
       <c r="T45" s="0" t="n">
         <v>1</v>
@@ -10247,8 +9888,8 @@
         <v>78</v>
       </c>
       <c r="Y45" s="8" t="str">
-        <f aca="false">CONCATENATE(CONCATENATE(H45,C45,"_1.jpg;"),CONCATENATE(H45,C45,"_2.jpg;"),CONCATENATE(H45,C45,"_3.jpg;"),CONCATENATE(H45,C45,"_4.jpg;"),CONCATENATE(H45,C45,"_5.jpg;"),CONCATENATE(H45,C45,"_6.jpg;"),CONCATENATE(H45,C45,"_7.jpg;"),CONCATENATE(H45,C45,"_8.jpg;"),CONCATENATE(H45,C45,"_9.jpg;"),CONCATENATE(H45,C45,"_10.jpg;"),CONCATENATE(H45,"instruction_A4.jpg;"),CONCATENATE(H45,"Video_DTF.mp4;"))</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/45_tiger_face_260_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/45_tiger_face_260_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/45_tiger_face_260_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/45_tiger_face_260_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/45_tiger_face_260_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/45_tiger_face_260_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/45_tiger_face_260_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/45_tiger_face_260_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/45_tiger_face_260_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/45_tiger_face_260_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
+        <f aca="false">CONCATENATE(CONCATENATE(H45,C45,"_1.jpg;"),CONCATENATE(H45,C45,"_2.jpg;"),CONCATENATE(H45,C45,"_3.jpg;"),CONCATENATE(H45,C45,"_4.jpg;"),CONCATENATE(H45,C45,"_5.jpg;"),CONCATENATE(H45,C45,"_6.jpg;"),CONCATENATE(H45,C45,"_7.jpg;"),CONCATENATE(H45,"instruction_A4.jpg;"),CONCATENATE(H45,"Video_DTF.mp4;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/45_tiger_face_260_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/45_tiger_face_260_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/45_tiger_face_260_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/45_tiger_face_260_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/45_tiger_face_260_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/45_tiger_face_260_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/45_tiger_face_260_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
       </c>
       <c r="AA45" s="0" t="str">
         <f aca="false">A45</f>
@@ -10308,7 +9949,8 @@
       </c>
       <c r="AV45" s="0" t="str">
         <f aca="false">S45</f>
-        <v>Термонаклейка Тигр розовый крупный план. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
+        <v>Термонаклейка Тигр розовый крупный план - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Punkey Monkey!
+</v>
       </c>
       <c r="AX45" s="15" t="str">
         <f aca="false">X45</f>
@@ -10390,8 +10032,9 @@
         <v>77</v>
       </c>
       <c r="S46" s="7" t="str">
-        <f aca="false">CONCATENATE(A46,". Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. ")</f>
-        <v>Термонаклейка Леопард розовый крупный план. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
+        <f aca="false">A46&amp;Описание!B46</f>
+        <v>Термонаклейка Леопард розовый крупный план - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Punkey Monkey!
+</v>
       </c>
       <c r="T46" s="0" t="n">
         <v>1</v>
@@ -10409,8 +10052,8 @@
         <v>78</v>
       </c>
       <c r="Y46" s="8" t="str">
-        <f aca="false">CONCATENATE(CONCATENATE(H46,C46,"_1.jpg;"),CONCATENATE(H46,C46,"_2.jpg;"),CONCATENATE(H46,C46,"_3.jpg;"),CONCATENATE(H46,C46,"_4.jpg;"),CONCATENATE(H46,C46,"_5.jpg;"),CONCATENATE(H46,C46,"_6.jpg;"),CONCATENATE(H46,C46,"_7.jpg;"),CONCATENATE(H46,C46,"_8.jpg;"),CONCATENATE(H46,C46,"_9.jpg;"),CONCATENATE(H46,C46,"_10.jpg;"),CONCATENATE(H46,"instruction_A4.jpg;"),CONCATENATE(H46,"Video_DTF.mp4;"))</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/46_tiger_pink250_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/46_tiger_pink250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/46_tiger_pink250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/46_tiger_pink250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/46_tiger_pink250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/46_tiger_pink250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/46_tiger_pink250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/46_tiger_pink250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/46_tiger_pink250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/46_tiger_pink250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
+        <f aca="false">CONCATENATE(CONCATENATE(H46,C46,"_1.jpg;"),CONCATENATE(H46,C46,"_2.jpg;"),CONCATENATE(H46,C46,"_3.jpg;"),CONCATENATE(H46,C46,"_4.jpg;"),CONCATENATE(H46,C46,"_5.jpg;"),CONCATENATE(H46,C46,"_6.jpg;"),CONCATENATE(H46,C46,"_7.jpg;"),CONCATENATE(H46,"instruction_A4.jpg;"),CONCATENATE(H46,"Video_DTF.mp4;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/46_tiger_pink250_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/46_tiger_pink250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/46_tiger_pink250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/46_tiger_pink250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/46_tiger_pink250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/46_tiger_pink250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/46_tiger_pink250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
       </c>
       <c r="AA46" s="0" t="str">
         <f aca="false">A46</f>
@@ -10470,7 +10113,8 @@
       </c>
       <c r="AV46" s="0" t="str">
         <f aca="false">S46</f>
-        <v>Термонаклейка Леопард розовый крупный план. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
+        <v>Термонаклейка Леопард розовый крупный план - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Punkey Monkey!
+</v>
       </c>
       <c r="AX46" s="15" t="str">
         <f aca="false">X46</f>
@@ -10552,8 +10196,9 @@
         <v>77</v>
       </c>
       <c r="S47" s="7" t="str">
-        <f aca="false">CONCATENATE(A47,". Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. ")</f>
-        <v>Термонаклейка Кит в море картина маслом. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
+        <f aca="false">A47&amp;Описание!B47</f>
+        <v>Термонаклейка Кит в море картина маслом - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Punkey Monkey!
+</v>
       </c>
       <c r="T47" s="0" t="n">
         <v>1</v>
@@ -10571,8 +10216,8 @@
         <v>78</v>
       </c>
       <c r="Y47" s="8" t="str">
-        <f aca="false">CONCATENATE(CONCATENATE(H47,C47,"_1.jpg;"),CONCATENATE(H47,C47,"_2.jpg;"),CONCATENATE(H47,C47,"_3.jpg;"),CONCATENATE(H47,C47,"_4.jpg;"),CONCATENATE(H47,C47,"_5.jpg;"),CONCATENATE(H47,C47,"_6.jpg;"),CONCATENATE(H47,C47,"_7.jpg;"),CONCATENATE(H47,C47,"_8.jpg;"),CONCATENATE(H47,C47,"_9.jpg;"),CONCATENATE(H47,C47,"_10.jpg;"),CONCATENATE(H47,"instruction_A4.jpg;"),CONCATENATE(H47,"Video_DTF.mp4;"))</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/47_whale_226_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/47_whale_226_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/47_whale_226_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/47_whale_226_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/47_whale_226_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/47_whale_226_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/47_whale_226_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/47_whale_226_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/47_whale_226_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/47_whale_226_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
+        <f aca="false">CONCATENATE(CONCATENATE(H47,C47,"_1.jpg;"),CONCATENATE(H47,C47,"_2.jpg;"),CONCATENATE(H47,C47,"_3.jpg;"),CONCATENATE(H47,C47,"_4.jpg;"),CONCATENATE(H47,C47,"_5.jpg;"),CONCATENATE(H47,C47,"_6.jpg;"),CONCATENATE(H47,C47,"_7.jpg;"),CONCATENATE(H47,"instruction_A4.jpg;"),CONCATENATE(H47,"Video_DTF.mp4;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/47_whale_226_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/47_whale_226_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/47_whale_226_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/47_whale_226_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/47_whale_226_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/47_whale_226_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/47_whale_226_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
       </c>
       <c r="AA47" s="0" t="str">
         <f aca="false">A47</f>
@@ -10632,7 +10277,8 @@
       </c>
       <c r="AV47" s="0" t="str">
         <f aca="false">S47</f>
-        <v>Термонаклейка Кит в море картина маслом. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
+        <v>Термонаклейка Кит в море картина маслом - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Punkey Monkey!
+</v>
       </c>
       <c r="AX47" s="15" t="str">
         <f aca="false">X47</f>
@@ -10714,8 +10360,9 @@
         <v>77</v>
       </c>
       <c r="S48" s="7" t="str">
-        <f aca="false">CONCATENATE(A48,". Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. ")</f>
-        <v>Термонаклейка Бокал красного вина сердце. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
+        <f aca="false">A48&amp;Описание!B48</f>
+        <v>Термонаклейка Бокал красного вина сердце - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Punkey Monkey!
+</v>
       </c>
       <c r="T48" s="0" t="n">
         <v>1</v>
@@ -10733,8 +10380,8 @@
         <v>78</v>
       </c>
       <c r="Y48" s="8" t="str">
-        <f aca="false">CONCATENATE(CONCATENATE(H48,C48,"_1.jpg;"),CONCATENATE(H48,C48,"_2.jpg;"),CONCATENATE(H48,C48,"_3.jpg;"),CONCATENATE(H48,C48,"_4.jpg;"),CONCATENATE(H48,C48,"_5.jpg;"),CONCATENATE(H48,C48,"_6.jpg;"),CONCATENATE(H48,C48,"_7.jpg;"),CONCATENATE(H48,C48,"_8.jpg;"),CONCATENATE(H48,C48,"_9.jpg;"),CONCATENATE(H48,C48,"_10.jpg;"),CONCATENATE(H48,"instruction_A4.jpg;"),CONCATENATE(H48,"Video_DTF.mp4;"))</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/48_wine250_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/48_wine250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/48_wine250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/48_wine250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/48_wine250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/48_wine250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/48_wine250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/48_wine250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/48_wine250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/48_wine250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
+        <f aca="false">CONCATENATE(CONCATENATE(H48,C48,"_1.jpg;"),CONCATENATE(H48,C48,"_2.jpg;"),CONCATENATE(H48,C48,"_3.jpg;"),CONCATENATE(H48,C48,"_4.jpg;"),CONCATENATE(H48,C48,"_5.jpg;"),CONCATENATE(H48,C48,"_6.jpg;"),CONCATENATE(H48,C48,"_7.jpg;"),CONCATENATE(H48,"instruction_A4.jpg;"),CONCATENATE(H48,"Video_DTF.mp4;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/48_wine250_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/48_wine250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/48_wine250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/48_wine250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/48_wine250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/48_wine250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/48_wine250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
       </c>
       <c r="AA48" s="0" t="str">
         <f aca="false">A48</f>
@@ -10794,7 +10441,8 @@
       </c>
       <c r="AV48" s="0" t="str">
         <f aca="false">S48</f>
-        <v>Термонаклейка Бокал красного вина сердце. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
+        <v>Термонаклейка Бокал красного вина сердце - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Punkey Monkey!
+</v>
       </c>
       <c r="AX48" s="15" t="str">
         <f aca="false">X48</f>
@@ -10876,8 +10524,9 @@
         <v>77</v>
       </c>
       <c r="S49" s="7" t="str">
-        <f aca="false">CONCATENATE(A49,". Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. ")</f>
-        <v>Термонаклейка Джокер поп арт Joker. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
+        <f aca="false">A49&amp;Описание!B49</f>
+        <v>Термонаклейка Джокер поп арт Joker - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Punkey Monkey!
+</v>
       </c>
       <c r="T49" s="0" t="n">
         <v>1</v>
@@ -10895,8 +10544,8 @@
         <v>78</v>
       </c>
       <c r="Y49" s="8" t="str">
-        <f aca="false">CONCATENATE(CONCATENATE(H49,C49,"_1.jpg;"),CONCATENATE(H49,C49,"_2.jpg;"),CONCATENATE(H49,C49,"_3.jpg;"),CONCATENATE(H49,C49,"_4.jpg;"),CONCATENATE(H49,C49,"_5.jpg;"),CONCATENATE(H49,C49,"_6.jpg;"),CONCATENATE(H49,C49,"_7.jpg;"),CONCATENATE(H49,C49,"_8.jpg;"),CONCATENATE(H49,C49,"_9.jpg;"),CONCATENATE(H49,C49,"_10.jpg;"),CONCATENATE(H49,"instruction_A4.jpg;"),CONCATENATE(H49,"Video_DTF.mp4;"))</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/49_ZEE_Why_So_Serious_250_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/49_ZEE_Why_So_Serious_250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/49_ZEE_Why_So_Serious_250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/49_ZEE_Why_So_Serious_250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/49_ZEE_Why_So_Serious_250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/49_ZEE_Why_So_Serious_250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/49_ZEE_Why_So_Serious_250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/49_ZEE_Why_So_Serious_250_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/49_ZEE_Why_So_Serious_250_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/49_ZEE_Why_So_Serious_250_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
+        <f aca="false">CONCATENATE(CONCATENATE(H49,C49,"_1.jpg;"),CONCATENATE(H49,C49,"_2.jpg;"),CONCATENATE(H49,C49,"_3.jpg;"),CONCATENATE(H49,C49,"_4.jpg;"),CONCATENATE(H49,C49,"_5.jpg;"),CONCATENATE(H49,C49,"_6.jpg;"),CONCATENATE(H49,C49,"_7.jpg;"),CONCATENATE(H49,"instruction_A4.jpg;"),CONCATENATE(H49,"Video_DTF.mp4;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/49_ZEE_Why_So_Serious_250_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/49_ZEE_Why_So_Serious_250_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/49_ZEE_Why_So_Serious_250_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/49_ZEE_Why_So_Serious_250_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/49_ZEE_Why_So_Serious_250_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/49_ZEE_Why_So_Serious_250_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/49_ZEE_Why_So_Serious_250_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
       </c>
       <c r="AA49" s="0" t="str">
         <f aca="false">A49</f>
@@ -10956,7 +10605,8 @@
       </c>
       <c r="AV49" s="0" t="str">
         <f aca="false">S49</f>
-        <v>Термонаклейка Джокер поп арт Joker. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
+        <v>Термонаклейка Джокер поп арт Joker - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Punkey Monkey!
+</v>
       </c>
       <c r="AX49" s="15" t="str">
         <f aca="false">X49</f>
@@ -11038,8 +10688,9 @@
         <v>77</v>
       </c>
       <c r="S50" s="7" t="str">
-        <f aca="false">CONCATENATE(A50,". Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. ")</f>
-        <v>Термонаклейка Одри Хепбёрн поп арт. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
+        <f aca="false">A50&amp;Описание!B50</f>
+        <v>Термонаклейка Одри Хепбёрн поп арт - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Punkey Monkey!
+</v>
       </c>
       <c r="T50" s="0" t="n">
         <v>1</v>
@@ -11057,8 +10708,8 @@
         <v>78</v>
       </c>
       <c r="Y50" s="8" t="str">
-        <f aca="false">CONCATENATE(CONCATENATE(H50,C50,"_1.jpg;"),CONCATENATE(H50,C50,"_2.jpg;"),CONCATENATE(H50,C50,"_3.jpg;"),CONCATENATE(H50,C50,"_4.jpg;"),CONCATENATE(H50,C50,"_5.jpg;"),CONCATENATE(H50,C50,"_6.jpg;"),CONCATENATE(H50,C50,"_7.jpg;"),CONCATENATE(H50,C50,"_8.jpg;"),CONCATENATE(H50,C50,"_9.jpg;"),CONCATENATE(H50,C50,"_10.jpg;"),CONCATENATE(H50,"instruction_A4.jpg;"),CONCATENATE(H50,"Video_DTF.mp4;"))</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/50_Audrey Hepburn_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/50_Audrey Hepburn_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/50_Audrey Hepburn_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/50_Audrey Hepburn_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/50_Audrey Hepburn_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/50_Audrey Hepburn_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/50_Audrey Hepburn_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/50_Audrey Hepburn_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/50_Audrey Hepburn_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/50_Audrey Hepburn_10.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
+        <f aca="false">CONCATENATE(CONCATENATE(H50,C50,"_1.jpg;"),CONCATENATE(H50,C50,"_2.jpg;"),CONCATENATE(H50,C50,"_3.jpg;"),CONCATENATE(H50,C50,"_4.jpg;"),CONCATENATE(H50,C50,"_5.jpg;"),CONCATENATE(H50,C50,"_6.jpg;"),CONCATENATE(H50,C50,"_7.jpg;"),CONCATENATE(H50,"instruction_A4.jpg;"),CONCATENATE(H50,"Video_DTF.mp4;"))</f>
+        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/50_Audrey Hepburn_1.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/50_Audrey Hepburn_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/50_Audrey Hepburn_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/50_Audrey Hepburn_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/50_Audrey Hepburn_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/50_Audrey Hepburn_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/50_Audrey Hepburn_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/instruction_A4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/Video_DTF.mp4;</v>
       </c>
       <c r="AA50" s="0" t="str">
         <f aca="false">A50</f>
@@ -11118,7 +10769,8 @@
       </c>
       <c r="AV50" s="0" t="str">
         <f aca="false">S50</f>
-        <v>Термонаклейка Одри Хепбёрн поп арт. Видео инструкция в карточке товара, так же прилагается в напечатанном виде к товару.  Термонаклейка на одежду. приклеивается на любую ткань. выдерживают многократную стирку. бережная стирка при 30º градусах.  Термонаклейка на одежду - это вид декоративной наклейки для одежды и аксессуаров. Эта самоклеящаяся наклейка на одежду очень удобная в использовании и долговечная. Переноси готовые термоаппликации на футболки, майку, худи или сумки шопперы, бейсболку кепку или куртки, пуховики, метод DTF печать. Так же термонаклейку можно переносить на рюкзаки или сумки, джинсы, на изделия из трикотажа, кожи. Термонаклейка  идеально подходит для детской и взрослой одежды. все делается очень просто и быстро с помощью горячего утюга, Видео инструкцией и приложенной инструкцией! Термотрансферные наклейки для одежды - простой способ замаскировать мелкие деффекты, вроде пятен, используя наклейку в качестве заплатки. </v>
+        <v>Термонаклейка Одри Хепбёрн поп арт - изумительный принт к вашей одежде и аксессуарам. Эта инновационная наклейка легко наносится на любую ткань. Долговечность даже после многократных стирок при бережной температуре до 30ºC. Прилагаемая к товару видеоинструкция и напечатанное руководство делают процесс нанесения максимально простым и понятным даже для новичков. Вы с легкостью сможете создать уникальный образ и выделиться из толпы, используя нашу термонаклейку. С помощью нашей DTF термонаклейки вы сможете быстро и легко создать уникальную одежду и аксессуары, придавая им неповторимый стиль и индивидуальность. Независимо от того, хотите ли вы украсить футболку, худи, сумку или другие вещи, эта наклейка станет отличным выбором. Благодаря своей высококачественной основе и индивидуальной проверки каждого принта, наша термонаклейка сохраняет яркий и насыщенный цвет даже после длительного использования. Вам не нужно беспокоиться о потере качества или отслоении декора – наша наклейка гарантирует долговечность и стойкость. Таким образом, термонаклейка не только добавит стиль и оригинальность вашей одежде, но и станет надежным аксессуаром, который прослужит вам долгие годы, сохраняя свой привлекательный вид. Не упустите возможность обновить свой гардероб с нашим продуктом и наслаждаться его красотой каждый день! С уважением Punkey Monkey!
+</v>
       </c>
       <c r="AX50" s="15" t="str">
         <f aca="false">X50</f>
@@ -11188,194 +10840,189 @@
     <row r="64" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="20"/>
     </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="20"/>
     </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="20"/>
     </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="20"/>
     </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="20"/>
     </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="20"/>
     </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="20"/>
     </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="20"/>
     </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="20"/>
     </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="20"/>
     </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="20"/>
     </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="20"/>
     </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="20"/>
     </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="20"/>
     </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="20"/>
     </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="20"/>
     </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="20"/>
     </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="20"/>
     </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="20"/>
     </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="20"/>
     </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="20"/>
     </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="20"/>
     </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="20"/>
     </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="20"/>
     </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="20"/>
     </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="20"/>
     </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="20"/>
     </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="20"/>
     </row>
-    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="20"/>
     </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="20"/>
     </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="20"/>
     </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="20"/>
     </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="20"/>
     </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="20"/>
     </row>
-    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="20"/>
     </row>
-    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="20"/>
     </row>
-    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="20"/>
     </row>
-    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="20"/>
     </row>
-    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="20"/>
     </row>
-    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="20"/>
     </row>
-    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="20"/>
     </row>
-    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="20"/>
     </row>
-    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="20"/>
     </row>
-    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="20"/>
     </row>
-    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="20"/>
     </row>
-    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="20"/>
     </row>
-    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="20"/>
     </row>
-    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="20"/>
     </row>
-    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="20"/>
     </row>
-    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="20"/>
     </row>
-    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="20"/>
     </row>
-    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="20"/>
     </row>
-    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="20"/>
     </row>
-    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="20"/>
     </row>
-    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="20"/>
     </row>
-    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="20"/>
     </row>
-    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="20"/>
     </row>
-    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="20"/>
     </row>
-    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="20"/>
     </row>
-    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="20"/>
     </row>
-    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="20"/>
     </row>
-    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="20"/>
     </row>
-    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <conditionalFormatting sqref="A2">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
@@ -11464,140 +11111,444 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:B82"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q2" activeCellId="1" sqref="S2:S3 Q2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="113.37"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="C2" s="0" t="s">
+    <row r="1" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="2" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
         <v>228</v>
       </c>
-      <c r="D2" s="0" t="str">
-        <f aca="false">CONCATENATE(Лист1!H2,Лист1!C2,"_1.jpg")</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_1.jpg</v>
-      </c>
-      <c r="E2" s="0" t="str">
-        <f aca="false">CONCATENATE(CONCATENATE(Лист1!H2,Лист1!C2,"_2.jpg;"),CONCATENATE(Лист1!H2,Лист1!C2,"_3.jpg;"),CONCATENATE(Лист1!H2,Лист1!C2,"_4.jpg;"),CONCATENATE(Лист1!H2,Лист1!C2,"_5.jpg;"),CONCATENATE(Лист1!H2,Лист1!C2,"_6.jpg;"),CONCATENATE(Лист1!H2,Лист1!C2,"_7.jpg;"),CONCATENATE(Лист1!H2,Лист1!C2,"_8.jpg;"),CONCATENATE(Лист1!H2,Лист1!C2,"_9.jpg;"),CONCATENATE(Лист1!H2,Лист1!C2,"_10.jpg;"))</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_2.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_3.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_4.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_5.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_6.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_7.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_8.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_9.jpg;https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_10.jpg;</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="G2" s="0" t="s">
+      <c r="B2" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="H2" s="0" t="str">
-        <f aca="false">SUBSTITUTE(Лист1!A2,"Термонаклейка ","")</f>
-        <v>Девушка волосы облако</v>
-      </c>
-      <c r="I2" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="J2" s="0" t="str">
-        <f aca="false">CONCATENATE(Лист1!A2,". Наши термонаклейки для одежды помогут сделать любую вещь уникальной и неповторимой! Вам понадобится только горячий утюг, декор для одежды, инструкция и пара минут. Принт яркий, сочный и стойкий к износу и стирке. Термотрансферы хорошо тянутся, не трескаются и не отклеиваются при стирке. Термоаппликация - это оригинальный способ украсить или пометить новую одежду, спрятать пятна, мелкие дефекты и повреждения. Легко клеится обычным утюгом и подходит для большинства типов тканей. Наши аппликации можно наносить как на натуральный, синтетический, так и смесовый текстиль, хлопок, джинсу, кожу, экокожу. Все наклейки для одежды изготовлены из современного качественного материала. Мы гарантируем отличное приклеивание принта на однотонные или цветные ткани.Наклейки очень просты в применении: нужно просто вырезать наклейку (если используете только часть рисунка), приложить к ткани и пройти утюгом.Главное сделать все по инструкции, которая прилагается в каждом наборе, ничего сложного в переносе нет, красотища! По все")</f>
-        <v>Термонаклейка Девушка волосы облако. Наши термонаклейки для одежды помогут сделать любую вещь уникальной и неповторимой! Вам понадобится только горячий утюг, декор для одежды, инструкция и пара минут. Принт яркий, сочный и стойкий к износу и стирке. Термотрансферы хорошо тянутся, не трескаются и не отклеиваются при стирке. Термоаппликация - это оригинальный способ украсить или пометить новую одежду, спрятать пятна, мелкие дефекты и повреждения. Легко клеится обычным утюгом и подходит для большинства типов тканей. Наши аппликации можно наносить как на натуральный, синтетический, так и смесовый текстиль, хлопок, джинсу, кожу, экокожу. Все наклейки для одежды изготовлены из современного качественного материала. Мы гарантируем отличное приклеивание принта на однотонные или цветные ткани.Наклейки очень просты в применении: нужно просто вырезать наклейку (если используете только часть рисунка), приложить к ткани и пройти утюгом.Главное сделать все по инструкции, которая прилагается в каждом наборе, ничего сложного в переносе нет, красотища! По все</v>
-      </c>
-      <c r="K2" s="8" t="str">
-        <f aca="false">CONCATENATE(Лист1!H2,Лист1!C2,"_color.jpg")</f>
-        <v>https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/images/А4/1_girl_with_cloud_hair_color.jpg</v>
-      </c>
-      <c r="L2" s="13" t="str">
-        <f aca="false">CONCATENATE("термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля,",SUBSTITUTE(Лист1!A2,"Термонаклейка",""))</f>
-        <v>термонаклейка для одежды, термотрансфер, заплатка, принт, наклейка для декора одежды и других предметов из текстиля, Девушка волосы облако</v>
-      </c>
-      <c r="M2" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="N2" s="0" t="n">
-        <v>180</v>
-      </c>
-      <c r="O2" s="0" t="n">
-        <v>210</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q2" s="17" t="s">
-        <v>230</v>
-      </c>
-    </row>
+    </row>
+    <row r="3" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="52" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="53" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="54" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="55" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="56" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="57" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="58" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="59" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="60" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="61" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="62" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="63" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="64" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="65" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="66" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="67" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="68" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="69" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="70" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="72" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="73" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="74" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="75" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="76" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="77" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="78" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="79" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="80" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="81" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="82" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation allowBlank="false" error="Выберите значение из списка" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B2" type="list">
-      <formula1>#name?</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" error="Выберите значение из списка" errorTitle="Ошибка" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I2" type="list">
-      <formula1>#name?</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-  </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="Q2" r:id="rId2" display="https://raw.githubusercontent.com/maxuzkikh/Ozon_upload/main/Video_DTF.mp4"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -11605,6 +11556,5 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/create cards for OZON WB XLS/Data_to_create.xlsx
+++ b/create cards for OZON WB XLS/Data_to_create.xlsx
@@ -2497,8 +2497,8 @@
   </sheetPr>
   <dimension ref="A1:BS125"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="U41" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="W54" activeCellId="0" sqref="W54"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8545,9 +8545,9 @@
         <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(A37, "Термонаклейка", "")</f>
         <v>Термонаклейка для одежды: надпись love любовь 3 раза</v>
       </c>
-      <c r="P37" s="0" t="n">
-        <f aca="false">B52</f>
-        <v>0</v>
+      <c r="P37" s="0" t="str">
+        <f aca="false">B37</f>
+        <v>OZN1425250722</v>
       </c>
       <c r="Q37" s="0" t="n">
         <v>285</v>
@@ -8873,9 +8873,9 @@
         <f aca="false">"Термонаклейка для одежды:" &amp; SUBSTITUTE(A39, "Термонаклейка", "")</f>
         <v>Термонаклейка для одежды: Мэрилин Монро Supreme Суприм глаза</v>
       </c>
-      <c r="P39" s="0" t="n">
-        <f aca="false">B52</f>
-        <v>0</v>
+      <c r="P39" s="0" t="str">
+        <f aca="false">B39</f>
+        <v>OZN1425250650</v>
       </c>
       <c r="Q39" s="0" t="n">
         <v>285</v>
